--- a/PricerAndQutation/OptionPricer_v2_20180606.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180606.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="270">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -972,6 +972,38 @@
   </si>
   <si>
     <t>bu1812</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1809</t>
+  </si>
+  <si>
+    <t>p1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800|4990</t>
+  </si>
+  <si>
+    <t>4700|4990</t>
+  </si>
+  <si>
+    <t>rr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1901</t>
+  </si>
+  <si>
+    <t>c1901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1757,6 +1789,12 @@
     <xf numFmtId="14" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1766,22 +1804,22 @@
     <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,12 +1827,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1831,14 +1863,22 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>3282</v>
+        <v>4976</v>
+        <stp/>
+        <stp>p1809</stp>
+        <stp>LastPrice</stp>
+        <tr r="P26" s="9"/>
+        <tr r="P29" s="9"/>
+      </tp>
+      <tp>
+        <v>3192</v>
         <stp/>
         <stp>bu1812</stp>
         <stp>LastPrice</stp>
         <tr r="P49" s="1"/>
       </tp>
       <tp>
-        <v>15065</v>
+        <v>14985</v>
         <stp/>
         <stp>al1809</stp>
         <stp>LastPrice</stp>
@@ -1846,7 +1886,7 @@
         <tr r="P15" s="1"/>
       </tp>
       <tp>
-        <v>14990</v>
+        <v>14910</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
@@ -1855,7 +1895,7 @@
         <tr r="P13" s="1"/>
       </tp>
       <tp>
-        <v>467.5</v>
+        <v>467</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
@@ -1863,8 +1903,8 @@
         <tr r="P20" s="1"/>
         <tr r="P19" s="1"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp>
+        <v>8657</v>
         <stp/>
         <stp>ap810</stp>
         <stp>LastPrice</stp>
@@ -1872,29 +1912,27 @@
         <tr r="P23" s="1"/>
       </tp>
       <tp>
-        <v>2957</v>
+        <v>2893</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
         <tr r="P21" s="9"/>
         <tr r="P18" s="9"/>
-        <tr r="P26" s="9"/>
-        <tr r="P29" s="9"/>
       </tp>
       <tp>
-        <v>3798</v>
+        <v>3806</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="9"/>
       </tp>
-      <tp t="b">
-        <v>0</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2189,10 +2227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AJ47"/>
+  <dimension ref="B1:AJ52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -4410,6 +4448,253 @@
         <v>-1</v>
       </c>
       <c r="R47" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B48" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N48" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O48" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B49" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="93">
+        <v>43259</v>
+      </c>
+      <c r="E49" s="93">
+        <v>43289</v>
+      </c>
+      <c r="F49" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="92">
+        <v>30</v>
+      </c>
+      <c r="H49" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92">
+        <v>-75.037597099661866</v>
+      </c>
+      <c r="L49" s="92">
+        <v>0</v>
+      </c>
+      <c r="M49" s="92">
+        <v>0</v>
+      </c>
+      <c r="N49" s="99">
+        <v>75.880366861716993</v>
+      </c>
+      <c r="O49" s="92">
+        <v>4978</v>
+      </c>
+      <c r="P49" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B50" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="93">
+        <v>43259</v>
+      </c>
+      <c r="E50" s="93">
+        <v>43289</v>
+      </c>
+      <c r="F50" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="G50" s="92">
+        <v>30</v>
+      </c>
+      <c r="H50" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92">
+        <v>-86.074815865016888</v>
+      </c>
+      <c r="L50" s="92">
+        <v>0</v>
+      </c>
+      <c r="M50" s="92">
+        <v>0</v>
+      </c>
+      <c r="N50" s="99">
+        <v>87.298306393556857</v>
+      </c>
+      <c r="O50" s="92">
+        <v>4978</v>
+      </c>
+      <c r="P50" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B51" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N51" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O51" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B52" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="93">
+        <v>43259</v>
+      </c>
+      <c r="E52" s="93">
+        <v>43381</v>
+      </c>
+      <c r="F52" s="92">
+        <v>100</v>
+      </c>
+      <c r="G52" s="92">
+        <v>122</v>
+      </c>
+      <c r="H52" s="92">
+        <v>0.33424657534246577</v>
+      </c>
+      <c r="I52" s="92">
+        <v>0</v>
+      </c>
+      <c r="J52" s="92">
+        <v>0.125</v>
+      </c>
+      <c r="K52" s="92">
+        <v>-2.8632273585665686</v>
+      </c>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92">
+        <v>0</v>
+      </c>
+      <c r="N52" s="99">
+        <v>2.8632273585665686</v>
+      </c>
+      <c r="O52" s="92">
+        <v>100</v>
+      </c>
+      <c r="P52" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q52" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R52" s="92" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4584,20 +4869,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -4609,32 +4894,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="24" t="e">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="24">
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="24" t="e">
         <f>O8+Q8</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S8" s="26" t="e">
         <f>R8/H8</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -4666,11 +4951,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -4736,11 +5021,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -5475,71 +5760,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="137"/>
+      <c r="C1" s="141"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="G3" s="142" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="G3" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="L3" s="138" t="s">
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="L3" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="Q3" s="142" t="s">
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="Q3" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="G4" s="139" t="s">
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="G4" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="L4" s="139" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="L4" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="Q4" s="139" t="s">
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="Q4" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="136" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="136"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="143"/>
       <c r="G5" s="136" t="s">
         <v>123</v>
       </c>
@@ -5564,252 +5849,252 @@
         <v>124</v>
       </c>
       <c r="C6" s="136"/>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="135"/>
+      <c r="E6" s="138"/>
       <c r="G6" s="136" t="s">
         <v>126</v>
       </c>
       <c r="H6" s="136"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
       <c r="L6" s="136" t="s">
         <v>124</v>
       </c>
       <c r="M6" s="136"/>
-      <c r="N6" s="134" t="s">
+      <c r="N6" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="135"/>
+      <c r="O6" s="138"/>
       <c r="Q6" s="136" t="s">
         <v>126</v>
       </c>
       <c r="R6" s="136"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="135"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="138"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="136" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="136"/>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="135"/>
+      <c r="E7" s="138"/>
       <c r="G7" s="136" t="s">
         <v>128</v>
       </c>
       <c r="H7" s="136"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
       <c r="L7" s="136" t="s">
         <v>127</v>
       </c>
       <c r="M7" s="136"/>
-      <c r="N7" s="134" t="s">
+      <c r="N7" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="135"/>
+      <c r="O7" s="138"/>
       <c r="Q7" s="136" t="s">
         <v>128</v>
       </c>
       <c r="R7" s="136"/>
-      <c r="S7" s="134"/>
-      <c r="T7" s="135"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="138"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="136" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="136"/>
-      <c r="D8" s="134">
+      <c r="D8" s="137">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="135"/>
+      <c r="E8" s="138"/>
       <c r="G8" s="136" t="s">
         <v>130</v>
       </c>
       <c r="H8" s="136"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
       <c r="L8" s="136" t="s">
         <v>129</v>
       </c>
       <c r="M8" s="136"/>
-      <c r="N8" s="134">
+      <c r="N8" s="137">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="135"/>
+      <c r="O8" s="138"/>
       <c r="Q8" s="136" t="s">
         <v>130</v>
       </c>
       <c r="R8" s="136"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="135"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="138"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="136" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="136"/>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="135"/>
+      <c r="E9" s="138"/>
       <c r="G9" s="136" t="s">
         <v>133</v>
       </c>
       <c r="H9" s="136"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
       <c r="L9" s="136" t="s">
         <v>131</v>
       </c>
       <c r="M9" s="136"/>
-      <c r="N9" s="134" t="s">
+      <c r="N9" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="135"/>
+      <c r="O9" s="138"/>
       <c r="Q9" s="136" t="s">
         <v>133</v>
       </c>
       <c r="R9" s="136"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="135"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="138"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="136" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="136"/>
-      <c r="D10" s="134">
+      <c r="D10" s="137">
         <v>43084</v>
       </c>
-      <c r="E10" s="135"/>
+      <c r="E10" s="138"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="138"/>
       <c r="L10" s="136" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="136"/>
-      <c r="N10" s="134">
+      <c r="N10" s="137">
         <v>43084</v>
       </c>
-      <c r="O10" s="135"/>
+      <c r="O10" s="138"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="135"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="138"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="136" t="s">
         <v>136</v>
       </c>
       <c r="C11" s="136"/>
-      <c r="D11" s="134">
+      <c r="D11" s="137">
         <v>3935</v>
       </c>
-      <c r="E11" s="135"/>
+      <c r="E11" s="138"/>
       <c r="G11" s="136" t="s">
         <v>137</v>
       </c>
       <c r="H11" s="136"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
       <c r="L11" s="136" t="s">
         <v>136</v>
       </c>
       <c r="M11" s="136"/>
-      <c r="N11" s="134">
+      <c r="N11" s="137">
         <v>3935</v>
       </c>
-      <c r="O11" s="135"/>
+      <c r="O11" s="138"/>
       <c r="Q11" s="136" t="s">
         <v>137</v>
       </c>
       <c r="R11" s="136"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="135"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="138"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="136" t="s">
         <v>138</v>
       </c>
       <c r="C12" s="136"/>
-      <c r="D12" s="134">
+      <c r="D12" s="137">
         <v>3800</v>
       </c>
-      <c r="E12" s="135"/>
+      <c r="E12" s="138"/>
       <c r="G12" s="136" t="s">
         <v>139</v>
       </c>
       <c r="H12" s="136"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138"/>
       <c r="L12" s="136" t="s">
         <v>163</v>
       </c>
       <c r="M12" s="136"/>
-      <c r="N12" s="134">
+      <c r="N12" s="137">
         <v>3800</v>
       </c>
-      <c r="O12" s="135"/>
+      <c r="O12" s="138"/>
       <c r="Q12" s="136" t="s">
         <v>167</v>
       </c>
       <c r="R12" s="136"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="135"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="138"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="136" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="136"/>
-      <c r="D13" s="134">
+      <c r="D13" s="137">
         <v>61</v>
       </c>
-      <c r="E13" s="135"/>
+      <c r="E13" s="138"/>
       <c r="G13" s="136" t="s">
         <v>141</v>
       </c>
       <c r="H13" s="136"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
       <c r="L13" s="136" t="s">
         <v>164</v>
       </c>
       <c r="M13" s="136"/>
-      <c r="N13" s="134">
+      <c r="N13" s="137">
         <v>3800</v>
       </c>
-      <c r="O13" s="135"/>
+      <c r="O13" s="138"/>
       <c r="Q13" s="136" t="s">
         <v>168</v>
       </c>
       <c r="R13" s="136"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="135"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="138"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="136" t="s">
         <v>142</v>
       </c>
       <c r="C14" s="136"/>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="135"/>
+      <c r="E14" s="138"/>
       <c r="G14" s="136" t="s">
         <v>144</v>
       </c>
@@ -5820,40 +6105,40 @@
         <v>140</v>
       </c>
       <c r="M14" s="136"/>
-      <c r="N14" s="134">
+      <c r="N14" s="137">
         <v>61</v>
       </c>
-      <c r="O14" s="135"/>
+      <c r="O14" s="138"/>
       <c r="Q14" s="136" t="s">
         <v>141</v>
       </c>
       <c r="R14" s="136"/>
-      <c r="S14" s="134"/>
-      <c r="T14" s="135"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="138"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="136" t="s">
         <v>145</v>
       </c>
       <c r="C15" s="136"/>
-      <c r="D15" s="134">
+      <c r="D15" s="137">
         <v>5000</v>
       </c>
-      <c r="E15" s="135"/>
+      <c r="E15" s="138"/>
       <c r="G15" s="136" t="s">
         <v>146</v>
       </c>
       <c r="H15" s="136"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="138"/>
       <c r="L15" s="136" t="s">
         <v>142</v>
       </c>
       <c r="M15" s="136"/>
-      <c r="N15" s="134" t="s">
+      <c r="N15" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="135"/>
+      <c r="O15" s="138"/>
       <c r="Q15" s="136" t="s">
         <v>144</v>
       </c>
@@ -5862,50 +6147,50 @@
       <c r="T15" s="107"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132" t="s">
+      <c r="C16" s="133"/>
+      <c r="D16" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="133"/>
-      <c r="G16" s="131" t="s">
+      <c r="E16" s="135"/>
+      <c r="G16" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
       <c r="L16" s="136" t="s">
         <v>145</v>
       </c>
       <c r="M16" s="136"/>
-      <c r="N16" s="134">
+      <c r="N16" s="137">
         <v>5000</v>
       </c>
-      <c r="O16" s="135"/>
+      <c r="O16" s="138"/>
       <c r="Q16" s="136" t="s">
         <v>146</v>
       </c>
       <c r="R16" s="136"/>
-      <c r="S16" s="134"/>
-      <c r="T16" s="135"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="138"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="131" t="s">
+      <c r="L17" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132" t="s">
+      <c r="M17" s="133"/>
+      <c r="N17" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="133"/>
-      <c r="Q17" s="131" t="s">
+      <c r="O17" s="135"/>
+      <c r="Q17" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="131"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="135"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="108" t="s">
@@ -5947,24 +6232,24 @@
       <c r="H22" s="129"/>
       <c r="I22" s="129"/>
       <c r="J22" s="129"/>
-      <c r="L22" s="139" t="s">
+      <c r="L22" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
       <c r="Q22" s="129" t="s">
         <v>187</v>
       </c>
       <c r="R22" s="129"/>
       <c r="S22" s="129"/>
       <c r="T22" s="129"/>
-      <c r="V22" s="139" t="s">
+      <c r="V22" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="139"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B23" s="122" t="s">
@@ -5981,7 +6266,7 @@
       <c r="H23" s="122"/>
       <c r="I23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="J23" s="130"/>
       <c r="L23" s="122" t="s">
@@ -5990,7 +6275,7 @@
       <c r="M23" s="122"/>
       <c r="N23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="O23" s="130"/>
       <c r="Q23" s="122" t="s">
@@ -5999,7 +6284,7 @@
       <c r="R23" s="122"/>
       <c r="S23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43257</v>
+        <v>43258</v>
       </c>
       <c r="T23" s="130"/>
       <c r="V23" s="122" t="s">
@@ -6008,7 +6293,7 @@
       <c r="W23" s="122"/>
       <c r="X23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43257</v>
+        <v>43258</v>
       </c>
       <c r="Y23" s="130"/>
     </row>
@@ -6740,7 +7025,7 @@
       <c r="L43" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="143"/>
+      <c r="M43" s="131"/>
       <c r="N43" s="123">
         <v>14535</v>
       </c>
@@ -7177,7 +7462,7 @@
       <c r="G56" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="143"/>
+      <c r="H56" s="131"/>
       <c r="I56" s="123">
         <v>14730</v>
       </c>
@@ -7850,204 +8135,310 @@
     <row r="90" spans="7:16" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="526">
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -8072,310 +8463,204 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8386,10 +8671,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8555,11 +8840,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -8579,7 +8864,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-2.5165157976284149</v>
+        <v>-2.9400333487185009</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -8588,11 +8873,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>2.5165157976284149</v>
+        <v>2.9400333487185009</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14990</v>
+        <v>14910</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -8606,15 +8891,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>1.6787963960162875E-4</v>
+        <v>1.9718533525945681E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>4.9147626519641108E-3</v>
+        <v>5.6907216674062511E-3</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-1.0739261030869862</v>
+        <v>-1.2158314933456538</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8630,11 +8915,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43805.5</v>
+        <v>43806.5</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -8714,12 +8999,12 @@
         <v>202</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:E49" ca="1" si="9">TODAY()</f>
-        <v>43258</v>
+        <f t="shared" ref="E13:E51" ca="1" si="9">TODAY()</f>
+        <v>43259</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13:F17" ca="1" si="10">E13+H13</f>
-        <v>43315</v>
+        <v>43316</v>
       </c>
       <c r="G13" s="11">
         <v>3300</v>
@@ -8739,7 +9024,7 @@
       </c>
       <c r="L13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>2.1685468356371938E-99</v>
+        <v>1.0764254579981695E-98</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="13">
@@ -8748,11 +9033,11 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" ref="O13:O17" si="13">IF(L13&lt;=0,ABS(L13)+N13,L13-N13)</f>
-        <v>2.1685468356371938E-99</v>
+        <v>1.0764254579981695E-98</v>
       </c>
       <c r="P13" s="11">
         <f>RTD("wdf.rtq",,D13,"LastPrice")</f>
-        <v>14990</v>
+        <v>14910</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>85</v>
@@ -8766,15 +9051,15 @@
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13:T17" si="15">O13/P13</f>
-        <v>1.4466623319794487E-103</v>
+        <v>7.2194866398267574E-103</v>
       </c>
       <c r="U13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>-4.3390031369997695E-101</v>
+        <v>-2.157752803154775E-100</v>
       </c>
       <c r="V13" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q13,$P13,$G13,$I13,$C$3,$J13,$K13,$C$4)*R13</f>
-        <v>1.5159054288216142E-89</v>
+        <v>6.387970916195142E-89</v>
       </c>
       <c r="W13" s="114"/>
       <c r="X13" s="115">
@@ -8782,7 +9067,7 @@
       </c>
       <c r="Y13" s="6">
         <f>X13*U13</f>
-        <v>-1.7356012547999078E-98</v>
+        <v>-8.6310112126190998E-98</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8798,11 +9083,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43315</v>
+        <v>43316</v>
       </c>
       <c r="G14" s="11">
         <v>3350</v>
@@ -8822,7 +9107,7 @@
       </c>
       <c r="L14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>1.9581809518989358E-97</v>
+        <v>9.5673405319164121E-97</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="13">
@@ -8831,11 +9116,11 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" si="13"/>
-        <v>1.9581809518989358E-97</v>
+        <v>9.5673405319164121E-97</v>
       </c>
       <c r="P14" s="11">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>14990</v>
+        <v>14910</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>85</v>
@@ -8849,15 +9134,15 @@
       </c>
       <c r="T14" s="14">
         <f t="shared" si="15"/>
-        <v>1.306324851166735E-101</v>
+        <v>6.4167273855911554E-101</v>
       </c>
       <c r="U14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-3.8794308058789191E-99</v>
+        <v>-1.8988379288754221E-98</v>
       </c>
       <c r="V14" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>8.652138199418661E-88</v>
+        <v>3.5945570862629276E-87</v>
       </c>
       <c r="W14" s="114"/>
       <c r="X14" s="115">
@@ -8865,7 +9150,7 @@
       </c>
       <c r="Y14" s="6">
         <f>X14*U14</f>
-        <v>-1.5517723223515677E-96</v>
+        <v>-7.5953517155016883E-96</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8881,11 +9166,11 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43315</v>
+        <v>43316</v>
       </c>
       <c r="G15" s="11">
         <v>3400</v>
@@ -8905,7 +9190,7 @@
       </c>
       <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>3.6410767763555985E-96</v>
+        <v>1.7468898767804409E-95</v>
       </c>
       <c r="M15" s="15"/>
       <c r="N15" s="13">
@@ -8914,11 +9199,11 @@
       </c>
       <c r="O15" s="13">
         <f t="shared" si="13"/>
-        <v>3.6410767763555985E-96</v>
+        <v>1.7468898767804409E-95</v>
       </c>
       <c r="P15" s="11">
         <f>RTD("wdf.rtq",,D15,"LastPrice")</f>
-        <v>15065</v>
+        <v>14985</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>85</v>
@@ -8932,15 +9217,15 @@
       </c>
       <c r="T15" s="14">
         <f t="shared" si="15"/>
-        <v>2.4169112355496839E-100</v>
+        <v>1.1657590101971577E-99</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-7.1308525052248379E-98</v>
+        <v>-3.4272416681043965E-97</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>1.1951331622282716E-86</v>
+        <v>4.8847970193944467E-86</v>
       </c>
       <c r="W15" s="114"/>
       <c r="X15" s="115">
@@ -8948,7 +9233,7 @@
       </c>
       <c r="Y15" s="6">
         <f>X15*U15</f>
-        <v>-2.8523410020899352E-95</v>
+        <v>-1.3708966672417586E-94</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8964,11 +9249,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43315</v>
+        <v>43316</v>
       </c>
       <c r="G16" s="11">
         <v>3450</v>
@@ -8988,7 +9273,7 @@
       </c>
       <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>2.6857774689517365E-94</v>
+        <v>1.269007095892869E-93</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="13">
@@ -8997,11 +9282,11 @@
       </c>
       <c r="O16" s="13">
         <f t="shared" si="13"/>
-        <v>2.6857774689517365E-94</v>
+        <v>1.269007095892869E-93</v>
       </c>
       <c r="P16" s="11">
         <f>RTD("wdf.rtq",,D16,"LastPrice")</f>
-        <v>15065</v>
+        <v>14985</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>85</v>
@@ -9015,15 +9300,15 @@
       </c>
       <c r="T16" s="14">
         <f t="shared" si="15"/>
-        <v>1.7827928768348733E-98</v>
+        <v>8.4685158217742344E-98</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-5.2087438322501325E-96</v>
+        <v>-2.4653553281889041E-95</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>5.6886024872770628E-85</v>
+        <v>2.2933899280138861E-84</v>
       </c>
       <c r="W16" s="114"/>
       <c r="X16" s="115">
@@ -9031,7 +9316,7 @@
       </c>
       <c r="Y16" s="6">
         <f>X16*U16</f>
-        <v>-2.083497532900053E-93</v>
+        <v>-9.8614213127556162E-93</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9047,11 +9332,11 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43315</v>
+        <v>43316</v>
       </c>
       <c r="G17" s="11">
         <v>3500</v>
@@ -9129,11 +9414,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ref="F19" ca="1" si="16">E19+H19</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G19" s="11">
         <v>500</v>
@@ -9153,7 +9438,7 @@
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-39.722526704101938</v>
+        <v>-40.088923756833083</v>
       </c>
       <c r="M19" s="15"/>
       <c r="N19" s="13">
@@ -9162,11 +9447,11 @@
       </c>
       <c r="O19" s="13">
         <f t="shared" ref="O19" si="19">IF(L19&lt;=0,ABS(L19)+N19,L19-N19)</f>
-        <v>39.722526704101938</v>
+        <v>40.088923756833083</v>
       </c>
       <c r="P19" s="11">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>467.5</v>
+        <v>467</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -9180,15 +9465,15 @@
       </c>
       <c r="T19" s="14">
         <f t="shared" ref="T19" si="21">O19/P19</f>
-        <v>8.4967971559576333E-2</v>
+        <v>8.5843519821912379E-2</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>0.73104548112326029</v>
+        <v>0.73453946920665203</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.44050730658389625</v>
+        <v>-0.43711136217453372</v>
       </c>
       <c r="W19" s="114"/>
       <c r="X19" s="115">
@@ -9196,7 +9481,7 @@
       </c>
       <c r="Y19" s="6">
         <f>X19*U19</f>
-        <v>292.41819244930412</v>
+        <v>293.81578768266081</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.15">
@@ -9211,11 +9496,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ref="F20" ca="1" si="22">E20+H20</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G20" s="11">
         <v>500</v>
@@ -9235,7 +9520,7 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-7.2759074750095891</v>
+        <v>-7.1431257703700197</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="13">
@@ -9244,11 +9529,11 @@
       </c>
       <c r="O20" s="13">
         <f t="shared" ref="O20" si="25">IF(L20&lt;=0,ABS(L20)+N20,L20-N20)</f>
-        <v>7.2759074750095891</v>
+        <v>7.1431257703700197</v>
       </c>
       <c r="P20" s="11">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>467.5</v>
+        <v>467</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>39</v>
@@ -9262,15 +9547,15 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" ref="T20" si="27">O20/P20</f>
-        <v>1.5563438449218373E-2</v>
+        <v>1.5295772527558928E-2</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.26731203361620715</v>
+        <v>-0.26381804553139432</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.44050730658388204</v>
+        <v>-0.43711136217454083</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.15">
@@ -9285,11 +9570,11 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ref="F22" ca="1" si="28">E22+H22</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G22" s="11">
         <v>9000</v>
@@ -9309,7 +9594,7 @@
       </c>
       <c r="L22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-8985.2176326717472</v>
+        <v>-512.98912293454487</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" s="13">
@@ -9318,11 +9603,11 @@
       </c>
       <c r="O22" s="13">
         <f t="shared" ref="O22" si="31">IF(L22&lt;=0,ABS(L22)+N22,L22-N22)</f>
-        <v>8985.2176326717472</v>
+        <v>512.98912293454487</v>
       </c>
       <c r="P22" s="11">
         <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
-        <v>0</v>
+        <v>8657</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>85</v>
@@ -9334,17 +9619,17 @@
       <c r="S22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="14" t="e">
+      <c r="T22" s="14">
         <f t="shared" ref="T22" si="33">O22/P22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="13" t="e">
+        <v>5.9257147156583673E-2</v>
+      </c>
+      <c r="U22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>#VALUE!</v>
+        <v>0.65168270266440231</v>
       </c>
       <c r="V22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>0</v>
+        <v>-9.1503641451522526</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
@@ -9359,11 +9644,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ref="F23" ca="1" si="34">E23+H23</f>
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="G23" s="11">
         <v>9000</v>
@@ -9383,7 +9668,7 @@
       </c>
       <c r="L23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-8969.9680266004307</v>
+        <v>-636.19553951647686</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" s="13">
@@ -9392,11 +9677,11 @@
       </c>
       <c r="O23" s="13">
         <f t="shared" ref="O23" si="37">IF(L23&lt;=0,ABS(L23)+N23,L23-N23)</f>
-        <v>8969.9680266004307</v>
+        <v>636.19553951647686</v>
       </c>
       <c r="P23" s="11">
         <f>RTD("wdf.rtq",,D23,"LastPrice")</f>
-        <v>0</v>
+        <v>8657</v>
       </c>
       <c r="Q23" s="10" t="s">
         <v>85</v>
@@ -9408,17 +9693,17 @@
       <c r="S23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="14" t="e">
+      <c r="T23" s="14">
         <f t="shared" ref="T23" si="39">O23/P23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="13" t="e">
+        <v>7.3489146299696995E-2</v>
+      </c>
+      <c r="U23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>#VALUE!</v>
+        <v>0.59410179260339646</v>
       </c>
       <c r="V23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>0</v>
+        <v>-13.660782047412795</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9434,11 +9719,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="40">E25+H25</f>
-        <v>43282</v>
+        <v>43283</v>
       </c>
       <c r="G25" s="11">
         <v>52230</v>
@@ -9518,11 +9803,11 @@
       </c>
       <c r="E28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" ref="F28" ca="1" si="46">E28+H28</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G28" s="11">
         <v>19910</v>
@@ -9603,11 +9888,11 @@
       </c>
       <c r="E30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" ref="F30:F35" ca="1" si="52">E30+H30</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G30" s="11">
         <v>100</v>
@@ -9685,11 +9970,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G31" s="11">
         <v>100</v>
@@ -9767,11 +10052,11 @@
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G32" s="11">
         <v>100</v>
@@ -9849,11 +10134,11 @@
       </c>
       <c r="E33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G33" s="11">
         <v>100</v>
@@ -9931,11 +10216,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G34" s="11">
         <v>100</v>
@@ -10013,11 +10298,11 @@
       </c>
       <c r="E35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" ca="1" si="52"/>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G35" s="11">
         <v>100</v>
@@ -10095,11 +10380,11 @@
       </c>
       <c r="E37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" ref="F37:F38" ca="1" si="59">E37+H37</f>
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="G37" s="11">
         <v>100</v>
@@ -10177,11 +10462,11 @@
       </c>
       <c r="E38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ca="1" si="59"/>
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="G38" s="11">
         <v>100</v>
@@ -10259,11 +10544,11 @@
       </c>
       <c r="E39" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" ref="F39:F40" ca="1" si="66">E39+H39</f>
-        <v>43361</v>
+        <v>43362</v>
       </c>
       <c r="G39" s="11">
         <v>100</v>
@@ -10341,11 +10626,11 @@
       </c>
       <c r="E40" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" ca="1" si="66"/>
-        <v>43361</v>
+        <v>43362</v>
       </c>
       <c r="G40" s="11">
         <v>100</v>
@@ -10423,11 +10708,11 @@
       </c>
       <c r="E42" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" ref="F42:F47" ca="1" si="73">E42+H42</f>
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="G42" s="11">
         <v>100</v>
@@ -10505,11 +10790,11 @@
       </c>
       <c r="E43" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" ca="1" si="73"/>
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="G43" s="11">
         <v>100</v>
@@ -10587,11 +10872,11 @@
       </c>
       <c r="E44" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" ca="1" si="73"/>
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="G44" s="11">
         <v>100</v>
@@ -10669,11 +10954,11 @@
       </c>
       <c r="E45" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" ca="1" si="73"/>
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="G45" s="11">
         <v>100</v>
@@ -10751,11 +11036,11 @@
       </c>
       <c r="E46" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" ca="1" si="73"/>
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="G46" s="11">
         <v>100</v>
@@ -10833,11 +11118,11 @@
       </c>
       <c r="E47" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" ca="1" si="73"/>
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="G47" s="11">
         <v>100</v>
@@ -10915,11 +11200,11 @@
       </c>
       <c r="E49" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" ref="F49" ca="1" si="80">E49+H49</f>
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="G49" s="11">
         <v>3320</v>
@@ -10939,7 +11224,7 @@
       </c>
       <c r="L49" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>-159.21240592506638</v>
+        <v>-118.68074969752888</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="13">
@@ -10948,11 +11233,11 @@
       </c>
       <c r="O49" s="13">
         <f t="shared" ref="O49" si="83">IF(L49&lt;=0,ABS(L49)+N49,L49-N49)</f>
-        <v>159.21240592506638</v>
+        <v>118.68074969752888</v>
       </c>
       <c r="P49" s="11">
         <f>RTD("wdf.rtq",,D49,"LastPrice")</f>
-        <v>3282</v>
+        <v>3192</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>24</v>
@@ -10966,15 +11251,15 @@
       </c>
       <c r="T49" s="14">
         <f t="shared" ref="T49" si="85">O49/P49</f>
-        <v>4.8510787911354776E-2</v>
+        <v>3.7180685995466443E-2</v>
       </c>
       <c r="U49" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>-0.49067970317082654</v>
+        <v>-0.40997933130029196</v>
       </c>
       <c r="V49" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q49,$P49,$G49,$I49,$C$3,$J49,$K49,$C$4)*R49</f>
-        <v>-6.5394368264569493</v>
+        <v>-6.2055191551063444</v>
       </c>
       <c r="W49" s="114"/>
       <c r="X49" s="115">
@@ -10982,7 +11267,89 @@
       </c>
       <c r="Y49" s="6">
         <f t="shared" ref="Y49" si="86">X49*U49</f>
-        <v>-196.27188126833062</v>
+        <v>-163.99173252011678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="34"/>
+      <c r="B51" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43259</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" ref="F51" ca="1" si="87">E51+H51</f>
+        <v>43404</v>
+      </c>
+      <c r="G51" s="11">
+        <v>100</v>
+      </c>
+      <c r="H51" s="10">
+        <v>145</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" ref="I51" si="88">H51/365</f>
+        <v>0.39726027397260272</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="K51" s="116">
+        <v>0.125</v>
+      </c>
+      <c r="L51" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
+        <v>-3.1174161255244925</v>
+      </c>
+      <c r="M51" s="15"/>
+      <c r="N51" s="13">
+        <f t="shared" ref="N51" si="89">M51/10000*I51*P51</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="13">
+        <f t="shared" ref="O51" si="90">IF(L51&lt;=0,ABS(L51)+N51,L51-N51)</f>
+        <v>3.1174161255244925</v>
+      </c>
+      <c r="P51" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="10">
+        <f t="shared" ref="R51" si="91">IF(S51="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T51" s="14">
+        <f t="shared" ref="T51" si="92">O51/P51</f>
+        <v>3.1174161255244925E-2</v>
+      </c>
+      <c r="U51" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
+        <v>-0.51163020519844338</v>
+      </c>
+      <c r="V51" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
+        <v>-0.24926390211228977</v>
+      </c>
+      <c r="W51" s="114"/>
+      <c r="X51" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y51" s="6">
+        <f t="shared" ref="Y51" si="93">X51*U51</f>
+        <v>-204.65208207937735</v>
       </c>
     </row>
   </sheetData>
@@ -10999,19 +11366,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S13:S17 S19:S20 S22:S23 S25 S28 S30:S35 S37:S40 S42:S47 S49</xm:sqref>
+          <xm:sqref>S8:S9 S13:S17 S19:S20 S22:S23 S25 S28 S30:S35 S37:S40 S42:S47 S49 S51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q13:Q17 Q19:Q20 Q22:Q23 Q25 Q28 Q30:Q35 Q37:Q40 Q42:Q47 Q49</xm:sqref>
+          <xm:sqref>Q8:Q9 Q13:Q17 Q19:Q20 Q22:Q23 Q25 Q28 Q30:Q35 Q37:Q40 Q42:Q47 Q49 Q51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C13:C17 C19:C20 C22:C23 C25 C28 C30:C35 C37:C40 C42:C47 C49</xm:sqref>
+          <xm:sqref>C8:C9 C13:C17 C19:C20 C22:C23 C25 C28 C30:C35 C37:C40 C42:C47 C49 C51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11041,7 +11408,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11201,11 +11568,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -11269,11 +11636,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -11340,11 +11707,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -11408,15 +11775,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43273</v>
+        <v>43274</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>447.5</v>
+        <v>447</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -11433,17 +11800,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.8444044008002294</v>
+        <v>-3.8350470455785199</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.8444044008002294</v>
+        <v>3.8350470455785199</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>467.5</v>
+        <v>467</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -11458,11 +11825,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.22663984182500485</v>
+        <v>0.22640304567289604</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.28523320493926008</v>
+        <v>-0.2847599924578077</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11478,15 +11845,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43273</v>
+        <v>43274</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>497.5</v>
+        <v>497</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -11505,17 +11872,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.1104496412957161</v>
+        <v>2.1037580410297352</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.1104496412957161</v>
+        <v>2.1037580410297352</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>467.5</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -11530,11 +11897,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.15171867237171455</v>
+        <v>0.1514608916956206</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.22249743647176956</v>
+        <v>0.22200835190498225</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11551,15 +11918,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43273</v>
+        <v>43274</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>447.5|497.5</v>
+        <v>447|497</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -11573,7 +11940,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.7339547595045133</v>
+        <v>-1.7312890045487848</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -11584,11 +11951,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.7339547595045133</v>
+        <v>1.7312890045487848</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>467.5</v>
+        <v>467</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -11597,15 +11964,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.7089941379775684E-3</v>
+        <v>3.7072569690552136E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.3783585141967194</v>
+        <v>0.37786393736851664</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2735768467490516E-2</v>
+        <v>-6.275164055282545E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -11621,11 +11988,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -11646,17 +12013,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-410.11597885816946</v>
+        <v>-416.06375065431575</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>410.11597885816946</v>
+        <v>416.06375065431575</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3798</v>
+        <v>3806</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -11671,11 +12038,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.74123325864547951</v>
+        <v>-0.74570116062204761</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.0589641661445057</v>
+        <v>-6.0151739018770058</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11692,11 +12059,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -11718,17 +12085,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>37.186662810245139</v>
+        <v>36.151555135061642</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>37.186662810245139</v>
+        <v>36.151555135061642</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3798</v>
+        <v>3806</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -11743,11 +12110,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.13097777037103242</v>
+        <v>-0.1278092108123019</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.0245582250009306</v>
+        <v>3.9652301615118972</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11764,11 +12131,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -11786,7 +12153,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-372.92931604792432</v>
+        <v>-379.91219551925411</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -11797,11 +12164,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>372.92931604792432</v>
+        <v>379.91219551925411</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3798</v>
+        <v>3806</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -11810,15 +12177,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>9.8190973156378175E-2</v>
+        <v>9.981928416165374E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.87221102901651193</v>
+        <v>-0.87351037143434951</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-2.0344059411435751</v>
+        <v>-2.0499437403651086</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -11835,11 +12202,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43289</v>
+        <v>43290</v>
       </c>
       <c r="G18" s="118">
         <v>3000</v>
@@ -11859,17 +12226,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>79.40058620399077</v>
+        <v>123.92292648883813</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>79.40058620399077</v>
+        <v>123.92292648883813</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>2957</v>
+        <v>2893</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -11884,11 +12251,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.61163676695059621</v>
+        <v>-0.77372981825192255</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.2936663551685115</v>
+        <v>2.5216133861188155</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11905,11 +12272,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43289</v>
+        <v>43290</v>
       </c>
       <c r="G19" s="119">
         <v>3280</v>
@@ -11931,17 +12298,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-1.4750686348510698</v>
+        <v>-0.44759048864126427</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>1.4750686348510698</v>
+        <v>0.44759048864126427</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>2957</v>
+        <v>2893</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -11956,11 +12323,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-2.5544264607901823E-2</v>
+        <v>-8.9481162870441722E-3</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.51361874356410908</v>
+        <v>-0.20548609428601594</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11977,11 +12344,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43289</v>
+        <v>43290</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -11999,7 +12366,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>77.9255175691397</v>
+        <v>123.47533600019686</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -12010,26 +12377,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>77.9255175691397</v>
+        <v>123.47533600019686</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>2957</v>
+        <v>2893</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>2.6352897385573115E-2</v>
+        <v>4.2680724507499782E-2</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.63718103155849803</v>
+        <v>-0.78267793453896672</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>2.7800476116044024</v>
+        <v>2.3161272918327995</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -12045,11 +12412,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="G21" s="118">
         <v>3000</v>
@@ -12069,17 +12436,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>117.8646751245783</v>
+        <v>156.58847155107287</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>117.8646751245783</v>
+        <v>156.58847155107287</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>2957</v>
+        <v>2893</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -12094,11 +12461,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.5527036848093303</v>
+        <v>-0.65649780290186754</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.8352889251832494</v>
+        <v>5.2942154729834101</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12115,11 +12482,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="G22" s="119">
         <v>3280</v>
@@ -12141,17 +12508,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-17.478110791835832</v>
+        <v>-10.390517351350383</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>17.478110791835832</v>
+        <v>10.390517351350383</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>2957</v>
+        <v>2893</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -12166,11 +12533,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.13455529386021681</v>
+        <v>-8.9006426617288525E-2</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-3.2072170230002826</v>
+        <v>-2.3337206789256015</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12187,11 +12554,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43350</v>
+        <v>43351</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -12209,7 +12576,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>100.38656433274247</v>
+        <v>146.19795419972249</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -12220,26 +12587,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>100.38656433274247</v>
+        <v>146.19795419972249</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>2957</v>
+        <v>2893</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>3.3948787396936915E-2</v>
+        <v>5.0535068855763046E-2</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.6872589786695471</v>
+        <v>-0.74550422951915607</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>2.6280719021829668</v>
+        <v>2.9604947940578086</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -12252,18 +12619,18 @@
         <v>160</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43289</v>
+        <v>43290</v>
       </c>
       <c r="G26" s="118">
-        <v>2950</v>
+        <v>4800</v>
       </c>
       <c r="H26" s="44">
         <v>31</v>
@@ -12276,21 +12643,22 @@
         <v>0</v>
       </c>
       <c r="K26" s="48">
-        <v>0.16</v>
+        <f>K27-0.04</f>
+        <v>0.13</v>
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>51.420159246221147</v>
+        <v>16.905759682806774</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>51.420159246221147</v>
+        <v>16.905759682806774</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>2957</v>
+        <v>4976</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -12305,11 +12673,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.46964991687445945</v>
+        <v>-0.16588091772860025</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>3.4226465516611597</v>
+        <v>3.6032644646058429</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12320,23 +12688,21 @@
       <c r="C27" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="52" t="str">
-        <f>D26</f>
-        <v>m1809</v>
+      <c r="D27" s="52" t="s">
+        <v>263</v>
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43289</v>
+        <v>43290</v>
       </c>
       <c r="G27" s="119">
-        <v>3350</v>
+        <v>4990</v>
       </c>
       <c r="H27" s="52">
-        <f>H26</f>
         <v>31</v>
       </c>
       <c r="I27" s="55">
@@ -12348,21 +12714,21 @@
         <v>0</v>
       </c>
       <c r="K27" s="56">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.477760408728237</v>
+        <v>-91.480899322930782</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>0.477760408728237</v>
+        <v>91.480899322930782</v>
       </c>
       <c r="P27" s="94">
         <f>P26</f>
-        <v>2957</v>
+        <v>4976</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -12377,11 +12743,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-9.3065244749723774E-3</v>
+        <v>-0.48643388690834399</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.21731448514602469</v>
+        <v>-5.7724884912454399</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12394,22 +12760,21 @@
       </c>
       <c r="D28" s="60" t="str">
         <f>D27</f>
-        <v>m1809</v>
+        <v>p1809</v>
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43289</v>
+        <v>43290</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
-        <v>2950|3350</v>
+        <v>4800|4990</v>
       </c>
       <c r="H28" s="60">
-        <f>H27</f>
         <v>31</v>
       </c>
       <c r="I28" s="63">
@@ -12420,7 +12785,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>50.94239883749291</v>
+        <v>-74.575139640124007</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -12431,26 +12796,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>50.94239883749291</v>
+        <v>74.575139640124007</v>
       </c>
       <c r="P28" s="111">
         <f>P27</f>
-        <v>2957</v>
+        <v>4976</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>1.7227730415114273E-2</v>
+        <v>1.4986965361761256E-2</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.47895644134943183</v>
+        <v>-0.65231480463694425</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>3.205332066515135</v>
+        <v>-2.169224026639597</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -12462,45 +12827,46 @@
         <v>160</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43350</v>
+        <v>43290</v>
       </c>
       <c r="G29" s="118">
-        <v>2950</v>
+        <v>4700</v>
       </c>
       <c r="H29" s="44">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I29" s="47">
         <f>H29/365</f>
-        <v>0.25205479452054796</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="J29" s="47">
         <v>0</v>
       </c>
       <c r="K29" s="48">
-        <v>0.16</v>
+        <f>K30-0.04</f>
+        <v>0.13</v>
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>90.705976157443274</v>
+        <v>5.2843836322297761</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>90.705976157443274</v>
+        <v>5.2843836322297761</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>2957</v>
+        <v>4976</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -12515,11 +12881,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.46985402905193041</v>
+        <v>-6.350348762680369E-2</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>5.8784709185080146</v>
+        <v>1.802122506411564</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12530,49 +12896,47 @@
       <c r="C30" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="52" t="str">
-        <f>D29</f>
-        <v>m1809</v>
+      <c r="D30" s="52" t="s">
+        <v>263</v>
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43350</v>
+        <v>43290</v>
       </c>
       <c r="G30" s="119">
-        <v>3350</v>
+        <v>4990</v>
       </c>
       <c r="H30" s="52">
-        <f>H29</f>
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I30" s="55">
         <f>H30/365</f>
-        <v>0.25205479452054796</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="J30" s="55">
         <f>J29</f>
         <v>0</v>
       </c>
       <c r="K30" s="56">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-10.814887394068251</v>
+        <v>-91.480899322930782</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>10.814887394068251</v>
+        <v>91.480899322930782</v>
       </c>
       <c r="P30" s="94">
         <f>P29</f>
-        <v>2957</v>
+        <v>4976</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -12587,11 +12951,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-9.0374532484815973E-2</v>
+        <v>-0.48643388690834399</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-2.4125080456476269</v>
+        <v>-5.7724884912454399</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12602,35 +12966,33 @@
       <c r="C31" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="60" t="str">
-        <f>D30</f>
-        <v>m1809</v>
+      <c r="D31" s="60" t="s">
+        <v>263</v>
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43350</v>
+        <v>43290</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
-        <v>2950|3350</v>
+        <v>4700|4990</v>
       </c>
       <c r="H31" s="60">
-        <f>H30</f>
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="I31" s="63">
         <f>I30</f>
-        <v>0.25205479452054796</v>
+        <v>8.4931506849315067E-2</v>
       </c>
       <c r="J31" s="63"/>
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>79.891088763375024</v>
+        <v>-86.196515690701005</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -12641,26 +13003,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>79.891088763375024</v>
+        <v>86.196515690701005</v>
       </c>
       <c r="P31" s="111">
         <f>P30</f>
-        <v>2957</v>
+        <v>4976</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>2.7017615408648978E-2</v>
+        <v>1.7322450902472065E-2</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.56022856153674638</v>
+        <v>-0.54993737453514768</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>3.4659628728603877</v>
+        <v>-3.9703659848338759</v>
       </c>
     </row>
   </sheetData>
@@ -12702,7 +13064,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -13016,11 +13378,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -13098,11 +13460,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -13180,11 +13542,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -13262,11 +13624,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -13344,11 +13706,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -13426,11 +13788,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -14265,9 +14627,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="20" t="e">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -14275,20 +14637,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="19" t="e">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>3925.7505698872742</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L8" s="36">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43288</v>
+        <v>43289</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -14310,9 +14672,9 @@
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24">
+      <c r="U8" s="24" t="e">
         <f>T8/10000*P8*H8</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="V8" s="24" t="e">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
@@ -14370,11 +14732,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -14482,11 +14844,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -14569,11 +14931,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -14656,11 +15018,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43349</v>
+        <v>43350</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -14743,11 +15105,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -14830,11 +15192,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -14917,11 +15279,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43258</v>
+        <v>43259</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43441</v>
+        <v>43442</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>

--- a/PricerAndQutation/OptionPricer_v2_20180606.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180606.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="276">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -708,10 +708,6 @@
   <si>
     <t>i1805</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LME20180122-CICC-MRJH-NI-SWP-4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>rb1810</t>
@@ -896,25 +892,9 @@
     <t>al1810</t>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bu1812</t>
   </si>
   <si>
-    <t>bu1812</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>p1809</t>
   </si>
   <si>
@@ -936,53 +916,116 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>cu1808</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap905</t>
+  </si>
+  <si>
+    <t>52000|54800</t>
+  </si>
+  <si>
+    <t>rr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金卖出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交回报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南华资管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交回报-ASIAN OPTION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚式看跌期权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>c1901</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cu1808</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ap905</t>
-  </si>
-  <si>
-    <t>ap905</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>52000|54800</t>
-  </si>
-  <si>
-    <t>rr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中金卖出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cf901</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交回报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>南华资管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交回报-ASIAN OPTION</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚式看跌期权</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1901</t>
+    <t>ap901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap903</t>
+  </si>
+  <si>
+    <t>ap903</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ap901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1811</t>
+  </si>
+  <si>
+    <t>al1811</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1812</t>
+  </si>
+  <si>
+    <t>al1810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1812</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1811</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>al1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu1809</t>
+  </si>
+  <si>
+    <t>cu1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pb1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1809</t>
+  </si>
+  <si>
+    <t>ru1901</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +1041,7 @@
     <numFmt numFmtId="179" formatCode="###,###,##0.0"/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="181" formatCode="#,##0_ "/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -1766,17 +1809,17 @@
     <xf numFmtId="14" fontId="33" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="33" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="33" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1787,22 +1830,22 @@
     <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1810,6 +1853,12 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1819,12 +1868,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="33" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="33" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1853,43 +1896,71 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>4864</v>
+        <v>4692</v>
         <stp/>
         <stp>p1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P29" s="9"/>
         <tr r="P26" s="9"/>
-        <tr r="P29" s="9"/>
       </tp>
       <tp>
-        <v>3152</v>
+        <v>12080</v>
         <stp/>
-        <stp>bu1812</stp>
+        <stp>ru1901</stp>
         <stp>LastPrice</stp>
+        <tr r="P36" s="1"/>
+        <tr r="P35" s="1"/>
+      </tp>
+      <tp>
+        <v>14455</v>
+        <stp/>
+        <stp>al1811</stp>
+        <stp>LastPrice</stp>
+        <tr r="P20" s="1"/>
+        <tr r="P29" s="1"/>
+        <tr r="P32" s="1"/>
+        <tr r="P31" s="1"/>
+      </tp>
+      <tp>
+        <v>14375</v>
+        <stp/>
+        <stp>al1810</stp>
+        <stp>LastPrice</stp>
+        <tr r="P22" s="1"/>
+        <tr r="P19" s="1"/>
+      </tp>
+      <tp>
+        <v>19110</v>
+        <stp/>
+        <stp>pb1809</stp>
+        <stp>LastPrice</stp>
+        <tr r="P27" s="1"/>
+      </tp>
+      <tp>
+        <v>14290</v>
+        <stp/>
+        <stp>al1809</stp>
+        <stp>LastPrice</stp>
+        <tr r="P18" s="1"/>
         <tr r="P21" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>cf901</stp>
-        <stp>LastPrice</stp>
-        <tr r="P36" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>14225</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>454</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="9"/>
+        <tr r="P34" s="1"/>
       </tp>
       <tp>
-        <v>2947</v>
+        <v>3006</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
@@ -1897,16 +1968,7 @@
         <tr r="P21" s="9"/>
       </tp>
       <tp>
-        <v>11337</v>
-        <stp/>
-        <stp>ap905</stp>
-        <stp>LastPrice</stp>
-        <tr r="P28" s="1"/>
-        <tr r="P27" s="1"/>
-        <tr r="P29" s="1"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
+        <v>3766</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
@@ -2213,10 +2275,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R27"/>
+  <dimension ref="B1:R54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38:T39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2253,7 +2316,7 @@
     <row r="2" spans="2:18" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:18" ht="13.5" x14ac:dyDescent="0.15">
       <c r="I3" s="112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.15">
@@ -2414,107 +2477,73 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B9" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C9" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D9" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F9" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I9" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="33" t="s">
+      <c r="L9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M9" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N9" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="O8" s="33" t="s">
+      <c r="O9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33" t="s">
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="93">
-        <v>43250</v>
-      </c>
-      <c r="E9" s="93">
-        <v>43294</v>
-      </c>
-      <c r="F9" s="92">
-        <v>14500</v>
-      </c>
-      <c r="G9" s="92">
-        <v>44</v>
-      </c>
-      <c r="H9" s="92">
-        <v>0.12054794520547946</v>
-      </c>
-      <c r="I9" s="92">
-        <v>0</v>
-      </c>
-      <c r="J9" s="92">
-        <v>0.13</v>
-      </c>
-      <c r="K9" s="92">
-        <v>148.1957993354099</v>
-      </c>
-      <c r="L9" s="92">
-        <v>30</v>
-      </c>
-      <c r="M9" s="92">
-        <v>5.3432876712328774</v>
-      </c>
-      <c r="N9" s="99">
-        <v>142.85251166417703</v>
-      </c>
-      <c r="O9" s="92">
-        <v>14775</v>
-      </c>
-      <c r="P9" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q9" s="92">
-        <v>1</v>
-      </c>
-      <c r="R9" s="92" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.15">
@@ -2522,22 +2551,22 @@
         <v>160</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D10" s="93">
         <v>43250</v>
       </c>
       <c r="E10" s="93">
-        <v>43325</v>
+        <v>43294</v>
       </c>
       <c r="F10" s="92">
         <v>14500</v>
       </c>
       <c r="G10" s="92">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="H10" s="92">
-        <v>0.20547945205479451</v>
+        <v>0.12054794520547946</v>
       </c>
       <c r="I10" s="92">
         <v>0</v>
@@ -2546,19 +2575,19 @@
         <v>0.13</v>
       </c>
       <c r="K10" s="92">
-        <v>197.0015228979737</v>
+        <v>148.1957993354099</v>
       </c>
       <c r="L10" s="92">
         <v>30</v>
       </c>
       <c r="M10" s="92">
-        <v>9.1541095890410951</v>
+        <v>5.3432876712328774</v>
       </c>
       <c r="N10" s="99">
-        <v>187.8474133089326</v>
+        <v>142.85251166417703</v>
       </c>
       <c r="O10" s="92">
-        <v>14850</v>
+        <v>14775</v>
       </c>
       <c r="P10" s="92" t="s">
         <v>85</v>
@@ -2575,22 +2604,22 @@
         <v>160</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D11" s="93">
         <v>43250</v>
       </c>
       <c r="E11" s="93">
-        <v>43356</v>
+        <v>43325</v>
       </c>
       <c r="F11" s="92">
         <v>14500</v>
       </c>
       <c r="G11" s="92">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="H11" s="92">
-        <v>0.29041095890410956</v>
+        <v>0.20547945205479451</v>
       </c>
       <c r="I11" s="92">
         <v>0</v>
@@ -2599,19 +2628,19 @@
         <v>0.13</v>
       </c>
       <c r="K11" s="92">
-        <v>231.7094428625951</v>
+        <v>197.0015228979737</v>
       </c>
       <c r="L11" s="92">
         <v>30</v>
       </c>
       <c r="M11" s="92">
-        <v>13.003150684931507</v>
+        <v>9.1541095890410951</v>
       </c>
       <c r="N11" s="99">
-        <v>218.70629217766358</v>
+        <v>187.8474133089326</v>
       </c>
       <c r="O11" s="92">
-        <v>14925</v>
+        <v>14850</v>
       </c>
       <c r="P11" s="92" t="s">
         <v>85</v>
@@ -2624,307 +2653,313 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="93">
+        <v>43250</v>
+      </c>
+      <c r="E12" s="93">
+        <v>43356</v>
+      </c>
+      <c r="F12" s="92">
+        <v>14500</v>
+      </c>
+      <c r="G12" s="92">
+        <v>106</v>
+      </c>
+      <c r="H12" s="92">
+        <v>0.29041095890410956</v>
+      </c>
+      <c r="I12" s="92">
+        <v>0</v>
+      </c>
+      <c r="J12" s="92">
+        <v>0.13</v>
+      </c>
+      <c r="K12" s="92">
+        <v>231.7094428625951</v>
+      </c>
+      <c r="L12" s="92">
+        <v>30</v>
+      </c>
+      <c r="M12" s="92">
+        <v>13.003150684931507</v>
+      </c>
+      <c r="N12" s="99">
+        <v>218.70629217766358</v>
+      </c>
+      <c r="O12" s="92">
+        <v>14925</v>
+      </c>
+      <c r="P12" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="92">
+        <v>1</v>
+      </c>
+      <c r="R12" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B13" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C13" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D13" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I13" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N13" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="O12" s="33" t="s">
+      <c r="O13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33" t="s">
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B13" s="92" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B14" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="93">
+      <c r="C14" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="93">
         <v>43250</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E14" s="93">
         <v>43280</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F14" s="92">
         <v>49500</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G14" s="92">
         <v>30</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H14" s="92">
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="I13" s="92">
+      <c r="I14" s="92">
         <v>0</v>
       </c>
-      <c r="J13" s="92">
+      <c r="J14" s="92">
         <v>0.12</v>
       </c>
-      <c r="K13" s="92">
+      <c r="K14" s="92">
         <v>171.01217245503904</v>
       </c>
-      <c r="L13" s="92">
+      <c r="L14" s="92">
         <v>30</v>
       </c>
-      <c r="M13" s="92">
+      <c r="M14" s="92">
         <v>12.592602739726027</v>
       </c>
-      <c r="N13" s="99">
+      <c r="N14" s="99">
         <v>158.419569715313</v>
       </c>
-      <c r="O13" s="92">
+      <c r="O14" s="92">
         <v>51070</v>
       </c>
-      <c r="P13" s="92" t="s">
+      <c r="P14" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="92">
+      <c r="Q14" s="92">
         <v>1</v>
       </c>
-      <c r="R13" s="92" t="s">
+      <c r="R14" s="92" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B14" s="91" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C15" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D15" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F15" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="M15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="33" t="s">
+      <c r="N15" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="P15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33" t="s">
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="92" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B16" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="93">
+      <c r="C16" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="93">
         <v>43258</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E16" s="93">
         <v>43350</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F16" s="92">
         <v>3320</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G16" s="92">
         <v>92</v>
       </c>
-      <c r="H15" s="92">
+      <c r="H16" s="92">
         <v>0.25205479452054796</v>
       </c>
-      <c r="I15" s="92">
+      <c r="I16" s="92">
         <v>0</v>
       </c>
-      <c r="J15" s="92">
+      <c r="J16" s="92">
         <v>0.27</v>
       </c>
-      <c r="K15" s="92">
+      <c r="K16" s="92">
         <v>-152.43041613213791</v>
       </c>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92">
+      <c r="L16" s="92"/>
+      <c r="M16" s="92">
         <v>0</v>
       </c>
-      <c r="N15" s="99">
+      <c r="N16" s="99">
         <v>152.43041613213791</v>
       </c>
-      <c r="O15" s="92">
+      <c r="O16" s="92">
         <v>3268</v>
       </c>
-      <c r="P15" s="92" t="s">
+      <c r="P16" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="92">
+      <c r="Q16" s="92">
         <v>-1</v>
       </c>
-      <c r="R15" s="92" t="s">
+      <c r="R16" s="92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B16" s="91" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B17" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C17" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E17" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F17" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M17" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N17" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="O16" s="33" t="s">
+      <c r="O17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="33" t="s">
+      <c r="P17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33" t="s">
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B17" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="93">
-        <v>43259</v>
-      </c>
-      <c r="E17" s="93">
-        <v>43289</v>
-      </c>
-      <c r="F17" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17" s="92">
-        <v>30</v>
-      </c>
-      <c r="H17" s="92">
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92">
-        <v>-75.037597099661866</v>
-      </c>
-      <c r="L17" s="92">
-        <v>0</v>
-      </c>
-      <c r="M17" s="92">
-        <v>0</v>
-      </c>
-      <c r="N17" s="99">
-        <v>75.880366861716993</v>
-      </c>
-      <c r="O17" s="92">
-        <v>4978</v>
-      </c>
-      <c r="P17" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
@@ -2932,7 +2967,7 @@
         <v>160</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="93">
         <v>43259</v>
@@ -2941,7 +2976,7 @@
         <v>43289</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G18" s="92">
         <v>30</v>
@@ -2952,7 +2987,7 @@
       <c r="I18" s="92"/>
       <c r="J18" s="92"/>
       <c r="K18" s="92">
-        <v>-86.074815865016888</v>
+        <v>-75.037597099661866</v>
       </c>
       <c r="L18" s="92">
         <v>0</v>
@@ -2961,13 +2996,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="99">
-        <v>87.298306393556857</v>
+        <v>75.880366861716993</v>
       </c>
       <c r="O18" s="92">
         <v>4978</v>
       </c>
       <c r="P18" s="92" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="92"/>
       <c r="R18" s="92" t="s">
@@ -2975,105 +3010,101 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="93">
+        <v>43259</v>
+      </c>
+      <c r="E19" s="93">
+        <v>43289</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="92">
+        <v>30</v>
+      </c>
+      <c r="H19" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92">
+        <v>-86.074815865016888</v>
+      </c>
+      <c r="L19" s="92">
+        <v>0</v>
+      </c>
+      <c r="M19" s="92">
+        <v>0</v>
+      </c>
+      <c r="N19" s="99">
+        <v>87.298306393556857</v>
+      </c>
+      <c r="O19" s="92">
+        <v>4978</v>
+      </c>
+      <c r="P19" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B20" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C20" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D20" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F20" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I20" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="33" t="s">
+      <c r="M20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="33" t="s">
+      <c r="N20" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="O19" s="33" t="s">
+      <c r="O20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="P20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33" t="s">
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="93">
-        <v>43262</v>
-      </c>
-      <c r="E20" s="93">
-        <v>43292</v>
-      </c>
-      <c r="F20" s="92">
-        <v>10700</v>
-      </c>
-      <c r="G20" s="92">
-        <v>30</v>
-      </c>
-      <c r="H20" s="92">
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="I20" s="92">
-        <v>0</v>
-      </c>
-      <c r="J20" s="92">
-        <v>0.32</v>
-      </c>
-      <c r="K20" s="92">
-        <v>-225.80730406223847</v>
-      </c>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92">
-        <v>0</v>
-      </c>
-      <c r="N20" s="99">
-        <v>225.80730406223847</v>
-      </c>
-      <c r="O20" s="92">
-        <v>10326</v>
-      </c>
-      <c r="P20" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="92">
-        <v>-1</v>
-      </c>
-      <c r="R20" s="92" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
@@ -3081,7 +3112,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D21" s="93">
         <v>43262</v>
@@ -3090,7 +3121,7 @@
         <v>43292</v>
       </c>
       <c r="F21" s="92">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="G21" s="92">
         <v>30</v>
@@ -3105,14 +3136,14 @@
         <v>0.32</v>
       </c>
       <c r="K21" s="92">
-        <v>-194.44874223922034</v>
+        <v>-225.80730406223847</v>
       </c>
       <c r="L21" s="92"/>
       <c r="M21" s="92">
         <v>0</v>
       </c>
       <c r="N21" s="99">
-        <v>194.44874223922034</v>
+        <v>225.80730406223847</v>
       </c>
       <c r="O21" s="92">
         <v>10326</v>
@@ -3132,7 +3163,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="92" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D22" s="93">
         <v>43262</v>
@@ -3141,7 +3172,7 @@
         <v>43292</v>
       </c>
       <c r="F22" s="92">
-        <v>11000</v>
+        <v>10800</v>
       </c>
       <c r="G22" s="92">
         <v>30</v>
@@ -3153,17 +3184,17 @@
         <v>0</v>
       </c>
       <c r="J22" s="92">
-        <v>0.32500000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="K22" s="92">
-        <v>-146.75993595111549</v>
+        <v>-194.44874223922034</v>
       </c>
       <c r="L22" s="92"/>
       <c r="M22" s="92">
         <v>0</v>
       </c>
       <c r="N22" s="99">
-        <v>146.75993595111549</v>
+        <v>194.44874223922034</v>
       </c>
       <c r="O22" s="92">
         <v>10326</v>
@@ -3179,205 +3210,1635 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="93">
+        <v>43262</v>
+      </c>
+      <c r="E23" s="93">
+        <v>43292</v>
+      </c>
+      <c r="F23" s="92">
+        <v>11000</v>
+      </c>
+      <c r="G23" s="92">
+        <v>30</v>
+      </c>
+      <c r="H23" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I23" s="92">
+        <v>0</v>
+      </c>
+      <c r="J23" s="92">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K23" s="92">
+        <v>-146.75993595111549</v>
+      </c>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92">
+        <v>0</v>
+      </c>
+      <c r="N23" s="99">
+        <v>146.75993595111549</v>
+      </c>
+      <c r="O23" s="92">
+        <v>10326</v>
+      </c>
+      <c r="P23" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C24" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D24" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E24" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F24" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G24" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I24" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J24" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K24" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="33" t="s">
+      <c r="M24" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="N24" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="O23" s="33" t="s">
+      <c r="O24" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="P24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33" t="s">
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="92" t="s">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" s="93">
+      <c r="C25" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="93">
         <v>43262</v>
       </c>
-      <c r="E24" s="93">
+      <c r="E25" s="93">
         <v>43292</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F25" s="92">
         <v>54800</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G25" s="92">
         <v>30</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H25" s="92">
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="I24" s="92">
+      <c r="I25" s="92">
         <v>0</v>
       </c>
-      <c r="J24" s="92">
+      <c r="J25" s="92">
         <v>0.19750000000000001</v>
       </c>
-      <c r="K24" s="92">
+      <c r="K25" s="92">
         <v>-956.88081470014367</v>
       </c>
-      <c r="L24" s="92">
+      <c r="L25" s="92">
         <v>50</v>
       </c>
-      <c r="M24" s="92">
+      <c r="M25" s="92">
         <v>22.278082191780822</v>
       </c>
-      <c r="N24" s="99">
+      <c r="N25" s="99">
         <v>979.15889689192454</v>
       </c>
-      <c r="O24" s="92">
+      <c r="O25" s="92">
         <v>54210</v>
       </c>
-      <c r="P24" s="92" t="s">
+      <c r="P25" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="Q24" s="92">
+      <c r="Q25" s="92">
         <v>-1</v>
       </c>
-      <c r="R24" s="92" t="s">
+      <c r="R25" s="92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B26" s="91" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C27" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D27" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E27" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F27" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G27" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H27" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I27" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J27" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K27" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L27" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="M27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N26" s="33" t="s">
+      <c r="N27" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="O26" s="33" t="s">
+      <c r="O27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P26" s="33" t="s">
+      <c r="P27" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33" t="s">
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B27" s="92" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="93">
+      <c r="C28" s="92" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="93">
         <v>43262</v>
       </c>
-      <c r="E27" s="93">
+      <c r="E28" s="93">
         <v>43292</v>
       </c>
-      <c r="F27" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="G27" s="92">
+      <c r="F28" s="92" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="92">
         <v>30</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H28" s="92">
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92">
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92">
         <v>-1048.8812482139592</v>
       </c>
-      <c r="L27" s="92">
+      <c r="L28" s="92">
         <v>50</v>
       </c>
-      <c r="M27" s="92">
+      <c r="M28" s="92">
         <v>22.520547945205479</v>
       </c>
-      <c r="N27" s="99">
+      <c r="N28" s="99">
         <v>1071.4017961591646</v>
       </c>
-      <c r="O27" s="92">
+      <c r="O28" s="92">
         <v>54800</v>
       </c>
-      <c r="P27" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92" t="s">
-        <v>257</v>
+      <c r="P28" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B30" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="93">
+        <f t="shared" ref="D30:D31" ca="1" si="0">TODAY()</f>
+        <v>43273</v>
+      </c>
+      <c r="E30" s="93">
+        <f t="shared" ref="E30:E31" ca="1" si="1">D30+G30</f>
+        <v>43332</v>
+      </c>
+      <c r="F30" s="92">
+        <v>100</v>
+      </c>
+      <c r="G30" s="92">
+        <v>59</v>
+      </c>
+      <c r="H30" s="92">
+        <f t="shared" ref="H30:H31" si="2">G30/365</f>
+        <v>0.16164383561643836</v>
+      </c>
+      <c r="I30" s="92">
+        <v>0</v>
+      </c>
+      <c r="J30" s="92">
+        <v>0.36</v>
+      </c>
+      <c r="K30" s="92" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*Q30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" s="92">
+        <v>0</v>
+      </c>
+      <c r="M30" s="92">
+        <f t="shared" ref="M30:M31" si="3">L30/10000*H30*O30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="99" t="e">
+        <f t="shared" ref="N30" si="4">IF(K30&lt;=0,ABS(K30)+M30,K30-M30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O30" s="92">
+        <v>100</v>
+      </c>
+      <c r="P30" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="92">
+        <f t="shared" ref="Q30:Q31" si="5">IF(R30="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R30" s="92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B31" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="93">
+        <f t="shared" ca="1" si="0"/>
+        <v>43273</v>
+      </c>
+      <c r="E31" s="93">
+        <f t="shared" ca="1" si="1"/>
+        <v>43332</v>
+      </c>
+      <c r="F31" s="92">
+        <v>100</v>
+      </c>
+      <c r="G31" s="92">
+        <v>59</v>
+      </c>
+      <c r="H31" s="92">
+        <f t="shared" si="2"/>
+        <v>0.16164383561643836</v>
+      </c>
+      <c r="I31" s="92">
+        <v>0</v>
+      </c>
+      <c r="J31" s="92">
+        <v>0.36</v>
+      </c>
+      <c r="K31" s="92" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*Q31</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="92">
+        <v>30</v>
+      </c>
+      <c r="M31" s="92">
+        <f t="shared" si="3"/>
+        <v>4.8493150684931506E-2</v>
+      </c>
+      <c r="N31" s="99">
+        <v>5.75</v>
+      </c>
+      <c r="O31" s="92">
+        <v>100</v>
+      </c>
+      <c r="P31" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="92">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="R31" s="92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B33" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="D33" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E33" s="93">
+        <v>43321</v>
+      </c>
+      <c r="F33" s="92">
+        <v>13800</v>
+      </c>
+      <c r="G33" s="92">
+        <v>51</v>
+      </c>
+      <c r="H33" s="92">
+        <v>0.13972602739726028</v>
+      </c>
+      <c r="I33" s="92">
+        <v>0</v>
+      </c>
+      <c r="J33" s="92">
+        <v>0.125</v>
+      </c>
+      <c r="K33" s="92">
+        <v>41.836655979323041</v>
+      </c>
+      <c r="L33" s="92">
+        <v>30</v>
+      </c>
+      <c r="M33" s="92">
+        <v>6.1011369863013707</v>
+      </c>
+      <c r="N33" s="99">
+        <v>35.735518993021671</v>
+      </c>
+      <c r="O33" s="92">
+        <v>14555</v>
+      </c>
+      <c r="P33" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q33" s="92">
+        <v>1</v>
+      </c>
+      <c r="R33" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B34" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E34" s="93">
+        <v>43357</v>
+      </c>
+      <c r="F34" s="92">
+        <v>13800</v>
+      </c>
+      <c r="G34" s="92">
+        <v>87</v>
+      </c>
+      <c r="H34" s="92">
+        <v>0.23835616438356164</v>
+      </c>
+      <c r="I34" s="92">
+        <v>0</v>
+      </c>
+      <c r="J34" s="92">
+        <v>0.1225</v>
+      </c>
+      <c r="K34" s="92">
+        <v>72.864657819563035</v>
+      </c>
+      <c r="L34" s="92">
+        <v>30</v>
+      </c>
+      <c r="M34" s="92">
+        <v>10.465027397260274</v>
+      </c>
+      <c r="N34" s="99">
+        <v>62.399630422302764</v>
+      </c>
+      <c r="O34" s="92">
+        <v>14635</v>
+      </c>
+      <c r="P34" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q34" s="92">
+        <v>1</v>
+      </c>
+      <c r="R34" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B35" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E35" s="93">
+        <v>43385</v>
+      </c>
+      <c r="F35" s="92">
+        <v>13800</v>
+      </c>
+      <c r="G35" s="92">
+        <v>115</v>
+      </c>
+      <c r="H35" s="92">
+        <v>0.30136986301369861</v>
+      </c>
+      <c r="I35" s="92">
+        <v>0</v>
+      </c>
+      <c r="J35" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="K35" s="92">
+        <v>83.925593529492289</v>
+      </c>
+      <c r="L35" s="92">
+        <v>30</v>
+      </c>
+      <c r="M35" s="92">
+        <v>13.29041095890411</v>
+      </c>
+      <c r="N35" s="99">
+        <v>70.635182570588185</v>
+      </c>
+      <c r="O35" s="92">
+        <v>14700</v>
+      </c>
+      <c r="P35" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q35" s="92">
+        <v>1</v>
+      </c>
+      <c r="R35" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B36" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E36" s="93">
+        <v>43321</v>
+      </c>
+      <c r="F36" s="92">
+        <v>14000</v>
+      </c>
+      <c r="G36" s="92">
+        <v>51</v>
+      </c>
+      <c r="H36" s="92">
+        <v>0.13972602739726028</v>
+      </c>
+      <c r="I36" s="92">
+        <v>0</v>
+      </c>
+      <c r="J36" s="92">
+        <v>0.125</v>
+      </c>
+      <c r="K36" s="92">
+        <v>75.523449254858406</v>
+      </c>
+      <c r="L36" s="92">
+        <v>30</v>
+      </c>
+      <c r="M36" s="92">
+        <v>6.1011369863013707</v>
+      </c>
+      <c r="N36" s="99">
+        <v>69.422312268557036</v>
+      </c>
+      <c r="O36" s="92">
+        <v>14555</v>
+      </c>
+      <c r="P36" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q36" s="92">
+        <v>1</v>
+      </c>
+      <c r="R36" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B37" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E37" s="93">
+        <v>43357</v>
+      </c>
+      <c r="F37" s="92">
+        <v>14000</v>
+      </c>
+      <c r="G37" s="92">
+        <v>87</v>
+      </c>
+      <c r="H37" s="92">
+        <v>0.23835616438356164</v>
+      </c>
+      <c r="I37" s="92">
+        <v>0</v>
+      </c>
+      <c r="J37" s="92">
+        <v>0.1225</v>
+      </c>
+      <c r="K37" s="92">
+        <v>113.33638339237496</v>
+      </c>
+      <c r="L37" s="92">
+        <v>30</v>
+      </c>
+      <c r="M37" s="92">
+        <v>10.465027397260274</v>
+      </c>
+      <c r="N37" s="99">
+        <v>102.87135599511468</v>
+      </c>
+      <c r="O37" s="92">
+        <v>14635</v>
+      </c>
+      <c r="P37" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q37" s="92">
+        <v>1</v>
+      </c>
+      <c r="R37" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B38" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E38" s="93">
+        <v>43385</v>
+      </c>
+      <c r="F38" s="92">
+        <v>14000</v>
+      </c>
+      <c r="G38" s="92">
+        <v>115</v>
+      </c>
+      <c r="H38" s="92">
+        <v>0.30136986301369861</v>
+      </c>
+      <c r="I38" s="92">
+        <v>0</v>
+      </c>
+      <c r="J38" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="K38" s="92">
+        <v>125.18230137886394</v>
+      </c>
+      <c r="L38" s="92">
+        <v>30</v>
+      </c>
+      <c r="M38" s="92">
+        <v>13.29041095890411</v>
+      </c>
+      <c r="N38" s="99">
+        <v>111.89189041995984</v>
+      </c>
+      <c r="O38" s="92">
+        <v>14700</v>
+      </c>
+      <c r="P38" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q38" s="92">
+        <v>1</v>
+      </c>
+      <c r="R38" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B39" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O39" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B40" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E40" s="93">
+        <v>43321</v>
+      </c>
+      <c r="F40" s="92">
+        <v>13800</v>
+      </c>
+      <c r="G40" s="92">
+        <v>51</v>
+      </c>
+      <c r="H40" s="92">
+        <v>0.13972602739726028</v>
+      </c>
+      <c r="I40" s="92">
+        <v>0</v>
+      </c>
+      <c r="J40" s="92">
+        <v>0.125</v>
+      </c>
+      <c r="K40" s="92">
+        <v>46.960272611971277</v>
+      </c>
+      <c r="L40" s="92">
+        <v>30</v>
+      </c>
+      <c r="M40" s="92">
+        <v>6.0843698630136993</v>
+      </c>
+      <c r="N40" s="99">
+        <v>40.875902748957579</v>
+      </c>
+      <c r="O40" s="92">
+        <v>14515</v>
+      </c>
+      <c r="P40" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q40" s="92">
+        <v>1</v>
+      </c>
+      <c r="R40" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B41" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E41" s="93">
+        <v>43357</v>
+      </c>
+      <c r="F41" s="92">
+        <v>13800</v>
+      </c>
+      <c r="G41" s="92">
+        <v>87</v>
+      </c>
+      <c r="H41" s="92">
+        <v>0.23835616438356164</v>
+      </c>
+      <c r="I41" s="92">
+        <v>0</v>
+      </c>
+      <c r="J41" s="92">
+        <v>0.1225</v>
+      </c>
+      <c r="K41" s="92">
+        <v>80.119128093494055</v>
+      </c>
+      <c r="L41" s="92">
+        <v>30</v>
+      </c>
+      <c r="M41" s="92">
+        <v>10.432849315068493</v>
+      </c>
+      <c r="N41" s="99">
+        <v>69.68627877842556</v>
+      </c>
+      <c r="O41" s="92">
+        <v>14590</v>
+      </c>
+      <c r="P41" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q41" s="92">
+        <v>1</v>
+      </c>
+      <c r="R41" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B42" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E42" s="93">
+        <v>43385</v>
+      </c>
+      <c r="F42" s="92">
+        <v>13800</v>
+      </c>
+      <c r="G42" s="92">
+        <v>115</v>
+      </c>
+      <c r="H42" s="92">
+        <v>0.30136986301369861</v>
+      </c>
+      <c r="I42" s="92">
+        <v>0</v>
+      </c>
+      <c r="J42" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="K42" s="92">
+        <v>87.995461023180269</v>
+      </c>
+      <c r="L42" s="92">
+        <v>30</v>
+      </c>
+      <c r="M42" s="92">
+        <v>13.267808219178082</v>
+      </c>
+      <c r="N42" s="99">
+        <v>74.72765280400219</v>
+      </c>
+      <c r="O42" s="92">
+        <v>14675</v>
+      </c>
+      <c r="P42" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q42" s="92">
+        <v>1</v>
+      </c>
+      <c r="R42" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B43" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E43" s="93">
+        <v>43321</v>
+      </c>
+      <c r="F43" s="92">
+        <v>14000</v>
+      </c>
+      <c r="G43" s="92">
+        <v>51</v>
+      </c>
+      <c r="H43" s="92">
+        <v>0.13972602739726028</v>
+      </c>
+      <c r="I43" s="92">
+        <v>0</v>
+      </c>
+      <c r="J43" s="92">
+        <v>0.125</v>
+      </c>
+      <c r="K43" s="92">
+        <v>83.678378785805762</v>
+      </c>
+      <c r="L43" s="92">
+        <v>30</v>
+      </c>
+      <c r="M43" s="92">
+        <v>6.0843698630136993</v>
+      </c>
+      <c r="N43" s="99">
+        <v>77.594008922792057</v>
+      </c>
+      <c r="O43" s="92">
+        <v>14515</v>
+      </c>
+      <c r="P43" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q43" s="92">
+        <v>1</v>
+      </c>
+      <c r="R43" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B44" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E44" s="93">
+        <v>43357</v>
+      </c>
+      <c r="F44" s="92">
+        <v>14000</v>
+      </c>
+      <c r="G44" s="92">
+        <v>87</v>
+      </c>
+      <c r="H44" s="92">
+        <v>0.23835616438356164</v>
+      </c>
+      <c r="I44" s="92">
+        <v>0</v>
+      </c>
+      <c r="J44" s="92">
+        <v>0.1225</v>
+      </c>
+      <c r="K44" s="92">
+        <v>123.54300304222943</v>
+      </c>
+      <c r="L44" s="92">
+        <v>30</v>
+      </c>
+      <c r="M44" s="92">
+        <v>10.432849315068493</v>
+      </c>
+      <c r="N44" s="99">
+        <v>113.11015372716093</v>
+      </c>
+      <c r="O44" s="92">
+        <v>14590</v>
+      </c>
+      <c r="P44" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q44" s="92">
+        <v>1</v>
+      </c>
+      <c r="R44" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B45" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E45" s="93">
+        <v>43385</v>
+      </c>
+      <c r="F45" s="92">
+        <v>14000</v>
+      </c>
+      <c r="G45" s="92">
+        <v>115</v>
+      </c>
+      <c r="H45" s="92">
+        <v>0.30136986301369861</v>
+      </c>
+      <c r="I45" s="92">
+        <v>0</v>
+      </c>
+      <c r="J45" s="92">
+        <v>0.12</v>
+      </c>
+      <c r="K45" s="92">
+        <v>130.73469926196822</v>
+      </c>
+      <c r="L45" s="92">
+        <v>30</v>
+      </c>
+      <c r="M45" s="92">
+        <v>13.267808219178082</v>
+      </c>
+      <c r="N45" s="99">
+        <v>117.46689104279014</v>
+      </c>
+      <c r="O45" s="92">
+        <v>14675</v>
+      </c>
+      <c r="P45" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q45" s="92">
+        <v>1</v>
+      </c>
+      <c r="R45" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B46" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O46" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P46" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B47" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E47" s="93">
+        <v>43300</v>
+      </c>
+      <c r="F47" s="92">
+        <v>49500</v>
+      </c>
+      <c r="G47" s="92">
+        <v>30</v>
+      </c>
+      <c r="H47" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I47" s="92">
+        <v>0</v>
+      </c>
+      <c r="J47" s="92">
+        <v>0.1225</v>
+      </c>
+      <c r="K47" s="92">
+        <v>36.070069193164272</v>
+      </c>
+      <c r="L47" s="92">
+        <v>30</v>
+      </c>
+      <c r="M47" s="92">
+        <v>12.937808219178082</v>
+      </c>
+      <c r="N47" s="99">
+        <v>23.132260973986192</v>
+      </c>
+      <c r="O47" s="92">
+        <v>52470</v>
+      </c>
+      <c r="P47" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q47" s="92">
+        <v>1</v>
+      </c>
+      <c r="R47" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B48" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="93">
+        <v>43270</v>
+      </c>
+      <c r="E48" s="93">
+        <v>43300</v>
+      </c>
+      <c r="F48" s="92">
+        <v>50000</v>
+      </c>
+      <c r="G48" s="92">
+        <v>30</v>
+      </c>
+      <c r="H48" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I48" s="92">
+        <v>0</v>
+      </c>
+      <c r="J48" s="92">
+        <v>0.1225</v>
+      </c>
+      <c r="K48" s="92">
+        <v>69.862104030476985</v>
+      </c>
+      <c r="L48" s="92">
+        <v>30</v>
+      </c>
+      <c r="M48" s="92">
+        <v>12.937808219178082</v>
+      </c>
+      <c r="N48" s="99">
+        <v>56.924295811298904</v>
+      </c>
+      <c r="O48" s="92">
+        <v>52470</v>
+      </c>
+      <c r="P48" s="92" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q48" s="92">
+        <v>1</v>
+      </c>
+      <c r="R48" s="92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B49" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N49" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O49" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B50" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="93">
+        <v>43272</v>
+      </c>
+      <c r="E50" s="93">
+        <v>43363</v>
+      </c>
+      <c r="F50" s="92">
+        <v>11500</v>
+      </c>
+      <c r="G50" s="92">
+        <v>91</v>
+      </c>
+      <c r="H50" s="92">
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="I50" s="92">
+        <v>0</v>
+      </c>
+      <c r="J50" s="92">
+        <v>0.24</v>
+      </c>
+      <c r="K50" s="92">
+        <v>-17.351289205071055</v>
+      </c>
+      <c r="L50" s="92">
+        <v>0</v>
+      </c>
+      <c r="M50" s="92">
+        <v>0</v>
+      </c>
+      <c r="N50" s="99">
+        <v>17.25</v>
+      </c>
+      <c r="O50" s="92">
+        <v>14425</v>
+      </c>
+      <c r="P50" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R50" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B51" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="93">
+        <v>43272</v>
+      </c>
+      <c r="E51" s="93">
+        <v>43363</v>
+      </c>
+      <c r="F51" s="92">
+        <v>14000</v>
+      </c>
+      <c r="G51" s="92">
+        <v>91</v>
+      </c>
+      <c r="H51" s="92">
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="I51" s="92">
+        <v>0</v>
+      </c>
+      <c r="J51" s="92">
+        <v>0.19</v>
+      </c>
+      <c r="K51" s="92">
+        <v>-349.93164053633427</v>
+      </c>
+      <c r="L51" s="92">
+        <v>0</v>
+      </c>
+      <c r="M51" s="92">
+        <v>0</v>
+      </c>
+      <c r="N51" s="99">
+        <v>349.93164053633427</v>
+      </c>
+      <c r="O51" s="92">
+        <v>14425</v>
+      </c>
+      <c r="P51" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R51" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B52" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="93">
+        <v>43272</v>
+      </c>
+      <c r="E52" s="93">
+        <v>43363</v>
+      </c>
+      <c r="F52" s="92">
+        <v>13500</v>
+      </c>
+      <c r="G52" s="92">
+        <v>91</v>
+      </c>
+      <c r="H52" s="92">
+        <v>0.24931506849315069</v>
+      </c>
+      <c r="I52" s="92">
+        <v>0</v>
+      </c>
+      <c r="J52" s="92">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K52" s="92">
+        <v>-199.44352838717532</v>
+      </c>
+      <c r="L52" s="92">
+        <v>0</v>
+      </c>
+      <c r="M52" s="92">
+        <v>0</v>
+      </c>
+      <c r="N52" s="99">
+        <v>199.44352838717532</v>
+      </c>
+      <c r="O52" s="92">
+        <v>14425</v>
+      </c>
+      <c r="P52" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q52" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R52" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B53" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N53" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O53" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P53" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B54" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="93">
+        <v>43272</v>
+      </c>
+      <c r="E54" s="93">
+        <v>43322</v>
+      </c>
+      <c r="F54" s="92">
+        <v>480</v>
+      </c>
+      <c r="G54" s="92">
+        <v>50</v>
+      </c>
+      <c r="H54" s="92">
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="I54" s="92">
+        <v>0</v>
+      </c>
+      <c r="J54" s="92">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K54" s="92">
+        <v>36.198887383502893</v>
+      </c>
+      <c r="L54" s="92">
+        <v>0</v>
+      </c>
+      <c r="M54" s="92">
+        <v>0</v>
+      </c>
+      <c r="N54" s="99">
+        <v>36.198887383502893</v>
+      </c>
+      <c r="O54" s="92">
+        <v>453</v>
+      </c>
+      <c r="P54" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q54" s="92">
+        <v>1</v>
+      </c>
+      <c r="R54" s="92" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3418,10 +4879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="145"/>
+      <c r="C1" s="147"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -3560,11 +5021,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -3633,11 +5094,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -3703,11 +5164,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -4425,9 +5886,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:Y90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S78" sqref="S78"/>
+      <selection pane="bottomLeft" activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4442,10 +5903,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="140"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4455,62 +5916,62 @@
       <c r="C3" s="139"/>
       <c r="D3" s="139"/>
       <c r="E3" s="139"/>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
       <c r="L3" s="139" t="s">
         <v>165</v>
       </c>
       <c r="M3" s="139"/>
       <c r="N3" s="139"/>
       <c r="O3" s="139"/>
-      <c r="Q3" s="138" t="s">
+      <c r="Q3" s="143" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="G4" s="131" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="G4" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="L4" s="131" t="s">
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="L4" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="Q4" s="131" t="s">
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="Q4" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="141"/>
       <c r="E5" s="142"/>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="135"/>
+      <c r="H5" s="137"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104"/>
       <c r="L5" s="101" t="s">
@@ -4519,312 +5980,312 @@
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
       <c r="O5" s="104"/>
-      <c r="Q5" s="135" t="s">
+      <c r="Q5" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="135"/>
+      <c r="R5" s="137"/>
       <c r="S5" s="103"/>
       <c r="T5" s="104"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="136" t="s">
+      <c r="C6" s="137"/>
+      <c r="D6" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="137"/>
-      <c r="G6" s="135" t="s">
+      <c r="E6" s="136"/>
+      <c r="G6" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
-      <c r="L6" s="135" t="s">
+      <c r="H6" s="137"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
+      <c r="L6" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="135"/>
-      <c r="N6" s="136" t="s">
+      <c r="M6" s="137"/>
+      <c r="N6" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="137"/>
-      <c r="Q6" s="135" t="s">
+      <c r="O6" s="136"/>
+      <c r="Q6" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="135"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="136"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="136" t="s">
+      <c r="C7" s="137"/>
+      <c r="D7" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="G7" s="135" t="s">
+      <c r="E7" s="136"/>
+      <c r="G7" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="137"/>
-      <c r="L7" s="135" t="s">
+      <c r="H7" s="137"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
+      <c r="L7" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="136" t="s">
+      <c r="M7" s="137"/>
+      <c r="N7" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="137"/>
-      <c r="Q7" s="135" t="s">
+      <c r="O7" s="136"/>
+      <c r="Q7" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="135"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="136"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="136">
+      <c r="C8" s="137"/>
+      <c r="D8" s="135">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="136"/>
+      <c r="G8" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="137"/>
-      <c r="L8" s="135" t="s">
+      <c r="H8" s="137"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="136"/>
+      <c r="L8" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="135"/>
-      <c r="N8" s="136">
+      <c r="M8" s="137"/>
+      <c r="N8" s="135">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="137"/>
-      <c r="Q8" s="135" t="s">
+      <c r="O8" s="136"/>
+      <c r="Q8" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="135"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="136"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="136" t="s">
+      <c r="C9" s="137"/>
+      <c r="D9" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="G9" s="135" t="s">
+      <c r="E9" s="136"/>
+      <c r="G9" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="137"/>
-      <c r="L9" s="135" t="s">
+      <c r="H9" s="137"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
+      <c r="L9" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="135"/>
-      <c r="N9" s="136" t="s">
+      <c r="M9" s="137"/>
+      <c r="N9" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="137"/>
-      <c r="Q9" s="135" t="s">
+      <c r="O9" s="136"/>
+      <c r="Q9" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="135"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="136"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136">
+      <c r="C10" s="137"/>
+      <c r="D10" s="135">
         <v>43084</v>
       </c>
-      <c r="E10" s="137"/>
+      <c r="E10" s="136"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
-      <c r="L10" s="135" t="s">
+      <c r="I10" s="135"/>
+      <c r="J10" s="136"/>
+      <c r="L10" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="135"/>
-      <c r="N10" s="136">
+      <c r="M10" s="137"/>
+      <c r="N10" s="135">
         <v>43084</v>
       </c>
-      <c r="O10" s="137"/>
+      <c r="O10" s="136"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="137"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="136"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136">
+      <c r="C11" s="137"/>
+      <c r="D11" s="135">
         <v>3935</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="G11" s="135" t="s">
+      <c r="E11" s="136"/>
+      <c r="G11" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="135"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="137"/>
-      <c r="L11" s="135" t="s">
+      <c r="H11" s="137"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="136"/>
+      <c r="L11" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="135"/>
-      <c r="N11" s="136">
+      <c r="M11" s="137"/>
+      <c r="N11" s="135">
         <v>3935</v>
       </c>
-      <c r="O11" s="137"/>
-      <c r="Q11" s="135" t="s">
+      <c r="O11" s="136"/>
+      <c r="Q11" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="135"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="137"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="136"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136">
+      <c r="C12" s="137"/>
+      <c r="D12" s="135">
         <v>3800</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="G12" s="135" t="s">
+      <c r="E12" s="136"/>
+      <c r="G12" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="135"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="137"/>
-      <c r="L12" s="135" t="s">
+      <c r="H12" s="137"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
+      <c r="L12" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="135"/>
-      <c r="N12" s="136">
+      <c r="M12" s="137"/>
+      <c r="N12" s="135">
         <v>3800</v>
       </c>
-      <c r="O12" s="137"/>
-      <c r="Q12" s="135" t="s">
+      <c r="O12" s="136"/>
+      <c r="Q12" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="135"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="136"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136">
+      <c r="C13" s="137"/>
+      <c r="D13" s="135">
         <v>61</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="G13" s="135" t="s">
+      <c r="E13" s="136"/>
+      <c r="G13" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="135"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="137"/>
-      <c r="L13" s="135" t="s">
+      <c r="H13" s="137"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="136"/>
+      <c r="L13" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="135"/>
-      <c r="N13" s="136">
+      <c r="M13" s="137"/>
+      <c r="N13" s="135">
         <v>3800</v>
       </c>
-      <c r="O13" s="137"/>
-      <c r="Q13" s="135" t="s">
+      <c r="O13" s="136"/>
+      <c r="Q13" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="135"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="137"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="136"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136" t="s">
+      <c r="C14" s="137"/>
+      <c r="D14" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="G14" s="135" t="s">
+      <c r="E14" s="136"/>
+      <c r="G14" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="135"/>
+      <c r="H14" s="137"/>
       <c r="I14" s="106"/>
       <c r="J14" s="107"/>
-      <c r="L14" s="135" t="s">
+      <c r="L14" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="136">
+      <c r="M14" s="137"/>
+      <c r="N14" s="135">
         <v>61</v>
       </c>
-      <c r="O14" s="137"/>
-      <c r="Q14" s="135" t="s">
+      <c r="O14" s="136"/>
+      <c r="Q14" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="135"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="136"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136">
+      <c r="C15" s="137"/>
+      <c r="D15" s="135">
         <v>5000</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="G15" s="135" t="s">
+      <c r="E15" s="136"/>
+      <c r="G15" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="135"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="137"/>
-      <c r="L15" s="135" t="s">
+      <c r="H15" s="137"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="136"/>
+      <c r="L15" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="135"/>
-      <c r="N15" s="136" t="s">
+      <c r="M15" s="137"/>
+      <c r="N15" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="137"/>
-      <c r="Q15" s="135" t="s">
+      <c r="O15" s="136"/>
+      <c r="Q15" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="135"/>
+      <c r="R15" s="137"/>
       <c r="S15" s="106"/>
       <c r="T15" s="107"/>
     </row>
@@ -4843,20 +6304,20 @@
       <c r="H16" s="132"/>
       <c r="I16" s="133"/>
       <c r="J16" s="134"/>
-      <c r="L16" s="135" t="s">
+      <c r="L16" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="136">
+      <c r="M16" s="137"/>
+      <c r="N16" s="135">
         <v>5000</v>
       </c>
-      <c r="O16" s="137"/>
-      <c r="Q16" s="135" t="s">
+      <c r="O16" s="136"/>
+      <c r="Q16" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="135"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="137"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="136"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L17" s="132" t="s">
@@ -4902,36 +6363,36 @@
       <c r="Y21" s="109"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="128" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="G22" s="128" t="s">
+      <c r="B22" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="G22" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="L22" s="131" t="s">
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="L22" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="Q22" s="128" t="s">
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="Q22" s="130" t="s">
         <v>187</v>
       </c>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="V22" s="131" t="s">
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
+      <c r="V22" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
-      <c r="Y22" s="131"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="140"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B23" s="121" t="s">
@@ -4941,43 +6402,43 @@
       <c r="D23" s="127">
         <v>43209</v>
       </c>
-      <c r="E23" s="129"/>
+      <c r="E23" s="131"/>
       <c r="G23" s="121" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="121"/>
       <c r="I23" s="127">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
-      </c>
-      <c r="J23" s="129"/>
+        <v>43273</v>
+      </c>
+      <c r="J23" s="131"/>
       <c r="L23" s="121" t="s">
         <v>122</v>
       </c>
       <c r="M23" s="121"/>
       <c r="N23" s="127">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
-      </c>
-      <c r="O23" s="129"/>
+        <v>43273</v>
+      </c>
+      <c r="O23" s="131"/>
       <c r="Q23" s="121" t="s">
         <v>122</v>
       </c>
       <c r="R23" s="121"/>
       <c r="S23" s="127">
         <f ca="1">TODAY()-1</f>
-        <v>43264</v>
-      </c>
-      <c r="T23" s="129"/>
+        <v>43272</v>
+      </c>
+      <c r="T23" s="131"/>
       <c r="V23" s="121" t="s">
         <v>122</v>
       </c>
       <c r="W23" s="121"/>
       <c r="X23" s="127">
         <f ca="1">TODAY()-1</f>
-        <v>43264</v>
-      </c>
-      <c r="Y23" s="129"/>
+        <v>43272</v>
+      </c>
+      <c r="Y23" s="131"/>
     </row>
     <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B24" s="121" t="s">
@@ -5027,7 +6488,7 @@
       </c>
       <c r="C25" s="121"/>
       <c r="D25" s="122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E25" s="123"/>
       <c r="G25" s="121" t="s">
@@ -5043,7 +6504,7 @@
       </c>
       <c r="M25" s="121"/>
       <c r="N25" s="122" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O25" s="123"/>
       <c r="Q25" s="121" t="s">
@@ -5128,7 +6589,7 @@
       </c>
       <c r="H27" s="121"/>
       <c r="I27" s="122" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J27" s="123"/>
       <c r="L27" s="121" t="s">
@@ -5292,7 +6753,7 @@
       </c>
       <c r="E31" s="123"/>
       <c r="G31" s="121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H31" s="121"/>
       <c r="I31" s="122">
@@ -5330,15 +6791,15 @@
       </c>
       <c r="C32" s="121"/>
       <c r="D32" s="122" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E32" s="123"/>
       <c r="G32" s="121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H32" s="121"/>
       <c r="I32" s="122" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J32" s="123"/>
       <c r="L32" s="121" t="s">
@@ -5346,7 +6807,7 @@
       </c>
       <c r="M32" s="121"/>
       <c r="N32" s="122" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O32" s="123"/>
       <c r="Q32" s="121" t="s">
@@ -5376,7 +6837,7 @@
       </c>
       <c r="E33" s="123"/>
       <c r="G33" s="121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H33" s="121"/>
       <c r="I33" s="122">
@@ -5452,30 +6913,30 @@
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="G36" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="G36" s="128" t="s">
-        <v>226</v>
-      </c>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="L36" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="M36" s="128"/>
-      <c r="N36" s="128"/>
-      <c r="O36" s="128"/>
-      <c r="Q36" s="128" t="s">
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="L36" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="Q36" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="R36" s="128"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="130"/>
+      <c r="T36" s="130"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B37" s="121" t="s">
@@ -5485,7 +6946,7 @@
       <c r="D37" s="127">
         <v>43229</v>
       </c>
-      <c r="E37" s="129"/>
+      <c r="E37" s="131"/>
       <c r="G37" s="121" t="s">
         <v>122</v>
       </c>
@@ -5493,7 +6954,7 @@
       <c r="I37" s="127">
         <v>43229</v>
       </c>
-      <c r="J37" s="129"/>
+      <c r="J37" s="131"/>
       <c r="L37" s="121" t="s">
         <v>122</v>
       </c>
@@ -5501,7 +6962,7 @@
       <c r="N37" s="127">
         <v>43214</v>
       </c>
-      <c r="O37" s="129"/>
+      <c r="O37" s="131"/>
       <c r="Q37" s="121" t="s">
         <v>122</v>
       </c>
@@ -5509,7 +6970,7 @@
       <c r="S37" s="127">
         <v>43209</v>
       </c>
-      <c r="T37" s="129"/>
+      <c r="T37" s="131"/>
     </row>
     <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B38" s="121" t="s">
@@ -5533,7 +6994,7 @@
       </c>
       <c r="M38" s="121"/>
       <c r="N38" s="122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O38" s="123"/>
       <c r="Q38" s="121" t="s">
@@ -5541,7 +7002,7 @@
       </c>
       <c r="R38" s="121"/>
       <c r="S38" s="122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T38" s="123"/>
     </row>
@@ -5551,7 +7012,7 @@
       </c>
       <c r="C39" s="121"/>
       <c r="D39" s="122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" s="123"/>
       <c r="G39" s="121" t="s">
@@ -5559,7 +7020,7 @@
       </c>
       <c r="H39" s="121"/>
       <c r="I39" s="122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J39" s="123"/>
       <c r="L39" s="121" t="s">
@@ -5575,7 +7036,7 @@
       </c>
       <c r="R39" s="121"/>
       <c r="S39" s="122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T39" s="123"/>
     </row>
@@ -5623,7 +7084,7 @@
       </c>
       <c r="C41" s="121"/>
       <c r="D41" s="122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E41" s="123"/>
       <c r="G41" s="121" t="s">
@@ -5631,7 +7092,7 @@
       </c>
       <c r="H41" s="121"/>
       <c r="I41" s="122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J41" s="123"/>
       <c r="L41" s="121" t="s">
@@ -5639,7 +7100,7 @@
       </c>
       <c r="M41" s="121"/>
       <c r="N41" s="122" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O41" s="123"/>
       <c r="Q41" s="121" t="s">
@@ -5647,7 +7108,7 @@
       </c>
       <c r="R41" s="121"/>
       <c r="S41" s="122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T41" s="123"/>
     </row>
@@ -5707,7 +7168,7 @@
       <c r="L43" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="130"/>
+      <c r="M43" s="144"/>
       <c r="N43" s="122">
         <v>14535</v>
       </c>
@@ -5785,7 +7246,7 @@
       </c>
       <c r="O45" s="123"/>
       <c r="Q45" s="121" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R45" s="121"/>
       <c r="S45" s="122">
@@ -5795,11 +7256,11 @@
     </row>
     <row r="46" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B46" s="121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="121"/>
       <c r="D46" s="122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E46" s="123"/>
       <c r="G46" s="121" t="s">
@@ -5807,7 +7268,7 @@
       </c>
       <c r="H46" s="121"/>
       <c r="I46" s="122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J46" s="123"/>
       <c r="L46" s="121" t="s">
@@ -5815,7 +7276,7 @@
       </c>
       <c r="M46" s="121"/>
       <c r="N46" s="122" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O46" s="123"/>
       <c r="Q46" s="121" t="s">
@@ -5823,7 +7284,7 @@
       </c>
       <c r="R46" s="121"/>
       <c r="S46" s="122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T46" s="123"/>
     </row>
@@ -5867,7 +7328,7 @@
       </c>
       <c r="C48" s="124"/>
       <c r="D48" s="125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E48" s="126"/>
       <c r="G48" s="124" t="s">
@@ -5875,7 +7336,7 @@
       </c>
       <c r="H48" s="124"/>
       <c r="I48" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J48" s="126"/>
       <c r="L48" s="124" t="s">
@@ -5883,7 +7344,7 @@
       </c>
       <c r="M48" s="124"/>
       <c r="N48" s="125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O48" s="126"/>
       <c r="Q48" s="124" t="s">
@@ -5891,35 +7352,35 @@
       </c>
       <c r="R48" s="124"/>
       <c r="S48" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T48" s="126"/>
     </row>
     <row r="49" spans="2:20" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="128" t="s">
+      <c r="B49" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="G49" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
-      <c r="J49" s="128"/>
-      <c r="L49" s="128" t="s">
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="G49" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" s="130"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="L49" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="M49" s="128"/>
-      <c r="N49" s="128"/>
-      <c r="O49" s="128"/>
-      <c r="Q49" s="128" t="s">
-        <v>233</v>
-      </c>
-      <c r="R49" s="128"/>
-      <c r="S49" s="128"/>
-      <c r="T49" s="128"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="130"/>
+      <c r="Q49" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
+      <c r="T49" s="130"/>
     </row>
     <row r="50" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B50" s="121" t="s">
@@ -5929,7 +7390,7 @@
       <c r="D50" s="127">
         <v>43235</v>
       </c>
-      <c r="E50" s="129"/>
+      <c r="E50" s="131"/>
       <c r="G50" s="121" t="s">
         <v>122</v>
       </c>
@@ -5937,7 +7398,7 @@
       <c r="I50" s="127">
         <v>43265</v>
       </c>
-      <c r="J50" s="129"/>
+      <c r="J50" s="131"/>
       <c r="L50" s="121" t="s">
         <v>122</v>
       </c>
@@ -5945,7 +7406,7 @@
       <c r="N50" s="127">
         <v>43237</v>
       </c>
-      <c r="O50" s="129"/>
+      <c r="O50" s="131"/>
       <c r="Q50" s="121" t="s">
         <v>122</v>
       </c>
@@ -5953,7 +7414,7 @@
       <c r="S50" s="127">
         <v>43237</v>
       </c>
-      <c r="T50" s="129"/>
+      <c r="T50" s="131"/>
     </row>
     <row r="51" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B51" s="121" t="s">
@@ -5961,7 +7422,7 @@
       </c>
       <c r="C51" s="121"/>
       <c r="D51" s="122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E51" s="123"/>
       <c r="G51" s="121" t="s">
@@ -5969,7 +7430,7 @@
       </c>
       <c r="H51" s="121"/>
       <c r="I51" s="122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J51" s="123"/>
       <c r="L51" s="121" t="s">
@@ -5995,7 +7456,7 @@
       </c>
       <c r="C52" s="121"/>
       <c r="D52" s="122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E52" s="123"/>
       <c r="G52" s="121" t="s">
@@ -6075,7 +7536,7 @@
       </c>
       <c r="H54" s="121"/>
       <c r="I54" s="122" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J54" s="123"/>
       <c r="L54" s="121" t="s">
@@ -6144,7 +7605,7 @@
       <c r="G56" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="130"/>
+      <c r="H56" s="144"/>
       <c r="I56" s="122">
         <v>14700</v>
       </c>
@@ -6240,7 +7701,7 @@
       </c>
       <c r="C59" s="121"/>
       <c r="D59" s="122" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E59" s="123"/>
       <c r="G59" s="121" t="s">
@@ -6248,7 +7709,7 @@
       </c>
       <c r="H59" s="121"/>
       <c r="I59" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J59" s="123"/>
       <c r="L59" s="121" t="s">
@@ -6256,7 +7717,7 @@
       </c>
       <c r="M59" s="121"/>
       <c r="N59" s="122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O59" s="123"/>
       <c r="Q59" s="121" t="s">
@@ -6264,7 +7725,7 @@
       </c>
       <c r="R59" s="121"/>
       <c r="S59" s="122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T59" s="123"/>
     </row>
@@ -6308,7 +7769,7 @@
       </c>
       <c r="C61" s="124"/>
       <c r="D61" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E61" s="126"/>
       <c r="G61" s="124" t="s">
@@ -6316,7 +7777,7 @@
       </c>
       <c r="H61" s="124"/>
       <c r="I61" s="125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J61" s="126"/>
       <c r="L61" s="124" t="s">
@@ -6324,7 +7785,7 @@
       </c>
       <c r="M61" s="124"/>
       <c r="N61" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O61" s="126"/>
       <c r="Q61" s="124" t="s">
@@ -6332,30 +7793,30 @@
       </c>
       <c r="R61" s="124"/>
       <c r="S61" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T61" s="126"/>
     </row>
     <row r="62" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="2:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G63" s="128" t="s">
+      <c r="G63" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="L63" s="130" t="s">
         <v>237</v>
       </c>
-      <c r="H63" s="128"/>
-      <c r="I63" s="128"/>
-      <c r="J63" s="128"/>
-      <c r="L63" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="M63" s="128"/>
-      <c r="N63" s="128"/>
-      <c r="O63" s="128"/>
-      <c r="Q63" s="128" t="s">
-        <v>259</v>
-      </c>
-      <c r="R63" s="128"/>
-      <c r="S63" s="128"/>
-      <c r="T63" s="128"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="130"/>
+      <c r="O63" s="130"/>
+      <c r="Q63" s="130" t="s">
+        <v>252</v>
+      </c>
+      <c r="R63" s="130"/>
+      <c r="S63" s="130"/>
+      <c r="T63" s="130"/>
     </row>
     <row r="64" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="G64" s="121" t="s">
@@ -6365,7 +7826,7 @@
       <c r="I64" s="127">
         <v>43248</v>
       </c>
-      <c r="J64" s="129"/>
+      <c r="J64" s="131"/>
       <c r="L64" s="121" t="s">
         <v>122</v>
       </c>
@@ -6373,7 +7834,7 @@
       <c r="N64" s="127">
         <v>43248</v>
       </c>
-      <c r="O64" s="129"/>
+      <c r="O64" s="131"/>
       <c r="Q64" s="121" t="s">
         <v>122</v>
       </c>
@@ -6381,7 +7842,7 @@
       <c r="S64" s="127">
         <v>43264</v>
       </c>
-      <c r="T64" s="129"/>
+      <c r="T64" s="131"/>
     </row>
     <row r="65" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G65" s="121" t="s">
@@ -6389,7 +7850,7 @@
       </c>
       <c r="H65" s="121"/>
       <c r="I65" s="122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J65" s="123"/>
       <c r="L65" s="121" t="s">
@@ -6397,7 +7858,7 @@
       </c>
       <c r="M65" s="121"/>
       <c r="N65" s="122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O65" s="123"/>
       <c r="Q65" s="121" t="s">
@@ -6405,7 +7866,7 @@
       </c>
       <c r="R65" s="121"/>
       <c r="S65" s="122" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="T65" s="123"/>
     </row>
@@ -6478,7 +7939,7 @@
       </c>
       <c r="M68" s="121"/>
       <c r="N68" s="122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O68" s="123"/>
       <c r="Q68" s="121" t="s">
@@ -6603,7 +8064,7 @@
       </c>
       <c r="H73" s="121"/>
       <c r="I73" s="122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J73" s="123"/>
       <c r="L73" s="121" t="s">
@@ -6611,7 +8072,7 @@
       </c>
       <c r="M73" s="121"/>
       <c r="N73" s="122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O73" s="123"/>
       <c r="Q73" s="121" t="s">
@@ -6619,7 +8080,7 @@
       </c>
       <c r="R73" s="121"/>
       <c r="S73" s="122" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="T73" s="123"/>
     </row>
@@ -6655,7 +8116,7 @@
       </c>
       <c r="H75" s="124"/>
       <c r="I75" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J75" s="126"/>
       <c r="L75" s="124" t="s">
@@ -6663,7 +8124,7 @@
       </c>
       <c r="M75" s="124"/>
       <c r="N75" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O75" s="126"/>
       <c r="Q75" s="124" t="s">
@@ -6671,24 +8132,24 @@
       </c>
       <c r="R75" s="124"/>
       <c r="S75" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T75" s="126"/>
     </row>
     <row r="76" spans="7:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="7:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G77" s="128" t="s">
-        <v>237</v>
-      </c>
-      <c r="H77" s="128"/>
-      <c r="I77" s="128"/>
-      <c r="J77" s="128"/>
-      <c r="L77" s="128" t="s">
-        <v>261</v>
-      </c>
-      <c r="M77" s="128"/>
-      <c r="N77" s="128"/>
-      <c r="O77" s="128"/>
+      <c r="G77" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="H77" s="130"/>
+      <c r="I77" s="130"/>
+      <c r="J77" s="130"/>
+      <c r="L77" s="130" t="s">
+        <v>254</v>
+      </c>
+      <c r="M77" s="130"/>
+      <c r="N77" s="130"/>
+      <c r="O77" s="130"/>
     </row>
     <row r="78" spans="7:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="G78" s="121" t="s">
@@ -6698,7 +8159,7 @@
       <c r="I78" s="127">
         <v>43248</v>
       </c>
-      <c r="J78" s="129"/>
+      <c r="J78" s="131"/>
       <c r="L78" s="121" t="s">
         <v>122</v>
       </c>
@@ -6706,7 +8167,7 @@
       <c r="N78" s="127">
         <v>43265</v>
       </c>
-      <c r="O78" s="129"/>
+      <c r="O78" s="131"/>
     </row>
     <row r="79" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G79" s="121" t="s">
@@ -6714,7 +8175,7 @@
       </c>
       <c r="H79" s="121"/>
       <c r="I79" s="122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J79" s="123"/>
       <c r="L79" s="121" t="s">
@@ -6722,7 +8183,7 @@
       </c>
       <c r="M79" s="121"/>
       <c r="N79" s="122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O79" s="123"/>
     </row>
@@ -6758,11 +8219,11 @@
         <v>179</v>
       </c>
       <c r="M81" s="121"/>
-      <c r="N81" s="146">
+      <c r="N81" s="128">
         <f>N86*N88</f>
         <v>784480</v>
       </c>
-      <c r="O81" s="147"/>
+      <c r="O81" s="129"/>
     </row>
     <row r="82" spans="7:18" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G82" s="121" t="s">
@@ -6778,7 +8239,7 @@
       </c>
       <c r="M82" s="121"/>
       <c r="N82" s="122" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="O82" s="123"/>
     </row>
@@ -6868,7 +8329,7 @@
       </c>
       <c r="H87" s="121"/>
       <c r="I87" s="122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J87" s="123"/>
       <c r="L87" s="121" t="s">
@@ -6876,7 +8337,7 @@
       </c>
       <c r="M87" s="121"/>
       <c r="N87" s="122" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O87" s="123"/>
       <c r="R87" s="100">
@@ -6908,7 +8369,7 @@
       </c>
       <c r="H89" s="124"/>
       <c r="I89" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J89" s="126"/>
       <c r="L89" s="124" t="s">
@@ -6916,243 +8377,310 @@
       </c>
       <c r="M89" s="124"/>
       <c r="N89" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O89" s="126"/>
     </row>
     <row r="90" spans="7:18" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="551">
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B27:C27"/>
@@ -7177,303 +8705,236 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="S68:T68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7486,8 +8947,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7518,10 +8980,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="143"/>
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -7532,9 +8994,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
-        <v>192</v>
-      </c>
+      <c r="A3" s="39"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -7649,15 +9109,15 @@
         <v>161</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -7675,22 +9135,22 @@
       <c r="K8" s="9">
         <v>0.21</v>
       </c>
-      <c r="L8" s="13" t="e">
+      <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <v>-10.495136385148555</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="13" t="e">
+      <c r="N8" s="13">
         <f t="shared" ref="N8" si="2">M8/10000*I8*P8</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P8" s="11" t="e">
+        <v>10.495136385148555</v>
+      </c>
+      <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14225</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -7702,17 +9162,17 @@
       <c r="S8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="14" t="e">
+      <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="13" t="e">
+        <v>7.3779517646035541E-4</v>
+      </c>
+      <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V8" s="13" t="e">
+        <v>1.8647378189484698E-2</v>
+      </c>
+      <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>#VALUE!</v>
+        <v>-3.2435142453947918</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7724,15 +9184,15 @@
         <v>161</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43812.5</v>
+        <v>43820.5</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -7800,88 +9260,6 @@
       <c r="E11" s="117"/>
       <c r="F11" s="117"/>
     </row>
-    <row r="14" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" ref="E14:E36" ca="1" si="9">TODAY()</f>
-        <v>43265</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14:F19" ca="1" si="10">E14+H14</f>
-        <v>43326</v>
-      </c>
-      <c r="G14" s="11">
-        <v>100</v>
-      </c>
-      <c r="H14" s="10">
-        <v>61</v>
-      </c>
-      <c r="I14" s="12">
-        <f t="shared" ref="I14:I19" si="11">H14/365</f>
-        <v>0.16712328767123288</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="116">
-        <v>0.35</v>
-      </c>
-      <c r="L14" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-5.6842692773019508</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="13">
-        <f t="shared" ref="N14:N19" si="12">M14/10000*I14*P14</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="13">
-        <f t="shared" ref="O14:O19" si="13">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>5.6842692773019508</v>
-      </c>
-      <c r="P14" s="11">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="10">
-        <f t="shared" ref="R14:R19" si="14">IF(S14="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="14">
-        <f t="shared" ref="T14:T19" si="15">O14/P14</f>
-        <v>5.684269277301951E-2</v>
-      </c>
-      <c r="U14" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.5267528964907342</v>
-      </c>
-      <c r="V14" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.16213069466890673</v>
-      </c>
-      <c r="W14" s="114"/>
-      <c r="X14" s="115">
-        <v>400</v>
-      </c>
-      <c r="Y14" s="6">
-        <f t="shared" ref="Y14:Y19" si="16">X14*U14</f>
-        <v>-210.70115859629368</v>
-      </c>
-    </row>
     <row r="15" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="13" t="s">
@@ -7891,77 +9269,79 @@
         <v>160</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <f t="shared" ref="E15:E36" ca="1" si="9">TODAY()</f>
+        <v>43273</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>43326</v>
+        <f t="shared" ref="F15" ca="1" si="10">E15+H15</f>
+        <v>43332</v>
       </c>
       <c r="G15" s="11">
         <v>100</v>
       </c>
       <c r="H15" s="10">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" si="11"/>
-        <v>0.16712328767123288</v>
+        <f t="shared" ref="I15" si="11">H15/365</f>
+        <v>0.16164383561643836</v>
       </c>
       <c r="J15" s="12">
         <v>0</v>
       </c>
       <c r="K15" s="116">
-        <v>0.28499999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="L15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-4.6299490498536215</v>
-      </c>
-      <c r="M15" s="15"/>
+        <v>-5.750547120668223</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
       <c r="N15" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N15" si="12">M15/10000*I15*P15</f>
         <v>0</v>
       </c>
       <c r="O15" s="13">
-        <f t="shared" si="13"/>
-        <v>4.6299490498536215</v>
-      </c>
-      <c r="P15" s="11">
+        <f t="shared" ref="O15" si="13">IF(L15&lt;=0,ABS(L15)+N15,L15-N15)</f>
+        <v>5.750547120668223</v>
+      </c>
+      <c r="P15" s="13">
         <v>100</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="R15" si="14">IF(S15="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="S15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T15" s="14">
-        <f t="shared" si="15"/>
-        <v>4.6299490498536218E-2</v>
+        <f t="shared" ref="T15" si="15">O15/P15</f>
+        <v>5.7505471206682229E-2</v>
       </c>
       <c r="U15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.52148129376590191</v>
+        <v>-0.52713890045659184</v>
       </c>
       <c r="V15" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.16227055223076903</v>
+        <v>-0.15945864571627411</v>
       </c>
       <c r="W15" s="114"/>
       <c r="X15" s="115">
         <v>400</v>
       </c>
       <c r="Y15" s="6">
-        <f t="shared" si="16"/>
-        <v>-208.59251750636076</v>
+        <f t="shared" ref="Y15" si="16">X15*U15</f>
+        <v>-210.85556018263674</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7973,159 +9353,79 @@
         <v>160</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>43326</v>
+        <f t="shared" ref="F16" ca="1" si="17">E16+H16</f>
+        <v>43332</v>
       </c>
       <c r="G16" s="11">
         <v>100</v>
       </c>
       <c r="H16" s="10">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" si="11"/>
-        <v>0.16712328767123288</v>
+        <f t="shared" ref="I16" si="18">H16/365</f>
+        <v>0.16164383561643836</v>
       </c>
       <c r="J16" s="12">
         <v>0</v>
       </c>
       <c r="K16" s="116">
-        <v>0.28000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="L16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-4.5488113162045707</v>
-      </c>
-      <c r="M16" s="15"/>
+        <v>-5.750547120668223</v>
+      </c>
+      <c r="M16" s="15">
+        <v>30</v>
+      </c>
       <c r="N16" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="N16" si="19">M16/10000*I16*P16</f>
+        <v>4.8493150684931506E-2</v>
       </c>
       <c r="O16" s="13">
-        <f t="shared" si="13"/>
-        <v>4.5488113162045707</v>
-      </c>
-      <c r="P16" s="11">
+        <f t="shared" ref="O16" si="20">IF(L16&lt;=0,ABS(L16)+N16,L16-N16)</f>
+        <v>5.7990402713531548</v>
+      </c>
+      <c r="P16" s="13">
         <v>100</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="R16" si="21">IF(S16="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="S16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T16" s="14">
-        <f t="shared" si="15"/>
-        <v>4.5488113162045707E-2</v>
+        <f t="shared" ref="T16" si="22">O16/P16</f>
+        <v>5.799040271353155E-2</v>
       </c>
       <c r="U16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-0.52107560494469851</v>
+        <v>-0.52713890045659184</v>
       </c>
       <c r="V16" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q16,$P16,$G16,$I16,$C$3,$J16,$K16,$C$4)*R16</f>
-        <v>-0.1622801289633351</v>
+        <v>-0.15945864571627411</v>
       </c>
       <c r="W16" s="114"/>
       <c r="X16" s="115">
         <v>400</v>
       </c>
       <c r="Y16" s="6">
-        <f t="shared" si="16"/>
-        <v>-208.4302419778794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>43357</v>
-      </c>
-      <c r="G17" s="11">
-        <v>100</v>
-      </c>
-      <c r="H17" s="10">
-        <v>92</v>
-      </c>
-      <c r="I17" s="12">
-        <f t="shared" si="11"/>
-        <v>0.25205479452054796</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="116">
-        <v>0.35</v>
-      </c>
-      <c r="L17" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-6.9659094732704858</v>
-      </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="13">
-        <f t="shared" si="13"/>
-        <v>6.9659094732704858</v>
-      </c>
-      <c r="P17" s="11">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="14"/>
-        <v>-1</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="14">
-        <f t="shared" si="15"/>
-        <v>6.965909473270486E-2</v>
-      </c>
-      <c r="U17" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-0.53231533629514161</v>
-      </c>
-      <c r="V17" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q17,$P17,$G17,$I17,$C$3,$J17,$K17,$C$4)*R17</f>
-        <v>-0.19851419927853797</v>
-      </c>
-      <c r="W17" s="114"/>
-      <c r="X17" s="115">
-        <v>400</v>
-      </c>
-      <c r="Y17" s="6">
-        <f t="shared" si="16"/>
-        <v>-212.92613451805664</v>
+        <f t="shared" ref="Y16" si="23">X16*U16</f>
+        <v>-210.85556018263674</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8137,77 +9437,80 @@
         <v>160</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>43357</v>
+        <f t="shared" ref="F18:F23" ca="1" si="24">E18+H18</f>
+        <v>43324</v>
       </c>
       <c r="G18" s="11">
-        <v>100</v>
+        <v>13800</v>
       </c>
       <c r="H18" s="10">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="11"/>
-        <v>0.25205479452054796</v>
+        <f t="shared" ref="I18:I19" si="25">H18/365</f>
+        <v>0.13972602739726028</v>
       </c>
       <c r="J18" s="12">
         <v>0</v>
       </c>
       <c r="K18" s="116">
-        <v>0.28499999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="L18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-5.6746978121912122</v>
-      </c>
-      <c r="M18" s="15"/>
+        <v>86.296029525147787</v>
+      </c>
+      <c r="M18" s="15">
+        <v>30</v>
+      </c>
       <c r="N18" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="N18:N23" si="26">M18/10000*I18*P18</f>
+        <v>5.9900547945205487</v>
       </c>
       <c r="O18" s="13">
-        <f t="shared" si="13"/>
-        <v>5.6746978121912122</v>
-      </c>
-      <c r="P18" s="11">
-        <v>100</v>
+        <f t="shared" ref="O18:O23" si="27">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
+        <v>80.305974730627241</v>
+      </c>
+      <c r="P18" s="13">
+        <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
+        <v>14290</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" si="14"/>
-        <v>-1</v>
+        <f t="shared" ref="R18:R23" si="28">IF(S18="中金买入",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T18" s="14">
-        <f t="shared" si="15"/>
-        <v>5.6746978121912123E-2</v>
+        <f t="shared" ref="T18:T23" si="29">O18/P18</f>
+        <v>5.6197323114504719E-3</v>
       </c>
       <c r="U18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.5258592766978154</v>
+        <v>-0.22000373460286937</v>
       </c>
       <c r="V18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.19877252350646302</v>
+        <v>15.774383901130022</v>
       </c>
       <c r="W18" s="114"/>
       <c r="X18" s="115">
         <v>400</v>
       </c>
       <c r="Y18" s="6">
-        <f t="shared" si="16"/>
-        <v>-210.34371067912616</v>
+        <f t="shared" ref="Y18:Y23" si="30">X18*U18</f>
+        <v>-88.001493841147749</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8219,77 +9522,165 @@
         <v>160</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ca="1" si="10"/>
-        <v>43357</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>43360</v>
       </c>
       <c r="G19" s="11">
-        <v>100</v>
+        <v>13800</v>
       </c>
       <c r="H19" s="10">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" si="11"/>
-        <v>0.25205479452054796</v>
+        <f t="shared" si="25"/>
+        <v>0.23835616438356164</v>
       </c>
       <c r="J19" s="12">
         <v>0</v>
       </c>
       <c r="K19" s="116">
-        <v>0.28000000000000003</v>
+        <v>0.1225</v>
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-5.5753070103812092</v>
-      </c>
-      <c r="M19" s="15"/>
+        <v>123.32751244911151</v>
+      </c>
+      <c r="M19" s="15">
+        <v>30</v>
+      </c>
       <c r="N19" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>10.279109589041095</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" si="13"/>
-        <v>5.5753070103812092</v>
-      </c>
-      <c r="P19" s="11">
-        <v>100</v>
+        <f t="shared" si="27"/>
+        <v>113.04840286007041</v>
+      </c>
+      <c r="P19" s="13">
+        <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
+        <v>14375</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="14"/>
-        <v>-1</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T19" s="14">
-        <f t="shared" si="15"/>
-        <v>5.5753070103812093E-2</v>
+        <f t="shared" si="29"/>
+        <v>7.8642367207005497E-3</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.5253623225648596</v>
+        <v>-0.23695467618836119</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.19879021637272842</v>
+        <v>21.59042190809123</v>
       </c>
       <c r="W19" s="114"/>
       <c r="X19" s="115">
         <v>400</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" si="16"/>
-        <v>-210.14492902594384</v>
+        <f t="shared" si="30"/>
+        <v>-94.781870475344476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43273</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ca="1" si="24"/>
+        <v>43388</v>
+      </c>
+      <c r="G20" s="11">
+        <v>13800</v>
+      </c>
+      <c r="H20" s="10">
+        <v>115</v>
+      </c>
+      <c r="I20" s="12">
+        <f>(H20-5)/365</f>
+        <v>0.30136986301369861</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="116">
+        <v>0.12</v>
+      </c>
+      <c r="L20" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
+        <v>131.22413725832985</v>
+      </c>
+      <c r="M20" s="15">
+        <v>30</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="26"/>
+        <v>13.068904109589042</v>
+      </c>
+      <c r="O20" s="13">
+        <f t="shared" si="27"/>
+        <v>118.15523314874081</v>
+      </c>
+      <c r="P20" s="13">
+        <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
+        <v>14455</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" si="29"/>
+        <v>8.1740043686434321E-3</v>
+      </c>
+      <c r="U20" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
+        <v>-0.22921882505215763</v>
+      </c>
+      <c r="V20" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
+        <v>23.951392921004299</v>
+      </c>
+      <c r="W20" s="114"/>
+      <c r="X20" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y20" s="6">
+        <f t="shared" si="30"/>
+        <v>-91.687530020863051</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8301,78 +9692,165 @@
         <v>160</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21" ca="1" si="17">E21+H21</f>
-        <v>43357</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>43324</v>
       </c>
       <c r="G21" s="11">
-        <v>3320</v>
+        <v>14000</v>
       </c>
       <c r="H21" s="10">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" ref="I21" si="18">H21/365</f>
-        <v>0.25205479452054796</v>
+        <f t="shared" ref="I21:I22" si="31">H21/365</f>
+        <v>0.13972602739726028</v>
       </c>
       <c r="J21" s="12">
         <v>0</v>
       </c>
       <c r="K21" s="116">
-        <v>0.27</v>
+        <v>0.125</v>
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-102.9951427249066</v>
-      </c>
-      <c r="M21" s="15"/>
+        <v>143.22202061150529</v>
+      </c>
+      <c r="M21" s="15">
+        <v>30</v>
+      </c>
       <c r="N21" s="13">
-        <f t="shared" ref="N21" si="19">M21/10000*I21*P21</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>5.9900547945205487</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" ref="O21" si="20">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>102.9951427249066</v>
-      </c>
-      <c r="P21" s="11">
+        <f t="shared" si="27"/>
+        <v>137.23196581698474</v>
+      </c>
+      <c r="P21" s="13">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3152</v>
+        <v>14290</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R21" s="10">
-        <f t="shared" ref="R21" si="21">IF(S21="中金买入",1,-1)</f>
-        <v>-1</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T21" s="14">
-        <f t="shared" ref="T21" si="22">O21/P21</f>
-        <v>3.2676123960947524E-2</v>
+        <f t="shared" si="29"/>
+        <v>9.6033566002088691E-3</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.37437451391042487</v>
+        <v>-0.32108569507727225</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-5.9761925383606922</v>
+        <v>19.086873196428314</v>
       </c>
       <c r="W21" s="114"/>
       <c r="X21" s="115">
         <v>400</v>
       </c>
       <c r="Y21" s="6">
-        <f t="shared" ref="Y21" si="23">X21*U21</f>
-        <v>-149.74980556416995</v>
+        <f t="shared" si="30"/>
+        <v>-128.4342780309089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
+      <c r="B22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43273</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ca="1" si="24"/>
+        <v>43360</v>
+      </c>
+      <c r="G22" s="11">
+        <v>14000</v>
+      </c>
+      <c r="H22" s="10">
+        <v>87</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="31"/>
+        <v>0.23835616438356164</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="116">
+        <v>0.1225</v>
+      </c>
+      <c r="L22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>182.59999402661288</v>
+      </c>
+      <c r="M22" s="15">
+        <v>30</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="26"/>
+        <v>10.279109589041095</v>
+      </c>
+      <c r="O22" s="13">
+        <f t="shared" si="27"/>
+        <v>172.32088443757178</v>
+      </c>
+      <c r="P22" s="13">
+        <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
+        <v>14375</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" si="29"/>
+        <v>1.1987539786961515E-2</v>
+      </c>
+      <c r="U22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>-0.31699074206699152</v>
+      </c>
+      <c r="V22" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
+        <v>24.913894276949122</v>
+      </c>
+      <c r="W22" s="114"/>
+      <c r="X22" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y22" s="6">
+        <f t="shared" si="30"/>
+        <v>-126.79629682679661</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8384,77 +9862,79 @@
         <v>160</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" ref="F23" ca="1" si="24">E23+H23</f>
-        <v>43410</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>43388</v>
       </c>
       <c r="G23" s="11">
-        <v>100</v>
+        <v>14000</v>
       </c>
       <c r="H23" s="10">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="I23" s="12">
-        <f t="shared" ref="I23" si="25">H23/365</f>
-        <v>0.39726027397260272</v>
+        <f>(H23-5)/365</f>
+        <v>0.30136986301369861</v>
       </c>
       <c r="J23" s="12">
         <v>0</v>
       </c>
       <c r="K23" s="116">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="L23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-3.1174161255244925</v>
-      </c>
-      <c r="M23" s="15"/>
+        <v>162.82266221355803</v>
+      </c>
+      <c r="M23" s="15">
+        <v>30</v>
+      </c>
       <c r="N23" s="13">
-        <f t="shared" ref="N23" si="26">M23/10000*I23*P23</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>13.15027397260274</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" ref="O23" si="27">IF(L23&lt;=0,ABS(L23)+N23,L23-N23)</f>
-        <v>3.1174161255244925</v>
-      </c>
-      <c r="P23" s="11">
-        <v>100</v>
+        <f t="shared" si="27"/>
+        <v>149.67238824095529</v>
+      </c>
+      <c r="P23" s="13">
+        <v>14545</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" ref="R23" si="28">IF(S23="中金买入",1,-1)</f>
-        <v>-1</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T23" s="14">
-        <f t="shared" ref="T23" si="29">O23/P23</f>
-        <v>3.1174161255244925E-2</v>
+        <f t="shared" si="29"/>
+        <v>1.0290298263386406E-2</v>
       </c>
       <c r="U23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-0.51163020519844338</v>
+        <v>-0.26842843287795404</v>
       </c>
       <c r="V23" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q23,$P23,$G23,$I23,$C$3,$J23,$K23,$C$4)*R23</f>
-        <v>-0.24926390211228977</v>
+        <v>26.21781661064324</v>
       </c>
       <c r="W23" s="114"/>
       <c r="X23" s="115">
         <v>400</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" ref="Y23" si="30">X23*U23</f>
-        <v>-204.65208207937735</v>
+        <f t="shared" si="30"/>
+        <v>-107.37137315118161</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8466,81 +9946,82 @@
         <v>160</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" ref="F25" ca="1" si="31">E25+H25</f>
-        <v>43295</v>
+        <f t="shared" ref="F25" ca="1" si="32">E25+H25</f>
+        <v>43303</v>
       </c>
       <c r="G25" s="11">
-        <v>54800</v>
+        <v>50000</v>
       </c>
       <c r="H25" s="10">
         <v>30</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" ref="I25" si="32">H25/365</f>
+        <f t="shared" ref="I25" si="33">H25/365</f>
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="J25" s="12">
         <v>0</v>
       </c>
       <c r="K25" s="116">
-        <v>0.19750000000000001</v>
+        <v>0.1225</v>
       </c>
       <c r="L25" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>-956.88081470014367</v>
+        <v>69.862104030476985</v>
       </c>
       <c r="M25" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N25" s="13">
-        <f t="shared" ref="N25" si="33">M25/10000*I25*P25</f>
-        <v>22.278082191780822</v>
+        <f t="shared" ref="N25" si="34">M25/10000*I25*P25</f>
+        <v>12.937808219178082</v>
       </c>
       <c r="O25" s="13">
-        <f t="shared" ref="O25" si="34">IF(L25&lt;=0,ABS(L25)+N25,L25-N25)</f>
-        <v>979.15889689192454</v>
+        <f t="shared" ref="O25" si="35">IF(L25&lt;=0,ABS(L25)+N25,L25-N25)</f>
+        <v>56.924295811298904</v>
       </c>
       <c r="P25" s="13">
-        <v>54210</v>
+        <v>52470</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R25" s="10">
-        <f t="shared" ref="R25" si="35">IF(S25="中金买入",1,-1)</f>
-        <v>-1</v>
+        <f t="shared" ref="R25" si="36">IF(S25="中金买入",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T25" s="14">
-        <f t="shared" ref="T25" si="36">O25/P25</f>
-        <v>1.8062329771110948E-2</v>
+        <f t="shared" ref="T25" si="37">O25/P25</f>
+        <v>1.0848922395902212E-3</v>
       </c>
       <c r="U25" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>-0.43459636326588225</v>
+        <v>-8.204759392356209E-2</v>
       </c>
       <c r="V25" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q25,$P25,$G25,$I25,$C$3,$J25,$K25,$C$4)*R25</f>
-        <v>-61.08146390526781</v>
+        <v>22.73198074463312</v>
       </c>
       <c r="W25" s="114"/>
       <c r="X25" s="115">
         <v>400</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" ref="Y25" si="37">X25*U25</f>
-        <v>-173.8385453063529</v>
-      </c>
-    </row>
+        <f t="shared" ref="Y25" si="38">X25*U25</f>
+        <v>-32.819037569424836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
       <c r="B27" s="13" t="s">
@@ -8550,161 +10031,80 @@
         <v>160</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" ref="F27" ca="1" si="38">E27+H27</f>
-        <v>43295</v>
+        <f t="shared" ref="F27" ca="1" si="39">E27+H27</f>
+        <v>43323</v>
       </c>
       <c r="G27" s="11">
-        <v>10700</v>
+        <v>19000</v>
       </c>
       <c r="H27" s="10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" ref="I27" si="39">H27/365</f>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" ref="I27" si="40">H27/365</f>
+        <v>0.13698630136986301</v>
       </c>
       <c r="J27" s="12">
         <v>0</v>
       </c>
       <c r="K27" s="116">
-        <v>0.32</v>
+        <v>0.125</v>
       </c>
       <c r="L27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-797.77264609724898</v>
-      </c>
-      <c r="M27" s="15"/>
+        <v>298.57919671473428</v>
+      </c>
+      <c r="M27" s="15">
+        <v>30</v>
+      </c>
       <c r="N27" s="13">
-        <f t="shared" ref="N27" si="40">M27/10000*I27*P27</f>
-        <v>0</v>
+        <f t="shared" ref="N27" si="41">M27/10000*I27*P27</f>
+        <v>7.8534246575342461</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" ref="O27" si="41">IF(L27&lt;=0,ABS(L27)+N27,L27-N27)</f>
-        <v>797.77264609724898</v>
+        <f t="shared" ref="O27" si="42">IF(L27&lt;=0,ABS(L27)+N27,L27-N27)</f>
+        <v>290.72577205720006</v>
       </c>
       <c r="P27" s="11">
         <f>RTD("wdf.rtq",,D27,"LastPrice")</f>
-        <v>11337</v>
+        <v>19110</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R27" s="10">
-        <f t="shared" ref="R27" si="42">IF(S27="中金买入",1,-1)</f>
-        <v>-1</v>
+        <f t="shared" ref="R27" si="43">IF(S27="中金买入",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T27" s="14">
-        <f t="shared" ref="T27" si="43">O27/P27</f>
-        <v>7.0368937646401078E-2</v>
+        <f t="shared" ref="T27" si="44">O27/P27</f>
+        <v>1.5213279542501311E-2</v>
       </c>
       <c r="U27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.74931326084879402</v>
+        <v>-0.4399998411827255</v>
       </c>
       <c r="V27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-10.297756932055108</v>
+        <v>27.83216299477499</v>
       </c>
       <c r="W27" s="114"/>
       <c r="X27" s="115">
         <v>400</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" ref="Y27" si="44">X27*U27</f>
-        <v>-299.72530433951761</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34"/>
-      <c r="B28" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" ref="F28:F29" ca="1" si="45">E28+H28</f>
-        <v>43295</v>
-      </c>
-      <c r="G28" s="11">
-        <v>10800</v>
-      </c>
-      <c r="H28" s="10">
-        <v>30</v>
-      </c>
-      <c r="I28" s="12">
-        <f t="shared" ref="I28:I29" si="46">H28/365</f>
-        <v>8.2191780821917804E-2</v>
-      </c>
-      <c r="J28" s="12">
-        <v>0</v>
-      </c>
-      <c r="K28" s="116">
-        <v>0.32</v>
-      </c>
-      <c r="L28" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("price",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-727.57384146580898</v>
-      </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="13">
-        <f t="shared" ref="N28:N29" si="47">M28/10000*I28*P28</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="13">
-        <f t="shared" ref="O28:O29" si="48">IF(L28&lt;=0,ABS(L28)+N28,L28-N28)</f>
-        <v>727.57384146580898</v>
-      </c>
-      <c r="P28" s="11">
-        <f>RTD("wdf.rtq",,D28,"LastPrice")</f>
-        <v>11337</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" s="10">
-        <f t="shared" ref="R28:R29" si="49">IF(S28="中金买入",1,-1)</f>
-        <v>-1</v>
-      </c>
-      <c r="S28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T28" s="14">
-        <f t="shared" ref="T28:T29" si="50">O28/P28</f>
-        <v>6.4176928770028133E-2</v>
-      </c>
-      <c r="U28" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-0.7161122120123764</v>
-      </c>
-      <c r="V28" s="13">
-        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q28,$P28,$G28,$I28,$C$3,$J28,$K28,$C$4)*R28</f>
-        <v>-10.972545105075369</v>
-      </c>
-      <c r="W28" s="114"/>
-      <c r="X28" s="115">
-        <v>400</v>
-      </c>
-      <c r="Y28" s="6">
-        <f t="shared" ref="Y28:Y29" si="51">X28*U28</f>
-        <v>-286.44488480495056</v>
+        <f t="shared" ref="Y27" si="45">X27*U27</f>
+        <v>-175.9999364730902</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8716,78 +10116,80 @@
         <v>160</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" ca="1" si="45"/>
-        <v>43295</v>
+        <f t="shared" ref="F29" ca="1" si="46">E29+H29</f>
+        <v>43364</v>
       </c>
       <c r="G29" s="11">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="H29" s="10">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" si="46"/>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" ref="I29" si="47">H29/365</f>
+        <v>0.24931506849315069</v>
       </c>
       <c r="J29" s="12">
         <v>0</v>
       </c>
       <c r="K29" s="116">
-        <v>0.32500000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="L29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-604.06258709853591</v>
-      </c>
-      <c r="M29" s="15"/>
+        <v>-16.604422230997841</v>
+      </c>
+      <c r="M29" s="15">
+        <v>0</v>
+      </c>
       <c r="N29" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="N29" si="48">M29/10000*I29*P29</f>
         <v>0</v>
       </c>
       <c r="O29" s="13">
-        <f t="shared" si="48"/>
-        <v>604.06258709853591</v>
+        <f t="shared" ref="O29" si="49">IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
+        <v>16.604422230997841</v>
       </c>
       <c r="P29" s="11">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>11337</v>
+        <v>14455</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R29" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="R29" si="50">IF(S29="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="S29" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="50"/>
-        <v>5.3282401614054502E-2</v>
+        <f t="shared" ref="T29" si="51">O29/P29</f>
+        <v>1.1486974909026525E-3</v>
       </c>
       <c r="U29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.64342048503931437</v>
+        <v>2.4394156662310706E-2</v>
       </c>
       <c r="V29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-12.086109851350557</v>
+        <v>-4.1318537809309248</v>
       </c>
       <c r="W29" s="114"/>
       <c r="X29" s="115">
         <v>400</v>
       </c>
       <c r="Y29" s="6">
-        <f t="shared" si="51"/>
-        <v>-257.36819401572575</v>
+        <f t="shared" ref="Y29" si="52">X29*U29</f>
+        <v>9.7576626649242826</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8799,79 +10201,80 @@
         <v>160</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" ref="F31:F32" ca="1" si="52">E31+H31</f>
-        <v>43295</v>
+        <f t="shared" ref="F31:F32" ca="1" si="53">E31+H31</f>
+        <v>43364</v>
       </c>
       <c r="G31" s="11">
-        <v>54800</v>
+        <v>14000</v>
       </c>
       <c r="H31" s="10">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I31" s="12">
-        <f t="shared" ref="I31:I32" si="53">H31/365</f>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" ref="I31:I32" si="54">H31/365</f>
+        <v>0.24931506849315069</v>
       </c>
       <c r="J31" s="12">
         <v>0</v>
       </c>
       <c r="K31" s="116">
-        <v>0.19750000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="L31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-956.88081470014367</v>
+        <v>-339.35406917626187</v>
       </c>
       <c r="M31" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N31" s="13">
-        <f t="shared" ref="N31:N32" si="54">M31/10000*I31*P31</f>
-        <v>22.278082191780822</v>
+        <f t="shared" ref="N31:N32" si="55">M31/10000*I31*P31</f>
+        <v>0</v>
       </c>
       <c r="O31" s="13">
-        <f t="shared" ref="O31:O32" si="55">IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
-        <v>979.15889689192454</v>
-      </c>
-      <c r="P31" s="13">
-        <v>54210</v>
+        <f t="shared" ref="O31:O32" si="56">IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
+        <v>339.35406917626187</v>
+      </c>
+      <c r="P31" s="11">
+        <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
+        <v>14455</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R31" s="10">
-        <f t="shared" ref="R31:R32" si="56">IF(S31="中金买入",1,-1)</f>
+        <f t="shared" ref="R31:R32" si="57">IF(S31="中金买入",1,-1)</f>
         <v>-1</v>
       </c>
       <c r="S31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T31" s="14">
-        <f t="shared" ref="T31:T32" si="57">O31/P31</f>
-        <v>1.8062329771110948E-2</v>
+        <f t="shared" ref="T31:T32" si="58">O31/P31</f>
+        <v>2.3476587283034374E-2</v>
       </c>
       <c r="U31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-0.43459636326588225</v>
+        <v>0.34853921097237617</v>
       </c>
       <c r="V31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-61.08146390526781</v>
+        <v>-26.604626961614031</v>
       </c>
       <c r="W31" s="114"/>
       <c r="X31" s="115">
         <v>400</v>
       </c>
       <c r="Y31" s="6">
-        <f t="shared" ref="Y31:Y32" si="58">X31*U31</f>
-        <v>-173.8385453063529</v>
+        <f t="shared" ref="Y31:Y32" si="59">X31*U31</f>
+        <v>139.41568438895047</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8883,79 +10286,80 @@
         <v>160</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" ca="1" si="52"/>
-        <v>43295</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>43364</v>
       </c>
       <c r="G32" s="11">
-        <v>54800</v>
+        <v>13500</v>
       </c>
       <c r="H32" s="10">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I32" s="12">
-        <f t="shared" si="53"/>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" si="54"/>
+        <v>0.24931506849315069</v>
       </c>
       <c r="J32" s="12">
         <v>0</v>
       </c>
       <c r="K32" s="116">
-        <v>0.19750000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="L32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-956.88081470014367</v>
+        <v>-192.58828748381438</v>
       </c>
       <c r="M32" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N32" s="13">
-        <f t="shared" si="54"/>
-        <v>22.278082191780822</v>
+        <f t="shared" si="55"/>
+        <v>0</v>
       </c>
       <c r="O32" s="13">
-        <f t="shared" si="55"/>
-        <v>979.15889689192454</v>
-      </c>
-      <c r="P32" s="13">
-        <v>54210</v>
+        <f t="shared" si="56"/>
+        <v>192.58828748381438</v>
+      </c>
+      <c r="P32" s="11">
+        <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
+        <v>14455</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R32" s="10">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>-1</v>
       </c>
       <c r="S32" s="10" t="s">
         <v>20</v>
       </c>
       <c r="T32" s="14">
-        <f t="shared" si="57"/>
-        <v>1.8062329771110948E-2</v>
+        <f t="shared" si="58"/>
+        <v>1.3323299030357273E-2</v>
       </c>
       <c r="U32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-0.43459636326588225</v>
+        <v>0.22529697246227443</v>
       </c>
       <c r="V32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-61.08146390526781</v>
+        <v>-21.603996185057895</v>
       </c>
       <c r="W32" s="114"/>
       <c r="X32" s="115">
         <v>400</v>
       </c>
       <c r="Y32" s="6">
-        <f t="shared" si="58"/>
-        <v>-173.8385453063529</v>
+        <f t="shared" si="59"/>
+        <v>90.11878898490977</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -8967,79 +10371,166 @@
         <v>160</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" ref="F34" ca="1" si="59">E34+H34</f>
-        <v>43385</v>
+        <f t="shared" ref="F34" ca="1" si="60">E34+H34</f>
+        <v>43323</v>
       </c>
       <c r="G34" s="11">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="H34" s="10">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="I34" s="12">
-        <f t="shared" ref="I34" si="60">H34/365</f>
-        <v>0.32876712328767121</v>
+        <f t="shared" ref="I34" si="61">H34/365</f>
+        <v>0.13698630136986301</v>
       </c>
       <c r="J34" s="12">
         <v>0</v>
       </c>
       <c r="K34" s="116">
-        <v>8.7999999999999995E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-1.9995636119416886</v>
+        <v>35.517995160407281</v>
       </c>
       <c r="M34" s="15">
         <v>0</v>
       </c>
       <c r="N34" s="13">
-        <f t="shared" ref="N34" si="61">M34/10000*I34*P34</f>
+        <f t="shared" ref="N34" si="62">M34/10000*I34*P34</f>
         <v>0</v>
       </c>
       <c r="O34" s="13">
-        <f t="shared" ref="O34" si="62">IF(L34&lt;=0,ABS(L34)+N34,L34-N34)</f>
-        <v>1.9995636119416886</v>
-      </c>
-      <c r="P34" s="13">
-        <v>100</v>
+        <f t="shared" ref="O34" si="63">IF(L34&lt;=0,ABS(L34)+N34,L34-N34)</f>
+        <v>35.517995160407281</v>
+      </c>
+      <c r="P34" s="11">
+        <f>RTD("wdf.rtq",,D34,"LastPrice")</f>
+        <v>454</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R34" s="10">
-        <f t="shared" ref="R34" si="63">IF(S34="中金买入",1,-1)</f>
-        <v>-1</v>
+        <f t="shared" ref="R34" si="64">IF(S34="中金买入",1,-1)</f>
+        <v>1</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="T34" s="14">
-        <f t="shared" ref="T34" si="64">O34/P34</f>
-        <v>1.9995636119416887E-2</v>
+        <f t="shared" ref="T34" si="65">O34/P34</f>
+        <v>7.8233469516315601E-2</v>
       </c>
       <c r="U34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-0.50672091232648597</v>
+        <v>-0.6772376859345286</v>
       </c>
       <c r="V34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-0.22717462215476303</v>
+        <v>0.59987895623493159</v>
       </c>
       <c r="W34" s="114"/>
       <c r="X34" s="115">
         <v>400</v>
       </c>
       <c r="Y34" s="6">
-        <f t="shared" ref="Y34" si="65">X34*U34</f>
-        <v>-202.68836493059439</v>
+        <f t="shared" ref="Y34" si="66">X34*U34</f>
+        <v>-270.89507437381144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="34"/>
+      <c r="B35" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43273</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" ref="F35:F36" ca="1" si="67">E35+H35</f>
+        <v>43455</v>
+      </c>
+      <c r="G35" s="11">
+        <f>P35</f>
+        <v>12080</v>
+      </c>
+      <c r="H35" s="10">
+        <v>182</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" ref="I35:I36" si="68">H35/365</f>
+        <v>0.49863013698630138</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="116">
+        <v>0.32</v>
+      </c>
+      <c r="L35" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
+        <v>1075.8755135131196</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13">
+        <f t="shared" ref="N35:N36" si="69">M35/10000*I35*P35</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="13">
+        <f t="shared" ref="O35:O36" si="70">IF(L35&lt;=0,ABS(L35)+N35,L35-N35)</f>
+        <v>1075.8755135131196</v>
+      </c>
+      <c r="P35" s="11">
+        <f>RTD("wdf.rtq",,D35,"LastPrice")</f>
+        <v>12080</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R35" s="10">
+        <f t="shared" ref="R35:R36" si="71">IF(S35="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T35" s="14">
+        <f t="shared" ref="T35:T36" si="72">O35/P35</f>
+        <v>8.9062542509364198E-2</v>
+      </c>
+      <c r="U35" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
+        <v>-0.45050720818835543</v>
+      </c>
+      <c r="V35" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
+        <v>33.478227409008468</v>
+      </c>
+      <c r="W35" s="114"/>
+      <c r="X35" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y35" s="6">
+        <f t="shared" ref="Y35:Y36" si="73">X35*U35</f>
+        <v>-180.20288327534217</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9051,80 +10542,81 @@
         <v>160</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" ref="F36" ca="1" si="66">E36+H36</f>
-        <v>43295</v>
+        <f t="shared" ca="1" si="67"/>
+        <v>43455</v>
       </c>
       <c r="G36" s="11">
-        <v>19000</v>
+        <f>P36</f>
+        <v>12080</v>
       </c>
       <c r="H36" s="10">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="I36" s="12">
-        <f t="shared" ref="I36" si="67">H36/365</f>
-        <v>8.2191780821917804E-2</v>
+        <f t="shared" si="68"/>
+        <v>0.49863013698630138</v>
       </c>
       <c r="J36" s="12">
         <v>0</v>
       </c>
       <c r="K36" s="116">
-        <v>0.3</v>
-      </c>
-      <c r="L36" s="13" t="e">
+        <v>0.24</v>
+      </c>
+      <c r="L36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>#VALUE!</v>
+        <v>807.65703521167688</v>
       </c>
       <c r="M36" s="15">
         <v>0</v>
       </c>
-      <c r="N36" s="13" t="e">
-        <f t="shared" ref="N36" si="68">M36/10000*I36*P36</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O36" s="13" t="e">
-        <f t="shared" ref="O36" si="69">IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P36" s="13" t="e">
+      <c r="N36" s="13">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="13">
+        <f t="shared" si="70"/>
+        <v>807.65703521167688</v>
+      </c>
+      <c r="P36" s="11">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>12080</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="R36" s="10">
-        <f t="shared" ref="R36" si="70">IF(S36="中金买入",1,-1)</f>
-        <v>-1</v>
+        <f t="shared" si="71"/>
+        <v>1</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T36" s="14" t="e">
-        <f t="shared" ref="T36" si="71">O36/P36</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U36" s="13" t="e">
+        <v>151</v>
+      </c>
+      <c r="T36" s="14">
+        <f t="shared" si="72"/>
+        <v>6.6859026093681856E-2</v>
+      </c>
+      <c r="U36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V36" s="13" t="e">
+        <v>-0.46160896631590731</v>
+      </c>
+      <c r="V36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>#VALUE!</v>
+        <v>33.571839875056412</v>
       </c>
       <c r="W36" s="114"/>
       <c r="X36" s="115">
         <v>400</v>
       </c>
-      <c r="Y36" s="6" t="e">
-        <f t="shared" ref="Y36" si="72">X36*U36</f>
-        <v>#VALUE!</v>
+      <c r="Y36" s="6">
+        <f t="shared" si="73"/>
+        <v>-184.64358652636292</v>
       </c>
     </row>
   </sheetData>
@@ -9141,19 +10633,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S14:S19 S21 S23 S25 S27:S29 S31:S32 S34 S36</xm:sqref>
+          <xm:sqref>S8:S9 S15:S16 S18:S23 S25 S27 S29 S31:S32 S34:S36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q14:Q19 Q21 Q23 Q25 Q27:Q29 Q31:Q32 Q34 Q36</xm:sqref>
+          <xm:sqref>Q8:Q9 Q15:Q16 Q18:Q23 Q25 Q27 Q29 Q31:Q32 Q34:Q36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C14:C19 C21 C23 C25 C27:C29 C31:C32 C34 C36</xm:sqref>
+          <xm:sqref>C8:C9 C15:C16 C18:C23 C25 C27 C29 C31:C32 C34:C36</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9183,7 +10675,7 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:S34"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9213,10 +10705,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="143"/>
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
@@ -9343,11 +10835,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -9411,11 +10903,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -9482,11 +10974,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -9546,19 +11038,19 @@
         <v>160</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43280</v>
-      </c>
-      <c r="G11" s="113" t="e">
+        <v>43288</v>
+      </c>
+      <c r="G11" s="113">
         <f>P11-20</f>
-        <v>#N/A</v>
+        <v>434</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -9573,19 +11065,19 @@
       <c r="K11" s="48">
         <v>0.3</v>
       </c>
-      <c r="L11" s="43" t="e">
+      <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>#VALUE!</v>
+        <v>-3.5936597732709856</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
-      <c r="O11" s="43" t="e">
+      <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P11" s="110" t="e">
+        <v>3.5936597732709856</v>
+      </c>
+      <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>454</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -9598,13 +11090,13 @@
         <v>20</v>
       </c>
       <c r="T11" s="50"/>
-      <c r="U11" s="43" t="e">
+      <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V11" s="43" t="e">
+        <v>0.22011127043342071</v>
+      </c>
+      <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>#VALUE!</v>
+        <v>-0.27242649889862491</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -9616,19 +11108,19 @@
         <v>160</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43280</v>
-      </c>
-      <c r="G12" s="52" t="e">
+        <v>43288</v>
+      </c>
+      <c r="G12" s="52">
         <f>G11+50</f>
-        <v>#N/A</v>
+        <v>484</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -9645,19 +11137,19 @@
       <c r="K12" s="56">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L12" s="51" t="e">
+      <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>#VALUE!</v>
+        <v>1.9325534595573117</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
-      <c r="O12" s="51" t="e">
+      <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P12" s="94" t="e">
+        <v>1.9325534595573117</v>
+      </c>
+      <c r="P12" s="94">
         <f>P11</f>
-        <v>#N/A</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -9670,13 +11162,13 @@
         <v>151</v>
       </c>
       <c r="T12" s="58"/>
-      <c r="U12" s="51" t="e">
+      <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V12" s="51" t="e">
+        <v>0.14467352078533224</v>
+      </c>
+      <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>#VALUE!</v>
+        <v>0.20930583077884535</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9693,15 +11185,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43280</v>
-      </c>
-      <c r="G13" s="60" t="e">
+        <v>43288</v>
+      </c>
+      <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>#N/A</v>
+        <v>434|484</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -9713,41 +11205,41 @@
       </c>
       <c r="J13" s="63"/>
       <c r="K13" s="60"/>
-      <c r="L13" s="59" t="e">
+      <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>#VALUE!</v>
+        <v>-1.6611063137136739</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
       </c>
-      <c r="N13" s="59" t="e">
+      <c r="N13" s="59">
         <f>M13/10000*I13*P13</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="59" t="e">
+        <v>0</v>
+      </c>
+      <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P13" s="111" t="e">
+        <v>1.6611063137136739</v>
+      </c>
+      <c r="P13" s="111">
         <f>P12</f>
-        <v>#N/A</v>
+        <v>454</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
       <c r="S13" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="T13" s="64" t="e">
+      <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U13" s="64" t="e">
+        <v>3.6588244795455372E-3</v>
+      </c>
+      <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V13" s="64" t="e">
+        <v>0.36478479121875296</v>
+      </c>
+      <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>#VALUE!</v>
+        <v>-6.3120668119779566E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -9759,15 +11251,15 @@
         <v>160</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -9786,19 +11278,19 @@
         <f>K15+0.02</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="L14" s="43" t="e">
+      <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>#VALUE!</v>
+        <v>-386.68843719993902</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
-      <c r="O14" s="43" t="e">
+      <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P14" s="110" t="e">
+        <v>386.68843719993902</v>
+      </c>
+      <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3766</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -9811,13 +11303,13 @@
         <v>20</v>
       </c>
       <c r="T14" s="50"/>
-      <c r="U14" s="43" t="e">
+      <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V14" s="43" t="e">
+        <v>-0.72285310677671077</v>
+      </c>
+      <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>#VALUE!</v>
+        <v>-6.2258752407281008</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -9834,11 +11326,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -9858,19 +11350,19 @@
       <c r="K15" s="56">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L15" s="51" t="e">
+      <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>#VALUE!</v>
+        <v>41.587895811018029</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
-      <c r="O15" s="51" t="e">
+      <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P15" s="94" t="e">
+        <v>41.587895811018029</v>
+      </c>
+      <c r="P15" s="94">
         <f>P14</f>
-        <v>#N/A</v>
+        <v>3766</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -9883,13 +11375,13 @@
         <v>151</v>
       </c>
       <c r="T15" s="58"/>
-      <c r="U15" s="51" t="e">
+      <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V15" s="51" t="e">
+        <v>-0.14426386485411058</v>
+      </c>
+      <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>#VALUE!</v>
+        <v>4.2624800859148877</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9906,11 +11398,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -9926,41 +11418,41 @@
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="60"/>
-      <c r="L16" s="59" t="e">
+      <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>#VALUE!</v>
+        <v>-345.10054138892099</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
       </c>
-      <c r="N16" s="59" t="e">
+      <c r="N16" s="59">
         <f>M16/10000*I16*P16</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O16" s="59" t="e">
+        <v>0</v>
+      </c>
+      <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P16" s="111" t="e">
+        <v>345.10054138892099</v>
+      </c>
+      <c r="P16" s="111">
         <f>P15</f>
-        <v>#N/A</v>
+        <v>3766</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
       <c r="S16" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="T16" s="64" t="e">
+      <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U16" s="64" t="e">
+        <v>9.1635831489357666E-2</v>
+      </c>
+      <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V16" s="64" t="e">
+        <v>-0.86711697163082135</v>
+      </c>
+      <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>#VALUE!</v>
+        <v>-1.9633951548132131</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -9973,15 +11465,15 @@
         <v>160</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="G18" s="118">
         <v>3000</v>
@@ -10001,17 +11493,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>85.654716895880483</v>
+        <v>52.818831282899509</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>85.654716895880483</v>
+        <v>52.818831282899509</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>2947</v>
+        <v>3006</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -10026,11 +11518,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.63909762296816552</v>
+        <v>-0.47281999733286284</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.2061945063912844</v>
+        <v>3.481316019770702</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -10047,11 +11539,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="G19" s="119">
         <v>3280</v>
@@ -10073,17 +11565,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-1.2380373792338162</v>
+        <v>-3.2888444483966737</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>1.2380373792338162</v>
+        <v>3.2888444483966737</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>2947</v>
+        <v>3006</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -10098,11 +11590,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-2.193688243075087E-2</v>
+        <v>-5.075992482517222E-2</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.45067964743078548</v>
+        <v>-0.91381659853241359</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10119,11 +11611,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -10141,7 +11633,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>84.416679516646667</v>
+        <v>49.529986834502836</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -10152,26 +11644,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>84.416679516646667</v>
+        <v>49.529986834502836</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>2947</v>
+        <v>3006</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>2.8644954026687028E-2</v>
+        <v>1.6477041528444057E-2</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.66103450539891639</v>
+        <v>-0.52357992215803506</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>2.755514858960499</v>
+        <v>2.5674994212382884</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -10183,15 +11675,15 @@
         <v>160</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43357</v>
+        <v>43365</v>
       </c>
       <c r="G21" s="118">
         <v>3000</v>
@@ -10211,17 +11703,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>123.47437608453356</v>
+        <v>92.769990899908862</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>123.47437608453356</v>
+        <v>92.769990899908862</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>2947</v>
+        <v>3006</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -10236,11 +11728,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.5692271805855853</v>
+        <v>-0.47168841188067745</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.7761027800275997</v>
+        <v>5.9777497069352421</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -10257,11 +11749,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43357</v>
+        <v>43365</v>
       </c>
       <c r="G22" s="119">
         <v>3280</v>
@@ -10283,17 +11775,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-16.172516144778683</v>
+        <v>-25.102680205681168</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>16.172516144778683</v>
+        <v>25.102680205681168</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>2947</v>
+        <v>3006</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -10308,11 +11800,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.12661474654862559</v>
+        <v>-0.1778578374683093</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-3.0648318552032663</v>
+        <v>-3.9190985149982964</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10329,11 +11821,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43357</v>
+        <v>43365</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -10351,7 +11843,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>107.30185993975488</v>
+        <v>67.667310694227695</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -10362,26 +11854,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>107.30185993975488</v>
+        <v>67.667310694227695</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>2947</v>
+        <v>3006</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>3.6410539511284312E-2</v>
+        <v>2.2510748733941349E-2</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.69584192713421089</v>
+        <v>-0.64954624934898675</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>2.7112709248243334</v>
+        <v>2.0586511919369457</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -10394,15 +11886,15 @@
         <v>160</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="G26" s="118">
         <v>4800</v>
@@ -10423,17 +11915,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>45.368199767044871</v>
+        <v>138.05576990079862</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>45.368199767044871</v>
+        <v>138.05576990079862</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>4864</v>
+        <v>4692</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -10448,11 +11940,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.35562655644980623</v>
+        <v>-0.71840387538486539</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>5.272949065236503</v>
+        <v>4.593783131291957</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -10464,15 +11956,15 @@
         <v>160</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="G27" s="119">
         <v>4990</v>
@@ -10493,17 +11985,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-46.981036177891838</v>
+        <v>-12.284471052834192</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>46.981036177891838</v>
+        <v>12.284471052834192</v>
       </c>
       <c r="P27" s="94">
         <f>P26</f>
-        <v>4864</v>
+        <v>4692</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -10518,11 +12010,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.31102861905765167</v>
+        <v>-0.11139882064412632</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-5.001186613787354</v>
+        <v>-2.5899567984196779</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10539,11 +12031,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -10560,7 +12052,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>-1.6128364108469668</v>
+        <v>125.77129884796443</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -10571,26 +12063,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>1.6128364108469668</v>
+        <v>125.77129884796443</v>
       </c>
       <c r="P28" s="111">
         <f>P27</f>
-        <v>4864</v>
+        <v>4692</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>3.315864331511034E-4</v>
+        <v>2.680547716282277E-2</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.6666551755074579</v>
+        <v>-0.8298026960289917</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>0.27176245144914901</v>
+        <v>2.0038263328722792</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -10602,15 +12094,15 @@
         <v>160</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="G29" s="118">
         <v>4700</v>
@@ -10631,17 +12123,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>17.983433437908616</v>
+        <v>74.916840880877771</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>17.983433437908616</v>
+        <v>74.916840880877771</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>4864</v>
+        <v>4692</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -10656,11 +12148,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.17737480761184088</v>
+        <v>-0.50951430791883467</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>3.6765013604893397</v>
+        <v>5.4439604386011524</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -10672,15 +12164,15 @@
         <v>160</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="G30" s="119">
         <v>4990</v>
@@ -10701,17 +12193,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-46.981036177891838</v>
+        <v>-12.284471052834192</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>46.981036177891838</v>
+        <v>12.284471052834192</v>
       </c>
       <c r="P30" s="94">
         <f>P29</f>
-        <v>4864</v>
+        <v>4692</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -10726,11 +12218,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.31102861905765167</v>
+        <v>-0.11139882064412632</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-5.001186613787354</v>
+        <v>-2.5899567984196779</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10742,15 +12234,15 @@
         <v>160</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -10767,7 +12259,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>-28.997602739983222</v>
+        <v>62.632369828043579</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -10778,26 +12270,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>28.997602739983222</v>
+        <v>62.632369828043579</v>
       </c>
       <c r="P31" s="111">
         <f>P30</f>
-        <v>4864</v>
+        <v>4692</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>5.9616781948978667E-3</v>
+        <v>1.3348757422856688E-2</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.48840342666949255</v>
+        <v>-0.62091312856296099</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>-1.3246852532980142</v>
+        <v>2.8540036401814746</v>
       </c>
     </row>
     <row r="32" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -10809,15 +12301,15 @@
         <v>160</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E32" s="46">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F32" s="46">
         <f ca="1">E32+H32</f>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="G32" s="118">
         <v>52000</v>
@@ -10883,11 +12375,11 @@
       </c>
       <c r="E33" s="54">
         <f t="shared" ref="E33:F33" ca="1" si="19">E32</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F33" s="54">
         <f t="shared" ca="1" si="19"/>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="G33" s="119">
         <v>54800</v>
@@ -10954,11 +12446,11 @@
       </c>
       <c r="E34" s="62">
         <f t="shared" ref="E34:F34" ca="1" si="20">E33</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="F34" s="62">
         <f t="shared" ca="1" si="20"/>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="G34" s="60" t="str">
         <f>G32 &amp; "|" &amp; G33</f>
@@ -11356,7 +12848,7 @@
         <v>-1</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E10" s="10" t="str">
         <f>pricer_sf!G11</f>
@@ -11384,11 +12876,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -11438,7 +12930,7 @@
         <v>-1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" s="10" t="str">
         <f>pricer_sf!G12</f>
@@ -11466,11 +12958,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -11520,7 +13012,7 @@
         <v>-1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="10" t="str">
         <f>pricer_sf!G13</f>
@@ -11548,11 +13040,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -11602,7 +13094,7 @@
         <v>-1</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" s="10" t="str">
         <f>pricer_sf!G14</f>
@@ -11630,11 +13122,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43448</v>
+        <v>43456</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -11684,7 +13176,7 @@
         <v>-1</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="10" t="str">
         <f>pricer_sf!G15</f>
@@ -11712,11 +13204,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43448</v>
+        <v>43456</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -11766,7 +13258,7 @@
         <v>-1</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="10" t="str">
         <f>pricer_sf!G16</f>
@@ -11794,11 +13286,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43448</v>
+        <v>43456</v>
       </c>
       <c r="M15" s="10">
         <f>pricer_sf!O16</f>
@@ -12484,10 +13976,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="143"/>
+      <c r="C1" s="145"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -12652,11 +14144,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43295</v>
+        <v>43303</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -12738,11 +14230,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43445</v>
+        <v>43453</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -12827,7 +14319,7 @@
         <v>-1</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>48</v>
@@ -12850,11 +14342,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -12914,7 +14406,7 @@
         <v>-1</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>48</v>
@@ -12937,11 +14429,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -13001,7 +14493,7 @@
         <v>-1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>48</v>
@@ -13024,11 +14516,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43356</v>
+        <v>43364</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -13088,7 +14580,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>48</v>
@@ -13111,11 +14603,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43448</v>
+        <v>43456</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -13175,7 +14667,7 @@
         <v>-1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>48</v>
@@ -13198,11 +14690,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43448</v>
+        <v>43456</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -13262,7 +14754,7 @@
         <v>-1</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>48</v>
@@ -13285,11 +14777,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43265</v>
+        <v>43273</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43448</v>
+        <v>43456</v>
       </c>
       <c r="O16" s="10">
         <v>183</v>

--- a/PricerAndQutation/OptionPricer_v2_20180606.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180606.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="277">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1026,6 +1026,10 @@
   </si>
   <si>
     <t>ru1901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc1809</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1033,7 +1037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="###,###,##0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
@@ -1042,6 +1046,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="181" formatCode="#,##0_ "/>
     <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="###,###,##0.00"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -1588,7 +1593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1785,6 +1790,7 @@
     <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="181" fontId="13" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="13" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,17 +1815,17 @@
     <xf numFmtId="14" fontId="33" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="33" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1830,22 +1836,22 @@
     <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,11 +1860,11 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="182" fontId="33" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="182" fontId="33" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1896,15 +1902,15 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>4692</v>
+        <v>4740</v>
         <stp/>
         <stp>p1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P26" s="9"/>
         <tr r="P29" s="9"/>
-        <tr r="P26" s="9"/>
       </tp>
       <tp>
-        <v>12080</v>
+        <v>12225</v>
         <stp/>
         <stp>ru1901</stp>
         <stp>LastPrice</stp>
@@ -1912,7 +1918,7 @@
         <tr r="P35" s="1"/>
       </tp>
       <tp>
-        <v>14455</v>
+        <v>14315</v>
         <stp/>
         <stp>al1811</stp>
         <stp>LastPrice</stp>
@@ -1922,22 +1928,22 @@
         <tr r="P31" s="1"/>
       </tp>
       <tp>
-        <v>14375</v>
+        <v>14245</v>
         <stp/>
         <stp>al1810</stp>
         <stp>LastPrice</stp>
+        <tr r="P19" s="1"/>
         <tr r="P22" s="1"/>
-        <tr r="P19" s="1"/>
       </tp>
       <tp>
-        <v>19110</v>
+        <v>19510</v>
         <stp/>
         <stp>pb1809</stp>
         <stp>LastPrice</stp>
         <tr r="P27" s="1"/>
       </tp>
       <tp>
-        <v>14290</v>
+        <v>14170</v>
         <stp/>
         <stp>al1809</stp>
         <stp>LastPrice</stp>
@@ -1945,14 +1951,14 @@
         <tr r="P21" s="1"/>
       </tp>
       <tp>
-        <v>14225</v>
+        <v>14095</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
       </tp>
       <tp>
-        <v>454</v>
+        <v>466.5</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
@@ -1960,15 +1966,15 @@
         <tr r="P34" s="1"/>
       </tp>
       <tp>
-        <v>3006</v>
+        <v>2996</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P21" s="9"/>
         <tr r="P18" s="9"/>
-        <tr r="P21" s="9"/>
       </tp>
       <tp>
-        <v>3766</v>
+        <v>3707</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
@@ -2275,11 +2281,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R54"/>
+  <dimension ref="B1:R56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55:R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2307,11 +2313,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="2" spans="2:18" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:18" ht="13.5" x14ac:dyDescent="0.15">
@@ -3522,11 +3528,11 @@
       </c>
       <c r="D30" s="93">
         <f t="shared" ref="D30:D31" ca="1" si="0">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="E30" s="93">
         <f t="shared" ref="E30:E31" ca="1" si="1">D30+G30</f>
-        <v>43332</v>
+        <v>43335</v>
       </c>
       <c r="F30" s="92">
         <v>100</v>
@@ -3582,11 +3588,11 @@
       </c>
       <c r="D31" s="93">
         <f t="shared" ca="1" si="0"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="E31" s="93">
         <f t="shared" ca="1" si="1"/>
-        <v>43332</v>
+        <v>43335</v>
       </c>
       <c r="F31" s="92">
         <v>100</v>
@@ -4796,7 +4802,7 @@
         <v>274</v>
       </c>
       <c r="D54" s="93">
-        <v>43272</v>
+        <v>43276</v>
       </c>
       <c r="E54" s="93">
         <v>43322</v>
@@ -4805,19 +4811,19 @@
         <v>480</v>
       </c>
       <c r="G54" s="92">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H54" s="92">
-        <v>0.13698630136986301</v>
+        <v>0.12602739726027398</v>
       </c>
       <c r="I54" s="92">
         <v>0</v>
       </c>
       <c r="J54" s="92">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="K54" s="92">
-        <v>36.198887383502893</v>
+        <v>25.234296912877255</v>
       </c>
       <c r="L54" s="92">
         <v>0</v>
@@ -4826,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="N54" s="99">
-        <v>36.198887383502893</v>
+        <v>25.234296912877255</v>
       </c>
       <c r="O54" s="92">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P54" s="92" t="s">
         <v>85</v>
@@ -4838,6 +4844,110 @@
         <v>1</v>
       </c>
       <c r="R54" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B55" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N55" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O55" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P55" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B56" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="93">
+        <v>43276</v>
+      </c>
+      <c r="E56" s="93">
+        <v>43322</v>
+      </c>
+      <c r="F56" s="92">
+        <v>430</v>
+      </c>
+      <c r="G56" s="92">
+        <v>46</v>
+      </c>
+      <c r="H56" s="92">
+        <v>0.12602739726027398</v>
+      </c>
+      <c r="I56" s="92">
+        <v>0</v>
+      </c>
+      <c r="J56" s="92">
+        <v>0.26</v>
+      </c>
+      <c r="K56" s="92">
+        <v>4.2716086209137814</v>
+      </c>
+      <c r="L56" s="92">
+        <v>0</v>
+      </c>
+      <c r="M56" s="92">
+        <v>0</v>
+      </c>
+      <c r="N56" s="99">
+        <v>4.2716086209137814</v>
+      </c>
+      <c r="O56" s="92">
+        <v>466.5</v>
+      </c>
+      <c r="P56" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q56" s="92">
+        <v>1</v>
+      </c>
+      <c r="R56" s="92" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4879,10 +4989,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="147"/>
+      <c r="C1" s="148"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -5021,11 +5131,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -5094,11 +5204,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -5164,11 +5274,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -5887,8 +5997,8 @@
   <dimension ref="B1:Y90"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L94" sqref="L94"/>
+      <pane ySplit="17" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -5903,75 +6013,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="141"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="G3" s="143" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="G3" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="L3" s="139" t="s">
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="L3" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="Q3" s="143" t="s">
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="Q3" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="G4" s="140" t="s">
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="G4" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="L4" s="140" t="s">
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="L4" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="Q4" s="140" t="s">
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="Q4" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
-      <c r="G5" s="137" t="s">
+      <c r="C5" s="136"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="143"/>
+      <c r="G5" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="137"/>
+      <c r="H5" s="136"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104"/>
       <c r="L5" s="101" t="s">
@@ -5980,360 +6090,360 @@
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
       <c r="O5" s="104"/>
-      <c r="Q5" s="137" t="s">
+      <c r="Q5" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="137"/>
+      <c r="R5" s="136"/>
       <c r="S5" s="103"/>
       <c r="T5" s="104"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="135" t="s">
+      <c r="C6" s="136"/>
+      <c r="D6" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="G6" s="137" t="s">
+      <c r="E6" s="138"/>
+      <c r="G6" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="137"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
-      <c r="L6" s="137" t="s">
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
+      <c r="L6" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="137"/>
-      <c r="N6" s="135" t="s">
+      <c r="M6" s="136"/>
+      <c r="N6" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="O6" s="136"/>
-      <c r="Q6" s="137" t="s">
+      <c r="O6" s="138"/>
+      <c r="Q6" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="137"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="138"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="135" t="s">
+      <c r="C7" s="136"/>
+      <c r="D7" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="G7" s="137" t="s">
+      <c r="E7" s="138"/>
+      <c r="G7" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="137"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
-      <c r="L7" s="137" t="s">
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
+      <c r="L7" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="137"/>
-      <c r="N7" s="135" t="s">
+      <c r="M7" s="136"/>
+      <c r="N7" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="136"/>
-      <c r="Q7" s="137" t="s">
+      <c r="O7" s="138"/>
+      <c r="Q7" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="137"/>
-      <c r="S7" s="135"/>
-      <c r="T7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="138"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="135">
+      <c r="C8" s="136"/>
+      <c r="D8" s="137">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
-      <c r="E8" s="136"/>
-      <c r="G8" s="137" t="s">
+      <c r="E8" s="138"/>
+      <c r="G8" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="137"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
-      <c r="L8" s="137" t="s">
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
+      <c r="L8" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="137"/>
-      <c r="N8" s="135">
+      <c r="M8" s="136"/>
+      <c r="N8" s="137">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
-      <c r="O8" s="136"/>
-      <c r="Q8" s="137" t="s">
+      <c r="O8" s="138"/>
+      <c r="Q8" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="137"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="138"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="135" t="s">
+      <c r="C9" s="136"/>
+      <c r="D9" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="G9" s="137" t="s">
+      <c r="E9" s="138"/>
+      <c r="G9" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
-      <c r="L9" s="137" t="s">
+      <c r="H9" s="136"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
+      <c r="L9" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="137"/>
-      <c r="N9" s="135" t="s">
+      <c r="M9" s="136"/>
+      <c r="N9" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="O9" s="136"/>
-      <c r="Q9" s="137" t="s">
+      <c r="O9" s="138"/>
+      <c r="Q9" s="136" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="137"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="136"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="138"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="135">
+      <c r="C10" s="136"/>
+      <c r="D10" s="137">
         <v>43084</v>
       </c>
-      <c r="E10" s="136"/>
+      <c r="E10" s="138"/>
       <c r="G10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="H10" s="105"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="136"/>
-      <c r="L10" s="137" t="s">
+      <c r="I10" s="137"/>
+      <c r="J10" s="138"/>
+      <c r="L10" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="137"/>
-      <c r="N10" s="135">
+      <c r="M10" s="136"/>
+      <c r="N10" s="137">
         <v>43084</v>
       </c>
-      <c r="O10" s="136"/>
+      <c r="O10" s="138"/>
       <c r="Q10" s="105" t="s">
         <v>135</v>
       </c>
       <c r="R10" s="105"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="136"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="138"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="135">
+      <c r="C11" s="136"/>
+      <c r="D11" s="137">
         <v>3935</v>
       </c>
-      <c r="E11" s="136"/>
-      <c r="G11" s="137" t="s">
+      <c r="E11" s="138"/>
+      <c r="G11" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="136"/>
-      <c r="L11" s="137" t="s">
+      <c r="H11" s="136"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
+      <c r="L11" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="137"/>
-      <c r="N11" s="135">
+      <c r="M11" s="136"/>
+      <c r="N11" s="137">
         <v>3935</v>
       </c>
-      <c r="O11" s="136"/>
-      <c r="Q11" s="137" t="s">
+      <c r="O11" s="138"/>
+      <c r="Q11" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="137"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="136"/>
+      <c r="R11" s="136"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="138"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="135">
+      <c r="C12" s="136"/>
+      <c r="D12" s="137">
         <v>3800</v>
       </c>
-      <c r="E12" s="136"/>
-      <c r="G12" s="137" t="s">
+      <c r="E12" s="138"/>
+      <c r="G12" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="137"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
-      <c r="L12" s="137" t="s">
+      <c r="H12" s="136"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138"/>
+      <c r="L12" s="136" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="137"/>
-      <c r="N12" s="135">
+      <c r="M12" s="136"/>
+      <c r="N12" s="137">
         <v>3800</v>
       </c>
-      <c r="O12" s="136"/>
-      <c r="Q12" s="137" t="s">
+      <c r="O12" s="138"/>
+      <c r="Q12" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="137"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="138"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="135">
+      <c r="C13" s="136"/>
+      <c r="D13" s="137">
         <v>61</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="G13" s="137" t="s">
+      <c r="E13" s="138"/>
+      <c r="G13" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="137"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
-      <c r="L13" s="137" t="s">
+      <c r="H13" s="136"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
+      <c r="L13" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="137"/>
-      <c r="N13" s="135">
+      <c r="M13" s="136"/>
+      <c r="N13" s="137">
         <v>3800</v>
       </c>
-      <c r="O13" s="136"/>
-      <c r="Q13" s="137" t="s">
+      <c r="O13" s="138"/>
+      <c r="Q13" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="137"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="138"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="135" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="136"/>
-      <c r="G14" s="137" t="s">
+      <c r="E14" s="138"/>
+      <c r="G14" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="137"/>
+      <c r="H14" s="136"/>
       <c r="I14" s="106"/>
       <c r="J14" s="107"/>
-      <c r="L14" s="137" t="s">
+      <c r="L14" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="137"/>
-      <c r="N14" s="135">
+      <c r="M14" s="136"/>
+      <c r="N14" s="137">
         <v>61</v>
       </c>
-      <c r="O14" s="136"/>
-      <c r="Q14" s="137" t="s">
+      <c r="O14" s="138"/>
+      <c r="Q14" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="137"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="138"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="135">
+      <c r="C15" s="136"/>
+      <c r="D15" s="137">
         <v>5000</v>
       </c>
-      <c r="E15" s="136"/>
-      <c r="G15" s="137" t="s">
+      <c r="E15" s="138"/>
+      <c r="G15" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="137"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="136"/>
-      <c r="L15" s="137" t="s">
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="138"/>
+      <c r="L15" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="137"/>
-      <c r="N15" s="135" t="s">
+      <c r="M15" s="136"/>
+      <c r="N15" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="136"/>
-      <c r="Q15" s="137" t="s">
+      <c r="O15" s="138"/>
+      <c r="Q15" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="137"/>
+      <c r="R15" s="136"/>
       <c r="S15" s="106"/>
       <c r="T15" s="107"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="133" t="s">
+      <c r="C16" s="133"/>
+      <c r="D16" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="G16" s="132" t="s">
+      <c r="E16" s="135"/>
+      <c r="G16" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="132"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
-      <c r="L16" s="137" t="s">
+      <c r="H16" s="133"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
+      <c r="L16" s="136" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="137"/>
-      <c r="N16" s="135">
+      <c r="M16" s="136"/>
+      <c r="N16" s="137">
         <v>5000</v>
       </c>
-      <c r="O16" s="136"/>
-      <c r="Q16" s="137" t="s">
+      <c r="O16" s="138"/>
+      <c r="Q16" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="137"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="136"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="138"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="132" t="s">
+      <c r="L17" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="132"/>
-      <c r="N17" s="133" t="s">
+      <c r="M17" s="133"/>
+      <c r="N17" s="134" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="134"/>
-      <c r="Q17" s="132" t="s">
+      <c r="O17" s="135"/>
+      <c r="Q17" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="132"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="134"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="135"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="108" t="s">
@@ -6363,2250 +6473,2452 @@
       <c r="Y21" s="109"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="129" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="G22" s="130" t="s">
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="G22" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="L22" s="140" t="s">
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="L22" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="M22" s="140"/>
-      <c r="N22" s="140"/>
-      <c r="O22" s="140"/>
-      <c r="Q22" s="130" t="s">
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="Q22" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="R22" s="130"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
-      <c r="V22" s="140" t="s">
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
+      <c r="V22" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="W22" s="140"/>
-      <c r="X22" s="140"/>
-      <c r="Y22" s="140"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="121"/>
-      <c r="D23" s="127">
+      <c r="C23" s="122"/>
+      <c r="D23" s="128">
         <v>43209</v>
       </c>
-      <c r="E23" s="131"/>
-      <c r="G23" s="121" t="s">
+      <c r="E23" s="130"/>
+      <c r="G23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="121"/>
-      <c r="I23" s="127">
+      <c r="H23" s="122"/>
+      <c r="I23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
-      </c>
-      <c r="J23" s="131"/>
-      <c r="L23" s="121" t="s">
+        <v>43276</v>
+      </c>
+      <c r="J23" s="130"/>
+      <c r="L23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="M23" s="121"/>
-      <c r="N23" s="127">
+      <c r="M23" s="122"/>
+      <c r="N23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
-      </c>
-      <c r="O23" s="131"/>
-      <c r="Q23" s="121" t="s">
+        <v>43276</v>
+      </c>
+      <c r="O23" s="130"/>
+      <c r="Q23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="121"/>
-      <c r="S23" s="127">
+      <c r="R23" s="122"/>
+      <c r="S23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43272</v>
-      </c>
-      <c r="T23" s="131"/>
-      <c r="V23" s="121" t="s">
+        <v>43275</v>
+      </c>
+      <c r="T23" s="130"/>
+      <c r="V23" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="W23" s="121"/>
-      <c r="X23" s="127">
+      <c r="W23" s="122"/>
+      <c r="X23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43272</v>
-      </c>
-      <c r="Y23" s="131"/>
+        <v>43275</v>
+      </c>
+      <c r="Y23" s="130"/>
     </row>
     <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122" t="s">
+      <c r="C24" s="122"/>
+      <c r="D24" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="123"/>
-      <c r="G24" s="121" t="s">
+      <c r="E24" s="124"/>
+      <c r="G24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122" t="s">
+      <c r="H24" s="122"/>
+      <c r="I24" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="J24" s="123"/>
-      <c r="L24" s="121" t="s">
+      <c r="J24" s="124"/>
+      <c r="L24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="121"/>
-      <c r="N24" s="122" t="s">
+      <c r="M24" s="122"/>
+      <c r="N24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="123"/>
-      <c r="Q24" s="121" t="s">
+      <c r="O24" s="124"/>
+      <c r="Q24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="R24" s="121"/>
-      <c r="S24" s="122" t="s">
+      <c r="R24" s="122"/>
+      <c r="S24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="123"/>
-      <c r="V24" s="121" t="s">
+      <c r="T24" s="124"/>
+      <c r="V24" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="W24" s="121"/>
-      <c r="X24" s="122" t="s">
+      <c r="W24" s="122"/>
+      <c r="X24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="Y24" s="123"/>
+      <c r="Y24" s="124"/>
     </row>
     <row r="25" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122" t="s">
+      <c r="C25" s="122"/>
+      <c r="D25" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="E25" s="123"/>
-      <c r="G25" s="121" t="s">
+      <c r="E25" s="124"/>
+      <c r="G25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="121"/>
-      <c r="I25" s="122" t="s">
+      <c r="H25" s="122"/>
+      <c r="I25" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="123"/>
-      <c r="L25" s="121" t="s">
+      <c r="J25" s="124"/>
+      <c r="L25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="M25" s="121"/>
-      <c r="N25" s="122" t="s">
+      <c r="M25" s="122"/>
+      <c r="N25" s="123" t="s">
         <v>193</v>
       </c>
-      <c r="O25" s="123"/>
-      <c r="Q25" s="121" t="s">
+      <c r="O25" s="124"/>
+      <c r="Q25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="R25" s="121"/>
-      <c r="S25" s="122" t="s">
+      <c r="R25" s="122"/>
+      <c r="S25" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="T25" s="123"/>
-      <c r="V25" s="121" t="s">
+      <c r="T25" s="124"/>
+      <c r="V25" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="W25" s="121"/>
-      <c r="X25" s="122" t="s">
+      <c r="W25" s="122"/>
+      <c r="X25" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="Y25" s="123"/>
+      <c r="Y25" s="124"/>
     </row>
     <row r="26" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122">
+      <c r="C26" s="122"/>
+      <c r="D26" s="123">
         <f>D31*D33</f>
         <v>290000</v>
       </c>
-      <c r="E26" s="123"/>
-      <c r="G26" s="121" t="s">
+      <c r="E26" s="124"/>
+      <c r="G26" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="121"/>
-      <c r="I26" s="122">
+      <c r="H26" s="122"/>
+      <c r="I26" s="123">
         <f>I31*I33</f>
         <v>271800</v>
       </c>
-      <c r="J26" s="123"/>
-      <c r="L26" s="121" t="s">
+      <c r="J26" s="124"/>
+      <c r="L26" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="M26" s="121"/>
-      <c r="N26" s="122">
+      <c r="M26" s="122"/>
+      <c r="N26" s="123">
         <f>N31*N33</f>
         <v>275000</v>
       </c>
-      <c r="O26" s="123"/>
-      <c r="Q26" s="121" t="s">
+      <c r="O26" s="124"/>
+      <c r="Q26" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="R26" s="121"/>
-      <c r="S26" s="122">
+      <c r="R26" s="122"/>
+      <c r="S26" s="123">
         <f>S31*S33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="T26" s="123"/>
-      <c r="V26" s="121" t="s">
+      <c r="T26" s="124"/>
+      <c r="V26" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="W26" s="121"/>
-      <c r="X26" s="122">
+      <c r="W26" s="122"/>
+      <c r="X26" s="123">
         <f>X31*X33</f>
         <v>235799.99999999997</v>
       </c>
-      <c r="Y26" s="123"/>
+      <c r="Y26" s="124"/>
     </row>
     <row r="27" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="122" t="s">
+      <c r="C27" s="122"/>
+      <c r="D27" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="123"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="100">
         <f>1160*250</f>
         <v>290000</v>
       </c>
-      <c r="G27" s="121" t="s">
+      <c r="G27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122" t="s">
+      <c r="H27" s="122"/>
+      <c r="I27" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="J27" s="123"/>
-      <c r="L27" s="121" t="s">
+      <c r="J27" s="124"/>
+      <c r="L27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="M27" s="121"/>
-      <c r="N27" s="122" t="s">
+      <c r="M27" s="122"/>
+      <c r="N27" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="O27" s="123"/>
-      <c r="Q27" s="121" t="s">
+      <c r="O27" s="124"/>
+      <c r="Q27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="R27" s="121"/>
-      <c r="S27" s="122" t="s">
+      <c r="R27" s="122"/>
+      <c r="S27" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="T27" s="123"/>
-      <c r="V27" s="121" t="s">
+      <c r="T27" s="124"/>
+      <c r="V27" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="W27" s="121"/>
-      <c r="X27" s="122" t="s">
+      <c r="W27" s="122"/>
+      <c r="X27" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="Y27" s="123"/>
+      <c r="Y27" s="124"/>
     </row>
     <row r="28" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="127">
+      <c r="C28" s="122"/>
+      <c r="D28" s="128">
         <v>43222</v>
       </c>
-      <c r="E28" s="123"/>
-      <c r="G28" s="121" t="s">
+      <c r="E28" s="124"/>
+      <c r="G28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="121"/>
-      <c r="I28" s="127">
+      <c r="H28" s="122"/>
+      <c r="I28" s="128">
         <v>43182</v>
       </c>
-      <c r="J28" s="123"/>
-      <c r="L28" s="121" t="s">
+      <c r="J28" s="124"/>
+      <c r="L28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="M28" s="121"/>
-      <c r="N28" s="127">
+      <c r="M28" s="122"/>
+      <c r="N28" s="128">
         <v>43219</v>
       </c>
-      <c r="O28" s="123"/>
-      <c r="Q28" s="121" t="s">
+      <c r="O28" s="124"/>
+      <c r="Q28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="R28" s="121"/>
-      <c r="S28" s="127">
+      <c r="R28" s="122"/>
+      <c r="S28" s="128">
         <v>43201</v>
       </c>
-      <c r="T28" s="123"/>
-      <c r="V28" s="121" t="s">
+      <c r="T28" s="124"/>
+      <c r="V28" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="W28" s="121"/>
-      <c r="X28" s="127">
+      <c r="W28" s="122"/>
+      <c r="X28" s="128">
         <v>43201</v>
       </c>
-      <c r="Y28" s="123"/>
+      <c r="Y28" s="124"/>
     </row>
     <row r="29" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="122">
+      <c r="C29" s="122"/>
+      <c r="D29" s="123">
         <v>108500</v>
       </c>
-      <c r="E29" s="123"/>
-      <c r="G29" s="121" t="s">
+      <c r="E29" s="124"/>
+      <c r="G29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122">
+      <c r="H29" s="122"/>
+      <c r="I29" s="123">
         <v>3856</v>
       </c>
-      <c r="J29" s="123"/>
-      <c r="L29" s="121" t="s">
+      <c r="J29" s="124"/>
+      <c r="L29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="121"/>
-      <c r="N29" s="122">
+      <c r="M29" s="122"/>
+      <c r="N29" s="123">
         <v>3760</v>
       </c>
-      <c r="O29" s="123"/>
-      <c r="Q29" s="121" t="s">
+      <c r="O29" s="124"/>
+      <c r="Q29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="R29" s="121"/>
-      <c r="S29" s="122">
+      <c r="R29" s="122"/>
+      <c r="S29" s="123">
         <v>524</v>
       </c>
-      <c r="T29" s="123"/>
-      <c r="V29" s="121" t="s">
+      <c r="T29" s="124"/>
+      <c r="V29" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="W29" s="121"/>
-      <c r="X29" s="122">
+      <c r="W29" s="122"/>
+      <c r="X29" s="123">
         <v>524</v>
       </c>
-      <c r="Y29" s="123"/>
+      <c r="Y29" s="124"/>
     </row>
     <row r="30" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="122">
+      <c r="C30" s="122"/>
+      <c r="D30" s="123">
         <v>110000</v>
       </c>
-      <c r="E30" s="123"/>
-      <c r="G30" s="121" t="s">
+      <c r="E30" s="124"/>
+      <c r="G30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="121"/>
-      <c r="I30" s="122">
+      <c r="H30" s="122"/>
+      <c r="I30" s="123">
         <v>3930</v>
       </c>
-      <c r="J30" s="123"/>
-      <c r="L30" s="121" t="s">
+      <c r="J30" s="124"/>
+      <c r="L30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="121"/>
-      <c r="N30" s="122">
+      <c r="M30" s="122"/>
+      <c r="N30" s="123">
         <v>3700</v>
       </c>
-      <c r="O30" s="123"/>
-      <c r="Q30" s="121" t="s">
+      <c r="O30" s="124"/>
+      <c r="Q30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="R30" s="121"/>
-      <c r="S30" s="122">
+      <c r="R30" s="122"/>
+      <c r="S30" s="123">
         <v>524</v>
       </c>
-      <c r="T30" s="123"/>
-      <c r="V30" s="121" t="s">
+      <c r="T30" s="124"/>
+      <c r="V30" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="W30" s="121"/>
-      <c r="X30" s="122">
+      <c r="W30" s="122"/>
+      <c r="X30" s="123">
         <v>524</v>
       </c>
-      <c r="Y30" s="123"/>
+      <c r="Y30" s="124"/>
     </row>
     <row r="31" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122">
+      <c r="C31" s="122"/>
+      <c r="D31" s="123">
         <v>1160</v>
       </c>
-      <c r="E31" s="123"/>
-      <c r="G31" s="121" t="s">
+      <c r="E31" s="124"/>
+      <c r="G31" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="122">
+      <c r="H31" s="122"/>
+      <c r="I31" s="123">
         <v>27.18</v>
       </c>
-      <c r="J31" s="123"/>
-      <c r="L31" s="121" t="s">
+      <c r="J31" s="124"/>
+      <c r="L31" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="M31" s="121"/>
-      <c r="N31" s="122">
+      <c r="M31" s="122"/>
+      <c r="N31" s="123">
         <v>55</v>
       </c>
-      <c r="O31" s="123"/>
-      <c r="Q31" s="121" t="s">
+      <c r="O31" s="124"/>
+      <c r="Q31" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="R31" s="121"/>
-      <c r="S31" s="122">
+      <c r="R31" s="122"/>
+      <c r="S31" s="123">
         <v>23.58</v>
       </c>
-      <c r="T31" s="123"/>
-      <c r="V31" s="121" t="s">
+      <c r="T31" s="124"/>
+      <c r="V31" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="W31" s="121"/>
-      <c r="X31" s="122">
+      <c r="W31" s="122"/>
+      <c r="X31" s="123">
         <v>23.58</v>
       </c>
-      <c r="Y31" s="123"/>
+      <c r="Y31" s="124"/>
     </row>
     <row r="32" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="123"/>
-      <c r="G32" s="121" t="s">
+      <c r="E32" s="124"/>
+      <c r="G32" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122" t="s">
+      <c r="H32" s="122"/>
+      <c r="I32" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="J32" s="123"/>
-      <c r="L32" s="121" t="s">
+      <c r="J32" s="124"/>
+      <c r="L32" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="121"/>
-      <c r="N32" s="122" t="s">
+      <c r="M32" s="122"/>
+      <c r="N32" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="O32" s="123"/>
-      <c r="Q32" s="121" t="s">
+      <c r="O32" s="124"/>
+      <c r="Q32" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="R32" s="121"/>
-      <c r="S32" s="122" t="s">
+      <c r="R32" s="122"/>
+      <c r="S32" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="T32" s="123"/>
-      <c r="V32" s="121" t="s">
+      <c r="T32" s="124"/>
+      <c r="V32" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="W32" s="121"/>
-      <c r="X32" s="122" t="s">
+      <c r="W32" s="122"/>
+      <c r="X32" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="Y32" s="123"/>
+      <c r="Y32" s="124"/>
     </row>
     <row r="33" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="122">
+      <c r="C33" s="122"/>
+      <c r="D33" s="123">
         <v>250</v>
       </c>
-      <c r="E33" s="123"/>
-      <c r="G33" s="121" t="s">
+      <c r="E33" s="124"/>
+      <c r="G33" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="H33" s="121"/>
-      <c r="I33" s="122">
+      <c r="H33" s="122"/>
+      <c r="I33" s="123">
         <v>10000</v>
       </c>
-      <c r="J33" s="123"/>
-      <c r="L33" s="121" t="s">
+      <c r="J33" s="124"/>
+      <c r="L33" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="121"/>
-      <c r="N33" s="122">
+      <c r="M33" s="122"/>
+      <c r="N33" s="123">
         <v>5000</v>
       </c>
-      <c r="O33" s="123"/>
-      <c r="Q33" s="121" t="s">
+      <c r="O33" s="124"/>
+      <c r="Q33" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="R33" s="121"/>
-      <c r="S33" s="122">
+      <c r="R33" s="122"/>
+      <c r="S33" s="123">
         <v>10000</v>
       </c>
-      <c r="T33" s="123"/>
-      <c r="V33" s="121" t="s">
+      <c r="T33" s="124"/>
+      <c r="V33" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="W33" s="121"/>
-      <c r="X33" s="122">
+      <c r="W33" s="122"/>
+      <c r="X33" s="123">
         <v>10000</v>
       </c>
-      <c r="Y33" s="123"/>
+      <c r="Y33" s="124"/>
     </row>
     <row r="34" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="124"/>
-      <c r="D34" s="125" t="s">
+      <c r="C34" s="125"/>
+      <c r="D34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="126"/>
-      <c r="G34" s="124" t="s">
+      <c r="E34" s="127"/>
+      <c r="G34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="124"/>
-      <c r="I34" s="125" t="s">
+      <c r="H34" s="125"/>
+      <c r="I34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="126"/>
-      <c r="L34" s="124" t="s">
+      <c r="J34" s="127"/>
+      <c r="L34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="124"/>
-      <c r="N34" s="125" t="s">
+      <c r="M34" s="125"/>
+      <c r="N34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="O34" s="126"/>
-      <c r="Q34" s="124" t="s">
+      <c r="O34" s="127"/>
+      <c r="Q34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="R34" s="124"/>
-      <c r="S34" s="125" t="s">
+      <c r="R34" s="125"/>
+      <c r="S34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="T34" s="126"/>
-      <c r="V34" s="124" t="s">
+      <c r="T34" s="127"/>
+      <c r="V34" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="W34" s="124"/>
-      <c r="X34" s="125" t="s">
+      <c r="W34" s="125"/>
+      <c r="X34" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="Y34" s="126"/>
+      <c r="Y34" s="127"/>
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="G36" s="130" t="s">
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="G36" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="L36" s="130" t="s">
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="L36" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="Q36" s="130" t="s">
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="Q36" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
-      <c r="T36" s="130"/>
+      <c r="R36" s="129"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="129"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="127">
+      <c r="C37" s="122"/>
+      <c r="D37" s="128">
         <v>43229</v>
       </c>
-      <c r="E37" s="131"/>
-      <c r="G37" s="121" t="s">
+      <c r="E37" s="130"/>
+      <c r="G37" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="121"/>
-      <c r="I37" s="127">
+      <c r="H37" s="122"/>
+      <c r="I37" s="128">
         <v>43229</v>
       </c>
-      <c r="J37" s="131"/>
-      <c r="L37" s="121" t="s">
+      <c r="J37" s="130"/>
+      <c r="L37" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="121"/>
-      <c r="N37" s="127">
+      <c r="M37" s="122"/>
+      <c r="N37" s="128">
         <v>43214</v>
       </c>
-      <c r="O37" s="131"/>
-      <c r="Q37" s="121" t="s">
+      <c r="O37" s="130"/>
+      <c r="Q37" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="R37" s="121"/>
-      <c r="S37" s="127">
+      <c r="R37" s="122"/>
+      <c r="S37" s="128">
         <v>43209</v>
       </c>
-      <c r="T37" s="131"/>
+      <c r="T37" s="130"/>
     </row>
     <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="122" t="s">
+      <c r="C38" s="122"/>
+      <c r="D38" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="E38" s="123"/>
-      <c r="G38" s="121" t="s">
+      <c r="E38" s="124"/>
+      <c r="G38" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="121"/>
-      <c r="I38" s="122" t="s">
+      <c r="H38" s="122"/>
+      <c r="I38" s="123" t="s">
         <v>186</v>
       </c>
-      <c r="J38" s="123"/>
-      <c r="L38" s="121" t="s">
+      <c r="J38" s="124"/>
+      <c r="L38" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="121"/>
-      <c r="N38" s="122" t="s">
+      <c r="M38" s="122"/>
+      <c r="N38" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="O38" s="123"/>
-      <c r="Q38" s="121" t="s">
+      <c r="O38" s="124"/>
+      <c r="Q38" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="R38" s="121"/>
-      <c r="S38" s="122" t="s">
+      <c r="R38" s="122"/>
+      <c r="S38" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="T38" s="123"/>
+      <c r="T38" s="124"/>
     </row>
     <row r="39" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="121" t="s">
+      <c r="B39" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="121"/>
-      <c r="D39" s="122" t="s">
+      <c r="C39" s="122"/>
+      <c r="D39" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="E39" s="123"/>
-      <c r="G39" s="121" t="s">
+      <c r="E39" s="124"/>
+      <c r="G39" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="121"/>
-      <c r="I39" s="122" t="s">
+      <c r="H39" s="122"/>
+      <c r="I39" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="J39" s="123"/>
-      <c r="L39" s="121" t="s">
+      <c r="J39" s="124"/>
+      <c r="L39" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="M39" s="121"/>
-      <c r="N39" s="122" t="s">
+      <c r="M39" s="122"/>
+      <c r="N39" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="O39" s="123"/>
-      <c r="Q39" s="121" t="s">
+      <c r="O39" s="124"/>
+      <c r="Q39" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="R39" s="121"/>
-      <c r="S39" s="122" t="s">
+      <c r="R39" s="122"/>
+      <c r="S39" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="T39" s="123"/>
+      <c r="T39" s="124"/>
     </row>
     <row r="40" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="121" t="s">
+      <c r="B40" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="122">
+      <c r="C40" s="122"/>
+      <c r="D40" s="123">
         <f>D47*D45</f>
         <v>410500.00000000006</v>
       </c>
-      <c r="E40" s="123"/>
-      <c r="G40" s="121" t="s">
+      <c r="E40" s="124"/>
+      <c r="G40" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122">
+      <c r="H40" s="122"/>
+      <c r="I40" s="123">
         <f>I45*I47</f>
         <v>410500.00000000006</v>
       </c>
-      <c r="J40" s="123"/>
-      <c r="L40" s="121" t="s">
+      <c r="J40" s="124"/>
+      <c r="L40" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="M40" s="121"/>
-      <c r="N40" s="122">
+      <c r="M40" s="122"/>
+      <c r="N40" s="123">
         <f>N45*N47</f>
         <v>2117500</v>
       </c>
-      <c r="O40" s="123"/>
-      <c r="Q40" s="121" t="s">
+      <c r="O40" s="124"/>
+      <c r="Q40" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="R40" s="121"/>
-      <c r="S40" s="122">
+      <c r="R40" s="122"/>
+      <c r="S40" s="123">
         <f>S45*S47</f>
         <v>1045200</v>
       </c>
-      <c r="T40" s="123"/>
+      <c r="T40" s="124"/>
     </row>
     <row r="41" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="121" t="s">
+      <c r="B41" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="121"/>
-      <c r="D41" s="122" t="s">
+      <c r="C41" s="122"/>
+      <c r="D41" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="123"/>
-      <c r="G41" s="121" t="s">
+      <c r="E41" s="124"/>
+      <c r="G41" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="121"/>
-      <c r="I41" s="122" t="s">
+      <c r="H41" s="122"/>
+      <c r="I41" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="J41" s="123"/>
-      <c r="L41" s="121" t="s">
+      <c r="J41" s="124"/>
+      <c r="L41" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="M41" s="121"/>
-      <c r="N41" s="122" t="s">
+      <c r="M41" s="122"/>
+      <c r="N41" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="O41" s="123"/>
-      <c r="Q41" s="121" t="s">
+      <c r="O41" s="124"/>
+      <c r="Q41" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="R41" s="121"/>
-      <c r="S41" s="122" t="s">
+      <c r="R41" s="122"/>
+      <c r="S41" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="T41" s="123"/>
+      <c r="T41" s="124"/>
     </row>
     <row r="42" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="121" t="s">
+      <c r="B42" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="127">
+      <c r="C42" s="122"/>
+      <c r="D42" s="128">
         <f>D37+98</f>
         <v>43327</v>
       </c>
-      <c r="E42" s="123"/>
-      <c r="G42" s="121" t="s">
+      <c r="E42" s="124"/>
+      <c r="G42" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="121"/>
-      <c r="I42" s="127">
+      <c r="H42" s="122"/>
+      <c r="I42" s="128">
         <f>I37+98</f>
         <v>43327</v>
       </c>
-      <c r="J42" s="123"/>
-      <c r="L42" s="121" t="s">
+      <c r="J42" s="124"/>
+      <c r="L42" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="M42" s="121"/>
-      <c r="N42" s="127">
+      <c r="M42" s="122"/>
+      <c r="N42" s="128">
         <v>43266</v>
       </c>
-      <c r="O42" s="123"/>
-      <c r="Q42" s="121" t="s">
+      <c r="O42" s="124"/>
+      <c r="Q42" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="R42" s="121"/>
-      <c r="S42" s="127">
+      <c r="R42" s="122"/>
+      <c r="S42" s="128">
         <v>43266</v>
       </c>
-      <c r="T42" s="123"/>
+      <c r="T42" s="124"/>
     </row>
     <row r="43" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="122">
+      <c r="C43" s="122"/>
+      <c r="D43" s="123">
         <v>470.5</v>
       </c>
-      <c r="E43" s="123"/>
-      <c r="G43" s="121" t="s">
+      <c r="E43" s="124"/>
+      <c r="G43" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="H43" s="121"/>
-      <c r="I43" s="122">
+      <c r="H43" s="122"/>
+      <c r="I43" s="123">
         <v>470.5</v>
       </c>
-      <c r="J43" s="123"/>
-      <c r="L43" s="121" t="s">
+      <c r="J43" s="124"/>
+      <c r="L43" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="144"/>
-      <c r="N43" s="122">
+      <c r="M43" s="131"/>
+      <c r="N43" s="123">
         <v>14535</v>
       </c>
-      <c r="O43" s="123"/>
-      <c r="Q43" s="121" t="s">
+      <c r="O43" s="124"/>
+      <c r="Q43" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="R43" s="121"/>
-      <c r="S43" s="122">
+      <c r="R43" s="122"/>
+      <c r="S43" s="123">
         <v>15250</v>
       </c>
-      <c r="T43" s="123"/>
+      <c r="T43" s="124"/>
     </row>
     <row r="44" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="122">
+      <c r="C44" s="122"/>
+      <c r="D44" s="123">
         <v>470.5</v>
       </c>
-      <c r="E44" s="123"/>
+      <c r="E44" s="124"/>
       <c r="F44" s="100">
         <f>D44*1.55/100</f>
         <v>7.2927499999999998</v>
       </c>
-      <c r="G44" s="121" t="s">
+      <c r="G44" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="H44" s="121"/>
-      <c r="I44" s="122">
+      <c r="H44" s="122"/>
+      <c r="I44" s="123">
         <v>470.5</v>
       </c>
-      <c r="J44" s="123"/>
-      <c r="L44" s="121" t="s">
+      <c r="J44" s="124"/>
+      <c r="L44" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="M44" s="121"/>
-      <c r="N44" s="122">
+      <c r="M44" s="122"/>
+      <c r="N44" s="123">
         <v>14500</v>
       </c>
-      <c r="O44" s="123"/>
-      <c r="Q44" s="121" t="s">
+      <c r="O44" s="124"/>
+      <c r="Q44" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="R44" s="121"/>
-      <c r="S44" s="122">
+      <c r="R44" s="122"/>
+      <c r="S44" s="123">
         <v>14500</v>
       </c>
-      <c r="T44" s="123"/>
+      <c r="T44" s="124"/>
     </row>
     <row r="45" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="121"/>
-      <c r="D45" s="122">
+      <c r="C45" s="122"/>
+      <c r="D45" s="123">
         <v>32.840000000000003</v>
       </c>
-      <c r="E45" s="123"/>
-      <c r="G45" s="121" t="s">
+      <c r="E45" s="124"/>
+      <c r="G45" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="H45" s="121"/>
-      <c r="I45" s="122">
+      <c r="H45" s="122"/>
+      <c r="I45" s="123">
         <v>32.840000000000003</v>
       </c>
-      <c r="J45" s="123"/>
-      <c r="L45" s="121" t="s">
+      <c r="J45" s="124"/>
+      <c r="L45" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="M45" s="121"/>
-      <c r="N45" s="122">
+      <c r="M45" s="122"/>
+      <c r="N45" s="123">
         <v>423.5</v>
       </c>
-      <c r="O45" s="123"/>
-      <c r="Q45" s="121" t="s">
+      <c r="O45" s="124"/>
+      <c r="Q45" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="R45" s="121"/>
-      <c r="S45" s="122">
+      <c r="R45" s="122"/>
+      <c r="S45" s="123">
         <v>209.04</v>
       </c>
-      <c r="T45" s="123"/>
+      <c r="T45" s="124"/>
     </row>
     <row r="46" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="121" t="s">
+      <c r="B46" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="121"/>
-      <c r="D46" s="122" t="s">
+      <c r="C46" s="122"/>
+      <c r="D46" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E46" s="123"/>
-      <c r="G46" s="121" t="s">
+      <c r="E46" s="124"/>
+      <c r="G46" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="121"/>
-      <c r="I46" s="122" t="s">
+      <c r="H46" s="122"/>
+      <c r="I46" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="J46" s="123"/>
-      <c r="L46" s="121" t="s">
+      <c r="J46" s="124"/>
+      <c r="L46" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="M46" s="121"/>
-      <c r="N46" s="122" t="s">
+      <c r="M46" s="122"/>
+      <c r="N46" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="O46" s="123"/>
-      <c r="Q46" s="121" t="s">
+      <c r="O46" s="124"/>
+      <c r="Q46" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="R46" s="121"/>
-      <c r="S46" s="122" t="s">
+      <c r="R46" s="122"/>
+      <c r="S46" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="T46" s="123"/>
+      <c r="T46" s="124"/>
     </row>
     <row r="47" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="121" t="s">
+      <c r="B47" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="121"/>
-      <c r="D47" s="122">
+      <c r="C47" s="122"/>
+      <c r="D47" s="123">
         <v>12500</v>
       </c>
-      <c r="E47" s="123"/>
-      <c r="G47" s="121" t="s">
+      <c r="E47" s="124"/>
+      <c r="G47" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="121"/>
-      <c r="I47" s="122">
+      <c r="H47" s="122"/>
+      <c r="I47" s="123">
         <v>12500</v>
       </c>
-      <c r="J47" s="123"/>
-      <c r="L47" s="121" t="s">
+      <c r="J47" s="124"/>
+      <c r="L47" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="M47" s="121"/>
-      <c r="N47" s="122">
+      <c r="M47" s="122"/>
+      <c r="N47" s="123">
         <v>5000</v>
       </c>
-      <c r="O47" s="123"/>
-      <c r="Q47" s="121" t="s">
+      <c r="O47" s="124"/>
+      <c r="Q47" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="R47" s="121"/>
-      <c r="S47" s="122">
+      <c r="R47" s="122"/>
+      <c r="S47" s="123">
         <v>5000</v>
       </c>
-      <c r="T47" s="123"/>
+      <c r="T47" s="124"/>
     </row>
     <row r="48" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="124" t="s">
+      <c r="B48" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="124"/>
-      <c r="D48" s="125" t="s">
+      <c r="C48" s="125"/>
+      <c r="D48" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="E48" s="126"/>
-      <c r="G48" s="124" t="s">
+      <c r="E48" s="127"/>
+      <c r="G48" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="124"/>
-      <c r="I48" s="125" t="s">
+      <c r="H48" s="125"/>
+      <c r="I48" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="J48" s="126"/>
-      <c r="L48" s="124" t="s">
+      <c r="J48" s="127"/>
+      <c r="L48" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="M48" s="124"/>
-      <c r="N48" s="125" t="s">
+      <c r="M48" s="125"/>
+      <c r="N48" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="O48" s="126"/>
-      <c r="Q48" s="124" t="s">
+      <c r="O48" s="127"/>
+      <c r="Q48" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="R48" s="124"/>
-      <c r="S48" s="125" t="s">
+      <c r="R48" s="125"/>
+      <c r="S48" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="T48" s="126"/>
+      <c r="T48" s="127"/>
     </row>
     <row r="49" spans="2:20" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="G49" s="130" t="s">
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="G49" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="H49" s="130"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="L49" s="130" t="s">
+      <c r="H49" s="129"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="L49" s="129" t="s">
         <v>188</v>
       </c>
-      <c r="M49" s="130"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="Q49" s="130" t="s">
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="129"/>
+      <c r="Q49" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="R49" s="130"/>
-      <c r="S49" s="130"/>
-      <c r="T49" s="130"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="129"/>
+      <c r="T49" s="129"/>
     </row>
     <row r="50" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="121" t="s">
+      <c r="B50" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="121"/>
-      <c r="D50" s="127">
+      <c r="C50" s="122"/>
+      <c r="D50" s="128">
         <v>43235</v>
       </c>
-      <c r="E50" s="131"/>
-      <c r="G50" s="121" t="s">
+      <c r="E50" s="130"/>
+      <c r="G50" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="121"/>
-      <c r="I50" s="127">
+      <c r="H50" s="122"/>
+      <c r="I50" s="128">
         <v>43265</v>
       </c>
-      <c r="J50" s="131"/>
-      <c r="L50" s="121" t="s">
+      <c r="J50" s="130"/>
+      <c r="L50" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="M50" s="121"/>
-      <c r="N50" s="127">
+      <c r="M50" s="122"/>
+      <c r="N50" s="128">
         <v>43237</v>
       </c>
-      <c r="O50" s="131"/>
-      <c r="Q50" s="121" t="s">
+      <c r="O50" s="130"/>
+      <c r="Q50" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="R50" s="121"/>
-      <c r="S50" s="127">
+      <c r="R50" s="122"/>
+      <c r="S50" s="128">
         <v>43237</v>
       </c>
-      <c r="T50" s="131"/>
+      <c r="T50" s="130"/>
     </row>
     <row r="51" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="122" t="s">
+      <c r="C51" s="122"/>
+      <c r="D51" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="E51" s="123"/>
-      <c r="G51" s="121" t="s">
+      <c r="E51" s="124"/>
+      <c r="G51" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="H51" s="121"/>
-      <c r="I51" s="122" t="s">
+      <c r="H51" s="122"/>
+      <c r="I51" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="J51" s="123"/>
-      <c r="L51" s="121" t="s">
+      <c r="J51" s="124"/>
+      <c r="L51" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="M51" s="121"/>
-      <c r="N51" s="122" t="s">
+      <c r="M51" s="122"/>
+      <c r="N51" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="O51" s="123"/>
-      <c r="Q51" s="121" t="s">
+      <c r="O51" s="124"/>
+      <c r="Q51" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="R51" s="121"/>
-      <c r="S51" s="122" t="s">
+      <c r="R51" s="122"/>
+      <c r="S51" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="T51" s="123"/>
+      <c r="T51" s="124"/>
     </row>
     <row r="52" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B52" s="121" t="s">
+      <c r="B52" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="121"/>
-      <c r="D52" s="122" t="s">
+      <c r="C52" s="122"/>
+      <c r="D52" s="123" t="s">
         <v>230</v>
       </c>
-      <c r="E52" s="123"/>
-      <c r="G52" s="121" t="s">
+      <c r="E52" s="124"/>
+      <c r="G52" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="H52" s="121"/>
-      <c r="I52" s="122" t="s">
+      <c r="H52" s="122"/>
+      <c r="I52" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="123"/>
-      <c r="L52" s="121" t="s">
+      <c r="J52" s="124"/>
+      <c r="L52" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="M52" s="121"/>
-      <c r="N52" s="122" t="s">
+      <c r="M52" s="122"/>
+      <c r="N52" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="O52" s="123"/>
-      <c r="Q52" s="121" t="s">
+      <c r="O52" s="124"/>
+      <c r="Q52" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="R52" s="121"/>
-      <c r="S52" s="122" t="s">
+      <c r="R52" s="122"/>
+      <c r="S52" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="T52" s="123"/>
+      <c r="T52" s="124"/>
     </row>
     <row r="53" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B53" s="121" t="s">
+      <c r="B53" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C53" s="121"/>
-      <c r="D53" s="122">
+      <c r="C53" s="122"/>
+      <c r="D53" s="123">
         <f>D58*D60</f>
         <v>280000</v>
       </c>
-      <c r="E53" s="123"/>
-      <c r="G53" s="121" t="s">
+      <c r="E53" s="124"/>
+      <c r="G53" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="H53" s="121"/>
-      <c r="I53" s="122">
+      <c r="H53" s="122"/>
+      <c r="I53" s="123">
         <f>I58*I60</f>
         <v>252000</v>
       </c>
-      <c r="J53" s="123"/>
-      <c r="L53" s="121" t="s">
+      <c r="J53" s="124"/>
+      <c r="L53" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="M53" s="121"/>
-      <c r="N53" s="122">
+      <c r="M53" s="122"/>
+      <c r="N53" s="123">
         <f>N58*N60</f>
         <v>1272000</v>
       </c>
-      <c r="O53" s="123"/>
-      <c r="Q53" s="121" t="s">
+      <c r="O53" s="124"/>
+      <c r="Q53" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="R53" s="121"/>
-      <c r="S53" s="122">
+      <c r="R53" s="122"/>
+      <c r="S53" s="123">
         <f>S58*S60</f>
         <v>1230000</v>
       </c>
-      <c r="T53" s="123"/>
+      <c r="T53" s="124"/>
     </row>
     <row r="54" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B54" s="121" t="s">
+      <c r="B54" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="121"/>
-      <c r="D54" s="122" t="s">
+      <c r="C54" s="122"/>
+      <c r="D54" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="E54" s="123"/>
-      <c r="G54" s="121" t="s">
+      <c r="E54" s="124"/>
+      <c r="G54" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="H54" s="121"/>
-      <c r="I54" s="122" t="s">
+      <c r="H54" s="122"/>
+      <c r="I54" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="J54" s="123"/>
-      <c r="L54" s="121" t="s">
+      <c r="J54" s="124"/>
+      <c r="L54" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="M54" s="121"/>
-      <c r="N54" s="122" t="s">
+      <c r="M54" s="122"/>
+      <c r="N54" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="O54" s="123"/>
-      <c r="Q54" s="121" t="s">
+      <c r="O54" s="124"/>
+      <c r="Q54" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="R54" s="121"/>
-      <c r="S54" s="122" t="s">
+      <c r="R54" s="122"/>
+      <c r="S54" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="T54" s="123"/>
+      <c r="T54" s="124"/>
     </row>
     <row r="55" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B55" s="121" t="s">
+      <c r="B55" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="121"/>
-      <c r="D55" s="127">
+      <c r="C55" s="122"/>
+      <c r="D55" s="128">
         <f>D50+87</f>
         <v>43322</v>
       </c>
-      <c r="E55" s="123"/>
-      <c r="G55" s="121" t="s">
+      <c r="E55" s="124"/>
+      <c r="G55" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="H55" s="121"/>
-      <c r="I55" s="127">
+      <c r="H55" s="122"/>
+      <c r="I55" s="128">
         <v>43294</v>
       </c>
-      <c r="J55" s="123"/>
-      <c r="L55" s="121" t="s">
+      <c r="J55" s="124"/>
+      <c r="L55" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="M55" s="121"/>
-      <c r="N55" s="127">
+      <c r="M55" s="122"/>
+      <c r="N55" s="128">
         <f>N50+85</f>
         <v>43322</v>
       </c>
-      <c r="O55" s="123"/>
-      <c r="Q55" s="121" t="s">
+      <c r="O55" s="124"/>
+      <c r="Q55" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="R55" s="121"/>
-      <c r="S55" s="127">
+      <c r="R55" s="122"/>
+      <c r="S55" s="128">
         <f>S50+85</f>
         <v>43322</v>
       </c>
-      <c r="T55" s="123"/>
+      <c r="T55" s="124"/>
     </row>
     <row r="56" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B56" s="121" t="s">
+      <c r="B56" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="121"/>
-      <c r="D56" s="122">
+      <c r="C56" s="122"/>
+      <c r="D56" s="123">
         <v>14825</v>
       </c>
-      <c r="E56" s="123"/>
-      <c r="G56" s="121" t="s">
+      <c r="E56" s="124"/>
+      <c r="G56" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="144"/>
-      <c r="I56" s="122">
+      <c r="H56" s="131"/>
+      <c r="I56" s="123">
         <v>14700</v>
       </c>
-      <c r="J56" s="123"/>
-      <c r="L56" s="121" t="s">
+      <c r="J56" s="124"/>
+      <c r="L56" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="M56" s="121"/>
-      <c r="N56" s="122">
+      <c r="M56" s="122"/>
+      <c r="N56" s="123">
         <v>482</v>
       </c>
-      <c r="O56" s="123"/>
-      <c r="Q56" s="121" t="s">
+      <c r="O56" s="124"/>
+      <c r="Q56" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="R56" s="121"/>
-      <c r="S56" s="122">
+      <c r="R56" s="122"/>
+      <c r="S56" s="123">
         <v>482.5</v>
       </c>
-      <c r="T56" s="123"/>
+      <c r="T56" s="124"/>
     </row>
     <row r="57" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B57" s="121" t="s">
+      <c r="B57" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="121"/>
-      <c r="D57" s="122">
+      <c r="C57" s="122"/>
+      <c r="D57" s="123">
         <v>14100</v>
       </c>
-      <c r="E57" s="123"/>
-      <c r="G57" s="121" t="s">
+      <c r="E57" s="124"/>
+      <c r="G57" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="H57" s="121"/>
-      <c r="I57" s="122">
+      <c r="H57" s="122"/>
+      <c r="I57" s="123">
         <v>14500</v>
       </c>
-      <c r="J57" s="123"/>
-      <c r="L57" s="121" t="s">
+      <c r="J57" s="124"/>
+      <c r="L57" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="M57" s="121"/>
-      <c r="N57" s="122">
+      <c r="M57" s="122"/>
+      <c r="N57" s="123">
         <v>480</v>
       </c>
-      <c r="O57" s="123"/>
-      <c r="Q57" s="121" t="s">
+      <c r="O57" s="124"/>
+      <c r="Q57" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="R57" s="121"/>
-      <c r="S57" s="122">
+      <c r="R57" s="122"/>
+      <c r="S57" s="123">
         <v>430</v>
       </c>
-      <c r="T57" s="123"/>
+      <c r="T57" s="124"/>
     </row>
     <row r="58" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B58" s="121" t="s">
+      <c r="B58" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="121"/>
-      <c r="D58" s="122">
+      <c r="C58" s="122"/>
+      <c r="D58" s="123">
         <v>140</v>
       </c>
-      <c r="E58" s="123"/>
-      <c r="G58" s="121" t="s">
+      <c r="E58" s="124"/>
+      <c r="G58" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="H58" s="121"/>
-      <c r="I58" s="122">
+      <c r="H58" s="122"/>
+      <c r="I58" s="123">
         <v>126</v>
       </c>
-      <c r="J58" s="123"/>
-      <c r="L58" s="121" t="s">
+      <c r="J58" s="124"/>
+      <c r="L58" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="M58" s="121"/>
-      <c r="N58" s="122">
+      <c r="M58" s="122"/>
+      <c r="N58" s="123">
         <v>31.8</v>
       </c>
-      <c r="O58" s="123"/>
-      <c r="Q58" s="121" t="s">
+      <c r="O58" s="124"/>
+      <c r="Q58" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="R58" s="121"/>
-      <c r="S58" s="122">
+      <c r="R58" s="122"/>
+      <c r="S58" s="123">
         <v>12.3</v>
       </c>
-      <c r="T58" s="123"/>
+      <c r="T58" s="124"/>
     </row>
     <row r="59" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B59" s="121" t="s">
+      <c r="B59" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="121"/>
-      <c r="D59" s="122" t="s">
+      <c r="C59" s="122"/>
+      <c r="D59" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="E59" s="123"/>
-      <c r="G59" s="121" t="s">
+      <c r="E59" s="124"/>
+      <c r="G59" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="H59" s="121"/>
-      <c r="I59" s="122" t="s">
+      <c r="H59" s="122"/>
+      <c r="I59" s="123" t="s">
         <v>231</v>
       </c>
-      <c r="J59" s="123"/>
-      <c r="L59" s="121" t="s">
+      <c r="J59" s="124"/>
+      <c r="L59" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="M59" s="121"/>
-      <c r="N59" s="122" t="s">
+      <c r="M59" s="122"/>
+      <c r="N59" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="O59" s="123"/>
-      <c r="Q59" s="121" t="s">
+      <c r="O59" s="124"/>
+      <c r="Q59" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="R59" s="121"/>
-      <c r="S59" s="122" t="s">
+      <c r="R59" s="122"/>
+      <c r="S59" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="T59" s="123"/>
+      <c r="T59" s="124"/>
     </row>
     <row r="60" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="B60" s="121" t="s">
+      <c r="B60" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="121"/>
-      <c r="D60" s="122">
+      <c r="C60" s="122"/>
+      <c r="D60" s="123">
         <v>2000</v>
       </c>
-      <c r="E60" s="123"/>
-      <c r="G60" s="121" t="s">
+      <c r="E60" s="124"/>
+      <c r="G60" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="H60" s="121"/>
-      <c r="I60" s="122">
+      <c r="H60" s="122"/>
+      <c r="I60" s="123">
         <v>2000</v>
       </c>
-      <c r="J60" s="123"/>
-      <c r="L60" s="121" t="s">
+      <c r="J60" s="124"/>
+      <c r="L60" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="M60" s="121"/>
-      <c r="N60" s="122">
+      <c r="M60" s="122"/>
+      <c r="N60" s="123">
         <v>40000</v>
       </c>
-      <c r="O60" s="123"/>
-      <c r="Q60" s="121" t="s">
+      <c r="O60" s="124"/>
+      <c r="Q60" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="R60" s="121"/>
-      <c r="S60" s="122">
+      <c r="R60" s="122"/>
+      <c r="S60" s="123">
         <v>100000</v>
       </c>
-      <c r="T60" s="123"/>
+      <c r="T60" s="124"/>
     </row>
     <row r="61" spans="2:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="124" t="s">
+      <c r="B61" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="124"/>
-      <c r="D61" s="125" t="s">
+      <c r="C61" s="125"/>
+      <c r="D61" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="E61" s="126"/>
-      <c r="G61" s="124" t="s">
+      <c r="E61" s="127"/>
+      <c r="G61" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="H61" s="124"/>
-      <c r="I61" s="125" t="s">
+      <c r="H61" s="125"/>
+      <c r="I61" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="J61" s="126"/>
-      <c r="L61" s="124" t="s">
+      <c r="J61" s="127"/>
+      <c r="L61" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="M61" s="124"/>
-      <c r="N61" s="125" t="s">
+      <c r="M61" s="125"/>
+      <c r="N61" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="O61" s="126"/>
-      <c r="Q61" s="124" t="s">
+      <c r="O61" s="127"/>
+      <c r="Q61" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="R61" s="124"/>
-      <c r="S61" s="125" t="s">
+      <c r="R61" s="125"/>
+      <c r="S61" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="T61" s="126"/>
+      <c r="T61" s="127"/>
     </row>
     <row r="62" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="2:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G63" s="130" t="s">
+      <c r="G63" s="129" t="s">
         <v>236</v>
       </c>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
-      <c r="L63" s="130" t="s">
+      <c r="H63" s="129"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="129"/>
+      <c r="L63" s="129" t="s">
         <v>237</v>
       </c>
-      <c r="M63" s="130"/>
-      <c r="N63" s="130"/>
-      <c r="O63" s="130"/>
-      <c r="Q63" s="130" t="s">
+      <c r="M63" s="129"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="129"/>
+      <c r="Q63" s="129" t="s">
         <v>252</v>
       </c>
-      <c r="R63" s="130"/>
-      <c r="S63" s="130"/>
-      <c r="T63" s="130"/>
+      <c r="R63" s="129"/>
+      <c r="S63" s="129"/>
+      <c r="T63" s="129"/>
     </row>
     <row r="64" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="G64" s="121" t="s">
+      <c r="G64" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="H64" s="121"/>
-      <c r="I64" s="127">
+      <c r="H64" s="122"/>
+      <c r="I64" s="128">
         <v>43248</v>
       </c>
-      <c r="J64" s="131"/>
-      <c r="L64" s="121" t="s">
+      <c r="J64" s="130"/>
+      <c r="L64" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="M64" s="121"/>
-      <c r="N64" s="127">
+      <c r="M64" s="122"/>
+      <c r="N64" s="128">
         <v>43248</v>
       </c>
-      <c r="O64" s="131"/>
-      <c r="Q64" s="121" t="s">
+      <c r="O64" s="130"/>
+      <c r="Q64" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="R64" s="121"/>
-      <c r="S64" s="127">
+      <c r="R64" s="122"/>
+      <c r="S64" s="128">
         <v>43264</v>
       </c>
-      <c r="T64" s="131"/>
+      <c r="T64" s="130"/>
     </row>
     <row r="65" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G65" s="121" t="s">
+      <c r="G65" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="H65" s="121"/>
-      <c r="I65" s="122" t="s">
+      <c r="H65" s="122"/>
+      <c r="I65" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="J65" s="123"/>
-      <c r="L65" s="121" t="s">
+      <c r="J65" s="124"/>
+      <c r="L65" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="M65" s="121"/>
-      <c r="N65" s="122" t="s">
+      <c r="M65" s="122"/>
+      <c r="N65" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="O65" s="123"/>
-      <c r="Q65" s="121" t="s">
+      <c r="O65" s="124"/>
+      <c r="Q65" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="R65" s="121"/>
-      <c r="S65" s="122" t="s">
+      <c r="R65" s="122"/>
+      <c r="S65" s="123" t="s">
         <v>253</v>
       </c>
-      <c r="T65" s="123"/>
+      <c r="T65" s="124"/>
     </row>
     <row r="66" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G66" s="121" t="s">
+      <c r="G66" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="121"/>
-      <c r="I66" s="122" t="s">
+      <c r="H66" s="122"/>
+      <c r="I66" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="J66" s="123"/>
-      <c r="L66" s="121" t="s">
+      <c r="J66" s="124"/>
+      <c r="L66" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="M66" s="121"/>
-      <c r="N66" s="122" t="s">
+      <c r="M66" s="122"/>
+      <c r="N66" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="O66" s="123"/>
-      <c r="Q66" s="121" t="s">
+      <c r="O66" s="124"/>
+      <c r="Q66" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="R66" s="121"/>
-      <c r="S66" s="122" t="s">
+      <c r="R66" s="122"/>
+      <c r="S66" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="T66" s="123"/>
+      <c r="T66" s="124"/>
     </row>
     <row r="67" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G67" s="121" t="s">
+      <c r="G67" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="H67" s="121"/>
-      <c r="I67" s="122">
+      <c r="H67" s="122"/>
+      <c r="I67" s="123">
         <f>I72*I74</f>
         <v>244200.00000000003</v>
       </c>
-      <c r="J67" s="123"/>
-      <c r="L67" s="121" t="s">
+      <c r="J67" s="124"/>
+      <c r="L67" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="M67" s="121"/>
-      <c r="N67" s="122">
+      <c r="M67" s="122"/>
+      <c r="N67" s="123">
         <f>N72*N74</f>
         <v>244200.00000000003</v>
       </c>
-      <c r="O67" s="123"/>
-      <c r="Q67" s="121" t="s">
+      <c r="O67" s="124"/>
+      <c r="Q67" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="R67" s="121"/>
-      <c r="S67" s="122">
+      <c r="R67" s="122"/>
+      <c r="S67" s="123">
         <f>S72*S74</f>
         <v>35120</v>
       </c>
-      <c r="T67" s="123"/>
+      <c r="T67" s="124"/>
     </row>
     <row r="68" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G68" s="121" t="s">
+      <c r="G68" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="H68" s="121"/>
-      <c r="I68" s="122" t="s">
+      <c r="H68" s="122"/>
+      <c r="I68" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="J68" s="123"/>
-      <c r="L68" s="121" t="s">
+      <c r="J68" s="124"/>
+      <c r="L68" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="M68" s="121"/>
-      <c r="N68" s="122" t="s">
+      <c r="M68" s="122"/>
+      <c r="N68" s="123" t="s">
         <v>235</v>
       </c>
-      <c r="O68" s="123"/>
-      <c r="Q68" s="121" t="s">
+      <c r="O68" s="124"/>
+      <c r="Q68" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="R68" s="121"/>
-      <c r="S68" s="122" t="s">
+      <c r="R68" s="122"/>
+      <c r="S68" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="T68" s="123"/>
+      <c r="T68" s="124"/>
     </row>
     <row r="69" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G69" s="121" t="s">
+      <c r="G69" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="H69" s="121"/>
-      <c r="I69" s="127">
+      <c r="H69" s="122"/>
+      <c r="I69" s="128">
         <f>I64+79</f>
         <v>43327</v>
       </c>
-      <c r="J69" s="123"/>
-      <c r="L69" s="121" t="s">
+      <c r="J69" s="124"/>
+      <c r="L69" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="M69" s="121"/>
-      <c r="N69" s="127">
+      <c r="M69" s="122"/>
+      <c r="N69" s="128">
         <f>N64+79</f>
         <v>43327</v>
       </c>
-      <c r="O69" s="123"/>
-      <c r="Q69" s="121" t="s">
+      <c r="O69" s="124"/>
+      <c r="Q69" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="R69" s="121"/>
-      <c r="S69" s="127">
+      <c r="R69" s="122"/>
+      <c r="S69" s="128">
         <f>S64+30</f>
         <v>43294</v>
       </c>
-      <c r="T69" s="123"/>
+      <c r="T69" s="124"/>
     </row>
     <row r="70" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G70" s="121" t="s">
+      <c r="G70" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="H70" s="121"/>
-      <c r="I70" s="122">
+      <c r="H70" s="122"/>
+      <c r="I70" s="123">
         <v>456.5</v>
       </c>
-      <c r="J70" s="123"/>
-      <c r="L70" s="121" t="s">
+      <c r="J70" s="124"/>
+      <c r="L70" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="M70" s="121"/>
-      <c r="N70" s="122">
+      <c r="M70" s="122"/>
+      <c r="N70" s="123">
         <v>456.5</v>
       </c>
-      <c r="O70" s="123"/>
-      <c r="Q70" s="121" t="s">
+      <c r="O70" s="124"/>
+      <c r="Q70" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="R70" s="121"/>
-      <c r="S70" s="122">
+      <c r="R70" s="122"/>
+      <c r="S70" s="123">
         <v>18280</v>
       </c>
-      <c r="T70" s="123"/>
+      <c r="T70" s="124"/>
     </row>
     <row r="71" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G71" s="121" t="s">
+      <c r="G71" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="H71" s="121"/>
-      <c r="I71" s="122">
+      <c r="H71" s="122"/>
+      <c r="I71" s="123">
         <v>456.5</v>
       </c>
-      <c r="J71" s="123"/>
-      <c r="L71" s="121" t="s">
+      <c r="J71" s="124"/>
+      <c r="L71" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="M71" s="121"/>
-      <c r="N71" s="122">
+      <c r="M71" s="122"/>
+      <c r="N71" s="123">
         <v>456.5</v>
       </c>
-      <c r="O71" s="123"/>
-      <c r="Q71" s="121" t="s">
+      <c r="O71" s="124"/>
+      <c r="Q71" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="R71" s="121"/>
-      <c r="S71" s="122">
+      <c r="R71" s="122"/>
+      <c r="S71" s="123">
         <v>19000</v>
       </c>
-      <c r="T71" s="123"/>
+      <c r="T71" s="124"/>
     </row>
     <row r="72" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G72" s="121" t="s">
+      <c r="G72" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="H72" s="121"/>
-      <c r="I72" s="122">
+      <c r="H72" s="122"/>
+      <c r="I72" s="123">
         <v>24.42</v>
       </c>
-      <c r="J72" s="123"/>
-      <c r="L72" s="121" t="s">
+      <c r="J72" s="124"/>
+      <c r="L72" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="M72" s="121"/>
-      <c r="N72" s="122">
+      <c r="M72" s="122"/>
+      <c r="N72" s="123">
         <v>24.42</v>
       </c>
-      <c r="O72" s="123"/>
-      <c r="Q72" s="121" t="s">
+      <c r="O72" s="124"/>
+      <c r="Q72" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="R72" s="121"/>
-      <c r="S72" s="122">
+      <c r="R72" s="122"/>
+      <c r="S72" s="123">
         <v>439</v>
       </c>
-      <c r="T72" s="123"/>
+      <c r="T72" s="124"/>
     </row>
     <row r="73" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G73" s="121" t="s">
+      <c r="G73" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="H73" s="121"/>
-      <c r="I73" s="122" t="s">
+      <c r="H73" s="122"/>
+      <c r="I73" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="J73" s="123"/>
-      <c r="L73" s="121" t="s">
+      <c r="J73" s="124"/>
+      <c r="L73" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="M73" s="121"/>
-      <c r="N73" s="122" t="s">
+      <c r="M73" s="122"/>
+      <c r="N73" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="O73" s="123"/>
-      <c r="Q73" s="121" t="s">
+      <c r="O73" s="124"/>
+      <c r="Q73" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="R73" s="121"/>
-      <c r="S73" s="122" t="s">
+      <c r="R73" s="122"/>
+      <c r="S73" s="123" t="s">
         <v>251</v>
       </c>
-      <c r="T73" s="123"/>
+      <c r="T73" s="124"/>
     </row>
     <row r="74" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G74" s="121" t="s">
+      <c r="G74" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="H74" s="121"/>
-      <c r="I74" s="122">
+      <c r="H74" s="122"/>
+      <c r="I74" s="123">
         <v>10000</v>
       </c>
-      <c r="J74" s="123"/>
-      <c r="L74" s="121" t="s">
+      <c r="J74" s="124"/>
+      <c r="L74" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="M74" s="121"/>
-      <c r="N74" s="122">
+      <c r="M74" s="122"/>
+      <c r="N74" s="123">
         <v>10000</v>
       </c>
-      <c r="O74" s="123"/>
-      <c r="Q74" s="121" t="s">
+      <c r="O74" s="124"/>
+      <c r="Q74" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="R74" s="121"/>
-      <c r="S74" s="122">
+      <c r="R74" s="122"/>
+      <c r="S74" s="123">
         <v>80</v>
       </c>
-      <c r="T74" s="123"/>
+      <c r="T74" s="124"/>
     </row>
     <row r="75" spans="7:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G75" s="124" t="s">
+      <c r="G75" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="H75" s="124"/>
-      <c r="I75" s="125" t="s">
+      <c r="H75" s="125"/>
+      <c r="I75" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="J75" s="126"/>
-      <c r="L75" s="124" t="s">
+      <c r="J75" s="127"/>
+      <c r="L75" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="M75" s="124"/>
-      <c r="N75" s="125" t="s">
+      <c r="M75" s="125"/>
+      <c r="N75" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="O75" s="126"/>
-      <c r="Q75" s="124" t="s">
+      <c r="O75" s="127"/>
+      <c r="Q75" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="R75" s="124"/>
-      <c r="S75" s="125" t="s">
+      <c r="R75" s="125"/>
+      <c r="S75" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="T75" s="126"/>
+      <c r="T75" s="127"/>
     </row>
     <row r="76" spans="7:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="7:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G77" s="130" t="s">
+      <c r="G77" s="129" t="s">
         <v>236</v>
       </c>
-      <c r="H77" s="130"/>
-      <c r="I77" s="130"/>
-      <c r="J77" s="130"/>
-      <c r="L77" s="130" t="s">
+      <c r="H77" s="129"/>
+      <c r="I77" s="129"/>
+      <c r="J77" s="129"/>
+      <c r="L77" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="M77" s="130"/>
-      <c r="N77" s="130"/>
-      <c r="O77" s="130"/>
+      <c r="M77" s="129"/>
+      <c r="N77" s="129"/>
+      <c r="O77" s="129"/>
+      <c r="Q77" s="129" t="s">
+        <v>204</v>
+      </c>
+      <c r="R77" s="129"/>
+      <c r="S77" s="129"/>
+      <c r="T77" s="129"/>
     </row>
     <row r="78" spans="7:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="G78" s="121" t="s">
+      <c r="G78" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="H78" s="121"/>
-      <c r="I78" s="127">
+      <c r="H78" s="122"/>
+      <c r="I78" s="128">
         <v>43248</v>
       </c>
-      <c r="J78" s="131"/>
-      <c r="L78" s="121" t="s">
+      <c r="J78" s="130"/>
+      <c r="L78" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="M78" s="121"/>
-      <c r="N78" s="127">
+      <c r="M78" s="122"/>
+      <c r="N78" s="128">
         <v>43265</v>
       </c>
-      <c r="O78" s="131"/>
+      <c r="O78" s="130"/>
+      <c r="Q78" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="R78" s="122"/>
+      <c r="S78" s="128">
+        <v>43276</v>
+      </c>
+      <c r="T78" s="130"/>
     </row>
     <row r="79" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G79" s="121" t="s">
+      <c r="G79" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="H79" s="121"/>
-      <c r="I79" s="122" t="s">
+      <c r="H79" s="122"/>
+      <c r="I79" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="J79" s="123"/>
-      <c r="L79" s="121" t="s">
+      <c r="J79" s="124"/>
+      <c r="L79" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="M79" s="121"/>
-      <c r="N79" s="122" t="s">
+      <c r="M79" s="122"/>
+      <c r="N79" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="O79" s="123"/>
+      <c r="O79" s="124"/>
+      <c r="Q79" s="122" t="s">
+        <v>124</v>
+      </c>
+      <c r="R79" s="122"/>
+      <c r="S79" s="123" t="s">
+        <v>202</v>
+      </c>
+      <c r="T79" s="124"/>
     </row>
     <row r="80" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G80" s="121" t="s">
+      <c r="G80" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="H80" s="121"/>
-      <c r="I80" s="122" t="s">
+      <c r="H80" s="122"/>
+      <c r="I80" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="J80" s="123"/>
-      <c r="L80" s="121" t="s">
+      <c r="J80" s="124"/>
+      <c r="L80" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="M80" s="121"/>
-      <c r="N80" s="122" t="s">
+      <c r="M80" s="122"/>
+      <c r="N80" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="O80" s="123"/>
-    </row>
-    <row r="81" spans="7:18" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G81" s="121" t="s">
+      <c r="O80" s="124"/>
+      <c r="Q80" s="122" t="s">
+        <v>127</v>
+      </c>
+      <c r="R80" s="122"/>
+      <c r="S80" s="123" t="s">
+        <v>4</v>
+      </c>
+      <c r="T80" s="124"/>
+    </row>
+    <row r="81" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G81" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="H81" s="121"/>
-      <c r="I81" s="122">
+      <c r="H81" s="122"/>
+      <c r="I81" s="123">
         <f>I86*I88</f>
         <v>244200.00000000003</v>
       </c>
-      <c r="J81" s="123"/>
-      <c r="L81" s="121" t="s">
+      <c r="J81" s="124"/>
+      <c r="L81" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="M81" s="121"/>
-      <c r="N81" s="128">
+      <c r="M81" s="122"/>
+      <c r="N81" s="144">
         <f>N86*N88</f>
         <v>784480</v>
       </c>
-      <c r="O81" s="129"/>
-    </row>
-    <row r="82" spans="7:18" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G82" s="121" t="s">
+      <c r="O81" s="145"/>
+      <c r="Q81" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="R81" s="122"/>
+      <c r="S81" s="144">
+        <f>S86*S88</f>
+        <v>1009200</v>
+      </c>
+      <c r="T81" s="145"/>
+    </row>
+    <row r="82" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G82" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="H82" s="121"/>
-      <c r="I82" s="122" t="s">
+      <c r="H82" s="122"/>
+      <c r="I82" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="J82" s="123"/>
-      <c r="L82" s="121" t="s">
+      <c r="J82" s="124"/>
+      <c r="L82" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="M82" s="121"/>
-      <c r="N82" s="122" t="s">
+      <c r="M82" s="122"/>
+      <c r="N82" s="123" t="s">
         <v>255</v>
       </c>
-      <c r="O82" s="123"/>
-    </row>
-    <row r="83" spans="7:18" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G83" s="121" t="s">
+      <c r="O82" s="124"/>
+      <c r="Q82" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="R82" s="122"/>
+      <c r="S82" s="123" t="s">
+        <v>206</v>
+      </c>
+      <c r="T82" s="124"/>
+    </row>
+    <row r="83" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G83" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="H83" s="121"/>
-      <c r="I83" s="127">
+      <c r="H83" s="122"/>
+      <c r="I83" s="128">
         <f>I78+31</f>
         <v>43279</v>
       </c>
-      <c r="J83" s="123"/>
-      <c r="L83" s="121" t="s">
+      <c r="J83" s="124"/>
+      <c r="L83" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="M83" s="121"/>
-      <c r="N83" s="127">
+      <c r="M83" s="122"/>
+      <c r="N83" s="128">
         <v>43404</v>
       </c>
-      <c r="O83" s="123"/>
-    </row>
-    <row r="84" spans="7:18" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G84" s="121" t="s">
+      <c r="O83" s="124"/>
+      <c r="Q83" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="R83" s="122"/>
+      <c r="S83" s="128">
+        <v>43322</v>
+      </c>
+      <c r="T83" s="124"/>
+    </row>
+    <row r="84" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G84" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="H84" s="121"/>
-      <c r="I84" s="122">
+      <c r="H84" s="122"/>
+      <c r="I84" s="123">
         <v>456.5</v>
       </c>
-      <c r="J84" s="123"/>
-      <c r="L84" s="121" t="s">
+      <c r="J84" s="124"/>
+      <c r="L84" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="M84" s="121"/>
-      <c r="N84" s="122">
+      <c r="M84" s="122"/>
+      <c r="N84" s="123">
         <v>1817</v>
       </c>
-      <c r="O84" s="123"/>
+      <c r="O84" s="124"/>
       <c r="P84" s="100">
         <f>N84*3.5/100</f>
         <v>63.594999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="7:18" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G85" s="121" t="s">
+      <c r="Q84" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="R84" s="131"/>
+      <c r="S84" s="123">
+        <v>466</v>
+      </c>
+      <c r="T84" s="124"/>
+    </row>
+    <row r="85" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G85" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="H85" s="121"/>
-      <c r="I85" s="122">
+      <c r="H85" s="122"/>
+      <c r="I85" s="123">
         <v>456.5</v>
       </c>
-      <c r="J85" s="123"/>
-      <c r="L85" s="121" t="s">
+      <c r="J85" s="124"/>
+      <c r="L85" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="M85" s="121"/>
-      <c r="N85" s="122">
+      <c r="M85" s="122"/>
+      <c r="N85" s="123">
         <v>1805</v>
       </c>
-      <c r="O85" s="123"/>
-    </row>
-    <row r="86" spans="7:18" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G86" s="121" t="s">
+      <c r="O85" s="124"/>
+      <c r="Q85" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="R85" s="122"/>
+      <c r="S85" s="123">
+        <v>480</v>
+      </c>
+      <c r="T85" s="124"/>
+    </row>
+    <row r="86" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G86" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="H86" s="121"/>
-      <c r="I86" s="122">
+      <c r="H86" s="122"/>
+      <c r="I86" s="123">
         <v>24.42</v>
       </c>
-      <c r="J86" s="123"/>
-      <c r="L86" s="121" t="s">
+      <c r="J86" s="124"/>
+      <c r="L86" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="M86" s="121"/>
-      <c r="N86" s="122">
+      <c r="M86" s="122"/>
+      <c r="N86" s="123">
         <v>49.03</v>
       </c>
-      <c r="O86" s="123"/>
-      <c r="R86" s="100">
-        <v>49.03</v>
-      </c>
-    </row>
-    <row r="87" spans="7:18" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G87" s="121" t="s">
+      <c r="O86" s="124"/>
+      <c r="Q86" s="122" t="s">
+        <v>140</v>
+      </c>
+      <c r="R86" s="122"/>
+      <c r="S86" s="123">
+        <v>25.23</v>
+      </c>
+      <c r="T86" s="124"/>
+    </row>
+    <row r="87" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G87" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="H87" s="121"/>
-      <c r="I87" s="122" t="s">
+      <c r="H87" s="122"/>
+      <c r="I87" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="J87" s="123"/>
-      <c r="L87" s="121" t="s">
+      <c r="J87" s="124"/>
+      <c r="L87" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="M87" s="121"/>
-      <c r="N87" s="122" t="s">
+      <c r="M87" s="122"/>
+      <c r="N87" s="123" t="s">
         <v>256</v>
       </c>
-      <c r="O87" s="123"/>
-      <c r="R87" s="100">
-        <f>R86*N84/1000</f>
-        <v>89.087510000000009</v>
-      </c>
-    </row>
-    <row r="88" spans="7:18" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="G88" s="121" t="s">
+      <c r="O87" s="124"/>
+      <c r="Q87" s="122" t="s">
+        <v>142</v>
+      </c>
+      <c r="R87" s="122"/>
+      <c r="S87" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="T87" s="124"/>
+    </row>
+    <row r="88" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="G88" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="H88" s="121"/>
-      <c r="I88" s="122">
+      <c r="H88" s="122"/>
+      <c r="I88" s="123">
         <v>10000</v>
       </c>
-      <c r="J88" s="123"/>
-      <c r="L88" s="121" t="s">
+      <c r="J88" s="124"/>
+      <c r="L88" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="M88" s="121"/>
-      <c r="N88" s="122">
+      <c r="M88" s="122"/>
+      <c r="N88" s="123">
         <v>16000</v>
       </c>
-      <c r="O88" s="123"/>
-    </row>
-    <row r="89" spans="7:18" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G89" s="124" t="s">
+      <c r="O88" s="124"/>
+      <c r="Q88" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="R88" s="122"/>
+      <c r="S88" s="123">
+        <v>40000</v>
+      </c>
+      <c r="T88" s="124"/>
+    </row>
+    <row r="89" spans="7:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="H89" s="124"/>
-      <c r="I89" s="125" t="s">
+      <c r="H89" s="125"/>
+      <c r="I89" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="J89" s="126"/>
-      <c r="L89" s="124" t="s">
+      <c r="J89" s="127"/>
+      <c r="L89" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="M89" s="124"/>
-      <c r="N89" s="125" t="s">
+      <c r="M89" s="125"/>
+      <c r="N89" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="O89" s="126"/>
-    </row>
-    <row r="90" spans="7:18" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
+      <c r="O89" s="127"/>
+      <c r="Q89" s="125" t="s">
+        <v>147</v>
+      </c>
+      <c r="R89" s="125"/>
+      <c r="S89" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="T89" s="127"/>
+    </row>
+    <row r="90" spans="7:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="551">
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="S68:T68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+  <mergeCells count="576">
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="Q77:T77"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -8631,310 +8943,229 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="S72:T72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8945,11 +9176,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8980,10 +9211,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="145"/>
+      <c r="C1" s="146"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -9113,11 +9344,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -9137,7 +9368,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-10.495136385148555</v>
+        <v>-13.19461847395786</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -9146,11 +9377,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>10.495136385148555</v>
+        <v>13.19461847395786</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14225</v>
+        <v>14095</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -9164,15 +9395,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>7.3779517646035541E-4</v>
+        <v>9.3612050187710956E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>1.8647378189484698E-2</v>
+        <v>2.3019650055289276E-2</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.2435142453947918</v>
+        <v>-3.8388226498641131</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9188,11 +9419,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43820.5</v>
+        <v>43823.5</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -9272,12 +9503,12 @@
         <v>257</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E36" ca="1" si="9">TODAY()</f>
-        <v>43273</v>
+        <f t="shared" ref="E15:E43" ca="1" si="9">TODAY()</f>
+        <v>43276</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15" ca="1" si="10">E15+H15</f>
-        <v>43332</v>
+        <v>43335</v>
       </c>
       <c r="G15" s="11">
         <v>100</v>
@@ -9357,11 +9588,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="17">E16+H16</f>
-        <v>43332</v>
+        <v>43335</v>
       </c>
       <c r="G16" s="11">
         <v>100</v>
@@ -9441,11 +9672,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F23" ca="1" si="24">E18+H18</f>
-        <v>43324</v>
+        <v>43327</v>
       </c>
       <c r="G18" s="11">
         <v>13800</v>
@@ -9465,22 +9696,22 @@
       </c>
       <c r="L18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>86.296029525147787</v>
+        <v>116.03848501473021</v>
       </c>
       <c r="M18" s="15">
         <v>30</v>
       </c>
       <c r="N18" s="13">
         <f t="shared" ref="N18:N23" si="26">M18/10000*I18*P18</f>
-        <v>5.9900547945205487</v>
+        <v>5.9397534246575345</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" ref="O18:O23" si="27">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>80.305974730627241</v>
+        <v>110.09873159007267</v>
       </c>
       <c r="P18" s="13">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>14290</v>
+        <v>14170</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>85</v>
@@ -9494,15 +9725,15 @@
       </c>
       <c r="T18" s="14">
         <f t="shared" ref="T18:T23" si="29">O18/P18</f>
-        <v>5.6197323114504719E-3</v>
+        <v>7.7698469717764765E-3</v>
       </c>
       <c r="U18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.22000373460286937</v>
+        <v>-0.27694686225459009</v>
       </c>
       <c r="V18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>15.774383901130022</v>
+        <v>17.693439846709907</v>
       </c>
       <c r="W18" s="114"/>
       <c r="X18" s="115">
@@ -9510,7 +9741,7 @@
       </c>
       <c r="Y18" s="6">
         <f t="shared" ref="Y18:Y23" si="30">X18*U18</f>
-        <v>-88.001493841147749</v>
+        <v>-110.77874490183603</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9526,11 +9757,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43360</v>
+        <v>43363</v>
       </c>
       <c r="G19" s="11">
         <v>13800</v>
@@ -9550,22 +9781,22 @@
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>123.32751244911151</v>
+        <v>157.27477292883577</v>
       </c>
       <c r="M19" s="15">
         <v>30</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="26"/>
-        <v>10.279109589041095</v>
+        <v>10.186150684931507</v>
       </c>
       <c r="O19" s="13">
         <f t="shared" si="27"/>
-        <v>113.04840286007041</v>
+        <v>147.08862224390427</v>
       </c>
       <c r="P19" s="13">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>14375</v>
+        <v>14245</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -9579,15 +9810,15 @@
       </c>
       <c r="T19" s="14">
         <f t="shared" si="29"/>
-        <v>7.8642367207005497E-3</v>
+        <v>1.0325631607153687E-2</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.23695467618836119</v>
+        <v>-0.2861778911892543</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>21.59042190809123</v>
+        <v>23.578024965566101</v>
       </c>
       <c r="W19" s="114"/>
       <c r="X19" s="115">
@@ -9595,7 +9826,7 @@
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="30"/>
-        <v>-94.781870475344476</v>
+        <v>-114.47115647570172</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9611,11 +9842,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="G20" s="11">
         <v>13800</v>
@@ -9635,22 +9866,22 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>131.22413725832985</v>
+        <v>166.54589162121511</v>
       </c>
       <c r="M20" s="15">
         <v>30</v>
       </c>
       <c r="N20" s="13">
         <f t="shared" si="26"/>
-        <v>13.068904109589042</v>
+        <v>12.942328767123287</v>
       </c>
       <c r="O20" s="13">
         <f t="shared" si="27"/>
-        <v>118.15523314874081</v>
+        <v>153.60356285409182</v>
       </c>
       <c r="P20" s="13">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>14455</v>
+        <v>14315</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -9664,15 +9895,15 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" si="29"/>
-        <v>8.1740043686434321E-3</v>
+        <v>1.0730252382402503E-2</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.22921882505215763</v>
+        <v>-0.27622052859896939</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>23.951392921004299</v>
+        <v>26.172699818503816</v>
       </c>
       <c r="W20" s="114"/>
       <c r="X20" s="115">
@@ -9680,7 +9911,7 @@
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="30"/>
-        <v>-91.687530020863051</v>
+        <v>-110.48821143958776</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9696,11 +9927,11 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43324</v>
+        <v>43327</v>
       </c>
       <c r="G21" s="11">
         <v>14000</v>
@@ -9720,22 +9951,22 @@
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>143.22202061150529</v>
+        <v>185.71723518819817</v>
       </c>
       <c r="M21" s="15">
         <v>30</v>
       </c>
       <c r="N21" s="13">
         <f t="shared" si="26"/>
-        <v>5.9900547945205487</v>
+        <v>5.9397534246575345</v>
       </c>
       <c r="O21" s="13">
         <f t="shared" si="27"/>
-        <v>137.23196581698474</v>
+        <v>179.77748176354064</v>
       </c>
       <c r="P21" s="13">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>14290</v>
+        <v>14170</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
@@ -9749,15 +9980,15 @@
       </c>
       <c r="T21" s="14">
         <f t="shared" si="29"/>
-        <v>9.6033566002088691E-3</v>
+        <v>1.2687189962141188E-2</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.32108569507727225</v>
+        <v>-0.38800981683380087</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>19.086873196428314</v>
+        <v>20.248112428741933</v>
       </c>
       <c r="W21" s="114"/>
       <c r="X21" s="115">
@@ -9765,7 +9996,7 @@
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="30"/>
-        <v>-128.4342780309089</v>
+        <v>-155.20392673352035</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9781,11 +10012,11 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43360</v>
+        <v>43363</v>
       </c>
       <c r="G22" s="11">
         <v>14000</v>
@@ -9805,22 +10036,22 @@
       </c>
       <c r="L22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>182.59999402661288</v>
+        <v>227.38877848067386</v>
       </c>
       <c r="M22" s="15">
         <v>30</v>
       </c>
       <c r="N22" s="13">
         <f t="shared" si="26"/>
-        <v>10.279109589041095</v>
+        <v>10.186150684931507</v>
       </c>
       <c r="O22" s="13">
         <f t="shared" si="27"/>
-        <v>172.32088443757178</v>
+        <v>217.20262779574236</v>
       </c>
       <c r="P22" s="13">
         <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
-        <v>14375</v>
+        <v>14245</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>85</v>
@@ -9834,15 +10065,15 @@
       </c>
       <c r="T22" s="14">
         <f t="shared" si="29"/>
-        <v>1.1987539786961515E-2</v>
+        <v>1.5247639718900833E-2</v>
       </c>
       <c r="U22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.31699074206699152</v>
+        <v>-0.37270991915647755</v>
       </c>
       <c r="V22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>24.913894276949122</v>
+        <v>26.227830934595204</v>
       </c>
       <c r="W22" s="114"/>
       <c r="X22" s="115">
@@ -9850,7 +10081,7 @@
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="30"/>
-        <v>-126.79629682679661</v>
+        <v>-149.08396766259102</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9866,11 +10097,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43388</v>
+        <v>43391</v>
       </c>
       <c r="G23" s="11">
         <v>14000</v>
@@ -9950,11 +10181,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="32">E25+H25</f>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="G25" s="11">
         <v>50000</v>
@@ -10035,11 +10266,11 @@
       </c>
       <c r="E27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ref="F27" ca="1" si="39">E27+H27</f>
-        <v>43323</v>
+        <v>43326</v>
       </c>
       <c r="G27" s="11">
         <v>19000</v>
@@ -10059,22 +10290,22 @@
       </c>
       <c r="L27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>298.57919671473428</v>
+        <v>156.61414328708815</v>
       </c>
       <c r="M27" s="15">
         <v>30</v>
       </c>
       <c r="N27" s="13">
         <f t="shared" ref="N27" si="41">M27/10000*I27*P27</f>
-        <v>7.8534246575342461</v>
+        <v>8.0178082191780824</v>
       </c>
       <c r="O27" s="13">
         <f t="shared" ref="O27" si="42">IF(L27&lt;=0,ABS(L27)+N27,L27-N27)</f>
-        <v>290.72577205720006</v>
+        <v>148.59633506791008</v>
       </c>
       <c r="P27" s="11">
         <f>RTD("wdf.rtq",,D27,"LastPrice")</f>
-        <v>19110</v>
+        <v>19510</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>85</v>
@@ -10088,15 +10319,15 @@
       </c>
       <c r="T27" s="14">
         <f t="shared" ref="T27" si="44">O27/P27</f>
-        <v>1.5213279542501311E-2</v>
+        <v>7.6164190193700708E-3</v>
       </c>
       <c r="U27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.4399998411827255</v>
+        <v>-0.2749438283899508</v>
       </c>
       <c r="V27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>27.83216299477499</v>
+        <v>24.035839372604642</v>
       </c>
       <c r="W27" s="114"/>
       <c r="X27" s="115">
@@ -10104,7 +10335,7 @@
       </c>
       <c r="Y27" s="6">
         <f t="shared" ref="Y27" si="45">X27*U27</f>
-        <v>-175.9999364730902</v>
+        <v>-109.97753135598032</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10120,11 +10351,11 @@
       </c>
       <c r="E29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ref="F29" ca="1" si="46">E29+H29</f>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="G29" s="11">
         <v>11500</v>
@@ -10144,7 +10375,7 @@
       </c>
       <c r="L29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-16.604422230997841</v>
+        <v>-20.362115711819683</v>
       </c>
       <c r="M29" s="15">
         <v>0</v>
@@ -10155,11 +10386,11 @@
       </c>
       <c r="O29" s="13">
         <f t="shared" ref="O29" si="49">IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
-        <v>16.604422230997841</v>
+        <v>20.362115711819683</v>
       </c>
       <c r="P29" s="11">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>14455</v>
+        <v>14315</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>85</v>
@@ -10173,15 +10404,15 @@
       </c>
       <c r="T29" s="14">
         <f t="shared" ref="T29" si="51">O29/P29</f>
-        <v>1.1486974909026525E-3</v>
+        <v>1.4224321139936907E-3</v>
       </c>
       <c r="U29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>2.4394156662310706E-2</v>
+        <v>2.9426567675727711E-2</v>
       </c>
       <c r="V29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-4.1318537809309248</v>
+        <v>-4.7836493542544076</v>
       </c>
       <c r="W29" s="114"/>
       <c r="X29" s="115">
@@ -10189,7 +10420,7 @@
       </c>
       <c r="Y29" s="6">
         <f t="shared" ref="Y29" si="52">X29*U29</f>
-        <v>9.7576626649242826</v>
+        <v>11.770627070291084</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10205,11 +10436,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ref="F31:F32" ca="1" si="53">E31+H31</f>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="G31" s="11">
         <v>14000</v>
@@ -10229,7 +10460,7 @@
       </c>
       <c r="L31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-339.35406917626187</v>
+        <v>-390.82539272008853</v>
       </c>
       <c r="M31" s="15">
         <v>0</v>
@@ -10240,11 +10471,11 @@
       </c>
       <c r="O31" s="13">
         <f t="shared" ref="O31:O32" si="56">IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
-        <v>339.35406917626187</v>
+        <v>390.82539272008853</v>
       </c>
       <c r="P31" s="11">
         <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
-        <v>14455</v>
+        <v>14315</v>
       </c>
       <c r="Q31" s="10" t="s">
         <v>85</v>
@@ -10258,15 +10489,15 @@
       </c>
       <c r="T31" s="14">
         <f t="shared" ref="T31:T32" si="58">O31/P31</f>
-        <v>2.3476587283034374E-2</v>
+        <v>2.7301808782402272E-2</v>
       </c>
       <c r="U31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>0.34853921097237617</v>
+        <v>0.38704722692273208</v>
       </c>
       <c r="V31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-26.604626961614031</v>
+        <v>-27.265404154069984</v>
       </c>
       <c r="W31" s="114"/>
       <c r="X31" s="115">
@@ -10274,7 +10505,7 @@
       </c>
       <c r="Y31" s="6">
         <f t="shared" ref="Y31:Y32" si="59">X31*U31</f>
-        <v>139.41568438895047</v>
+        <v>154.81889076909283</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10290,11 +10521,11 @@
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="53"/>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="G32" s="11">
         <v>13500</v>
@@ -10314,7 +10545,7 @@
       </c>
       <c r="L32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-192.58828748381438</v>
+        <v>-226.27343296326899</v>
       </c>
       <c r="M32" s="15">
         <v>0</v>
@@ -10325,11 +10556,11 @@
       </c>
       <c r="O32" s="13">
         <f t="shared" si="56"/>
-        <v>192.58828748381438</v>
+        <v>226.27343296326899</v>
       </c>
       <c r="P32" s="11">
         <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
-        <v>14455</v>
+        <v>14315</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>85</v>
@@ -10343,15 +10574,15 @@
       </c>
       <c r="T32" s="14">
         <f t="shared" si="58"/>
-        <v>1.3323299030357273E-2</v>
+        <v>1.580673649760873E-2</v>
       </c>
       <c r="U32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>0.22529697246227443</v>
+        <v>0.2563318651937152</v>
       </c>
       <c r="V32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-21.603996185057895</v>
+        <v>-22.949784347137438</v>
       </c>
       <c r="W32" s="114"/>
       <c r="X32" s="115">
@@ -10359,7 +10590,7 @@
       </c>
       <c r="Y32" s="6">
         <f t="shared" si="59"/>
-        <v>90.11878898490977</v>
+        <v>102.53274607748608</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10375,11 +10606,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ref="F34" ca="1" si="60">E34+H34</f>
-        <v>43323</v>
+        <v>43326</v>
       </c>
       <c r="G34" s="11">
         <v>480</v>
@@ -10399,7 +10630,7 @@
       </c>
       <c r="L34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>35.517995160407281</v>
+        <v>27.639523058812301</v>
       </c>
       <c r="M34" s="15">
         <v>0</v>
@@ -10410,11 +10641,11 @@
       </c>
       <c r="O34" s="13">
         <f t="shared" ref="O34" si="63">IF(L34&lt;=0,ABS(L34)+N34,L34-N34)</f>
-        <v>35.517995160407281</v>
+        <v>27.639523058812301</v>
       </c>
       <c r="P34" s="11">
         <f>RTD("wdf.rtq",,D34,"LastPrice")</f>
-        <v>454</v>
+        <v>466.5</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>85</v>
@@ -10428,15 +10659,15 @@
       </c>
       <c r="T34" s="14">
         <f t="shared" ref="T34" si="65">O34/P34</f>
-        <v>7.8233469516315601E-2</v>
+        <v>5.9248709665192502E-2</v>
       </c>
       <c r="U34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-0.6772376859345286</v>
+        <v>-0.58239608179633251</v>
       </c>
       <c r="V34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>0.59987895623493159</v>
+        <v>0.67161698022607652</v>
       </c>
       <c r="W34" s="114"/>
       <c r="X34" s="115">
@@ -10444,7 +10675,7 @@
       </c>
       <c r="Y34" s="6">
         <f t="shared" ref="Y34" si="66">X34*U34</f>
-        <v>-270.89507437381144</v>
+        <v>-232.958432718533</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10460,15 +10691,15 @@
       </c>
       <c r="E35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" ref="F35:F36" ca="1" si="67">E35+H35</f>
-        <v>43455</v>
+        <v>43458</v>
       </c>
       <c r="G35" s="11">
         <f>P35</f>
-        <v>12080</v>
+        <v>12225</v>
       </c>
       <c r="H35" s="10">
         <v>182</v>
@@ -10485,7 +10716,7 @@
       </c>
       <c r="L35" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>1075.8755135131196</v>
+        <v>1088.789582176978</v>
       </c>
       <c r="M35" s="15">
         <v>0</v>
@@ -10496,11 +10727,11 @@
       </c>
       <c r="O35" s="13">
         <f t="shared" ref="O35:O36" si="70">IF(L35&lt;=0,ABS(L35)+N35,L35-N35)</f>
-        <v>1075.8755135131196</v>
+        <v>1088.789582176978</v>
       </c>
       <c r="P35" s="11">
         <f>RTD("wdf.rtq",,D35,"LastPrice")</f>
-        <v>12080</v>
+        <v>12225</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>85</v>
@@ -10514,15 +10745,15 @@
       </c>
       <c r="T35" s="14">
         <f t="shared" ref="T35:T36" si="72">O35/P35</f>
-        <v>8.9062542509364198E-2</v>
+        <v>8.9062542509364254E-2</v>
       </c>
       <c r="U35" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>-0.45050720818835543</v>
+        <v>-0.4505072081428807</v>
       </c>
       <c r="V35" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>33.478227409008468</v>
+        <v>33.880076992973954</v>
       </c>
       <c r="W35" s="114"/>
       <c r="X35" s="115">
@@ -10530,7 +10761,7 @@
       </c>
       <c r="Y35" s="6">
         <f t="shared" ref="Y35:Y36" si="73">X35*U35</f>
-        <v>-180.20288327534217</v>
+        <v>-180.20288325715228</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10546,15 +10777,15 @@
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ca="1" si="67"/>
-        <v>43455</v>
+        <v>43458</v>
       </c>
       <c r="G36" s="11">
         <f>P36</f>
-        <v>12080</v>
+        <v>12225</v>
       </c>
       <c r="H36" s="10">
         <v>182</v>
@@ -10571,7 +10802,7 @@
       </c>
       <c r="L36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>807.65703521167688</v>
+        <v>817.35159399526037</v>
       </c>
       <c r="M36" s="15">
         <v>0</v>
@@ -10582,11 +10813,11 @@
       </c>
       <c r="O36" s="13">
         <f t="shared" si="70"/>
-        <v>807.65703521167688</v>
+        <v>817.35159399526037</v>
       </c>
       <c r="P36" s="11">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>12080</v>
+        <v>12225</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>85</v>
@@ -10600,15 +10831,15 @@
       </c>
       <c r="T36" s="14">
         <f t="shared" si="72"/>
-        <v>6.6859026093681856E-2</v>
+        <v>6.6859026093681828E-2</v>
       </c>
       <c r="U36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.46160896631590731</v>
+        <v>-0.46160896636138204</v>
       </c>
       <c r="V36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>33.571839875056412</v>
+        <v>33.974813118589282</v>
       </c>
       <c r="W36" s="114"/>
       <c r="X36" s="115">
@@ -10616,7 +10847,343 @@
       </c>
       <c r="Y36" s="6">
         <f t="shared" si="73"/>
-        <v>-184.64358652636292</v>
+        <v>-184.64358654455282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="34"/>
+      <c r="B38" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43276</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" ref="F38" ca="1" si="74">E38+H38</f>
+        <v>43322</v>
+      </c>
+      <c r="G38" s="11">
+        <v>430</v>
+      </c>
+      <c r="H38" s="10">
+        <v>46</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" ref="I38" si="75">H38/365</f>
+        <v>0.12602739726027398</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="116">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="L38" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
+        <v>4.7642644197492814</v>
+      </c>
+      <c r="M38" s="15">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
+        <f t="shared" ref="N38" si="76">M38/10000*I38*P38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" ref="O38" si="77">IF(L38&lt;=0,ABS(L38)+N38,L38-N38)</f>
+        <v>4.7642644197492814</v>
+      </c>
+      <c r="P38" s="11">
+        <v>465</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" ref="R38" si="78">IF(S38="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T38" s="14">
+        <f t="shared" ref="T38" si="79">O38/P38</f>
+        <v>1.0245729934944691E-2</v>
+      </c>
+      <c r="U38" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
+        <v>-0.18926729861377112</v>
+      </c>
+      <c r="V38" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q38,$P38,$G38,$I38,$C$3,$J38,$K38,$C$4)*R38</f>
+        <v>0.4462940689384709</v>
+      </c>
+      <c r="W38" s="114"/>
+      <c r="X38" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y38" s="6">
+        <f t="shared" ref="Y38" si="80">X38*U38</f>
+        <v>-75.706919445508447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="34"/>
+      <c r="B39" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43276</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" ref="F39" ca="1" si="81">E39+H39</f>
+        <v>43322</v>
+      </c>
+      <c r="G39" s="11">
+        <v>480</v>
+      </c>
+      <c r="H39" s="10">
+        <v>46</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" ref="I39" si="82">H39/365</f>
+        <v>0.12602739726027398</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+      <c r="K39" s="116">
+        <v>0.26</v>
+      </c>
+      <c r="L39" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>25.234296912877255</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13">
+        <f t="shared" ref="N39" si="83">M39/10000*I39*P39</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" ref="O39" si="84">IF(L39&lt;=0,ABS(L39)+N39,L39-N39)</f>
+        <v>25.234296912877255</v>
+      </c>
+      <c r="P39" s="120">
+        <v>466</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" ref="R39" si="85">IF(S39="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S39" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T39" s="14">
+        <f t="shared" ref="T39" si="86">O39/P39</f>
+        <v>5.4150851744371793E-2</v>
+      </c>
+      <c r="U39" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>-0.60663609887114944</v>
+      </c>
+      <c r="V39" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>0.6339195136931437</v>
+      </c>
+      <c r="W39" s="114"/>
+      <c r="X39" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y39" s="6">
+        <f t="shared" ref="Y39" si="87">X39*U39</f>
+        <v>-242.65443954845978</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="34"/>
+      <c r="B41" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43276</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" ref="F41" ca="1" si="88">E41+H41</f>
+        <v>43306</v>
+      </c>
+      <c r="G41" s="11">
+        <v>495</v>
+      </c>
+      <c r="H41" s="10">
+        <v>30</v>
+      </c>
+      <c r="I41" s="12">
+        <f t="shared" ref="I41" si="89">H41/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+      <c r="K41" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="L41" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
+        <v>3.6248968340770205</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13">
+        <f t="shared" ref="N41" si="90">M41/10000*I41*P41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="13">
+        <f t="shared" ref="O41" si="91">IF(L41&lt;=0,ABS(L41)+N41,L41-N41)</f>
+        <v>3.6248968340770205</v>
+      </c>
+      <c r="P41" s="120">
+        <v>465</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" ref="R41" si="92">IF(S41="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T41" s="14">
+        <f t="shared" ref="T41" si="93">O41/P41</f>
+        <v>7.795477062531227E-3</v>
+      </c>
+      <c r="U41" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
+        <v>0.2011154244861757</v>
+      </c>
+      <c r="V41" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q41,$P41,$G41,$I41,$C$3,$J41,$K41,$C$4)*R41</f>
+        <v>0.37405267855162094</v>
+      </c>
+      <c r="W41" s="114"/>
+      <c r="X41" s="115">
+        <v>400</v>
+      </c>
+      <c r="Y41" s="6">
+        <f t="shared" ref="Y41" si="94">X41*U41</f>
+        <v>80.446169794470279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="34"/>
+      <c r="B43" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43276</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" ref="F43" ca="1" si="95">E43+H43</f>
+        <v>43322</v>
+      </c>
+      <c r="G43" s="11">
+        <v>430</v>
+      </c>
+      <c r="H43" s="10">
+        <v>46</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" ref="I43" si="96">H43/365</f>
+        <v>0.12602739726027398</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+      <c r="K43" s="116">
+        <v>0.26</v>
+      </c>
+      <c r="L43" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>4.2716086209137814</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13">
+        <f t="shared" ref="N43" si="97">M43/10000*I43*P43</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="13">
+        <f t="shared" ref="O43" si="98">IF(L43&lt;=0,ABS(L43)+N43,L43-N43)</f>
+        <v>4.2716086209137814</v>
+      </c>
+      <c r="P43" s="120">
+        <v>466.5</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" ref="R43" si="99">IF(S43="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T43" s="14">
+        <f t="shared" ref="T43" si="100">O43/P43</f>
+        <v>9.1567173009941723E-3</v>
+      </c>
+      <c r="U43" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>-0.17604231424357408</v>
+      </c>
+      <c r="V43" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>0.42792933233870656</v>
+      </c>
+      <c r="W43" s="114"/>
+      <c r="X43" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y43" s="6">
+        <f>X43*U43</f>
+        <v>-88.021157121787041</v>
       </c>
     </row>
   </sheetData>
@@ -10633,19 +11200,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S15:S16 S18:S23 S25 S27 S29 S31:S32 S34:S36</xm:sqref>
+          <xm:sqref>S8:S9 S15:S16 S18:S23 S25 S27 S29 S31:S32 S34:S36 S38:S39 S41 S43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q15:Q16 Q18:Q23 Q25 Q27 Q29 Q31:Q32 Q34:Q36</xm:sqref>
+          <xm:sqref>Q8:Q9 Q15:Q16 Q18:Q23 Q25 Q27 Q29 Q31:Q32 Q34:Q36 Q38:Q39 Q41 Q43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C15:C16 C18:C23 C25 C27 C29 C31:C32 C34:C36</xm:sqref>
+          <xm:sqref>C8:C9 C15:C16 C18:C23 C25 C27 C29 C31:C32 C34:C36 C38:C39 C41 C43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10705,10 +11272,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="145"/>
+      <c r="C1" s="146"/>
     </row>
     <row r="2" spans="1:22" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="29" t="s">
@@ -10835,11 +11402,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -10903,11 +11470,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -10974,11 +11541,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -11042,15 +11609,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43288</v>
+        <v>43291</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>434</v>
+        <v>446.5</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -11067,17 +11634,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.5936597732709856</v>
+        <v>-3.8256949920485681</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.5936597732709856</v>
+        <v>3.8256949920485681</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>454</v>
+        <v>466.5</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -11092,11 +11659,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.22011127043342071</v>
+        <v>0.2261658707304548</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.27242649889862491</v>
+        <v>-0.2842866947926268</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11112,15 +11679,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43288</v>
+        <v>43291</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>484</v>
+        <v>496.5</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -11139,17 +11706,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>1.9325534595573117</v>
+        <v>2.0970742245447838</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>1.9325534595573117</v>
+        <v>2.0970742245447838</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>454</v>
+        <v>466.5</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -11164,11 +11731,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.14467352078533224</v>
+        <v>0.15120286735736954</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.20930583077884535</v>
+        <v>0.22151930030676681</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11185,15 +11752,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43288</v>
+        <v>43291</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>434|484</v>
+        <v>446.5|496.5</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -11207,7 +11774,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.6611063137136739</v>
+        <v>-1.7286207675037844</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -11218,11 +11785,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.6611063137136739</v>
+        <v>1.7286207675037844</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>454</v>
+        <v>466.5</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -11231,15 +11798,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.6588244795455372E-3</v>
+        <v>3.7055107556351217E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.36478479121875296</v>
+        <v>0.37736873808782434</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.3120668119779566E-2</v>
+        <v>-6.2767394485859995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -11255,11 +11822,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -11280,17 +11847,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-386.68843719993902</v>
+        <v>-345.08820553359055</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>386.68843719993902</v>
+        <v>345.08820553359055</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3766</v>
+        <v>3707</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -11305,11 +11872,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.72285310677671077</v>
+        <v>-0.68688247069985664</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.2258752407281008</v>
+        <v>-6.4940820360320686</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11326,11 +11893,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -11352,17 +11919,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>41.587895811018029</v>
+        <v>50.883091389882225</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>41.587895811018029</v>
+        <v>50.883091389882225</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3766</v>
+        <v>3707</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -11377,11 +11944,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.14426386485411058</v>
+        <v>-0.17141051050657552</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.2624800859148877</v>
+        <v>4.6985557374389941</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11398,11 +11965,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -11420,7 +11987,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-345.10054138892099</v>
+        <v>-294.20511414370833</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -11431,11 +11998,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>345.10054138892099</v>
+        <v>294.20511414370833</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3766</v>
+        <v>3707</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -11444,15 +12011,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>9.1635831489357666E-2</v>
+        <v>7.9364746194687974E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.86711697163082135</v>
+        <v>-0.85829298120643216</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.9633951548132131</v>
+        <v>-1.7955262985930744</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -11469,11 +12036,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="G18" s="118">
         <v>3000</v>
@@ -11493,17 +12060,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>52.818831282899509</v>
+        <v>57.689110345100289</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>52.818831282899509</v>
+        <v>57.689110345100289</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -11518,11 +12085,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.47281999733286284</v>
+        <v>-0.50126191966910483</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.481316019770702</v>
+        <v>3.4772957914958624</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11539,11 +12106,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="G19" s="119">
         <v>3280</v>
@@ -11565,17 +12132,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-3.2888444483966737</v>
+        <v>-2.8132397587207265</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>3.2888444483966737</v>
+        <v>2.8132397587207265</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -11590,11 +12157,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-5.075992482517222E-2</v>
+        <v>-4.4468614748893742E-2</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.91381659853241359</v>
+        <v>-0.81943657643969203</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11611,11 +12178,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -11633,7 +12200,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>49.529986834502836</v>
+        <v>54.875870586379563</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -11644,26 +12211,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>49.529986834502836</v>
+        <v>54.875870586379563</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>1.6477041528444057E-2</v>
+        <v>1.8316378700393713E-2</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.52357992215803506</v>
+        <v>-0.54573053441799857</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>2.5674994212382884</v>
+        <v>2.6578592150561704</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -11679,11 +12246,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43365</v>
+        <v>43368</v>
       </c>
       <c r="G21" s="118">
         <v>3000</v>
@@ -11703,17 +12270,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>92.769990899908862</v>
+        <v>97.569047459787043</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>92.769990899908862</v>
+        <v>97.569047459787043</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -11728,11 +12295,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.47168841188067745</v>
+        <v>-0.48813707264798722</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.9777497069352421</v>
+        <v>5.968825335966585</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11749,11 +12316,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43365</v>
+        <v>43368</v>
       </c>
       <c r="G22" s="119">
         <v>3280</v>
@@ -11775,17 +12342,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-25.102680205681168</v>
+        <v>-23.371458378408818</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>25.102680205681168</v>
+        <v>23.371458378408818</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -11800,11 +12367,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.1778578374683093</v>
+        <v>-0.16843563838619957</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-3.9190985149982964</v>
+        <v>-3.7730440541979817</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11821,11 +12388,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43365</v>
+        <v>43368</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -11843,7 +12410,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>67.667310694227695</v>
+        <v>74.197589081378226</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -11854,26 +12421,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>67.667310694227695</v>
+        <v>74.197589081378226</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>3006</v>
+        <v>2996</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>2.2510748733941349E-2</v>
+        <v>2.4765550427696337E-2</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.64954624934898675</v>
+        <v>-0.6565727110341868</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>2.0586511919369457</v>
+        <v>2.1957812817686033</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -11890,11 +12457,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="G26" s="118">
         <v>4800</v>
@@ -11915,17 +12482,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>138.05576990079862</v>
+        <v>105.84776548401533</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>138.05576990079862</v>
+        <v>105.84776548401533</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>4692</v>
+        <v>4740</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -11940,11 +12507,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.71840387538486539</v>
+        <v>-0.62183078525777091</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>4.593783131291957</v>
+        <v>5.2367751136014249</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11960,11 +12527,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="G27" s="119">
         <v>4990</v>
@@ -11985,17 +12552,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-12.284471052834192</v>
+        <v>-18.647841661662937</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>12.284471052834192</v>
+        <v>18.647841661662937</v>
       </c>
       <c r="P27" s="94">
         <f>P26</f>
-        <v>4692</v>
+        <v>4740</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -12010,11 +12577,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.11139882064412632</v>
+        <v>-0.15534151372662564</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-2.5899567984196779</v>
+        <v>-3.2906002053616703</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12031,11 +12598,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -12052,7 +12619,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>125.77129884796443</v>
+        <v>87.199923822352389</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -12063,26 +12630,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>125.77129884796443</v>
+        <v>87.199923822352389</v>
       </c>
       <c r="P28" s="111">
         <f>P27</f>
-        <v>4692</v>
+        <v>4740</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>2.680547716282277E-2</v>
+        <v>1.8396608401340168E-2</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.8298026960289917</v>
+        <v>-0.77717229898439655</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>2.0038263328722792</v>
+        <v>1.9461749082397546</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -12098,11 +12665,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="G29" s="118">
         <v>4700</v>
@@ -12123,17 +12690,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>74.916840880877771</v>
+        <v>53.022100680772837</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>74.916840880877771</v>
+        <v>53.022100680772837</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>4692</v>
+        <v>4740</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -12148,11 +12715,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.50951430791883467</v>
+        <v>-0.40345971000306236</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>5.4439604386011524</v>
+        <v>5.3411890082861646</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12168,11 +12735,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="G30" s="119">
         <v>4990</v>
@@ -12193,17 +12760,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-12.284471052834192</v>
+        <v>-18.647841661662937</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>12.284471052834192</v>
+        <v>18.647841661662937</v>
       </c>
       <c r="P30" s="94">
         <f>P29</f>
-        <v>4692</v>
+        <v>4740</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -12218,11 +12785,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.11139882064412632</v>
+        <v>-0.15534151372662564</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-2.5899567984196779</v>
+        <v>-3.2906002053616703</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12238,11 +12805,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43304</v>
+        <v>43307</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -12259,7 +12826,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>62.632369828043579</v>
+        <v>34.3742590191099</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -12270,26 +12837,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>62.632369828043579</v>
+        <v>34.3742590191099</v>
       </c>
       <c r="P31" s="111">
         <f>P30</f>
-        <v>4692</v>
+        <v>4740</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>1.3348757422856688E-2</v>
+        <v>7.2519533795590502E-3</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.62091312856296099</v>
+        <v>-0.55880122372968799</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>2.8540036401814746</v>
+        <v>2.0505888029244943</v>
       </c>
     </row>
     <row r="32" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -12305,11 +12872,11 @@
       </c>
       <c r="E32" s="46">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F32" s="46">
         <f ca="1">E32+H32</f>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="G32" s="118">
         <v>52000</v>
@@ -12375,11 +12942,11 @@
       </c>
       <c r="E33" s="54">
         <f t="shared" ref="E33:F33" ca="1" si="19">E32</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F33" s="54">
         <f t="shared" ca="1" si="19"/>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="G33" s="119">
         <v>54800</v>
@@ -12446,11 +13013,11 @@
       </c>
       <c r="E34" s="62">
         <f t="shared" ref="E34:F34" ca="1" si="20">E33</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F34" s="62">
         <f t="shared" ca="1" si="20"/>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="G34" s="60" t="str">
         <f>G32 &amp; "|" &amp; G33</f>
@@ -12561,8 +13128,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -12584,11 +13151,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -12876,11 +13443,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -12958,11 +13525,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -13040,11 +13607,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -13122,11 +13689,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43456</v>
+        <v>43459</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -13204,11 +13771,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43456</v>
+        <v>43459</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -13258,7 +13825,7 @@
         <v>-1</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="E15" s="10" t="str">
         <f>pricer_sf!G16</f>
@@ -13273,32 +13840,29 @@
         <v>100</v>
       </c>
       <c r="H15" s="10">
-        <f>pricer_sf!J16</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I15" s="10">
         <f>pricer_sf!K16</f>
-        <v>118.75808286013783</v>
+        <v>119.94725557967286</v>
       </c>
       <c r="J15" s="10">
-        <f>pricer_sf!L16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43456</v>
+        <v>43306</v>
       </c>
       <c r="M15" s="10">
-        <f>pricer_sf!O16</f>
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="N15" s="10">
         <f>pricer_sf!P16</f>
-        <v>0.50136986301369868</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="O15" s="10">
         <f>pricer_sf!Q16</f>
@@ -13306,23 +13870,23 @@
       </c>
       <c r="P15" s="10">
         <f>pricer_sf!R16</f>
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="Q15" s="10">
         <f>pricer_sf!S16</f>
-        <v>-1.6027351301156738</v>
+        <v>-2.7681807157093039</v>
       </c>
       <c r="R15" s="10">
         <f>pricer_sf!T16</f>
-        <v>99.726775956284158</v>
+        <v>0</v>
       </c>
       <c r="S15" s="10">
         <f>pricer_sf!U16</f>
-        <v>0.50000000000000011</v>
+        <v>0</v>
       </c>
       <c r="T15" s="13">
         <f>pricer_sf!V16</f>
-        <v>2.1027351301156738</v>
+        <v>2.7681807157093039</v>
       </c>
       <c r="U15" s="10"/>
     </row>
@@ -13950,8 +14514,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -13976,10 +14540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="145"/>
+      <c r="C1" s="146"/>
     </row>
     <row r="2" spans="1:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -14144,11 +14708,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43303</v>
+        <v>43306</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -14230,11 +14794,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43453</v>
+        <v>43456</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -14342,11 +14906,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -14429,11 +14993,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -14453,7 +15017,7 @@
         <v>-2.268083861152451</v>
       </c>
       <c r="T12" s="15">
-        <f t="shared" ref="T12:T16" si="7">50*365/O12</f>
+        <f t="shared" ref="T12:T15" si="7">50*365/O12</f>
         <v>200.54945054945054</v>
       </c>
       <c r="U12" s="13">
@@ -14516,11 +15080,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43364</v>
+        <v>43367</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -14603,11 +15167,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43456</v>
+        <v>43459</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -14690,11 +15254,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43456</v>
+        <v>43459</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -14766,63 +15330,62 @@
         <v>100</v>
       </c>
       <c r="J16" s="10">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K16" s="10">
         <f>_xll.dnetDiscreteAdjustedBarrier($H16,$J16,$R16,1/365)</f>
-        <v>118.75808286013783</v>
+        <v>119.94725557967286</v>
       </c>
       <c r="L16" s="37">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43456</v>
+        <v>43306</v>
       </c>
       <c r="O16" s="10">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="P16" s="12">
         <f t="shared" si="3"/>
-        <v>0.50136986301369868</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="Q16" s="12">
         <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="S16" s="13">
         <f>_xll.dnetStandardBarrierNGreeks("price",G16,H16,I16,K16,L16*H16,P16,$C$3,Q16,R16,$C$4)*E16</f>
-        <v>-1.6027351301156738</v>
+        <v>-2.7681807157093039</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" si="7"/>
-        <v>99.726775956284158</v>
+        <v>0</v>
       </c>
       <c r="U16" s="13">
         <f t="shared" si="4"/>
-        <v>0.50000000000000011</v>
+        <v>0</v>
       </c>
       <c r="V16" s="13">
         <f t="shared" si="5"/>
-        <v>2.1027351301156738</v>
+        <v>2.7681807157093039</v>
       </c>
       <c r="W16" s="14">
         <f t="shared" si="6"/>
-        <v>2.1027351301156738E-2</v>
+        <v>2.7681807157093039E-2</v>
       </c>
       <c r="X16" s="13">
         <f>_xll.dnetStandardBarrierNGreeks("delta",G16,H16,I16,K16,L16*H16,P16,$C$3,Q16,R16,$C$4)</f>
-        <v>2.4612309731497639E-2</v>
+        <v>0.43876192984053652</v>
       </c>
       <c r="Y16" s="13">
         <f>_xll.dnetStandardBarrierNGreeks("vega",G16,H16,I16,K16,L16*H16,P16,$C$3,Q16,R16,$C$4)</f>
-        <v>-0.12284663697839449</v>
+        <v>6.2170358668116155E-2</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">

--- a/PricerAndQutation/OptionPricer_v2_20180606.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180606.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="282">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -898,14 +898,6 @@
     <t>p1809</t>
   </si>
   <si>
-    <t>p1809</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1809</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4800|4990</t>
   </si>
   <si>
@@ -916,10 +908,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cu1808</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ap905</t>
   </si>
   <si>
@@ -1030,6 +1018,34 @@
   </si>
   <si>
     <t>sc1809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bu1812</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rb1810</t>
+  </si>
+  <si>
+    <t>3500|3900</t>
+  </si>
+  <si>
+    <t>3400|3800</t>
+  </si>
+  <si>
+    <t>3300|4000</t>
+  </si>
+  <si>
+    <t>rr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1408,7 +1424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1578,6 +1594,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1593,7 +1618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1875,6 +1900,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1902,15 +1954,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>4740</v>
-        <stp/>
-        <stp>p1809</stp>
-        <stp>LastPrice</stp>
-        <tr r="P26" s="9"/>
-        <tr r="P29" s="9"/>
-      </tp>
-      <tp>
-        <v>12225</v>
+        <v>12275</v>
         <stp/>
         <stp>ru1901</stp>
         <stp>LastPrice</stp>
@@ -1918,17 +1962,24 @@
         <tr r="P35" s="1"/>
       </tp>
       <tp>
-        <v>14315</v>
+        <v>3078</v>
+        <stp/>
+        <stp>bu1812</stp>
+        <stp>LastPrice</stp>
+        <tr r="P47" s="1"/>
+      </tp>
+      <tp>
+        <v>14245</v>
         <stp/>
         <stp>al1811</stp>
         <stp>LastPrice</stp>
         <tr r="P20" s="1"/>
         <tr r="P29" s="1"/>
+        <tr r="P31" s="1"/>
         <tr r="P32" s="1"/>
-        <tr r="P31" s="1"/>
       </tp>
       <tp>
-        <v>14245</v>
+        <v>14170</v>
         <stp/>
         <stp>al1810</stp>
         <stp>LastPrice</stp>
@@ -1936,29 +1987,29 @@
         <tr r="P22" s="1"/>
       </tp>
       <tp>
-        <v>19510</v>
+        <v>19555</v>
         <stp/>
         <stp>pb1809</stp>
         <stp>LastPrice</stp>
         <tr r="P27" s="1"/>
       </tp>
       <tp>
-        <v>14170</v>
+        <v>14100</v>
         <stp/>
         <stp>al1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P21" s="1"/>
         <tr r="P18" s="1"/>
-        <tr r="P21" s="1"/>
       </tp>
       <tp>
-        <v>14095</v>
+        <v>14035</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
       </tp>
       <tp>
-        <v>466.5</v>
+        <v>460</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
@@ -1966,7 +2017,7 @@
         <tr r="P34" s="1"/>
       </tp>
       <tp>
-        <v>2996</v>
+        <v>3068</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
@@ -1974,19 +2025,43 @@
         <tr r="P18" s="9"/>
       </tp>
       <tp>
-        <v>3707</v>
+        <v>3673</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="9"/>
+        <tr r="P28" s="9"/>
+        <tr r="P33" s="9"/>
+        <tr r="P34" s="9"/>
+        <tr r="P37" s="9"/>
+        <tr r="P29" s="9"/>
+        <tr r="P30" s="9"/>
+        <tr r="P31" s="9"/>
+        <tr r="P32" s="9"/>
+        <tr r="P27" s="9"/>
+        <tr r="P26" s="9"/>
+        <tr r="P44" s="9"/>
+        <tr r="P43" s="9"/>
+        <tr r="P40" s="9"/>
+        <tr r="P38" s="9"/>
+        <tr r="P41" s="9"/>
+        <tr r="P39" s="9"/>
+        <tr r="P42" s="9"/>
+        <tr r="P36" s="9"/>
+        <tr r="P50" s="1"/>
+        <tr r="P51" s="1"/>
+        <tr r="P52" s="1"/>
+        <tr r="P53" s="1"/>
+        <tr r="P54" s="1"/>
+        <tr r="P55" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="b">
+        <v>0</v>
         <stp/>
         <stp>RB1805</stp>
         <stp>LastPrice</stp>
+        <tr r="H8" s="7"/>
         <tr r="H8" s="8"/>
-        <tr r="H8" s="7"/>
       </tp>
     </main>
   </volType>
@@ -2281,11 +2356,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:R56"/>
+  <dimension ref="B1:R88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55:R56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82:R88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2982,7 +3057,7 @@
         <v>43289</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G18" s="92">
         <v>30</v>
@@ -3008,7 +3083,7 @@
         <v>4978</v>
       </c>
       <c r="P18" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="92"/>
       <c r="R18" s="92" t="s">
@@ -3029,7 +3104,7 @@
         <v>43289</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G19" s="92">
         <v>30</v>
@@ -3055,7 +3130,7 @@
         <v>4978</v>
       </c>
       <c r="P19" s="92" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="92"/>
       <c r="R19" s="92" t="s">
@@ -3118,7 +3193,7 @@
         <v>160</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D21" s="93">
         <v>43262</v>
@@ -3169,7 +3244,7 @@
         <v>160</v>
       </c>
       <c r="C22" s="92" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D22" s="93">
         <v>43262</v>
@@ -3220,7 +3295,7 @@
         <v>160</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D23" s="93">
         <v>43262</v>
@@ -3435,7 +3510,7 @@
         <v>43292</v>
       </c>
       <c r="F28" s="92" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G28" s="92">
         <v>30</v>
@@ -3461,11 +3536,11 @@
         <v>54800</v>
       </c>
       <c r="P28" s="92" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="92"/>
       <c r="R28" s="92" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.15">
@@ -3524,15 +3599,15 @@
         <v>160</v>
       </c>
       <c r="C30" s="92" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D30" s="93">
         <f t="shared" ref="D30:D31" ca="1" si="0">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="E30" s="93">
         <f t="shared" ref="E30:E31" ca="1" si="1">D30+G30</f>
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="F30" s="92">
         <v>100</v>
@@ -3584,15 +3659,15 @@
         <v>160</v>
       </c>
       <c r="C31" s="92" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D31" s="93">
         <f t="shared" ca="1" si="0"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="E31" s="93">
         <f t="shared" ca="1" si="1"/>
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="F31" s="92">
         <v>100</v>
@@ -3694,7 +3769,7 @@
         <v>160</v>
       </c>
       <c r="C33" s="92" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D33" s="93">
         <v>43270</v>
@@ -3733,7 +3808,7 @@
         <v>14555</v>
       </c>
       <c r="P33" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q33" s="92">
         <v>1</v>
@@ -3747,7 +3822,7 @@
         <v>160</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D34" s="93">
         <v>43270</v>
@@ -3786,7 +3861,7 @@
         <v>14635</v>
       </c>
       <c r="P34" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q34" s="92">
         <v>1</v>
@@ -3800,7 +3875,7 @@
         <v>160</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D35" s="93">
         <v>43270</v>
@@ -3839,7 +3914,7 @@
         <v>14700</v>
       </c>
       <c r="P35" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q35" s="92">
         <v>1</v>
@@ -3892,7 +3967,7 @@
         <v>14555</v>
       </c>
       <c r="P36" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="92">
         <v>1</v>
@@ -3906,7 +3981,7 @@
         <v>160</v>
       </c>
       <c r="C37" s="92" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D37" s="93">
         <v>43270</v>
@@ -3945,7 +4020,7 @@
         <v>14635</v>
       </c>
       <c r="P37" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="92">
         <v>1</v>
@@ -3959,7 +4034,7 @@
         <v>160</v>
       </c>
       <c r="C38" s="92" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D38" s="93">
         <v>43270</v>
@@ -3998,7 +4073,7 @@
         <v>14700</v>
       </c>
       <c r="P38" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q38" s="92">
         <v>1</v>
@@ -4063,7 +4138,7 @@
         <v>160</v>
       </c>
       <c r="C40" s="92" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D40" s="93">
         <v>43270</v>
@@ -4102,7 +4177,7 @@
         <v>14515</v>
       </c>
       <c r="P40" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q40" s="92">
         <v>1</v>
@@ -4155,7 +4230,7 @@
         <v>14590</v>
       </c>
       <c r="P41" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q41" s="92">
         <v>1</v>
@@ -4169,7 +4244,7 @@
         <v>160</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D42" s="93">
         <v>43270</v>
@@ -4208,7 +4283,7 @@
         <v>14675</v>
       </c>
       <c r="P42" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q42" s="92">
         <v>1</v>
@@ -4261,7 +4336,7 @@
         <v>14515</v>
       </c>
       <c r="P43" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q43" s="92">
         <v>1</v>
@@ -4275,7 +4350,7 @@
         <v>160</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D44" s="93">
         <v>43270</v>
@@ -4314,7 +4389,7 @@
         <v>14590</v>
       </c>
       <c r="P44" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q44" s="92">
         <v>1</v>
@@ -4328,7 +4403,7 @@
         <v>160</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D45" s="93">
         <v>43270</v>
@@ -4367,7 +4442,7 @@
         <v>14675</v>
       </c>
       <c r="P45" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q45" s="92">
         <v>1</v>
@@ -4432,7 +4507,7 @@
         <v>160</v>
       </c>
       <c r="C47" s="92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D47" s="93">
         <v>43270</v>
@@ -4471,7 +4546,7 @@
         <v>52470</v>
       </c>
       <c r="P47" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q47" s="92">
         <v>1</v>
@@ -4485,7 +4560,7 @@
         <v>160</v>
       </c>
       <c r="C48" s="92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D48" s="93">
         <v>43270</v>
@@ -4524,7 +4599,7 @@
         <v>52470</v>
       </c>
       <c r="P48" s="92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q48" s="92">
         <v>1</v>
@@ -4589,7 +4664,7 @@
         <v>160</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D50" s="93">
         <v>43272</v>
@@ -4642,7 +4717,7 @@
         <v>160</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D51" s="93">
         <v>43272</v>
@@ -4695,7 +4770,7 @@
         <v>160</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D52" s="93">
         <v>43272</v>
@@ -4799,7 +4874,7 @@
         <v>160</v>
       </c>
       <c r="C54" s="92" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D54" s="93">
         <v>43276</v>
@@ -4903,7 +4978,7 @@
         <v>160</v>
       </c>
       <c r="C56" s="92" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D56" s="93">
         <v>43276</v>
@@ -4948,6 +5023,1552 @@
         <v>1</v>
       </c>
       <c r="R56" s="92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B57" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N57" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O57" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B58" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" s="93">
+        <v>43277</v>
+      </c>
+      <c r="E58" s="93">
+        <v>43307</v>
+      </c>
+      <c r="F58" s="92">
+        <v>14170</v>
+      </c>
+      <c r="G58" s="92">
+        <v>30</v>
+      </c>
+      <c r="H58" s="92">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I58" s="92">
+        <v>0</v>
+      </c>
+      <c r="J58" s="92">
+        <v>0.19</v>
+      </c>
+      <c r="K58" s="92">
+        <v>-307.38319058384604</v>
+      </c>
+      <c r="L58" s="92">
+        <v>70</v>
+      </c>
+      <c r="M58" s="92">
+        <v>8.1526027397260261</v>
+      </c>
+      <c r="N58" s="99">
+        <v>315.53579332357208</v>
+      </c>
+      <c r="O58" s="92">
+        <v>14170</v>
+      </c>
+      <c r="P58" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q58" s="92">
+        <v>-1</v>
+      </c>
+      <c r="R58" s="92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B59" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N59" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O59" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B60" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E60" s="150">
+        <v>43307</v>
+      </c>
+      <c r="F60" s="149">
+        <v>3500</v>
+      </c>
+      <c r="G60" s="149">
+        <v>30</v>
+      </c>
+      <c r="H60" s="149">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I60" s="149">
+        <v>0</v>
+      </c>
+      <c r="J60" s="149">
+        <v>0.255</v>
+      </c>
+      <c r="K60" s="149">
+        <v>39.494774706025169</v>
+      </c>
+      <c r="L60" s="149"/>
+      <c r="M60" s="149"/>
+      <c r="N60" s="151">
+        <v>39.494774706025169</v>
+      </c>
+      <c r="O60" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P60" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q60" s="149">
+        <v>1</v>
+      </c>
+      <c r="R60" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B61" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="152" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="153">
+        <v>43277</v>
+      </c>
+      <c r="E61" s="153">
+        <v>43307</v>
+      </c>
+      <c r="F61" s="152">
+        <v>3900</v>
+      </c>
+      <c r="G61" s="152">
+        <v>30</v>
+      </c>
+      <c r="H61" s="152">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I61" s="152">
+        <v>0</v>
+      </c>
+      <c r="J61" s="152">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K61" s="152">
+        <v>-42.101545197848168</v>
+      </c>
+      <c r="L61" s="152"/>
+      <c r="M61" s="152"/>
+      <c r="N61" s="154">
+        <v>42.101545197848168</v>
+      </c>
+      <c r="O61" s="152">
+        <v>3675</v>
+      </c>
+      <c r="P61" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q61" s="152">
+        <v>-1</v>
+      </c>
+      <c r="R61" s="152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B62" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="156">
+        <v>43277</v>
+      </c>
+      <c r="E62" s="156">
+        <v>43307</v>
+      </c>
+      <c r="F62" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="G62" s="155">
+        <v>30</v>
+      </c>
+      <c r="H62" s="155">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155">
+        <v>-2.6067704918229992</v>
+      </c>
+      <c r="L62" s="155">
+        <v>0</v>
+      </c>
+      <c r="M62" s="155">
+        <v>0</v>
+      </c>
+      <c r="N62" s="157">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="O62" s="155">
+        <v>3675</v>
+      </c>
+      <c r="P62" s="155"/>
+      <c r="Q62" s="155"/>
+      <c r="R62" s="155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B63" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E63" s="150">
+        <v>43307</v>
+      </c>
+      <c r="F63" s="149">
+        <v>3400</v>
+      </c>
+      <c r="G63" s="149">
+        <v>30</v>
+      </c>
+      <c r="H63" s="149">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I63" s="149">
+        <v>0</v>
+      </c>
+      <c r="J63" s="149">
+        <v>0.255</v>
+      </c>
+      <c r="K63" s="149">
+        <v>18.995808563389119</v>
+      </c>
+      <c r="L63" s="149"/>
+      <c r="M63" s="149"/>
+      <c r="N63" s="151">
+        <v>18.995808563389119</v>
+      </c>
+      <c r="O63" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P63" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63" s="149">
+        <v>1</v>
+      </c>
+      <c r="R63" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B64" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="152" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" s="153">
+        <v>43277</v>
+      </c>
+      <c r="E64" s="153">
+        <v>43307</v>
+      </c>
+      <c r="F64" s="152">
+        <v>3800</v>
+      </c>
+      <c r="G64" s="152">
+        <v>30</v>
+      </c>
+      <c r="H64" s="152">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I64" s="152">
+        <v>0</v>
+      </c>
+      <c r="J64" s="152">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K64" s="152">
+        <v>-69.239342377716866</v>
+      </c>
+      <c r="L64" s="152"/>
+      <c r="M64" s="152"/>
+      <c r="N64" s="154">
+        <v>69.239342377716866</v>
+      </c>
+      <c r="O64" s="152">
+        <v>3675</v>
+      </c>
+      <c r="P64" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q64" s="152">
+        <v>-1</v>
+      </c>
+      <c r="R64" s="152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B65" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" s="156">
+        <v>43277</v>
+      </c>
+      <c r="E65" s="156">
+        <v>43307</v>
+      </c>
+      <c r="F65" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="G65" s="155">
+        <v>30</v>
+      </c>
+      <c r="H65" s="155">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I65" s="155"/>
+      <c r="J65" s="155"/>
+      <c r="K65" s="155">
+        <v>-50.243533814327748</v>
+      </c>
+      <c r="L65" s="155">
+        <v>0</v>
+      </c>
+      <c r="M65" s="155">
+        <v>0</v>
+      </c>
+      <c r="N65" s="157">
+        <v>50.243533814327748</v>
+      </c>
+      <c r="O65" s="155">
+        <v>3675</v>
+      </c>
+      <c r="P65" s="155"/>
+      <c r="Q65" s="155"/>
+      <c r="R65" s="155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B66" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E66" s="150">
+        <v>43307</v>
+      </c>
+      <c r="F66" s="149">
+        <v>3300</v>
+      </c>
+      <c r="G66" s="149">
+        <v>30</v>
+      </c>
+      <c r="H66" s="149">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I66" s="149">
+        <v>0</v>
+      </c>
+      <c r="J66" s="149">
+        <v>0.255</v>
+      </c>
+      <c r="K66" s="149">
+        <v>7.9291843041075367</v>
+      </c>
+      <c r="L66" s="149"/>
+      <c r="M66" s="149"/>
+      <c r="N66" s="151">
+        <v>7.9291843041075367</v>
+      </c>
+      <c r="O66" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P66" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q66" s="149">
+        <v>1</v>
+      </c>
+      <c r="R66" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B67" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="152" t="s">
+        <v>276</v>
+      </c>
+      <c r="D67" s="153">
+        <v>43277</v>
+      </c>
+      <c r="E67" s="153">
+        <v>43307</v>
+      </c>
+      <c r="F67" s="152">
+        <v>4000</v>
+      </c>
+      <c r="G67" s="152">
+        <v>30</v>
+      </c>
+      <c r="H67" s="152">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I67" s="152">
+        <v>0</v>
+      </c>
+      <c r="J67" s="152">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="K67" s="152">
+        <v>-24.253141259400991</v>
+      </c>
+      <c r="L67" s="152"/>
+      <c r="M67" s="152"/>
+      <c r="N67" s="154">
+        <v>24.253141259400991</v>
+      </c>
+      <c r="O67" s="152">
+        <v>3675</v>
+      </c>
+      <c r="P67" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q67" s="152">
+        <v>-1</v>
+      </c>
+      <c r="R67" s="152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B68" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="156">
+        <v>43277</v>
+      </c>
+      <c r="E68" s="156">
+        <v>43307</v>
+      </c>
+      <c r="F68" s="155" t="s">
+        <v>279</v>
+      </c>
+      <c r="G68" s="155">
+        <v>30</v>
+      </c>
+      <c r="H68" s="155">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I68" s="155"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="155">
+        <v>-16.323956955293454</v>
+      </c>
+      <c r="L68" s="155">
+        <v>50</v>
+      </c>
+      <c r="M68" s="155">
+        <v>1.5102739726027397</v>
+      </c>
+      <c r="N68" s="157">
+        <v>17.834230927896193</v>
+      </c>
+      <c r="O68" s="155">
+        <v>3675</v>
+      </c>
+      <c r="P68" s="155"/>
+      <c r="Q68" s="155"/>
+      <c r="R68" s="155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="92"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="92"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="92"/>
+      <c r="P69" s="92"/>
+      <c r="Q69" s="92"/>
+      <c r="R69" s="92"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B70" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D70" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E70" s="150">
+        <v>43367</v>
+      </c>
+      <c r="F70" s="149">
+        <v>3500</v>
+      </c>
+      <c r="G70" s="149">
+        <v>90</v>
+      </c>
+      <c r="H70" s="149">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I70" s="149">
+        <v>0</v>
+      </c>
+      <c r="J70" s="149">
+        <v>0.25</v>
+      </c>
+      <c r="K70" s="149">
+        <v>103.06632950881885</v>
+      </c>
+      <c r="L70" s="149"/>
+      <c r="M70" s="149"/>
+      <c r="N70" s="151">
+        <v>103.06632950881885</v>
+      </c>
+      <c r="O70" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P70" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q70" s="149">
+        <v>1</v>
+      </c>
+      <c r="R70" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B71" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="152" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71" s="153">
+        <v>43277</v>
+      </c>
+      <c r="E71" s="153">
+        <v>43367</v>
+      </c>
+      <c r="F71" s="152">
+        <v>3900</v>
+      </c>
+      <c r="G71" s="152">
+        <v>90</v>
+      </c>
+      <c r="H71" s="152">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I71" s="152">
+        <v>0</v>
+      </c>
+      <c r="J71" s="152">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K71" s="152">
+        <v>-115.69220802565451</v>
+      </c>
+      <c r="L71" s="152"/>
+      <c r="M71" s="152"/>
+      <c r="N71" s="154">
+        <v>115.69220802565451</v>
+      </c>
+      <c r="O71" s="152">
+        <v>3675</v>
+      </c>
+      <c r="P71" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q71" s="152">
+        <v>-1</v>
+      </c>
+      <c r="R71" s="152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B72" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="156">
+        <v>43277</v>
+      </c>
+      <c r="E72" s="156">
+        <v>43367</v>
+      </c>
+      <c r="F72" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="G72" s="155">
+        <v>90</v>
+      </c>
+      <c r="H72" s="155">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I72" s="155"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="155">
+        <v>-12.625878516835655</v>
+      </c>
+      <c r="L72" s="155">
+        <v>0</v>
+      </c>
+      <c r="M72" s="155">
+        <v>0</v>
+      </c>
+      <c r="N72" s="157">
+        <v>12.625878516835655</v>
+      </c>
+      <c r="O72" s="155">
+        <v>3675</v>
+      </c>
+      <c r="P72" s="155"/>
+      <c r="Q72" s="155"/>
+      <c r="R72" s="155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B73" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D73" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E73" s="150">
+        <v>43367</v>
+      </c>
+      <c r="F73" s="149">
+        <v>3400</v>
+      </c>
+      <c r="G73" s="149">
+        <v>90</v>
+      </c>
+      <c r="H73" s="149">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I73" s="149">
+        <v>0</v>
+      </c>
+      <c r="J73" s="149">
+        <v>0.25</v>
+      </c>
+      <c r="K73" s="149">
+        <v>70.452272274991628</v>
+      </c>
+      <c r="L73" s="149"/>
+      <c r="M73" s="149"/>
+      <c r="N73" s="151">
+        <v>70.452272274991628</v>
+      </c>
+      <c r="O73" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P73" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q73" s="149">
+        <v>1</v>
+      </c>
+      <c r="R73" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B74" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="152" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="153">
+        <v>43277</v>
+      </c>
+      <c r="E74" s="153">
+        <v>43367</v>
+      </c>
+      <c r="F74" s="152">
+        <v>3800</v>
+      </c>
+      <c r="G74" s="152">
+        <v>90</v>
+      </c>
+      <c r="H74" s="152">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I74" s="152">
+        <v>0</v>
+      </c>
+      <c r="J74" s="152">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K74" s="152">
+        <v>-149.85909592590338</v>
+      </c>
+      <c r="L74" s="152"/>
+      <c r="M74" s="152"/>
+      <c r="N74" s="154">
+        <v>149.85909592590338</v>
+      </c>
+      <c r="O74" s="152">
+        <v>3675</v>
+      </c>
+      <c r="P74" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q74" s="152">
+        <v>-1</v>
+      </c>
+      <c r="R74" s="152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B75" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="156">
+        <v>43277</v>
+      </c>
+      <c r="E75" s="156">
+        <v>43367</v>
+      </c>
+      <c r="F75" s="155" t="s">
+        <v>278</v>
+      </c>
+      <c r="G75" s="155">
+        <v>90</v>
+      </c>
+      <c r="H75" s="155">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I75" s="155"/>
+      <c r="J75" s="155"/>
+      <c r="K75" s="155">
+        <v>-79.406823650911747</v>
+      </c>
+      <c r="L75" s="155">
+        <v>0</v>
+      </c>
+      <c r="M75" s="155">
+        <v>0</v>
+      </c>
+      <c r="N75" s="157">
+        <v>79.406823650911747</v>
+      </c>
+      <c r="O75" s="155">
+        <v>3675</v>
+      </c>
+      <c r="P75" s="155"/>
+      <c r="Q75" s="155"/>
+      <c r="R75" s="155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B76" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E76" s="150">
+        <v>43367</v>
+      </c>
+      <c r="F76" s="149">
+        <v>3300</v>
+      </c>
+      <c r="G76" s="149">
+        <v>90</v>
+      </c>
+      <c r="H76" s="149">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I76" s="149">
+        <v>0</v>
+      </c>
+      <c r="J76" s="149">
+        <v>0.25</v>
+      </c>
+      <c r="K76" s="149">
+        <v>45.82637478802269</v>
+      </c>
+      <c r="L76" s="149"/>
+      <c r="M76" s="149"/>
+      <c r="N76" s="151">
+        <v>45.82637478802269</v>
+      </c>
+      <c r="O76" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P76" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q76" s="149">
+        <v>1</v>
+      </c>
+      <c r="R76" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B77" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="152" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77" s="153">
+        <v>43277</v>
+      </c>
+      <c r="E77" s="153">
+        <v>43367</v>
+      </c>
+      <c r="F77" s="152">
+        <v>4000</v>
+      </c>
+      <c r="G77" s="152">
+        <v>90</v>
+      </c>
+      <c r="H77" s="152">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I77" s="152">
+        <v>0</v>
+      </c>
+      <c r="J77" s="152">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K77" s="152">
+        <v>-87.986731659793804</v>
+      </c>
+      <c r="L77" s="152"/>
+      <c r="M77" s="152"/>
+      <c r="N77" s="154">
+        <v>87.986731659793804</v>
+      </c>
+      <c r="O77" s="152">
+        <v>3675</v>
+      </c>
+      <c r="P77" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q77" s="152">
+        <v>-1</v>
+      </c>
+      <c r="R77" s="152" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B78" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="155" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" s="156">
+        <v>43277</v>
+      </c>
+      <c r="E78" s="156">
+        <v>43367</v>
+      </c>
+      <c r="F78" s="155" t="s">
+        <v>279</v>
+      </c>
+      <c r="G78" s="155">
+        <v>90</v>
+      </c>
+      <c r="H78" s="155">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I78" s="155"/>
+      <c r="J78" s="155"/>
+      <c r="K78" s="155">
+        <v>-42.160356871771114</v>
+      </c>
+      <c r="L78" s="155">
+        <v>50</v>
+      </c>
+      <c r="M78" s="155">
+        <v>4.5308219178082192</v>
+      </c>
+      <c r="N78" s="157">
+        <v>46.691178789579332</v>
+      </c>
+      <c r="O78" s="155">
+        <v>3675</v>
+      </c>
+      <c r="P78" s="155"/>
+      <c r="Q78" s="155"/>
+      <c r="R78" s="155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B79" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G79" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J79" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N79" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O79" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P79" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B80" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="149" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E80" s="150">
+        <v>43308</v>
+      </c>
+      <c r="F80" s="149">
+        <v>3150</v>
+      </c>
+      <c r="G80" s="149">
+        <v>31</v>
+      </c>
+      <c r="H80" s="149">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I80" s="149">
+        <v>0</v>
+      </c>
+      <c r="J80" s="149">
+        <v>0.19470000000000001</v>
+      </c>
+      <c r="K80" s="149">
+        <v>40.182982197670071</v>
+      </c>
+      <c r="L80" s="149">
+        <v>30</v>
+      </c>
+      <c r="M80" s="149">
+        <v>0.78425753424657541</v>
+      </c>
+      <c r="N80" s="151">
+        <v>39.398724663423494</v>
+      </c>
+      <c r="O80" s="149">
+        <v>3078</v>
+      </c>
+      <c r="P80" s="149" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q80" s="149">
+        <v>1</v>
+      </c>
+      <c r="R80" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B81" s="152" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="152" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="153">
+        <v>43277</v>
+      </c>
+      <c r="E81" s="153">
+        <v>43307</v>
+      </c>
+      <c r="F81" s="152">
+        <v>3150</v>
+      </c>
+      <c r="G81" s="152">
+        <v>30</v>
+      </c>
+      <c r="H81" s="152">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I81" s="152">
+        <v>0</v>
+      </c>
+      <c r="J81" s="152">
+        <v>0.19470000000000001</v>
+      </c>
+      <c r="K81" s="152">
+        <v>39.836329300597981</v>
+      </c>
+      <c r="L81" s="152">
+        <v>30</v>
+      </c>
+      <c r="M81" s="152">
+        <v>0.75945205479452049</v>
+      </c>
+      <c r="N81" s="154">
+        <v>39.076877245803459</v>
+      </c>
+      <c r="O81" s="152">
+        <v>3080</v>
+      </c>
+      <c r="P81" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q81" s="152">
+        <v>1</v>
+      </c>
+      <c r="R81" s="152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B82" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M82" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N82" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O82" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P82" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B83" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D83" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E83" s="150">
+        <v>43307</v>
+      </c>
+      <c r="F83" s="149">
+        <v>3300</v>
+      </c>
+      <c r="G83" s="149">
+        <v>30</v>
+      </c>
+      <c r="H83" s="149">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I83" s="149">
+        <v>0</v>
+      </c>
+      <c r="J83" s="149">
+        <v>0.215</v>
+      </c>
+      <c r="K83" s="149">
+        <v>3.4979296459610225</v>
+      </c>
+      <c r="L83" s="149"/>
+      <c r="M83" s="149">
+        <v>0</v>
+      </c>
+      <c r="N83" s="151">
+        <v>3.4979296459610225</v>
+      </c>
+      <c r="O83" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P83" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q83" s="149">
+        <v>1</v>
+      </c>
+      <c r="R83" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B84" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E84" s="150">
+        <v>43307</v>
+      </c>
+      <c r="F84" s="149">
+        <v>3400</v>
+      </c>
+      <c r="G84" s="149">
+        <v>30</v>
+      </c>
+      <c r="H84" s="149">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I84" s="149">
+        <v>0</v>
+      </c>
+      <c r="J84" s="149">
+        <v>0.215</v>
+      </c>
+      <c r="K84" s="149">
+        <v>10.73115240660735</v>
+      </c>
+      <c r="L84" s="149"/>
+      <c r="M84" s="149">
+        <v>0</v>
+      </c>
+      <c r="N84" s="151">
+        <v>10.73115240660735</v>
+      </c>
+      <c r="O84" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P84" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q84" s="149">
+        <v>1</v>
+      </c>
+      <c r="R84" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B85" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D85" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E85" s="150">
+        <v>43307</v>
+      </c>
+      <c r="F85" s="149">
+        <v>3500</v>
+      </c>
+      <c r="G85" s="149">
+        <v>30</v>
+      </c>
+      <c r="H85" s="149">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="I85" s="149">
+        <v>0</v>
+      </c>
+      <c r="J85" s="149">
+        <v>0.215</v>
+      </c>
+      <c r="K85" s="149">
+        <v>26.91943414860566</v>
+      </c>
+      <c r="L85" s="149"/>
+      <c r="M85" s="149">
+        <v>0</v>
+      </c>
+      <c r="N85" s="151">
+        <v>26.91943414860566</v>
+      </c>
+      <c r="O85" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P85" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q85" s="149">
+        <v>1</v>
+      </c>
+      <c r="R85" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B86" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E86" s="150">
+        <v>43367</v>
+      </c>
+      <c r="F86" s="149">
+        <v>3100</v>
+      </c>
+      <c r="G86" s="149">
+        <v>90</v>
+      </c>
+      <c r="H86" s="149">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I86" s="149">
+        <v>0</v>
+      </c>
+      <c r="J86" s="149">
+        <v>0.22</v>
+      </c>
+      <c r="K86" s="149">
+        <v>9.4089750527262481</v>
+      </c>
+      <c r="L86" s="149"/>
+      <c r="M86" s="149">
+        <v>0</v>
+      </c>
+      <c r="N86" s="151">
+        <v>9.4089750527262481</v>
+      </c>
+      <c r="O86" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P86" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q86" s="149">
+        <v>1</v>
+      </c>
+      <c r="R86" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B87" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E87" s="150">
+        <v>43367</v>
+      </c>
+      <c r="F87" s="149">
+        <v>3300</v>
+      </c>
+      <c r="G87" s="149">
+        <v>90</v>
+      </c>
+      <c r="H87" s="149">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I87" s="149">
+        <v>0</v>
+      </c>
+      <c r="J87" s="149">
+        <v>0.22</v>
+      </c>
+      <c r="K87" s="149">
+        <v>32.406866024294686</v>
+      </c>
+      <c r="L87" s="149"/>
+      <c r="M87" s="149">
+        <v>0</v>
+      </c>
+      <c r="N87" s="151">
+        <v>32.406866024294686</v>
+      </c>
+      <c r="O87" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P87" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q87" s="149">
+        <v>1</v>
+      </c>
+      <c r="R87" s="149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B88" s="149" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="149" t="s">
+        <v>276</v>
+      </c>
+      <c r="D88" s="150">
+        <v>43277</v>
+      </c>
+      <c r="E88" s="150">
+        <v>43367</v>
+      </c>
+      <c r="F88" s="149">
+        <v>3500</v>
+      </c>
+      <c r="G88" s="149">
+        <v>90</v>
+      </c>
+      <c r="H88" s="149">
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="I88" s="149">
+        <v>0</v>
+      </c>
+      <c r="J88" s="149">
+        <v>0.22</v>
+      </c>
+      <c r="K88" s="149">
+        <v>83.671779092422867</v>
+      </c>
+      <c r="L88" s="149"/>
+      <c r="M88" s="149">
+        <v>0</v>
+      </c>
+      <c r="N88" s="151">
+        <v>83.671779092422867</v>
+      </c>
+      <c r="O88" s="149">
+        <v>3675</v>
+      </c>
+      <c r="P88" s="149" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q88" s="149">
+        <v>1</v>
+      </c>
+      <c r="R88" s="149" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5122,20 +6743,20 @@
       <c r="G8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -5147,32 +6768,32 @@
       <c r="N8" s="23">
         <v>0.3</v>
       </c>
-      <c r="O8" s="24" t="e">
+      <c r="O8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("price",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="P8" s="25">
         <v>80</v>
       </c>
-      <c r="Q8" s="24" t="e">
+      <c r="Q8" s="24">
         <f>P8/10000*M8*H8*(-E8)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R8" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="R8" s="24">
         <f>O8+Q8</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="S8" s="26" t="e">
         <f>R8/H8</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T8" s="24" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8,$C$4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U8" s="24" t="e">
+      <c r="U8" s="24">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$G8,$H8,$I8,$M8,$C$3,$C$4,$N8)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
@@ -5204,11 +6825,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -5274,11 +6895,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -6519,7 +8140,7 @@
       <c r="H23" s="122"/>
       <c r="I23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="J23" s="130"/>
       <c r="L23" s="122" t="s">
@@ -6528,7 +8149,7 @@
       <c r="M23" s="122"/>
       <c r="N23" s="128">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="O23" s="130"/>
       <c r="Q23" s="122" t="s">
@@ -6537,7 +8158,7 @@
       <c r="R23" s="122"/>
       <c r="S23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43275</v>
+        <v>43276</v>
       </c>
       <c r="T23" s="130"/>
       <c r="V23" s="122" t="s">
@@ -6546,7 +8167,7 @@
       <c r="W23" s="122"/>
       <c r="X23" s="128">
         <f ca="1">TODAY()-1</f>
-        <v>43275</v>
+        <v>43276</v>
       </c>
       <c r="Y23" s="130"/>
     </row>
@@ -7922,7 +9543,7 @@
       <c r="N63" s="129"/>
       <c r="O63" s="129"/>
       <c r="Q63" s="129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="R63" s="129"/>
       <c r="S63" s="129"/>
@@ -7976,7 +9597,7 @@
       </c>
       <c r="R65" s="122"/>
       <c r="S65" s="123" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T65" s="124"/>
     </row>
@@ -8190,7 +9811,7 @@
       </c>
       <c r="R73" s="122"/>
       <c r="S73" s="123" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T73" s="124"/>
     </row>
@@ -8255,7 +9876,7 @@
       <c r="I77" s="129"/>
       <c r="J77" s="129"/>
       <c r="L77" s="129" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M77" s="129"/>
       <c r="N77" s="129"/>
@@ -8388,7 +10009,7 @@
       </c>
       <c r="M82" s="122"/>
       <c r="N82" s="123" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O82" s="124"/>
       <c r="Q82" s="122" t="s">
@@ -8523,7 +10144,7 @@
       </c>
       <c r="M87" s="122"/>
       <c r="N87" s="123" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O87" s="124"/>
       <c r="Q87" s="122" t="s">
@@ -9176,11 +10797,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50:S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -9344,11 +10965,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -9368,7 +10989,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-13.19461847395786</v>
+        <v>-14.644073917751484</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -9377,11 +10998,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>13.19461847395786</v>
+        <v>14.644073917751484</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14095</v>
+        <v>14035</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -9395,15 +11016,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>9.3612050187710956E-4</v>
+        <v>1.0433967878697174E-3</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>2.3019650055289276E-2</v>
+        <v>2.5328042903538517E-2</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.8388226498641131</v>
+        <v>-4.1408209121197217</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9419,11 +11040,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43823.5</v>
+        <v>43824.5</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -9500,15 +11121,15 @@
         <v>160</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E43" ca="1" si="9">TODAY()</f>
-        <v>43276</v>
+        <f t="shared" ref="E15:E55" ca="1" si="9">TODAY()</f>
+        <v>43277</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15" ca="1" si="10">E15+H15</f>
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="G15" s="11">
         <v>100</v>
@@ -9584,15 +11205,15 @@
         <v>160</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="17">E16+H16</f>
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="G16" s="11">
         <v>100</v>
@@ -9668,15 +11289,15 @@
         <v>160</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F23" ca="1" si="24">E18+H18</f>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G18" s="11">
         <v>13800</v>
@@ -9696,22 +11317,22 @@
       </c>
       <c r="L18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>116.03848501473021</v>
+        <v>136.68905170399648</v>
       </c>
       <c r="M18" s="15">
         <v>30</v>
       </c>
       <c r="N18" s="13">
         <f t="shared" ref="N18:N23" si="26">M18/10000*I18*P18</f>
-        <v>5.9397534246575345</v>
+        <v>5.9104109589041105</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" ref="O18:O23" si="27">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>110.09873159007267</v>
+        <v>130.77864074509236</v>
       </c>
       <c r="P18" s="13">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>14170</v>
+        <v>14100</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>85</v>
@@ -9725,15 +11346,15 @@
       </c>
       <c r="T18" s="14">
         <f t="shared" ref="T18:T23" si="29">O18/P18</f>
-        <v>7.7698469717764765E-3</v>
+        <v>9.2750809039072596E-3</v>
       </c>
       <c r="U18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.27694686225459009</v>
+        <v>-0.31344528974841523</v>
       </c>
       <c r="V18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>17.693439846709907</v>
+        <v>18.641778127084763</v>
       </c>
       <c r="W18" s="114"/>
       <c r="X18" s="115">
@@ -9741,7 +11362,7 @@
       </c>
       <c r="Y18" s="6">
         <f t="shared" ref="Y18:Y23" si="30">X18*U18</f>
-        <v>-110.77874490183603</v>
+        <v>-125.37811589936609</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9753,15 +11374,15 @@
         <v>160</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43363</v>
+        <v>43364</v>
       </c>
       <c r="G19" s="11">
         <v>13800</v>
@@ -9781,22 +11402,22 @@
       </c>
       <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>157.27477292883577</v>
+        <v>179.87823843414117</v>
       </c>
       <c r="M19" s="15">
         <v>30</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="26"/>
-        <v>10.186150684931507</v>
+        <v>10.132520547945205</v>
       </c>
       <c r="O19" s="13">
         <f t="shared" si="27"/>
-        <v>147.08862224390427</v>
+        <v>169.74571788619596</v>
       </c>
       <c r="P19" s="13">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>14245</v>
+        <v>14170</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -9810,15 +11431,15 @@
       </c>
       <c r="T19" s="14">
         <f t="shared" si="29"/>
-        <v>1.0325631607153687E-2</v>
+        <v>1.1979232031488776E-2</v>
       </c>
       <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.2861778911892543</v>
+        <v>-0.31684105929343787</v>
       </c>
       <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>23.578024965566101</v>
+        <v>24.553688238252107</v>
       </c>
       <c r="W19" s="114"/>
       <c r="X19" s="115">
@@ -9826,7 +11447,7 @@
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="30"/>
-        <v>-114.47115647570172</v>
+        <v>-126.73642371737515</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9838,15 +11459,15 @@
         <v>160</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43391</v>
+        <v>43392</v>
       </c>
       <c r="G20" s="11">
         <v>13800</v>
@@ -9866,22 +11487,22 @@
       </c>
       <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>166.54589162121511</v>
+        <v>186.76125351501742</v>
       </c>
       <c r="M20" s="15">
         <v>30</v>
       </c>
       <c r="N20" s="13">
         <f t="shared" si="26"/>
-        <v>12.942328767123287</v>
+        <v>12.879041095890411</v>
       </c>
       <c r="O20" s="13">
         <f t="shared" si="27"/>
-        <v>153.60356285409182</v>
+        <v>173.882212419127</v>
       </c>
       <c r="P20" s="13">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>14315</v>
+        <v>14245</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -9895,15 +11516,15 @@
       </c>
       <c r="T20" s="14">
         <f t="shared" si="29"/>
-        <v>1.0730252382402503E-2</v>
+        <v>1.2206543518366234E-2</v>
       </c>
       <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.27622052859896939</v>
+        <v>-0.30155531385389622</v>
       </c>
       <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>26.172699818503816</v>
+        <v>27.142601334981691</v>
       </c>
       <c r="W20" s="114"/>
       <c r="X20" s="115">
@@ -9911,7 +11532,7 @@
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="30"/>
-        <v>-110.48821143958776</v>
+        <v>-120.62212554155849</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -9923,15 +11544,15 @@
         <v>160</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="G21" s="11">
         <v>14000</v>
@@ -9951,22 +11572,22 @@
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>185.71723518819817</v>
+        <v>214.30797822226396</v>
       </c>
       <c r="M21" s="15">
         <v>30</v>
       </c>
       <c r="N21" s="13">
         <f t="shared" si="26"/>
-        <v>5.9397534246575345</v>
+        <v>5.9104109589041105</v>
       </c>
       <c r="O21" s="13">
         <f t="shared" si="27"/>
-        <v>179.77748176354064</v>
+        <v>208.39756726335983</v>
       </c>
       <c r="P21" s="13">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>14170</v>
+        <v>14100</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
@@ -9980,15 +11601,15 @@
       </c>
       <c r="T21" s="14">
         <f t="shared" si="29"/>
-        <v>1.2687189962141188E-2</v>
+        <v>1.4779969309458144E-2</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.38800981683380087</v>
+        <v>-0.42906824573947233</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>20.248112428741933</v>
+        <v>20.64519969133471</v>
       </c>
       <c r="W21" s="114"/>
       <c r="X21" s="115">
@@ -9996,7 +11617,7 @@
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="30"/>
-        <v>-155.20392673352035</v>
+        <v>-171.62729829578893</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10008,15 +11629,15 @@
         <v>160</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43363</v>
+        <v>43364</v>
       </c>
       <c r="G22" s="11">
         <v>14000</v>
@@ -10036,22 +11657,22 @@
       </c>
       <c r="L22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>227.38877848067386</v>
+        <v>256.60055194273173</v>
       </c>
       <c r="M22" s="15">
         <v>30</v>
       </c>
       <c r="N22" s="13">
         <f t="shared" si="26"/>
-        <v>10.186150684931507</v>
+        <v>10.132520547945205</v>
       </c>
       <c r="O22" s="13">
         <f t="shared" si="27"/>
-        <v>217.20262779574236</v>
+        <v>246.46803139478652</v>
       </c>
       <c r="P22" s="13">
         <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
-        <v>14245</v>
+        <v>14170</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>85</v>
@@ -10065,15 +11686,15 @@
       </c>
       <c r="T22" s="14">
         <f t="shared" si="29"/>
-        <v>1.5247639718900833E-2</v>
+        <v>1.7393650768862845E-2</v>
       </c>
       <c r="U22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.37270991915647755</v>
+        <v>-0.40643721354172158</v>
       </c>
       <c r="V22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>26.227830934595204</v>
+        <v>26.736507547102065</v>
       </c>
       <c r="W22" s="114"/>
       <c r="X22" s="115">
@@ -10081,7 +11702,7 @@
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="30"/>
-        <v>-149.08396766259102</v>
+        <v>-162.57488541668863</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10093,15 +11714,15 @@
         <v>160</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43391</v>
+        <v>43392</v>
       </c>
       <c r="G23" s="11">
         <v>14000</v>
@@ -10177,15 +11798,15 @@
         <v>160</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="32">E25+H25</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G25" s="11">
         <v>50000</v>
@@ -10262,15 +11883,15 @@
         <v>160</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ref="F27" ca="1" si="39">E27+H27</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G27" s="11">
         <v>19000</v>
@@ -10290,22 +11911,22 @@
       </c>
       <c r="L27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>156.61414328708815</v>
+        <v>144.61137470263566</v>
       </c>
       <c r="M27" s="15">
         <v>30</v>
       </c>
       <c r="N27" s="13">
         <f t="shared" ref="N27" si="41">M27/10000*I27*P27</f>
-        <v>8.0178082191780824</v>
+        <v>8.036301369863013</v>
       </c>
       <c r="O27" s="13">
         <f t="shared" ref="O27" si="42">IF(L27&lt;=0,ABS(L27)+N27,L27-N27)</f>
-        <v>148.59633506791008</v>
+        <v>136.57507333277263</v>
       </c>
       <c r="P27" s="11">
         <f>RTD("wdf.rtq",,D27,"LastPrice")</f>
-        <v>19510</v>
+        <v>19555</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>85</v>
@@ -10319,15 +11940,15 @@
       </c>
       <c r="T27" s="14">
         <f t="shared" ref="T27" si="44">O27/P27</f>
-        <v>7.6164190193700708E-3</v>
+        <v>6.9841510269891402E-3</v>
       </c>
       <c r="U27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.2749438283899508</v>
+        <v>-0.25860298196676013</v>
       </c>
       <c r="V27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>24.035839372604642</v>
+        <v>23.354781578519123</v>
       </c>
       <c r="W27" s="114"/>
       <c r="X27" s="115">
@@ -10335,7 +11956,7 @@
       </c>
       <c r="Y27" s="6">
         <f t="shared" ref="Y27" si="45">X27*U27</f>
-        <v>-109.97753135598032</v>
+        <v>-103.44119278670405</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10347,15 +11968,15 @@
         <v>160</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ref="F29" ca="1" si="46">E29+H29</f>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="G29" s="11">
         <v>11500</v>
@@ -10375,7 +11996,7 @@
       </c>
       <c r="L29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-20.362115711819683</v>
+        <v>-22.520180334618203</v>
       </c>
       <c r="M29" s="15">
         <v>0</v>
@@ -10386,11 +12007,11 @@
       </c>
       <c r="O29" s="13">
         <f t="shared" ref="O29" si="49">IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
-        <v>20.362115711819683</v>
+        <v>22.520180334618203</v>
       </c>
       <c r="P29" s="11">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>14315</v>
+        <v>14245</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>85</v>
@@ -10404,15 +12025,15 @@
       </c>
       <c r="T29" s="14">
         <f t="shared" ref="T29" si="51">O29/P29</f>
-        <v>1.4224321139936907E-3</v>
+        <v>1.5809182404084383E-3</v>
       </c>
       <c r="U29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>2.9426567675727711E-2</v>
+        <v>3.2270937396106092E-2</v>
       </c>
       <c r="V29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-4.7836493542544076</v>
+        <v>-5.1371979123639449</v>
       </c>
       <c r="W29" s="114"/>
       <c r="X29" s="115">
@@ -10420,7 +12041,7 @@
       </c>
       <c r="Y29" s="6">
         <f t="shared" ref="Y29" si="52">X29*U29</f>
-        <v>11.770627070291084</v>
+        <v>12.908374958442437</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10432,15 +12053,15 @@
         <v>160</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ref="F31:F32" ca="1" si="53">E31+H31</f>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="G31" s="11">
         <v>14000</v>
@@ -10460,7 +12081,7 @@
       </c>
       <c r="L31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-390.82539272008853</v>
+        <v>-418.61124563190424</v>
       </c>
       <c r="M31" s="15">
         <v>0</v>
@@ -10471,11 +12092,11 @@
       </c>
       <c r="O31" s="13">
         <f t="shared" ref="O31:O32" si="56">IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
-        <v>390.82539272008853</v>
+        <v>418.61124563190424</v>
       </c>
       <c r="P31" s="11">
         <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
-        <v>14315</v>
+        <v>14245</v>
       </c>
       <c r="Q31" s="10" t="s">
         <v>85</v>
@@ -10489,15 +12110,15 @@
       </c>
       <c r="T31" s="14">
         <f t="shared" ref="T31:T32" si="58">O31/P31</f>
-        <v>2.7301808782402272E-2</v>
+        <v>2.9386538829898508E-2</v>
       </c>
       <c r="U31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>0.38704722692273208</v>
+        <v>0.4068942751018767</v>
       </c>
       <c r="V31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-27.265404154069984</v>
+        <v>-27.494351405319321</v>
       </c>
       <c r="W31" s="114"/>
       <c r="X31" s="115">
@@ -10505,7 +12126,7 @@
       </c>
       <c r="Y31" s="6">
         <f t="shared" ref="Y31:Y32" si="59">X31*U31</f>
-        <v>154.81889076909283</v>
+        <v>162.75771004075068</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10517,15 +12138,15 @@
         <v>160</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="53"/>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="G32" s="11">
         <v>13500</v>
@@ -10545,7 +12166,7 @@
       </c>
       <c r="L32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-226.27343296326899</v>
+        <v>-244.78831616779053</v>
       </c>
       <c r="M32" s="15">
         <v>0</v>
@@ -10556,11 +12177,11 @@
       </c>
       <c r="O32" s="13">
         <f t="shared" si="56"/>
-        <v>226.27343296326899</v>
+        <v>244.78831616779053</v>
       </c>
       <c r="P32" s="11">
         <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
-        <v>14315</v>
+        <v>14245</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>85</v>
@@ -10574,15 +12195,15 @@
       </c>
       <c r="T32" s="14">
         <f t="shared" si="58"/>
-        <v>1.580673649760873E-2</v>
+        <v>1.7184156979135876E-2</v>
       </c>
       <c r="U32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>0.2563318651937152</v>
+        <v>0.27276446842279256</v>
       </c>
       <c r="V32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-22.949784347137438</v>
+        <v>-23.569648489926749</v>
       </c>
       <c r="W32" s="114"/>
       <c r="X32" s="115">
@@ -10590,7 +12211,7 @@
       </c>
       <c r="Y32" s="6">
         <f t="shared" si="59"/>
-        <v>102.53274607748608</v>
+        <v>109.10578736911702</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10606,11 +12227,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ref="F34" ca="1" si="60">E34+H34</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G34" s="11">
         <v>480</v>
@@ -10630,7 +12251,7 @@
       </c>
       <c r="L34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>27.639523058812301</v>
+        <v>31.588241929764934</v>
       </c>
       <c r="M34" s="15">
         <v>0</v>
@@ -10641,11 +12262,11 @@
       </c>
       <c r="O34" s="13">
         <f t="shared" ref="O34" si="63">IF(L34&lt;=0,ABS(L34)+N34,L34-N34)</f>
-        <v>27.639523058812301</v>
+        <v>31.588241929764934</v>
       </c>
       <c r="P34" s="11">
         <f>RTD("wdf.rtq",,D34,"LastPrice")</f>
-        <v>466.5</v>
+        <v>460</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>85</v>
@@ -10659,15 +12280,15 @@
       </c>
       <c r="T34" s="14">
         <f t="shared" ref="T34" si="65">O34/P34</f>
-        <v>5.9248709665192502E-2</v>
+        <v>6.8670091151662893E-2</v>
       </c>
       <c r="U34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-0.58239608179633251</v>
+        <v>-0.63240913777633523</v>
       </c>
       <c r="V34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>0.67161698022607652</v>
+        <v>0.63863549072124215</v>
       </c>
       <c r="W34" s="114"/>
       <c r="X34" s="115">
@@ -10675,7 +12296,7 @@
       </c>
       <c r="Y34" s="6">
         <f t="shared" ref="Y34" si="66">X34*U34</f>
-        <v>-232.958432718533</v>
+        <v>-252.96365511053409</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10687,19 +12308,19 @@
         <v>160</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" ref="F35:F36" ca="1" si="67">E35+H35</f>
-        <v>43458</v>
+        <v>43459</v>
       </c>
       <c r="G35" s="11">
         <f>P35</f>
-        <v>12225</v>
+        <v>12275</v>
       </c>
       <c r="H35" s="10">
         <v>182</v>
@@ -10716,7 +12337,7 @@
       </c>
       <c r="L35" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>1088.789582176978</v>
+        <v>1093.2427093024453</v>
       </c>
       <c r="M35" s="15">
         <v>0</v>
@@ -10727,11 +12348,11 @@
       </c>
       <c r="O35" s="13">
         <f t="shared" ref="O35:O36" si="70">IF(L35&lt;=0,ABS(L35)+N35,L35-N35)</f>
-        <v>1088.789582176978</v>
+        <v>1093.2427093024453</v>
       </c>
       <c r="P35" s="11">
         <f>RTD("wdf.rtq",,D35,"LastPrice")</f>
-        <v>12225</v>
+        <v>12275</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>85</v>
@@ -10745,15 +12366,15 @@
       </c>
       <c r="T35" s="14">
         <f t="shared" ref="T35:T36" si="72">O35/P35</f>
-        <v>8.9062542509364254E-2</v>
+        <v>8.9062542509364184E-2</v>
       </c>
       <c r="U35" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>-0.4505072081428807</v>
+        <v>-0.45050720809740596</v>
       </c>
       <c r="V35" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>33.880076992973954</v>
+        <v>34.01864581503105</v>
       </c>
       <c r="W35" s="114"/>
       <c r="X35" s="115">
@@ -10761,7 +12382,7 @@
       </c>
       <c r="Y35" s="6">
         <f t="shared" ref="Y35:Y36" si="73">X35*U35</f>
-        <v>-180.20288325715228</v>
+        <v>-180.20288323896239</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -10773,19 +12394,19 @@
         <v>160</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ca="1" si="67"/>
-        <v>43458</v>
+        <v>43459</v>
       </c>
       <c r="G36" s="11">
         <f>P36</f>
-        <v>12225</v>
+        <v>12275</v>
       </c>
       <c r="H36" s="10">
         <v>182</v>
@@ -10802,7 +12423,7 @@
       </c>
       <c r="L36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>817.35159399526037</v>
+        <v>820.69454529994437</v>
       </c>
       <c r="M36" s="15">
         <v>0</v>
@@ -10813,11 +12434,11 @@
       </c>
       <c r="O36" s="13">
         <f t="shared" si="70"/>
-        <v>817.35159399526037</v>
+        <v>820.69454529994437</v>
       </c>
       <c r="P36" s="11">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>12225</v>
+        <v>12275</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>85</v>
@@ -10839,7 +12460,7 @@
       </c>
       <c r="V36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>33.974813118589282</v>
+        <v>34.113769409462748</v>
       </c>
       <c r="W36" s="114"/>
       <c r="X36" s="115">
@@ -10863,11 +12484,11 @@
       </c>
       <c r="E38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ref="F38" ca="1" si="74">E38+H38</f>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G38" s="11">
         <v>430</v>
@@ -10947,11 +12568,11 @@
       </c>
       <c r="E39" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" ref="F39" ca="1" si="81">E39+H39</f>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G39" s="11">
         <v>480</v>
@@ -11031,11 +12652,11 @@
       </c>
       <c r="E41" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" ref="F41" ca="1" si="88">E41+H41</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G41" s="11">
         <v>495</v>
@@ -11115,11 +12736,11 @@
       </c>
       <c r="E43" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" ref="F43" ca="1" si="95">E43+H43</f>
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="G43" s="11">
         <v>430</v>
@@ -11149,7 +12770,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="13">
-        <f t="shared" ref="O43" si="98">IF(L43&lt;=0,ABS(L43)+N43,L43-N43)</f>
+        <f t="shared" ref="O43:O45" si="98">IF(L43&lt;=0,ABS(L43)+N43,L43-N43)</f>
         <v>4.2716086209137814</v>
       </c>
       <c r="P43" s="120">
@@ -11184,6 +12805,762 @@
       <c r="Y43" s="6">
         <f>X43*U43</f>
         <v>-88.021157121787041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="34"/>
+      <c r="B45" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43277</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" ref="F45" ca="1" si="101">E45+H45</f>
+        <v>43307</v>
+      </c>
+      <c r="G45" s="120">
+        <v>14170</v>
+      </c>
+      <c r="H45" s="10">
+        <v>30</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" ref="I45" si="102">H45/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0</v>
+      </c>
+      <c r="K45" s="116">
+        <v>0.19</v>
+      </c>
+      <c r="L45" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
+        <v>-307.38319058384604</v>
+      </c>
+      <c r="M45" s="15">
+        <v>70</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" ref="N45" si="103">M45/10000*I45*P45</f>
+        <v>8.1526027397260261</v>
+      </c>
+      <c r="O45" s="13">
+        <f t="shared" si="98"/>
+        <v>315.53579332357208</v>
+      </c>
+      <c r="P45" s="120">
+        <v>14170</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R45" s="10">
+        <f t="shared" ref="R45" si="104">IF(S45="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="14">
+        <f t="shared" ref="T45" si="105">O45/P45</f>
+        <v>2.2267875322764436E-2</v>
+      </c>
+      <c r="U45" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
+        <v>0.48833249088602315</v>
+      </c>
+      <c r="V45" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q45,$P45,$G45,$I45,$C$3,$J45,$K45,$C$4)*R45</f>
+        <v>-16.174057330770211</v>
+      </c>
+      <c r="W45" s="114"/>
+      <c r="X45" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y45" s="6">
+        <f>X45*U45</f>
+        <v>244.16624544301158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="34"/>
+      <c r="B47" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43277</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" ref="F47" ca="1" si="106">E47+H47</f>
+        <v>43308</v>
+      </c>
+      <c r="G47" s="120">
+        <v>3078</v>
+      </c>
+      <c r="H47" s="10">
+        <v>31</v>
+      </c>
+      <c r="I47" s="12">
+        <f t="shared" ref="I47" si="107">H47/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+      <c r="K47" s="116">
+        <v>0.19470000000000001</v>
+      </c>
+      <c r="L47" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
+        <v>69.547750031282703</v>
+      </c>
+      <c r="M47" s="15">
+        <v>30</v>
+      </c>
+      <c r="N47" s="13">
+        <f t="shared" ref="N47" si="108">M47/10000*I47*P47</f>
+        <v>0.78425753424657541</v>
+      </c>
+      <c r="O47" s="13">
+        <f t="shared" ref="O47" si="109">IF(L47&lt;=0,ABS(L47)+N47,L47-N47)</f>
+        <v>68.763492497036125</v>
+      </c>
+      <c r="P47" s="120">
+        <f>RTD("wdf.rtq",,D47,"LastPrice")</f>
+        <v>3078</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="R47" s="10">
+        <f t="shared" ref="R47" si="110">IF(S47="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S47" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T47" s="14">
+        <f t="shared" ref="T47" si="111">O47/P47</f>
+        <v>2.2340315950953905E-2</v>
+      </c>
+      <c r="U47" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
+        <v>0.51044896108578541</v>
+      </c>
+      <c r="V47" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
+        <v>3.5710872027815412</v>
+      </c>
+      <c r="W47" s="114"/>
+      <c r="X47" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y47" s="6">
+        <f>X47*U47</f>
+        <v>255.22448054289271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="34"/>
+      <c r="B48" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43277</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" ref="F48" ca="1" si="112">E48+H48</f>
+        <v>43308</v>
+      </c>
+      <c r="G48" s="120">
+        <v>3150</v>
+      </c>
+      <c r="H48" s="10">
+        <v>31</v>
+      </c>
+      <c r="I48" s="12">
+        <f t="shared" ref="I48" si="113">H48/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="116">
+        <v>0.19470000000000001</v>
+      </c>
+      <c r="L48" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q48,$P48,$G48,$I48,$C$3,$J48,$K48,$C$4)*R48</f>
+        <v>40.182982197670071</v>
+      </c>
+      <c r="M48" s="15">
+        <v>30</v>
+      </c>
+      <c r="N48" s="13">
+        <f t="shared" ref="N48" si="114">M48/10000*I48*P48</f>
+        <v>0.78425753424657541</v>
+      </c>
+      <c r="O48" s="13">
+        <f t="shared" ref="O48" si="115">IF(L48&lt;=0,ABS(L48)+N48,L48-N48)</f>
+        <v>39.398724663423494</v>
+      </c>
+      <c r="P48" s="120">
+        <v>3078</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="R48" s="10">
+        <f t="shared" ref="R48" si="116">IF(S48="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S48" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T48" s="14">
+        <f t="shared" ref="T48" si="117">O48/P48</f>
+        <v>1.2800105478695091E-2</v>
+      </c>
+      <c r="U48" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q48,$P48,$G48,$I48,$C$3,$J48,$K48,$C$4)*R48</f>
+        <v>0.35169619141015573</v>
+      </c>
+      <c r="V48" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q48,$P48,$G48,$I48,$C$3,$J48,$K48,$C$4)*R48</f>
+        <v>3.3240823545364151</v>
+      </c>
+      <c r="W48" s="114"/>
+      <c r="X48" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y48" s="6">
+        <f>X48*U48</f>
+        <v>175.84809570507787</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="34"/>
+      <c r="B50" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43277</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" ref="F50:F52" ca="1" si="118">E50+H50</f>
+        <v>43307</v>
+      </c>
+      <c r="G50" s="120">
+        <v>3300</v>
+      </c>
+      <c r="H50" s="10">
+        <v>30</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" ref="I50:I52" si="119">H50/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="K50" s="116">
+        <v>0.215</v>
+      </c>
+      <c r="L50" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
+        <v>3.5741067197728285</v>
+      </c>
+      <c r="M50" s="15"/>
+      <c r="N50" s="13">
+        <f t="shared" ref="N50:N52" si="120">M50/10000*I50*P50</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="13">
+        <f t="shared" ref="O50:O52" si="121">IF(L50&lt;=0,ABS(L50)+N50,L50-N50)</f>
+        <v>3.5741067197728285</v>
+      </c>
+      <c r="P50" s="11">
+        <f>RTD("wdf.rtq",,D50,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R50" s="10">
+        <f t="shared" ref="R50:R52" si="122">IF(S50="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S50" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T50" s="14">
+        <f t="shared" ref="T50:T52" si="123">O50/P50</f>
+        <v>9.7307561115513985E-4</v>
+      </c>
+      <c r="U50" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
+        <v>-3.8455065494247265E-2</v>
+      </c>
+      <c r="V50" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
+        <v>0.87854699164461181</v>
+      </c>
+      <c r="W50" s="114"/>
+      <c r="X50" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y50" s="6">
+        <f>X50*U50</f>
+        <v>-19.227532747123632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="34"/>
+      <c r="B51" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43277</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" ca="1" si="118"/>
+        <v>43307</v>
+      </c>
+      <c r="G51" s="120">
+        <v>3400</v>
+      </c>
+      <c r="H51" s="10">
+        <v>30</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="119"/>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="K51" s="116">
+        <v>0.215</v>
+      </c>
+      <c r="L51" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
+        <v>10.928492139407581</v>
+      </c>
+      <c r="M51" s="15"/>
+      <c r="N51" s="13">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="13">
+        <f t="shared" si="121"/>
+        <v>10.928492139407581</v>
+      </c>
+      <c r="P51" s="11">
+        <f>RTD("wdf.rtq",,D51,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R51" s="10">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T51" s="14">
+        <f t="shared" si="123"/>
+        <v>2.9753586004376753E-3</v>
+      </c>
+      <c r="U51" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
+        <v>-9.9438464047807429E-2</v>
+      </c>
+      <c r="V51" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
+        <v>1.8381348899900445</v>
+      </c>
+      <c r="W51" s="114"/>
+      <c r="X51" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y51" s="6">
+        <f>X51*U51</f>
+        <v>-49.719232023903714</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="34"/>
+      <c r="B52" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43277</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" ca="1" si="118"/>
+        <v>43307</v>
+      </c>
+      <c r="G52" s="120">
+        <v>3500</v>
+      </c>
+      <c r="H52" s="10">
+        <v>30</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" si="119"/>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="116">
+        <v>0.215</v>
+      </c>
+      <c r="L52" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
+        <v>27.332138875349756</v>
+      </c>
+      <c r="M52" s="15"/>
+      <c r="N52" s="13">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="13">
+        <f t="shared" si="121"/>
+        <v>27.332138875349756</v>
+      </c>
+      <c r="P52" s="11">
+        <f>RTD("wdf.rtq",,D52,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R52" s="10">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T52" s="14">
+        <f t="shared" si="123"/>
+        <v>7.441366423999389E-3</v>
+      </c>
+      <c r="U52" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
+        <v>-0.20761268997375737</v>
+      </c>
+      <c r="V52" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
+        <v>3.0108097609834203</v>
+      </c>
+      <c r="W52" s="114"/>
+      <c r="X52" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y52" s="6">
+        <f>X52*U52</f>
+        <v>-103.80634498687868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="34"/>
+      <c r="B53" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43277</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" ref="F53:F55" ca="1" si="124">E53+H53</f>
+        <v>43367</v>
+      </c>
+      <c r="G53" s="120">
+        <v>3100</v>
+      </c>
+      <c r="H53" s="10">
+        <v>90</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" ref="I53:I55" si="125">H53/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="116">
+        <v>0.22</v>
+      </c>
+      <c r="L53" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
+        <v>9.5159181737344625</v>
+      </c>
+      <c r="M53" s="15"/>
+      <c r="N53" s="13">
+        <f t="shared" ref="N53:N55" si="126">M53/10000*I53*P53</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="13">
+        <f t="shared" ref="O53:O55" si="127">IF(L53&lt;=0,ABS(L53)+N53,L53-N53)</f>
+        <v>9.5159181737344625</v>
+      </c>
+      <c r="P53" s="11">
+        <f>RTD("wdf.rtq",,D53,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R53" s="10">
+        <f t="shared" ref="R53:R55" si="128">IF(S53="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S53" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T53" s="14">
+        <f t="shared" ref="T53:T55" si="129">O53/P53</f>
+        <v>2.5907754352666656E-3</v>
+      </c>
+      <c r="U53" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
+        <v>-5.3742717236104909E-2</v>
+      </c>
+      <c r="V53" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
+        <v>1.9891101865619589</v>
+      </c>
+      <c r="W53" s="114"/>
+      <c r="X53" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y53" s="6">
+        <f>X53*U53</f>
+        <v>-26.871358618052454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="34"/>
+      <c r="B54" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43277</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" ca="1" si="124"/>
+        <v>43367</v>
+      </c>
+      <c r="G54" s="120">
+        <v>3300</v>
+      </c>
+      <c r="H54" s="10">
+        <v>90</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="125"/>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="116">
+        <v>0.22</v>
+      </c>
+      <c r="L54" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
+        <v>32.70495968889611</v>
+      </c>
+      <c r="M54" s="15"/>
+      <c r="N54" s="13">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="13">
+        <f t="shared" si="127"/>
+        <v>32.70495968889611</v>
+      </c>
+      <c r="P54" s="11">
+        <f>RTD("wdf.rtq",,D54,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R54" s="10">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+      <c r="S54" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T54" s="14">
+        <f t="shared" si="129"/>
+        <v>8.9041545572818154E-3</v>
+      </c>
+      <c r="U54" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
+        <v>-0.14962488633045723</v>
+      </c>
+      <c r="V54" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
+        <v>4.2355913155915346</v>
+      </c>
+      <c r="W54" s="114"/>
+      <c r="X54" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y54" s="6">
+        <f>X54*U54</f>
+        <v>-74.812443165228615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="34"/>
+      <c r="B55" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43277</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" ca="1" si="124"/>
+        <v>43367</v>
+      </c>
+      <c r="G55" s="120">
+        <v>3500</v>
+      </c>
+      <c r="H55" s="10">
+        <v>90</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" si="125"/>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
+      <c r="K55" s="116">
+        <v>0.22</v>
+      </c>
+      <c r="L55" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
+        <v>84.286696973735388</v>
+      </c>
+      <c r="M55" s="15"/>
+      <c r="N55" s="13">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="13">
+        <f t="shared" si="127"/>
+        <v>84.286696973735388</v>
+      </c>
+      <c r="P55" s="11">
+        <f>RTD("wdf.rtq",,D55,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R55" s="10">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+      <c r="S55" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T55" s="14">
+        <f t="shared" si="129"/>
+        <v>2.2947644152936396E-2</v>
+      </c>
+      <c r="U55" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
+        <v>-0.30833278796080776</v>
+      </c>
+      <c r="V55" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
+        <v>6.4003653769055973</v>
+      </c>
+      <c r="W55" s="114"/>
+      <c r="X55" s="115">
+        <v>500</v>
+      </c>
+      <c r="Y55" s="6">
+        <f>X55*U55</f>
+        <v>-154.16639398040388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="K56" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -11200,19 +13577,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S15:S16 S18:S23 S25 S27 S29 S31:S32 S34:S36 S38:S39 S41 S43</xm:sqref>
+          <xm:sqref>S8:S9 S15:S16 S18:S23 S25 S27 S29 S31:S32 S34:S36 S38:S39 S41 S43 S45 S47:S48 S50:S55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q15:Q16 Q18:Q23 Q25 Q27 Q29 Q31:Q32 Q34:Q36 Q38:Q39 Q41 Q43</xm:sqref>
+          <xm:sqref>Q8:Q9 Q15:Q16 Q18:Q23 Q25 Q27 Q29 Q31:Q32 Q34:Q36 Q38:Q39 Q41 Q43 Q45 Q47:Q48 Q50:Q55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C15:C16 C18:C23 C25 C27 C29 C31:C32 C34:C36 C38:C39 C41 C43</xm:sqref>
+          <xm:sqref>C8:C9 C15:C16 C18:C23 C25 C27 C29 C31:C32 C34:C36 C38:C39 C41 C43 C45 C47:C48 C50:C55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11239,10 +13616,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11402,11 +13779,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -11470,11 +13847,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -11541,11 +13918,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -11609,15 +13986,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>446.5</v>
+        <v>440</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -11634,17 +14011,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.8256949920485681</v>
+        <v>-3.7046073818564054</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.8256949920485681</v>
+        <v>3.7046073818564054</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>466.5</v>
+        <v>460</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -11659,11 +14036,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.2261658707304548</v>
+        <v>0.22304779784505513</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.2842866947926268</v>
+        <v>-0.2781260611521148</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11679,15 +14056,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>496.5</v>
+        <v>490</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -11706,17 +14083,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.0970742245447838</v>
+        <v>2.0108998856242408</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.0970742245447838</v>
+        <v>2.0108998856242408</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>466.5</v>
+        <v>460</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -11731,11 +14108,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.15120286735736954</v>
+        <v>0.14782644297497427</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.22151930030676681</v>
+        <v>0.21516495078909159</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11752,15 +14129,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>446.5|496.5</v>
+        <v>440|490</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -11774,7 +14151,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.7286207675037844</v>
+        <v>-1.6937074962321645</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -11785,11 +14162,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.7286207675037844</v>
+        <v>1.6937074962321645</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>466.5</v>
+        <v>460</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -11798,15 +14175,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.7055107556351217E-3</v>
+        <v>3.68197281789601E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.37736873808782434</v>
+        <v>0.3708742408200294</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2767394485859995E-2</v>
+        <v>-6.2961110363023209E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -11822,11 +14199,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -11847,17 +14224,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-345.08820553359055</v>
+        <v>-322.10419747403057</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>345.08820553359055</v>
+        <v>322.10419747403057</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3707</v>
+        <v>3673</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -11872,11 +14249,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.68688247069985664</v>
+        <v>-0.66497974403318949</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.4940820360320686</v>
+        <v>-6.6217869814586265</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -11893,11 +14270,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -11919,17 +14296,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>50.883091389882225</v>
+        <v>57.001003600006925</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>50.883091389882225</v>
+        <v>57.001003600006925</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3707</v>
+        <v>3673</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -11944,11 +14321,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.17141051050657552</v>
+        <v>-0.18866605765879285</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.6985557374389941</v>
+        <v>4.9441431488494914</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11965,11 +14342,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -11987,7 +14364,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-294.20511414370833</v>
+        <v>-265.10319387402365</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -11998,11 +14375,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>294.20511414370833</v>
+        <v>265.10319387402365</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3707</v>
+        <v>3673</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -12011,15 +14388,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>7.9364746194687974E-2</v>
+        <v>7.2176203069431982E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.85829298120643216</v>
+        <v>-0.85364580169198234</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.7955262985930744</v>
+        <v>-1.6776438326091352</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -12036,11 +14413,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="G18" s="118">
         <v>3000</v>
@@ -12060,17 +14437,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>57.689110345100289</v>
+        <v>28.780528890084611</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>57.689110345100289</v>
+        <v>28.780528890084611</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>2996</v>
+        <v>3068</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -12085,11 +14462,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.50126191966910483</v>
+        <v>-0.30661097700885875</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>3.4772957914958624</v>
+        <v>3.1348914547416484</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12106,11 +14483,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="G19" s="119">
         <v>3280</v>
@@ -12132,17 +14509,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-2.8132397587207265</v>
+        <v>-7.9934999758708045</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>2.8132397587207265</v>
+        <v>7.9934999758708045</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>2996</v>
+        <v>3068</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -12157,11 +14534,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-4.4468614748893742E-2</v>
+        <v>-0.10592347659326151</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.81943657643969203</v>
+        <v>-1.6334869208621399</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12178,11 +14555,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43307</v>
+        <v>43308</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -12200,7 +14577,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>54.875870586379563</v>
+        <v>20.787028914213806</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -12211,26 +14588,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>54.875870586379563</v>
+        <v>20.787028914213806</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>2996</v>
+        <v>3068</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>1.8316378700393713E-2</v>
+        <v>6.7754331532639527E-3</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.54573053441799857</v>
+        <v>-0.41253445360212027</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>2.6578592150561704</v>
+        <v>1.5014045338795086</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -12246,11 +14623,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G21" s="118">
         <v>3000</v>
@@ -12270,17 +14647,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>97.569047459787043</v>
+        <v>66.622835914211464</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>97.569047459787043</v>
+        <v>66.622835914211464</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>2996</v>
+        <v>3068</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -12295,11 +14672,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.48813707264798722</v>
+        <v>-0.37290674807763935</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.968825335966585</v>
+        <v>5.8094509497542504</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12316,11 +14693,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G22" s="119">
         <v>3280</v>
@@ -12342,17 +14719,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-23.371458378408818</v>
+        <v>-38.081414106601528</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>23.371458378408818</v>
+        <v>38.081414106601528</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>2996</v>
+        <v>3068</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -12367,11 +14744,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.16843563838619957</v>
+        <v>-0.24255251715885606</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-3.7730440541979817</v>
+        <v>-4.8014914882163566</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12388,11 +14765,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -12410,7 +14787,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>74.197589081378226</v>
+        <v>28.541421807609936</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -12421,26 +14798,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>74.197589081378226</v>
+        <v>28.541421807609936</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>2996</v>
+        <v>3068</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>2.4765550427696337E-2</v>
+        <v>9.302940615257476E-3</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.6565727110341868</v>
+        <v>-0.61545926523649541</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>2.1957812817686033</v>
+        <v>1.0079594615378937</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -12453,46 +14830,46 @@
         <v>160</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
         <v>43307</v>
       </c>
       <c r="G26" s="118">
-        <v>4800</v>
+        <v>3500</v>
       </c>
       <c r="H26" s="44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" s="47">
         <f>H26/365</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J26" s="47">
         <v>0</v>
       </c>
       <c r="K26" s="48">
-        <f>K27-0.04</f>
-        <v>0.13</v>
+        <f>K27-0.03</f>
+        <v>0.255</v>
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>105.84776548401533</v>
+        <v>39.977772526084436</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>105.84776548401533</v>
+        <v>39.977772526084436</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>4740</v>
+        <v>3673</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -12507,11 +14884,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.62183078525777091</v>
+        <v>-0.24266049383072641</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>5.2367751136014249</v>
+        <v>3.289785126705226</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12522,47 +14899,49 @@
       <c r="C27" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="52" t="s">
-        <v>242</v>
+      <c r="D27" s="52" t="str">
+        <f>D26</f>
+        <v>rb1810</v>
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
         <v>43307</v>
       </c>
       <c r="G27" s="119">
-        <v>4990</v>
+        <v>3900</v>
       </c>
       <c r="H27" s="52">
-        <v>31</v>
+        <f>H26</f>
+        <v>30</v>
       </c>
       <c r="I27" s="55">
         <f>H27/365</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J27" s="55">
         <f>J26</f>
         <v>0</v>
       </c>
       <c r="K27" s="56">
-        <v>0.17</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-18.647841661662937</v>
+        <v>-41.61199982733865</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>18.647841661662937</v>
+        <v>41.61199982733865</v>
       </c>
       <c r="P27" s="94">
-        <f>P26</f>
-        <v>4740</v>
+        <f>RTD("wdf.rtq",,D27,"LastPrice")</f>
+        <v>3673</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -12577,11 +14956,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.15534151372662564</v>
+        <v>-0.24372749700773966</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-3.2906002053616703</v>
+        <v>-3.2976363238268505</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12594,11 +14973,11 @@
       </c>
       <c r="D28" s="60" t="str">
         <f>D27</f>
-        <v>p1809</v>
+        <v>rb1810</v>
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
@@ -12606,20 +14985,21 @@
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
-        <v>4800|4990</v>
+        <v>3500|3900</v>
       </c>
       <c r="H28" s="60">
-        <v>31</v>
+        <f>H27</f>
+        <v>30</v>
       </c>
       <c r="I28" s="63">
         <f>I27</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J28" s="63"/>
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>87.199923822352389</v>
+        <v>-1.6342273012542137</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -12630,26 +15010,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>87.199923822352389</v>
+        <v>1.6342273012542137</v>
       </c>
       <c r="P28" s="111">
-        <f>P27</f>
-        <v>4740</v>
+        <f>RTD("wdf.rtq",,D28,"LastPrice")</f>
+        <v>3673</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>1.8396608401340168E-2</v>
+        <v>4.4492983970983221E-4</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.77717229898439655</v>
+        <v>-0.48638799083846607</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>1.9461749082397546</v>
+        <v>-7.8511971216244092E-3</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -12661,46 +15041,46 @@
         <v>160</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
         <v>43307</v>
       </c>
       <c r="G29" s="118">
-        <v>4700</v>
+        <v>3400</v>
       </c>
       <c r="H29" s="44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29" s="47">
         <f>H29/365</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J29" s="47">
         <v>0</v>
       </c>
       <c r="K29" s="48">
-        <f>K30-0.04</f>
-        <v>0.13</v>
+        <f>K30-0.03</f>
+        <v>0.255</v>
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>53.022100680772837</v>
+        <v>19.26812104542438</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>53.022100680772837</v>
+        <v>19.26812104542438</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>4740</v>
+        <v>3673</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -12715,11 +15095,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.40345971000306236</v>
+        <v>-0.13697009164843621</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>5.3411890082861646</v>
+        <v>2.3066346118096703</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12730,47 +15110,49 @@
       <c r="C30" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="52" t="s">
-        <v>242</v>
+      <c r="D30" s="52" t="str">
+        <f>D29</f>
+        <v>rb1810</v>
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
         <v>43307</v>
       </c>
       <c r="G30" s="119">
-        <v>4990</v>
+        <v>3800</v>
       </c>
       <c r="H30" s="52">
-        <v>31</v>
+        <f>H29</f>
+        <v>30</v>
       </c>
       <c r="I30" s="55">
         <f>H30/365</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J30" s="55">
         <f>J29</f>
         <v>0</v>
       </c>
       <c r="K30" s="56">
-        <v>0.17</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-18.647841661662937</v>
+        <v>-68.530497548172434</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>18.647841661662937</v>
+        <v>68.530497548172434</v>
       </c>
       <c r="P30" s="94">
-        <f>P29</f>
-        <v>4740</v>
+        <f>RTD("wdf.rtq",,D30,"LastPrice")</f>
+        <v>3673</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -12785,11 +15167,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.15534151372662564</v>
+        <v>-0.35318466433409412</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-3.2906002053616703</v>
+        <v>-3.9086144972700367</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12800,12 +15182,13 @@
       <c r="C31" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="60" t="s">
-        <v>242</v>
+      <c r="D31" s="60" t="str">
+        <f>D30</f>
+        <v>rb1810</v>
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
@@ -12813,20 +15196,21 @@
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
-        <v>4700|4990</v>
+        <v>3400|3800</v>
       </c>
       <c r="H31" s="60">
-        <v>31</v>
+        <f>H30</f>
+        <v>30</v>
       </c>
       <c r="I31" s="63">
         <f>I30</f>
-        <v>8.4931506849315067E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="J31" s="63"/>
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>34.3742590191099</v>
+        <v>-49.262376502748054</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -12837,26 +15221,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>34.3742590191099</v>
+        <v>49.262376502748054</v>
       </c>
       <c r="P31" s="111">
-        <f>P30</f>
-        <v>4740</v>
+        <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
+        <v>3673</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>7.2519533795590502E-3</v>
+        <v>1.3412027362577744E-2</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.55880122372968799</v>
+        <v>-0.49015475598253033</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>2.0505888029244943</v>
+        <v>-1.6019798854603664</v>
       </c>
     </row>
     <row r="32" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -12868,18 +15252,18 @@
         <v>160</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="E32" s="46">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F32" s="46">
         <f ca="1">E32+H32</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G32" s="118">
-        <v>52000</v>
+        <v>3300</v>
       </c>
       <c r="H32" s="44">
         <v>30</v>
@@ -12892,21 +15276,22 @@
         <v>0</v>
       </c>
       <c r="K32" s="48">
-        <f>K33-0.0275</f>
-        <v>0.17</v>
+        <f>K33-0.03</f>
+        <v>0.255</v>
       </c>
       <c r="L32" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>186.78162881823209</v>
+        <v>8.0612712426960229</v>
       </c>
       <c r="M32" s="49"/>
       <c r="N32" s="43"/>
       <c r="O32" s="43">
         <f t="shared" ref="O32:O34" si="18">IF(L32&lt;=0,ABS(L32)+N32,L32-N32)</f>
-        <v>186.78162881823209</v>
+        <v>8.0612712426960229</v>
       </c>
       <c r="P32" s="110">
-        <v>54800</v>
+        <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
+        <v>3673</v>
       </c>
       <c r="Q32" s="44" t="s">
         <v>85</v>
@@ -12921,11 +15306,11 @@
       <c r="T32" s="50"/>
       <c r="U32" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-0.13534100780816516</v>
+        <v>-6.652216255673693E-2</v>
       </c>
       <c r="V32" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>34.110121821830944</v>
+        <v>1.358191791416786</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -12938,18 +15323,18 @@
       </c>
       <c r="D33" s="52" t="str">
         <f>D32</f>
-        <v>cu1808</v>
+        <v>rb1810</v>
       </c>
       <c r="E33" s="54">
         <f t="shared" ref="E33:F33" ca="1" si="19">E32</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F33" s="54">
         <f t="shared" ca="1" si="19"/>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G33" s="119">
-        <v>54800</v>
+        <v>4000</v>
       </c>
       <c r="H33" s="52">
         <f>H32</f>
@@ -12964,20 +15349,21 @@
         <v>0</v>
       </c>
       <c r="K33" s="56">
-        <v>0.19750000000000001</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="L33" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-1235.6628770321913</v>
+        <v>-23.936164217394889</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="51"/>
       <c r="O33" s="51">
         <f t="shared" si="18"/>
-        <v>1235.6628770321913</v>
+        <v>23.936164217394889</v>
       </c>
       <c r="P33" s="94">
-        <v>54800</v>
+        <f>RTD("wdf.rtq",,D33,"LastPrice")</f>
+        <v>3673</v>
       </c>
       <c r="Q33" s="52" t="s">
         <v>39</v>
@@ -12992,11 +15378,11 @@
       <c r="T33" s="58"/>
       <c r="U33" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-0.51045305390289286</v>
+        <v>-0.15768429973945786</v>
       </c>
       <c r="V33" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-62.548474043733222</v>
+        <v>-2.5352290564575242</v>
       </c>
     </row>
     <row r="34" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -13009,19 +15395,19 @@
       </c>
       <c r="D34" s="60" t="str">
         <f>D33</f>
-        <v>cu1808</v>
+        <v>rb1810</v>
       </c>
       <c r="E34" s="62">
         <f t="shared" ref="E34:F34" ca="1" si="20">E33</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="F34" s="62">
         <f t="shared" ca="1" si="20"/>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="G34" s="60" t="str">
         <f>G32 &amp; "|" &amp; G33</f>
-        <v>52000|54800</v>
+        <v>3300|4000</v>
       </c>
       <c r="H34" s="60">
         <f>H33</f>
@@ -13035,59 +15421,671 @@
       <c r="K34" s="60"/>
       <c r="L34" s="59">
         <f>L33+L32</f>
-        <v>-1048.8812482139592</v>
+        <v>-15.874892974698867</v>
       </c>
       <c r="M34" s="60">
         <v>50</v>
       </c>
       <c r="N34" s="59">
         <f>M34/10000*I34*P34</f>
-        <v>22.520547945205479</v>
+        <v>1.5094520547945205</v>
       </c>
       <c r="O34" s="59">
         <f t="shared" si="18"/>
-        <v>1071.4017961591646</v>
+        <v>17.384345029493389</v>
       </c>
       <c r="P34" s="111">
-        <f>P33</f>
-        <v>54800</v>
+        <f>RTD("wdf.rtq",,D34,"LastPrice")</f>
+        <v>3673</v>
       </c>
       <c r="Q34" s="60"/>
       <c r="R34" s="60"/>
       <c r="S34" s="56"/>
       <c r="T34" s="64">
         <f>O34/P34</f>
-        <v>1.9551127667138041E-2</v>
+        <v>4.7330098092821637E-3</v>
       </c>
       <c r="U34" s="64">
         <f>U33+U32</f>
-        <v>-0.64579406171105802</v>
+        <v>-0.22420646229619479</v>
       </c>
       <c r="V34" s="64">
         <f>V33+V32</f>
-        <v>-28.438352221902278</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="Q39" s="6">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="Q40" s="6">
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="Q41" s="6">
-        <f>Q40+Q39</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="Q42" s="6">
-        <f>Q41/2</f>
-        <v>17</v>
+        <v>-1.1770372650407381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="96"/>
+      <c r="B36" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="46">
+        <f ca="1">TODAY()</f>
+        <v>43277</v>
+      </c>
+      <c r="F36" s="46">
+        <f ca="1">E36+H36</f>
+        <v>43367</v>
+      </c>
+      <c r="G36" s="118">
+        <v>3500</v>
+      </c>
+      <c r="H36" s="44">
+        <v>90</v>
+      </c>
+      <c r="I36" s="47">
+        <f>H36/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J36" s="47">
+        <v>0</v>
+      </c>
+      <c r="K36" s="48">
+        <f>K37-0.03</f>
+        <v>0.25</v>
+      </c>
+      <c r="L36" s="43">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
+        <v>103.71374941948511</v>
+      </c>
+      <c r="M36" s="49"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43">
+        <f t="shared" ref="O36:O44" si="21">IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
+        <v>103.71374941948511</v>
+      </c>
+      <c r="P36" s="110">
+        <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q36" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="R36" s="44">
+        <f>IF(S36="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S36" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="T36" s="50"/>
+      <c r="U36" s="43">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
+        <v>-0.32449583535480997</v>
+      </c>
+      <c r="V36" s="43">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
+        <v>6.540377738383313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="96"/>
+      <c r="B37" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="52" t="str">
+        <f>D36</f>
+        <v>rb1810</v>
+      </c>
+      <c r="E37" s="54">
+        <f t="shared" ref="E37:F37" ca="1" si="22">E36</f>
+        <v>43277</v>
+      </c>
+      <c r="F37" s="54">
+        <f t="shared" ca="1" si="22"/>
+        <v>43367</v>
+      </c>
+      <c r="G37" s="119">
+        <v>3900</v>
+      </c>
+      <c r="H37" s="52">
+        <f>H36</f>
+        <v>90</v>
+      </c>
+      <c r="I37" s="55">
+        <f>H37/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J37" s="55">
+        <f>J36</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L37" s="51">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
+        <v>-114.97676972332761</v>
+      </c>
+      <c r="M37" s="57"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51">
+        <f t="shared" si="21"/>
+        <v>114.97676972332761</v>
+      </c>
+      <c r="P37" s="94">
+        <f>RTD("wdf.rtq",,D37,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q37" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="52">
+        <f>IF(S37="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S37" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="58"/>
+      <c r="U37" s="51">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
+        <v>-0.3569908383838083</v>
+      </c>
+      <c r="V37" s="51">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
+        <v>-6.7809847412783029</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="97"/>
+      <c r="B38" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="60" t="str">
+        <f>D37</f>
+        <v>rb1810</v>
+      </c>
+      <c r="E38" s="62">
+        <f t="shared" ref="E38:F38" ca="1" si="23">E37</f>
+        <v>43277</v>
+      </c>
+      <c r="F38" s="62">
+        <f t="shared" ca="1" si="23"/>
+        <v>43367</v>
+      </c>
+      <c r="G38" s="60" t="str">
+        <f>G36 &amp; "|" &amp; G37</f>
+        <v>3500|3900</v>
+      </c>
+      <c r="H38" s="60">
+        <f>H37</f>
+        <v>90</v>
+      </c>
+      <c r="I38" s="63">
+        <f>I37</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J38" s="63"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="59">
+        <f>L37+L36</f>
+        <v>-11.263020303842495</v>
+      </c>
+      <c r="M38" s="60">
+        <v>0</v>
+      </c>
+      <c r="N38" s="59">
+        <f>M38/10000*I38*P38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="59">
+        <f t="shared" si="21"/>
+        <v>11.263020303842495</v>
+      </c>
+      <c r="P38" s="111">
+        <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="64">
+        <f>O38/P38</f>
+        <v>3.0664362384542595E-3</v>
+      </c>
+      <c r="U38" s="64">
+        <f>U37+U36</f>
+        <v>-0.68148667373861826</v>
+      </c>
+      <c r="V38" s="64">
+        <f>V37+V36</f>
+        <v>-0.24060700289498982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="96"/>
+      <c r="B39" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="46">
+        <f ca="1">TODAY()</f>
+        <v>43277</v>
+      </c>
+      <c r="F39" s="46">
+        <f ca="1">E39+H39</f>
+        <v>43367</v>
+      </c>
+      <c r="G39" s="118">
+        <v>3400</v>
+      </c>
+      <c r="H39" s="44">
+        <v>90</v>
+      </c>
+      <c r="I39" s="47">
+        <f>H39/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J39" s="47">
+        <v>0</v>
+      </c>
+      <c r="K39" s="48">
+        <f>K40-0.03</f>
+        <v>0.255</v>
+      </c>
+      <c r="L39" s="43">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>73.817780560299866</v>
+      </c>
+      <c r="M39" s="49"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43">
+        <f t="shared" si="21"/>
+        <v>73.817780560299866</v>
+      </c>
+      <c r="P39" s="110">
+        <f>RTD("wdf.rtq",,D39,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q39" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="R39" s="44">
+        <f>IF(S39="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S39" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="T39" s="50"/>
+      <c r="U39" s="43">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>-0.24916057471955355</v>
+      </c>
+      <c r="V39" s="43">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
+        <v>5.7706848158121602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="96"/>
+      <c r="B40" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="52" t="str">
+        <f>D39</f>
+        <v>rb1810</v>
+      </c>
+      <c r="E40" s="54">
+        <f t="shared" ref="E40:F40" ca="1" si="24">E39</f>
+        <v>43277</v>
+      </c>
+      <c r="F40" s="54">
+        <f t="shared" ca="1" si="24"/>
+        <v>43367</v>
+      </c>
+      <c r="G40" s="119">
+        <v>3800</v>
+      </c>
+      <c r="H40" s="52">
+        <f>H39</f>
+        <v>90</v>
+      </c>
+      <c r="I40" s="55">
+        <f>H40/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J40" s="55">
+        <f>J39</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="56">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L40" s="51">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
+        <v>-152.56763094874646</v>
+      </c>
+      <c r="M40" s="57"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51">
+        <f t="shared" si="21"/>
+        <v>152.56763094874646</v>
+      </c>
+      <c r="P40" s="94">
+        <f>RTD("wdf.rtq",,D40,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q40" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R40" s="52">
+        <f>IF(S40="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S40" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="58"/>
+      <c r="U40" s="51">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
+        <v>-0.43059929236051175</v>
+      </c>
+      <c r="V40" s="51">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
+        <v>-7.1369834180005682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="97"/>
+      <c r="B41" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="60" t="str">
+        <f>D40</f>
+        <v>rb1810</v>
+      </c>
+      <c r="E41" s="62">
+        <f t="shared" ref="E41:F41" ca="1" si="25">E40</f>
+        <v>43277</v>
+      </c>
+      <c r="F41" s="62">
+        <f t="shared" ca="1" si="25"/>
+        <v>43367</v>
+      </c>
+      <c r="G41" s="60" t="str">
+        <f>G39 &amp; "|" &amp; G40</f>
+        <v>3400|3800</v>
+      </c>
+      <c r="H41" s="60">
+        <f>H40</f>
+        <v>90</v>
+      </c>
+      <c r="I41" s="63">
+        <f>I40</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J41" s="63"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="59">
+        <f>L40+L39</f>
+        <v>-78.749850388446589</v>
+      </c>
+      <c r="M41" s="60">
+        <v>0</v>
+      </c>
+      <c r="N41" s="59">
+        <f>M41/10000*I41*P41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="59">
+        <f t="shared" si="21"/>
+        <v>78.749850388446589</v>
+      </c>
+      <c r="P41" s="111">
+        <f>RTD("wdf.rtq",,D41,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="64">
+        <f>O41/P41</f>
+        <v>2.1440198853375059E-2</v>
+      </c>
+      <c r="U41" s="64">
+        <f>U40+U39</f>
+        <v>-0.67975986708006531</v>
+      </c>
+      <c r="V41" s="64">
+        <f>V40+V39</f>
+        <v>-1.366298602188408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="96"/>
+      <c r="B42" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="46">
+        <f ca="1">TODAY()</f>
+        <v>43277</v>
+      </c>
+      <c r="F42" s="46">
+        <f ca="1">E42+H42</f>
+        <v>43367</v>
+      </c>
+      <c r="G42" s="118">
+        <v>3300</v>
+      </c>
+      <c r="H42" s="44">
+        <v>90</v>
+      </c>
+      <c r="I42" s="47">
+        <f>H42/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J42" s="47">
+        <v>0</v>
+      </c>
+      <c r="K42" s="48">
+        <f>K43-0.03</f>
+        <v>0.25</v>
+      </c>
+      <c r="L42" s="43">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
+        <v>46.178621433027956</v>
+      </c>
+      <c r="M42" s="49"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43">
+        <f t="shared" si="21"/>
+        <v>46.178621433027956</v>
+      </c>
+      <c r="P42" s="110">
+        <f>RTD("wdf.rtq",,D42,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q42" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="R42" s="44">
+        <f>IF(S42="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S42" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="T42" s="50"/>
+      <c r="U42" s="43">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
+        <v>-0.17669020670041391</v>
+      </c>
+      <c r="V42" s="43">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
+        <v>4.7195057778788509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="96"/>
+      <c r="B43" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="52" t="str">
+        <f>D42</f>
+        <v>rb1810</v>
+      </c>
+      <c r="E43" s="54">
+        <f t="shared" ref="E43:F43" ca="1" si="26">E42</f>
+        <v>43277</v>
+      </c>
+      <c r="F43" s="54">
+        <f t="shared" ca="1" si="26"/>
+        <v>43367</v>
+      </c>
+      <c r="G43" s="119">
+        <v>4000</v>
+      </c>
+      <c r="H43" s="52">
+        <f>H42</f>
+        <v>90</v>
+      </c>
+      <c r="I43" s="55">
+        <f>H43/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J43" s="55">
+        <f>J42</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L43" s="51">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>-87.401751123587019</v>
+      </c>
+      <c r="M43" s="57"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51">
+        <f t="shared" si="21"/>
+        <v>87.401751123587019</v>
+      </c>
+      <c r="P43" s="94">
+        <f>RTD("wdf.rtq",,D43,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q43" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R43" s="52">
+        <f>IF(S43="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S43" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="58"/>
+      <c r="U43" s="51">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>-0.29181944159972772</v>
+      </c>
+      <c r="V43" s="51">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
+        <v>-6.243653562699933</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="97"/>
+      <c r="B44" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="60" t="str">
+        <f>D43</f>
+        <v>rb1810</v>
+      </c>
+      <c r="E44" s="62">
+        <f t="shared" ref="E44:F44" ca="1" si="27">E43</f>
+        <v>43277</v>
+      </c>
+      <c r="F44" s="62">
+        <f t="shared" ca="1" si="27"/>
+        <v>43367</v>
+      </c>
+      <c r="G44" s="60" t="str">
+        <f>G42 &amp; "|" &amp; G43</f>
+        <v>3300|4000</v>
+      </c>
+      <c r="H44" s="60">
+        <f>H43</f>
+        <v>90</v>
+      </c>
+      <c r="I44" s="63">
+        <f>I43</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="J44" s="63"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="59">
+        <f>L43+L42</f>
+        <v>-41.223129690559063</v>
+      </c>
+      <c r="M44" s="60">
+        <v>50</v>
+      </c>
+      <c r="N44" s="59">
+        <f>M44/10000*I44*P44</f>
+        <v>4.5283561643835615</v>
+      </c>
+      <c r="O44" s="59">
+        <f t="shared" si="21"/>
+        <v>45.751485854942622</v>
+      </c>
+      <c r="P44" s="111">
+        <f>RTD("wdf.rtq",,D44,"LastPrice")</f>
+        <v>3673</v>
+      </c>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="64">
+        <f>O44/P44</f>
+        <v>1.2456162770199461E-2</v>
+      </c>
+      <c r="U44" s="64">
+        <f>U43+U42</f>
+        <v>-0.46850964830014163</v>
+      </c>
+      <c r="V44" s="64">
+        <f>V43+V42</f>
+        <v>-1.524147784821082</v>
       </c>
     </row>
   </sheetData>
@@ -13103,19 +16101,19 @@
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C16 C18:C23 C26:C34</xm:sqref>
+          <xm:sqref>C8:C16 C18:C23 C26:C34 C36:C44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q16 Q18:Q23 Q26:Q34</xm:sqref>
+          <xm:sqref>Q8:Q16 Q18:Q23 Q26:Q34 Q36:Q44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S16 S18:S23 S26:S34</xm:sqref>
+          <xm:sqref>S8:S16 S18:S23 S26:S34 S36:S44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13129,7 +16127,7 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -13443,11 +16441,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -13525,11 +16523,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -13607,11 +16605,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -13689,11 +16687,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43459</v>
+        <v>43460</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -13771,11 +16769,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43459</v>
+        <v>43460</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -13825,7 +16823,7 @@
         <v>-1</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E15" s="10" t="str">
         <f>pricer_sf!G16</f>
@@ -13851,11 +16849,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="M15" s="10">
         <v>30</v>
@@ -14689,9 +17687,9 @@
       <c r="G8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="20" t="e">
+      <c r="H8" s="20">
         <f>RTD("wdf.rtq",,F8,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="I8" s="19">
         <v>3800</v>
@@ -14699,20 +17697,20 @@
       <c r="J8" s="19">
         <v>3890</v>
       </c>
-      <c r="K8" s="19" t="e">
+      <c r="K8" s="19">
         <f>_xll.dnetDiscreteAdjustedBarrier($H8,$J8,$R8,1/365)</f>
-        <v>#VALUE!</v>
+        <v>3925.7505698872742</v>
       </c>
       <c r="L8" s="36">
         <v>0.02</v>
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -14734,9 +17732,9 @@
       <c r="T8" s="25">
         <v>80</v>
       </c>
-      <c r="U8" s="24" t="e">
+      <c r="U8" s="24">
         <f>T8/10000*P8*H8</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="V8" s="24" t="e">
         <f>IF(S8&lt;=0,ABS(S8)+U8,S8-U8)</f>
@@ -14794,11 +17792,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43456</v>
+        <v>43457</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -14906,11 +17904,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -14993,11 +17991,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -15080,11 +18078,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43367</v>
+        <v>43368</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -15167,11 +18165,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43459</v>
+        <v>43460</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -15254,11 +18252,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43459</v>
+        <v>43460</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -15341,11 +18339,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43276</v>
+        <v>43277</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43306</v>
+        <v>43307</v>
       </c>
       <c r="O16" s="10">
         <v>30</v>

--- a/PricerAndQutation/OptionPricer_v2_20180606.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180606.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="602" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quate_van" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="294">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1084,6 +1084,14 @@
   </si>
   <si>
     <t>p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1908,20 +1916,17 @@
     <xf numFmtId="14" fontId="33" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="33" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1932,22 +1937,22 @@
     <xf numFmtId="0" fontId="29" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1956,8 +1961,11 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="182" fontId="33" fillId="10" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="33" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1994,23 +2002,23 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="wdf.rtq">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>12220</v>
         <stp/>
         <stp>ru1901</stp>
         <stp>LastPrice</stp>
+        <tr r="P36" s="1"/>
         <tr r="P35" s="1"/>
-        <tr r="P36" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>3166</v>
         <stp/>
         <stp>bu1812</stp>
         <stp>LastPrice</stp>
         <tr r="P47" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>14405</v>
         <stp/>
         <stp>al1811</stp>
         <stp>LastPrice</stp>
@@ -2019,24 +2027,24 @@
         <tr r="P29" s="1"/>
         <tr r="P32" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>14325</v>
         <stp/>
         <stp>al1810</stp>
         <stp>LastPrice</stp>
+        <tr r="P19" s="1"/>
         <tr r="P22" s="1"/>
-        <tr r="P19" s="1"/>
         <tr r="P61" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>20155</v>
         <stp/>
         <stp>pb1809</stp>
         <stp>LastPrice</stp>
         <tr r="P27" s="1"/>
       </tp>
       <tp>
-        <v>14240</v>
+        <v>14245</v>
         <stp/>
         <stp>al1809</stp>
         <stp>LastPrice</stp>
@@ -2051,7 +2059,7 @@
         <tr r="P8" s="1"/>
       </tp>
       <tp>
-        <v>461</v>
+        <v>467.5</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
@@ -2059,21 +2067,21 @@
         <tr r="P34" s="1"/>
       </tp>
       <tp>
-        <v>9998</v>
+        <v>10227</v>
         <stp/>
         <stp>ap901</stp>
         <stp>LastPrice</stp>
         <tr r="P59" s="1"/>
       </tp>
       <tp>
-        <v>9295</v>
+        <v>9483</v>
         <stp/>
         <stp>ap810</stp>
         <stp>LastPrice</stp>
         <tr r="P58" s="1"/>
       </tp>
       <tp>
-        <v>3126</v>
+        <v>3119</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
@@ -2081,35 +2089,35 @@
         <tr r="P18" s="9"/>
       </tp>
       <tp>
-        <v>3672</v>
+        <v>3744</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
         <tr r="P14" s="9"/>
         <tr r="P28" s="9"/>
+        <tr r="P33" s="9"/>
         <tr r="P34" s="9"/>
-        <tr r="P33" s="9"/>
+        <tr r="P43" s="9"/>
+        <tr r="P27" s="9"/>
+        <tr r="P37" s="9"/>
         <tr r="P30" s="9"/>
-        <tr r="P27" s="9"/>
-        <tr r="P43" s="9"/>
-        <tr r="P37" s="9"/>
-        <tr r="P44" s="9"/>
+        <tr r="P31" s="9"/>
         <tr r="P38" s="9"/>
+        <tr r="P50" s="1"/>
         <tr r="P53" s="1"/>
-        <tr r="P31" s="9"/>
-        <tr r="P40" s="9"/>
-        <tr r="P32" s="9"/>
         <tr r="P54" s="1"/>
         <tr r="P42" s="9"/>
+        <tr r="P41" s="9"/>
+        <tr r="P44" s="9"/>
+        <tr r="P40" s="9"/>
+        <tr r="P51" s="1"/>
+        <tr r="P39" s="9"/>
+        <tr r="P36" s="9"/>
+        <tr r="P32" s="9"/>
+        <tr r="P26" s="9"/>
+        <tr r="P52" s="1"/>
         <tr r="P29" s="9"/>
-        <tr r="P39" s="9"/>
-        <tr r="P50" s="1"/>
-        <tr r="P52" s="1"/>
-        <tr r="P41" s="9"/>
         <tr r="P55" s="1"/>
-        <tr r="P51" s="1"/>
-        <tr r="P36" s="9"/>
-        <tr r="P26" s="9"/>
       </tp>
       <tp>
         <v>0</v>
@@ -3659,11 +3667,11 @@
       </c>
       <c r="D30" s="93">
         <f t="shared" ref="D30:D31" ca="1" si="0">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="E30" s="93">
         <f t="shared" ref="E30:E31" ca="1" si="1">D30+G30</f>
-        <v>43337</v>
+        <v>43338</v>
       </c>
       <c r="F30" s="92">
         <v>100</v>
@@ -3719,11 +3727,11 @@
       </c>
       <c r="D31" s="93">
         <f t="shared" ca="1" si="0"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="E31" s="93">
         <f t="shared" ca="1" si="1"/>
-        <v>43337</v>
+        <v>43338</v>
       </c>
       <c r="F31" s="92">
         <v>100</v>
@@ -7484,11 +7492,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -7557,11 +7565,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -7627,11 +7635,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -8349,7 +8357,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:Y90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q88" sqref="Q88:R88"/>
     </sheetView>
@@ -8366,75 +8374,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="152"/>
+      <c r="C1" s="153"/>
     </row>
     <row r="2" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:20" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="152" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="G3" s="157" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="G3" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="L3" s="153" t="s">
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="L3" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="Q3" s="157" t="s">
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="Q3" s="151" t="s">
         <v>166</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157"/>
-      <c r="T3" s="157"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
     </row>
     <row r="4" spans="2:20" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="G4" s="154" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="G4" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="L4" s="154" t="s">
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="L4" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="Q4" s="154" t="s">
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="Q4" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
-      <c r="G5" s="151" t="s">
+      <c r="C5" s="148"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="G5" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="151"/>
+      <c r="H5" s="148"/>
       <c r="I5" s="103"/>
       <c r="J5" s="104"/>
       <c r="L5" s="101" t="s">
@@ -8443,140 +8451,140 @@
       <c r="M5" s="102"/>
       <c r="N5" s="103"/>
       <c r="O5" s="104"/>
-      <c r="Q5" s="151" t="s">
+      <c r="Q5" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="R5" s="151"/>
+      <c r="R5" s="148"/>
       <c r="S5" s="103"/>
       <c r="T5" s="104"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="151"/>
+      <c r="C6" s="148"/>
       <c r="D6" s="149" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="150"/>
-      <c r="G6" s="151" t="s">
+      <c r="G6" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="151"/>
+      <c r="H6" s="148"/>
       <c r="I6" s="149"/>
       <c r="J6" s="150"/>
-      <c r="L6" s="151" t="s">
+      <c r="L6" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="151"/>
+      <c r="M6" s="148"/>
       <c r="N6" s="149" t="s">
         <v>125</v>
       </c>
       <c r="O6" s="150"/>
-      <c r="Q6" s="151" t="s">
+      <c r="Q6" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="R6" s="151"/>
+      <c r="R6" s="148"/>
       <c r="S6" s="149"/>
       <c r="T6" s="150"/>
     </row>
     <row r="7" spans="2:20" ht="2.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="151"/>
+      <c r="C7" s="148"/>
       <c r="D7" s="149" t="s">
         <v>125</v>
       </c>
       <c r="E7" s="150"/>
-      <c r="G7" s="151" t="s">
+      <c r="G7" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="151"/>
+      <c r="H7" s="148"/>
       <c r="I7" s="149"/>
       <c r="J7" s="150"/>
-      <c r="L7" s="151" t="s">
+      <c r="L7" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="M7" s="151"/>
+      <c r="M7" s="148"/>
       <c r="N7" s="149" t="s">
         <v>125</v>
       </c>
       <c r="O7" s="150"/>
-      <c r="Q7" s="151" t="s">
+      <c r="Q7" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="R7" s="151"/>
+      <c r="R7" s="148"/>
       <c r="S7" s="149"/>
       <c r="T7" s="150"/>
     </row>
     <row r="8" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="151"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="149">
         <f>D13*D15</f>
         <v>305000</v>
       </c>
       <c r="E8" s="150"/>
-      <c r="G8" s="151" t="s">
+      <c r="G8" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="151"/>
+      <c r="H8" s="148"/>
       <c r="I8" s="149"/>
       <c r="J8" s="150"/>
-      <c r="L8" s="151" t="s">
+      <c r="L8" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="151"/>
+      <c r="M8" s="148"/>
       <c r="N8" s="149">
         <f>N14*N16</f>
         <v>305000</v>
       </c>
       <c r="O8" s="150"/>
-      <c r="Q8" s="151" t="s">
+      <c r="Q8" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="151"/>
+      <c r="R8" s="148"/>
       <c r="S8" s="149"/>
       <c r="T8" s="150"/>
     </row>
     <row r="9" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="151"/>
+      <c r="C9" s="148"/>
       <c r="D9" s="149" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="150"/>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="151"/>
+      <c r="H9" s="148"/>
       <c r="I9" s="149"/>
       <c r="J9" s="150"/>
-      <c r="L9" s="151" t="s">
+      <c r="L9" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="151"/>
+      <c r="M9" s="148"/>
       <c r="N9" s="149" t="s">
         <v>132</v>
       </c>
       <c r="O9" s="150"/>
-      <c r="Q9" s="151" t="s">
+      <c r="Q9" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="R9" s="151"/>
+      <c r="R9" s="148"/>
       <c r="S9" s="149"/>
       <c r="T9" s="150"/>
     </row>
     <row r="10" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="151"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="149">
         <v>43084</v>
       </c>
@@ -8587,10 +8595,10 @@
       <c r="H10" s="105"/>
       <c r="I10" s="149"/>
       <c r="J10" s="150"/>
-      <c r="L10" s="151" t="s">
+      <c r="L10" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="M10" s="151"/>
+      <c r="M10" s="148"/>
       <c r="N10" s="149">
         <v>43084</v>
       </c>
@@ -8603,200 +8611,200 @@
       <c r="T10" s="150"/>
     </row>
     <row r="11" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="151"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="149">
         <v>3935</v>
       </c>
       <c r="E11" s="150"/>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="151"/>
+      <c r="H11" s="148"/>
       <c r="I11" s="149"/>
       <c r="J11" s="150"/>
-      <c r="L11" s="151" t="s">
+      <c r="L11" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="M11" s="151"/>
+      <c r="M11" s="148"/>
       <c r="N11" s="149">
         <v>3935</v>
       </c>
       <c r="O11" s="150"/>
-      <c r="Q11" s="151" t="s">
+      <c r="Q11" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="R11" s="151"/>
+      <c r="R11" s="148"/>
       <c r="S11" s="149"/>
       <c r="T11" s="150"/>
     </row>
     <row r="12" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="149">
         <v>3800</v>
       </c>
       <c r="E12" s="150"/>
-      <c r="G12" s="151" t="s">
+      <c r="G12" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="151"/>
+      <c r="H12" s="148"/>
       <c r="I12" s="149"/>
       <c r="J12" s="150"/>
-      <c r="L12" s="151" t="s">
+      <c r="L12" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="M12" s="151"/>
+      <c r="M12" s="148"/>
       <c r="N12" s="149">
         <v>3800</v>
       </c>
       <c r="O12" s="150"/>
-      <c r="Q12" s="151" t="s">
+      <c r="Q12" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="151"/>
+      <c r="R12" s="148"/>
       <c r="S12" s="149"/>
       <c r="T12" s="150"/>
     </row>
     <row r="13" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="149">
         <v>61</v>
       </c>
       <c r="E13" s="150"/>
-      <c r="G13" s="151" t="s">
+      <c r="G13" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="151"/>
+      <c r="H13" s="148"/>
       <c r="I13" s="149"/>
       <c r="J13" s="150"/>
-      <c r="L13" s="151" t="s">
+      <c r="L13" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="151"/>
+      <c r="M13" s="148"/>
       <c r="N13" s="149">
         <v>3800</v>
       </c>
       <c r="O13" s="150"/>
-      <c r="Q13" s="151" t="s">
+      <c r="Q13" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="151"/>
+      <c r="R13" s="148"/>
       <c r="S13" s="149"/>
       <c r="T13" s="150"/>
     </row>
     <row r="14" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="148"/>
       <c r="D14" s="149" t="s">
         <v>143</v>
       </c>
       <c r="E14" s="150"/>
-      <c r="G14" s="151" t="s">
+      <c r="G14" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="151"/>
+      <c r="H14" s="148"/>
       <c r="I14" s="106"/>
       <c r="J14" s="107"/>
-      <c r="L14" s="151" t="s">
+      <c r="L14" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="151"/>
+      <c r="M14" s="148"/>
       <c r="N14" s="149">
         <v>61</v>
       </c>
       <c r="O14" s="150"/>
-      <c r="Q14" s="151" t="s">
+      <c r="Q14" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="151"/>
+      <c r="R14" s="148"/>
       <c r="S14" s="149"/>
       <c r="T14" s="150"/>
     </row>
     <row r="15" spans="2:20" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="151"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="149">
         <v>5000</v>
       </c>
       <c r="E15" s="150"/>
-      <c r="G15" s="151" t="s">
+      <c r="G15" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="151"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="149"/>
       <c r="J15" s="150"/>
-      <c r="L15" s="151" t="s">
+      <c r="L15" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="151"/>
+      <c r="M15" s="148"/>
       <c r="N15" s="149" t="s">
         <v>143</v>
       </c>
       <c r="O15" s="150"/>
-      <c r="Q15" s="151" t="s">
+      <c r="Q15" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="151"/>
+      <c r="R15" s="148"/>
       <c r="S15" s="106"/>
       <c r="T15" s="107"/>
     </row>
     <row r="16" spans="2:20" ht="11.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147" t="s">
+      <c r="C16" s="145"/>
+      <c r="D16" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="148"/>
-      <c r="G16" s="146" t="s">
+      <c r="E16" s="147"/>
+      <c r="G16" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
-      <c r="L16" s="151" t="s">
+      <c r="H16" s="145"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
+      <c r="L16" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="151"/>
+      <c r="M16" s="148"/>
       <c r="N16" s="149">
         <v>5000</v>
       </c>
       <c r="O16" s="150"/>
-      <c r="Q16" s="151" t="s">
+      <c r="Q16" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="151"/>
+      <c r="R16" s="148"/>
       <c r="S16" s="149"/>
       <c r="T16" s="150"/>
     </row>
     <row r="17" spans="2:25" ht="12" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L17" s="146" t="s">
+      <c r="L17" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="146"/>
-      <c r="N17" s="147" t="s">
+      <c r="M17" s="145"/>
+      <c r="N17" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="148"/>
-      <c r="Q17" s="146" t="s">
+      <c r="O17" s="147"/>
+      <c r="Q17" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="R17" s="146"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="148"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="146"/>
+      <c r="T17" s="147"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
       <c r="B19" s="108" t="s">
@@ -8826,36 +8834,36 @@
       <c r="Y21" s="109"/>
     </row>
     <row r="22" spans="2:25" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="141" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="G22" s="142" t="s">
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="G22" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="L22" s="154" t="s">
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="L22" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="Q22" s="142" t="s">
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="Q22" s="141" t="s">
         <v>187</v>
       </c>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
-      <c r="V22" s="154" t="s">
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
+      <c r="V22" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="W22" s="154"/>
-      <c r="X22" s="154"/>
-      <c r="Y22" s="154"/>
+      <c r="W22" s="144"/>
+      <c r="X22" s="144"/>
+      <c r="Y22" s="144"/>
     </row>
     <row r="23" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B23" s="134" t="s">
@@ -8865,43 +8873,43 @@
       <c r="D23" s="140">
         <v>43209</v>
       </c>
-      <c r="E23" s="143"/>
+      <c r="E23" s="142"/>
       <c r="G23" s="134" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="134"/>
       <c r="I23" s="140">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
-      </c>
-      <c r="J23" s="143"/>
+        <v>43279</v>
+      </c>
+      <c r="J23" s="142"/>
       <c r="L23" s="134" t="s">
         <v>122</v>
       </c>
       <c r="M23" s="134"/>
       <c r="N23" s="140">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
-      </c>
-      <c r="O23" s="143"/>
+        <v>43279</v>
+      </c>
+      <c r="O23" s="142"/>
       <c r="Q23" s="134" t="s">
         <v>122</v>
       </c>
       <c r="R23" s="134"/>
       <c r="S23" s="140">
         <f ca="1">TODAY()-1</f>
-        <v>43277</v>
-      </c>
-      <c r="T23" s="143"/>
+        <v>43278</v>
+      </c>
+      <c r="T23" s="142"/>
       <c r="V23" s="134" t="s">
         <v>122</v>
       </c>
       <c r="W23" s="134"/>
       <c r="X23" s="140">
         <f ca="1">TODAY()-1</f>
-        <v>43277</v>
-      </c>
-      <c r="Y23" s="143"/>
+        <v>43278</v>
+      </c>
+      <c r="Y23" s="142"/>
     </row>
     <row r="24" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B24" s="134" t="s">
@@ -9376,30 +9384,30 @@
     </row>
     <row r="35" spans="2:25" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="36" spans="2:25" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="142" t="s">
+      <c r="B36" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="G36" s="142" t="s">
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="G36" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="142"/>
-      <c r="L36" s="142" t="s">
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+      <c r="L36" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="M36" s="142"/>
-      <c r="N36" s="142"/>
-      <c r="O36" s="142"/>
-      <c r="Q36" s="142" t="s">
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="Q36" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="R36" s="142"/>
-      <c r="S36" s="142"/>
-      <c r="T36" s="142"/>
+      <c r="R36" s="141"/>
+      <c r="S36" s="141"/>
+      <c r="T36" s="141"/>
     </row>
     <row r="37" spans="2:25" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B37" s="134" t="s">
@@ -9409,7 +9417,7 @@
       <c r="D37" s="140">
         <v>43229</v>
       </c>
-      <c r="E37" s="143"/>
+      <c r="E37" s="142"/>
       <c r="G37" s="134" t="s">
         <v>122</v>
       </c>
@@ -9417,7 +9425,7 @@
       <c r="I37" s="140">
         <v>43229</v>
       </c>
-      <c r="J37" s="143"/>
+      <c r="J37" s="142"/>
       <c r="L37" s="134" t="s">
         <v>122</v>
       </c>
@@ -9425,7 +9433,7 @@
       <c r="N37" s="140">
         <v>43214</v>
       </c>
-      <c r="O37" s="143"/>
+      <c r="O37" s="142"/>
       <c r="Q37" s="134" t="s">
         <v>122</v>
       </c>
@@ -9433,7 +9441,7 @@
       <c r="S37" s="140">
         <v>43209</v>
       </c>
-      <c r="T37" s="143"/>
+      <c r="T37" s="142"/>
     </row>
     <row r="38" spans="2:25" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B38" s="134" t="s">
@@ -9631,7 +9639,7 @@
       <c r="L43" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="M43" s="141"/>
+      <c r="M43" s="143"/>
       <c r="N43" s="135">
         <v>14535</v>
       </c>
@@ -9820,30 +9828,30 @@
       <c r="T48" s="139"/>
     </row>
     <row r="49" spans="2:20" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="G49" s="142" t="s">
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="G49" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="142"/>
-      <c r="L49" s="142" t="s">
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="141"/>
+      <c r="L49" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="M49" s="142"/>
-      <c r="N49" s="142"/>
-      <c r="O49" s="142"/>
-      <c r="Q49" s="142" t="s">
+      <c r="M49" s="141"/>
+      <c r="N49" s="141"/>
+      <c r="O49" s="141"/>
+      <c r="Q49" s="141" t="s">
         <v>232</v>
       </c>
-      <c r="R49" s="142"/>
-      <c r="S49" s="142"/>
-      <c r="T49" s="142"/>
+      <c r="R49" s="141"/>
+      <c r="S49" s="141"/>
+      <c r="T49" s="141"/>
     </row>
     <row r="50" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B50" s="134" t="s">
@@ -9853,7 +9861,7 @@
       <c r="D50" s="140">
         <v>43235</v>
       </c>
-      <c r="E50" s="143"/>
+      <c r="E50" s="142"/>
       <c r="G50" s="134" t="s">
         <v>122</v>
       </c>
@@ -9861,7 +9869,7 @@
       <c r="I50" s="140">
         <v>43265</v>
       </c>
-      <c r="J50" s="143"/>
+      <c r="J50" s="142"/>
       <c r="L50" s="134" t="s">
         <v>122</v>
       </c>
@@ -9869,7 +9877,7 @@
       <c r="N50" s="140">
         <v>43237</v>
       </c>
-      <c r="O50" s="143"/>
+      <c r="O50" s="142"/>
       <c r="Q50" s="134" t="s">
         <v>122</v>
       </c>
@@ -9877,7 +9885,7 @@
       <c r="S50" s="140">
         <v>43237</v>
       </c>
-      <c r="T50" s="143"/>
+      <c r="T50" s="142"/>
     </row>
     <row r="51" spans="2:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="B51" s="134" t="s">
@@ -10068,7 +10076,7 @@
       <c r="G56" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="H56" s="141"/>
+      <c r="H56" s="143"/>
       <c r="I56" s="135">
         <v>14700</v>
       </c>
@@ -10262,24 +10270,24 @@
     </row>
     <row r="62" spans="2:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="2:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G63" s="142" t="s">
+      <c r="G63" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="142"/>
-      <c r="L63" s="142" t="s">
+      <c r="H63" s="141"/>
+      <c r="I63" s="141"/>
+      <c r="J63" s="141"/>
+      <c r="L63" s="141" t="s">
         <v>237</v>
       </c>
-      <c r="M63" s="142"/>
-      <c r="N63" s="142"/>
-      <c r="O63" s="142"/>
-      <c r="Q63" s="142" t="s">
+      <c r="M63" s="141"/>
+      <c r="N63" s="141"/>
+      <c r="O63" s="141"/>
+      <c r="Q63" s="141" t="s">
         <v>249</v>
       </c>
-      <c r="R63" s="142"/>
-      <c r="S63" s="142"/>
-      <c r="T63" s="142"/>
+      <c r="R63" s="141"/>
+      <c r="S63" s="141"/>
+      <c r="T63" s="141"/>
     </row>
     <row r="64" spans="2:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="G64" s="134" t="s">
@@ -10289,7 +10297,7 @@
       <c r="I64" s="140">
         <v>43248</v>
       </c>
-      <c r="J64" s="143"/>
+      <c r="J64" s="142"/>
       <c r="L64" s="134" t="s">
         <v>122</v>
       </c>
@@ -10297,7 +10305,7 @@
       <c r="N64" s="140">
         <v>43248</v>
       </c>
-      <c r="O64" s="143"/>
+      <c r="O64" s="142"/>
       <c r="Q64" s="134" t="s">
         <v>122</v>
       </c>
@@ -10305,7 +10313,7 @@
       <c r="S64" s="140">
         <v>43264</v>
       </c>
-      <c r="T64" s="143"/>
+      <c r="T64" s="142"/>
     </row>
     <row r="65" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G65" s="134" t="s">
@@ -10601,24 +10609,24 @@
     </row>
     <row r="76" spans="7:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="7:20" ht="12" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G77" s="142" t="s">
+      <c r="G77" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="H77" s="142"/>
-      <c r="I77" s="142"/>
-      <c r="J77" s="142"/>
-      <c r="L77" s="142" t="s">
+      <c r="H77" s="141"/>
+      <c r="I77" s="141"/>
+      <c r="J77" s="141"/>
+      <c r="L77" s="141" t="s">
         <v>251</v>
       </c>
-      <c r="M77" s="142"/>
-      <c r="N77" s="142"/>
-      <c r="O77" s="142"/>
-      <c r="Q77" s="142" t="s">
+      <c r="M77" s="141"/>
+      <c r="N77" s="141"/>
+      <c r="O77" s="141"/>
+      <c r="Q77" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="R77" s="142"/>
-      <c r="S77" s="142"/>
-      <c r="T77" s="142"/>
+      <c r="R77" s="141"/>
+      <c r="S77" s="141"/>
+      <c r="T77" s="141"/>
     </row>
     <row r="78" spans="7:20" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="G78" s="134" t="s">
@@ -10628,7 +10636,7 @@
       <c r="I78" s="140">
         <v>43248</v>
       </c>
-      <c r="J78" s="143"/>
+      <c r="J78" s="142"/>
       <c r="L78" s="134" t="s">
         <v>122</v>
       </c>
@@ -10636,7 +10644,7 @@
       <c r="N78" s="140">
         <v>43265</v>
       </c>
-      <c r="O78" s="143"/>
+      <c r="O78" s="142"/>
       <c r="Q78" s="134" t="s">
         <v>122</v>
       </c>
@@ -10644,7 +10652,7 @@
       <c r="S78" s="140">
         <v>43276</v>
       </c>
-      <c r="T78" s="143"/>
+      <c r="T78" s="142"/>
     </row>
     <row r="79" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G79" s="134" t="s">
@@ -10712,20 +10720,20 @@
         <v>179</v>
       </c>
       <c r="M81" s="134"/>
-      <c r="N81" s="144">
+      <c r="N81" s="156">
         <f>N86*N88</f>
         <v>784480</v>
       </c>
-      <c r="O81" s="145"/>
+      <c r="O81" s="157"/>
       <c r="Q81" s="134" t="s">
         <v>129</v>
       </c>
       <c r="R81" s="134"/>
-      <c r="S81" s="144">
+      <c r="S81" s="156">
         <f>S86*S88</f>
         <v>1009200</v>
       </c>
-      <c r="T81" s="145"/>
+      <c r="T81" s="157"/>
     </row>
     <row r="82" spans="7:20" ht="11.25" x14ac:dyDescent="0.15">
       <c r="G82" s="134" t="s">
@@ -10804,7 +10812,7 @@
       <c r="Q84" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="R84" s="141"/>
+      <c r="R84" s="143"/>
       <c r="S84" s="135">
         <v>466</v>
       </c>
@@ -10943,229 +10951,335 @@
     <row r="90" spans="7:20" ht="11.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="576">
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="S68:T68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="V22:Y22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="S87:T87"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="S89:T89"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="S85:T85"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="Q77:T77"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:H5"/>
@@ -11190,335 +11304,229 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="Q77:T77"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="S87:T87"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="S89:T89"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="S85:T85"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="V22:Y22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="S72:T72"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11531,9 +11539,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C65:S66"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11697,11 +11705,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -11772,11 +11780,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43825.5</v>
+        <v>43826.5</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -11856,12 +11864,12 @@
         <v>254</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E66" ca="1" si="9">TODAY()</f>
-        <v>43278</v>
+        <f t="shared" ref="E15:E69" ca="1" si="9">TODAY()</f>
+        <v>43279</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15" ca="1" si="10">E15+H15</f>
-        <v>43337</v>
+        <v>43338</v>
       </c>
       <c r="G15" s="11">
         <v>100</v>
@@ -11941,11 +11949,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="17">E16+H16</f>
-        <v>43337</v>
+        <v>43338</v>
       </c>
       <c r="G16" s="11">
         <v>100</v>
@@ -12025,11 +12033,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F23" ca="1" si="24">E18+H18</f>
-        <v>43329</v>
+        <v>43330</v>
       </c>
       <c r="G18" s="11">
         <v>13800</v>
@@ -12049,22 +12057,22 @@
       </c>
       <c r="L18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>97.861082816066755</v>
+        <v>96.652838516547035</v>
       </c>
       <c r="M18" s="15">
         <v>30</v>
       </c>
       <c r="N18" s="13">
         <f t="shared" ref="N18:N23" si="26">M18/10000*I18*P18</f>
-        <v>5.9690958904109594</v>
+        <v>5.9711917808219184</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" ref="O18:O23" si="27">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>91.8919869256558</v>
+        <v>90.68164673572511</v>
       </c>
       <c r="P18" s="13">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>14240</v>
+        <v>14245</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>85</v>
@@ -12078,15 +12086,15 @@
       </c>
       <c r="T18" s="14">
         <f t="shared" ref="T18:T23" si="29">O18/P18</f>
-        <v>6.4530889694983003E-3</v>
+        <v>6.3658579667058698E-3</v>
       </c>
       <c r="U18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.24282066447085526</v>
+        <v>-0.2404792413699397</v>
       </c>
       <c r="V18" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>16.610989188715848</v>
+        <v>16.529426375171624</v>
       </c>
       <c r="W18" s="114"/>
       <c r="X18" s="115">
@@ -12094,7 +12102,7 @@
       </c>
       <c r="Y18" s="6">
         <f t="shared" ref="Y18:Y23" si="30">X18*U18</f>
-        <v>-97.128265788342105</v>
+        <v>-96.19169654797588</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12110,11 +12118,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43365</v>
+        <v>43366</v>
       </c>
       <c r="G19" s="11">
         <v>13800</v>
@@ -12132,24 +12140,24 @@
       <c r="K19" s="116">
         <v>0.1225</v>
       </c>
-      <c r="L19" s="13" t="e">
+      <c r="L19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>#VALUE!</v>
+        <v>135.62978805762623</v>
       </c>
       <c r="M19" s="15">
         <v>30</v>
       </c>
-      <c r="N19" s="13" t="e">
+      <c r="N19" s="13">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="13" t="e">
+        <v>10.243356164383561</v>
+      </c>
+      <c r="O19" s="13">
         <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P19" s="13" t="e">
+        <v>125.38643189324267</v>
+      </c>
+      <c r="P19" s="13">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14325</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -12161,25 +12169,25 @@
       <c r="S19" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T19" s="14" t="e">
+      <c r="T19" s="14">
         <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U19" s="13" t="e">
+        <v>8.7529795387952993E-3</v>
+      </c>
+      <c r="U19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V19" s="13" t="e">
+        <v>-0.25526848266963498</v>
+      </c>
+      <c r="V19" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>#VALUE!</v>
+        <v>22.393227809884365</v>
       </c>
       <c r="W19" s="114"/>
       <c r="X19" s="115">
         <v>400</v>
       </c>
-      <c r="Y19" s="6" t="e">
+      <c r="Y19" s="6">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
+        <v>-102.10739306785399</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12195,11 +12203,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43393</v>
+        <v>43394</v>
       </c>
       <c r="G20" s="11">
         <v>13800</v>
@@ -12217,24 +12225,24 @@
       <c r="K20" s="116">
         <v>0.12</v>
       </c>
-      <c r="L20" s="13" t="e">
+      <c r="L20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>#VALUE!</v>
+        <v>143.08740504686511</v>
       </c>
       <c r="M20" s="15">
         <v>30</v>
       </c>
-      <c r="N20" s="13" t="e">
+      <c r="N20" s="13">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="13" t="e">
+        <v>13.023698630136986</v>
+      </c>
+      <c r="O20" s="13">
         <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P20" s="13" t="e">
+        <v>130.06370641672814</v>
+      </c>
+      <c r="P20" s="13">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14405</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -12246,25 +12254,25 @@
       <c r="S20" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T20" s="14" t="e">
+      <c r="T20" s="14">
         <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U20" s="13" t="e">
+        <v>9.0290667418763022E-3</v>
+      </c>
+      <c r="U20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V20" s="13" t="e">
+        <v>-0.24542216390273097</v>
+      </c>
+      <c r="V20" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>#VALUE!</v>
+        <v>24.781758100015622</v>
       </c>
       <c r="W20" s="114"/>
       <c r="X20" s="115">
         <v>400</v>
       </c>
-      <c r="Y20" s="6" t="e">
+      <c r="Y20" s="6">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
+        <v>-98.168865561092389</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12280,11 +12288,11 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43329</v>
+        <v>43330</v>
       </c>
       <c r="G21" s="11">
         <v>14000</v>
@@ -12304,22 +12312,22 @@
       </c>
       <c r="L21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>159.9539137867705</v>
+        <v>158.21908708071805</v>
       </c>
       <c r="M21" s="15">
         <v>30</v>
       </c>
       <c r="N21" s="13">
         <f t="shared" si="26"/>
-        <v>5.9690958904109594</v>
+        <v>5.9711917808219184</v>
       </c>
       <c r="O21" s="13">
         <f t="shared" si="27"/>
-        <v>153.98481789635954</v>
+        <v>152.24789529989613</v>
       </c>
       <c r="P21" s="13">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>14240</v>
+        <v>14245</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
@@ -12333,15 +12341,15 @@
       </c>
       <c r="T21" s="14">
         <f t="shared" si="29"/>
-        <v>1.0813540582609518E-2</v>
+        <v>1.0687812937865646E-2</v>
       </c>
       <c r="U21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.34835068672691705</v>
+        <v>-0.34558151323835773</v>
       </c>
       <c r="V21" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>19.639123951995316</v>
+        <v>19.588087830741188</v>
       </c>
       <c r="W21" s="114"/>
       <c r="X21" s="115">
@@ -12349,7 +12357,7 @@
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="30"/>
-        <v>-139.34027469076682</v>
+        <v>-138.23260529534309</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12365,11 +12373,11 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43365</v>
+        <v>43366</v>
       </c>
       <c r="G22" s="11">
         <v>14000</v>
@@ -12387,24 +12395,24 @@
       <c r="K22" s="116">
         <v>0.1225</v>
       </c>
-      <c r="L22" s="13" t="e">
+      <c r="L22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>#VALUE!</v>
+        <v>198.97121584659635</v>
       </c>
       <c r="M22" s="15">
         <v>30</v>
       </c>
-      <c r="N22" s="13" t="e">
+      <c r="N22" s="13">
         <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" s="13" t="e">
+        <v>10.243356164383561</v>
+      </c>
+      <c r="O22" s="13">
         <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P22" s="13" t="e">
+        <v>188.7278596822128</v>
+      </c>
+      <c r="P22" s="13">
         <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14325</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>85</v>
@@ -12416,25 +12424,25 @@
       <c r="S22" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T22" s="14" t="e">
+      <c r="T22" s="14">
         <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U22" s="13" t="e">
+        <v>1.3174719698583789E-2</v>
+      </c>
+      <c r="U22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V22" s="13" t="e">
+        <v>-0.3379604486781318</v>
+      </c>
+      <c r="V22" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>#VALUE!</v>
+        <v>25.479616720072045</v>
       </c>
       <c r="W22" s="114"/>
       <c r="X22" s="115">
         <v>400</v>
       </c>
-      <c r="Y22" s="6" t="e">
+      <c r="Y22" s="6">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
+        <v>-135.18417947125272</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12450,11 +12458,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43393</v>
+        <v>43394</v>
       </c>
       <c r="G23" s="11">
         <v>14000</v>
@@ -12534,11 +12542,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="32">E25+H25</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G25" s="11">
         <v>50000</v>
@@ -12619,11 +12627,11 @@
       </c>
       <c r="E27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ref="F27" ca="1" si="39">E27+H27</f>
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="G27" s="11">
         <v>19000</v>
@@ -12641,24 +12649,24 @@
       <c r="K27" s="116">
         <v>0.125</v>
       </c>
-      <c r="L27" s="13" t="e">
+      <c r="L27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>#VALUE!</v>
+        <v>43.280412010654118</v>
       </c>
       <c r="M27" s="15">
         <v>30</v>
       </c>
-      <c r="N27" s="13" t="e">
+      <c r="N27" s="13">
         <f t="shared" ref="N27" si="41">M27/10000*I27*P27</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O27" s="13" t="e">
+        <v>8.2828767123287665</v>
+      </c>
+      <c r="O27" s="13">
         <f t="shared" ref="O27" si="42">IF(L27&lt;=0,ABS(L27)+N27,L27-N27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P27" s="11" t="e">
+        <v>34.997535298325353</v>
+      </c>
+      <c r="P27" s="11">
         <f>RTD("wdf.rtq",,D27,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>20155</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>85</v>
@@ -12670,25 +12678,25 @@
       <c r="S27" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T27" s="14" t="e">
+      <c r="T27" s="14">
         <f t="shared" ref="T27" si="44">O27/P27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U27" s="13" t="e">
+        <v>1.7364195136852073E-3</v>
+      </c>
+      <c r="U27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V27" s="13" t="e">
+        <v>-9.6758669781138451E-2</v>
+      </c>
+      <c r="V27" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>#VALUE!</v>
+        <v>12.73989925474541</v>
       </c>
       <c r="W27" s="114"/>
       <c r="X27" s="115">
         <v>400</v>
       </c>
-      <c r="Y27" s="6" t="e">
+      <c r="Y27" s="6">
         <f t="shared" ref="Y27" si="45">X27*U27</f>
-        <v>#VALUE!</v>
+        <v>-38.70346791245538</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12704,11 +12712,11 @@
       </c>
       <c r="E29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ref="F29" ca="1" si="46">E29+H29</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G29" s="11">
         <v>11500</v>
@@ -12726,24 +12734,24 @@
       <c r="K29" s="116">
         <v>0.24</v>
       </c>
-      <c r="L29" s="13" t="e">
+      <c r="L29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>#VALUE!</v>
+        <v>-17.866252603439648</v>
       </c>
       <c r="M29" s="15">
         <v>0</v>
       </c>
-      <c r="N29" s="13" t="e">
+      <c r="N29" s="13">
         <f t="shared" ref="N29" si="48">M29/10000*I29*P29</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O29" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O29" s="13">
         <f t="shared" ref="O29" si="49">IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P29" s="11" t="e">
+        <v>17.866252603439648</v>
+      </c>
+      <c r="P29" s="11">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14405</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>85</v>
@@ -12755,25 +12763,25 @@
       <c r="S29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="14" t="e">
+      <c r="T29" s="14">
         <f t="shared" ref="T29" si="51">O29/P29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U29" s="13" t="e">
+        <v>1.2402813331093127E-3</v>
+      </c>
+      <c r="U29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V29" s="13" t="e">
+        <v>2.6096064635794392E-2</v>
+      </c>
+      <c r="V29" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>#VALUE!</v>
+        <v>-4.3563056002024609</v>
       </c>
       <c r="W29" s="114"/>
       <c r="X29" s="115">
         <v>400</v>
       </c>
-      <c r="Y29" s="6" t="e">
+      <c r="Y29" s="6">
         <f t="shared" ref="Y29" si="52">X29*U29</f>
-        <v>#VALUE!</v>
+        <v>10.438425854317757</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12789,11 +12797,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ref="F31:F32" ca="1" si="53">E31+H31</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G31" s="11">
         <v>14000</v>
@@ -12811,24 +12819,24 @@
       <c r="K31" s="116">
         <v>0.19</v>
       </c>
-      <c r="L31" s="13" t="e">
+      <c r="L31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>#VALUE!</v>
+        <v>-357.11900377341863</v>
       </c>
       <c r="M31" s="15">
         <v>0</v>
       </c>
-      <c r="N31" s="13" t="e">
+      <c r="N31" s="13">
         <f t="shared" ref="N31:N32" si="55">M31/10000*I31*P31</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O31" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
         <f t="shared" ref="O31:O32" si="56">IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P31" s="11" t="e">
+        <v>357.11900377341863</v>
+      </c>
+      <c r="P31" s="11">
         <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14405</v>
       </c>
       <c r="Q31" s="10" t="s">
         <v>85</v>
@@ -12840,25 +12848,25 @@
       <c r="S31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="14" t="e">
+      <c r="T31" s="14">
         <f t="shared" ref="T31:T32" si="58">O31/P31</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U31" s="13" t="e">
+        <v>2.4791322719432046E-2</v>
+      </c>
+      <c r="U31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V31" s="13" t="e">
+        <v>0.36209622994647361</v>
+      </c>
+      <c r="V31" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>#VALUE!</v>
+        <v>-26.870498043104817</v>
       </c>
       <c r="W31" s="114"/>
       <c r="X31" s="115">
         <v>400</v>
       </c>
-      <c r="Y31" s="6" t="e">
+      <c r="Y31" s="6">
         <f t="shared" ref="Y31:Y32" si="59">X31*U31</f>
-        <v>#VALUE!</v>
+        <v>144.83849197858945</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12874,11 +12882,11 @@
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="53"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G32" s="11">
         <v>13500</v>
@@ -12896,24 +12904,24 @@
       <c r="K32" s="116">
         <v>0.19500000000000001</v>
       </c>
-      <c r="L32" s="13" t="e">
+      <c r="L32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>#VALUE!</v>
+        <v>-204.12178885100639</v>
       </c>
       <c r="M32" s="15">
         <v>0</v>
       </c>
-      <c r="N32" s="13" t="e">
+      <c r="N32" s="13">
         <f t="shared" si="55"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O32" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P32" s="11" t="e">
+        <v>204.12178885100639</v>
+      </c>
+      <c r="P32" s="11">
         <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14405</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>85</v>
@@ -12925,25 +12933,25 @@
       <c r="S32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T32" s="14" t="e">
+      <c r="T32" s="14">
         <f t="shared" si="58"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U32" s="13" t="e">
+        <v>1.4170204016036542E-2</v>
+      </c>
+      <c r="U32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V32" s="13" t="e">
+        <v>0.23609625986864557</v>
+      </c>
+      <c r="V32" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>#VALUE!</v>
+        <v>-22.099143585603997</v>
       </c>
       <c r="W32" s="114"/>
       <c r="X32" s="115">
         <v>400</v>
       </c>
-      <c r="Y32" s="6" t="e">
+      <c r="Y32" s="6">
         <f t="shared" si="59"/>
-        <v>#VALUE!</v>
+        <v>94.43850394745823</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12959,11 +12967,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ref="F34" ca="1" si="60">E34+H34</f>
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="G34" s="11">
         <v>480</v>
@@ -12983,7 +12991,7 @@
       </c>
       <c r="L34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>30.95963772146041</v>
+        <v>27.061014023614575</v>
       </c>
       <c r="M34" s="15">
         <v>0</v>
@@ -12994,11 +13002,11 @@
       </c>
       <c r="O34" s="13">
         <f t="shared" ref="O34" si="63">IF(L34&lt;=0,ABS(L34)+N34,L34-N34)</f>
-        <v>30.95963772146041</v>
+        <v>27.061014023614575</v>
       </c>
       <c r="P34" s="11">
         <f>RTD("wdf.rtq",,D34,"LastPrice")</f>
-        <v>461</v>
+        <v>467.5</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>85</v>
@@ -13012,15 +13020,15 @@
       </c>
       <c r="T34" s="14">
         <f t="shared" ref="T34" si="65">O34/P34</f>
-        <v>6.7157565556313248E-2</v>
+        <v>5.7884521975646148E-2</v>
       </c>
       <c r="U34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-0.62479348962085623</v>
+        <v>-0.57461953660435938</v>
       </c>
       <c r="V34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>0.64435227919616977</v>
+        <v>0.67578042898614399</v>
       </c>
       <c r="W34" s="114"/>
       <c r="X34" s="115">
@@ -13028,7 +13036,7 @@
       </c>
       <c r="Y34" s="6">
         <f t="shared" ref="Y34" si="66">X34*U34</f>
-        <v>-249.91739584834249</v>
+        <v>-229.84781464174375</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13044,15 +13052,15 @@
       </c>
       <c r="E35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" ref="F35:F36" ca="1" si="67">E35+H35</f>
-        <v>43460</v>
-      </c>
-      <c r="G35" s="11" t="e">
+        <v>43461</v>
+      </c>
+      <c r="G35" s="11">
         <f>P35</f>
-        <v>#N/A</v>
+        <v>12220</v>
       </c>
       <c r="H35" s="10">
         <v>182</v>
@@ -13067,24 +13075,24 @@
       <c r="K35" s="116">
         <v>0.32</v>
       </c>
-      <c r="L35" s="13" t="e">
+      <c r="L35" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>#VALUE!</v>
+        <v>1088.3442694644309</v>
       </c>
       <c r="M35" s="15">
         <v>0</v>
       </c>
-      <c r="N35" s="13" t="e">
+      <c r="N35" s="13">
         <f t="shared" ref="N35:N36" si="69">M35/10000*I35*P35</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O35" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O35" s="13">
         <f t="shared" ref="O35:O36" si="70">IF(L35&lt;=0,ABS(L35)+N35,L35-N35)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P35" s="11" t="e">
+        <v>1088.3442694644309</v>
+      </c>
+      <c r="P35" s="11">
         <f>RTD("wdf.rtq",,D35,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>12220</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>85</v>
@@ -13096,25 +13104,25 @@
       <c r="S35" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T35" s="14" t="e">
+      <c r="T35" s="14">
         <f t="shared" ref="T35:T36" si="72">O35/P35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U35" s="13" t="e">
+        <v>8.9062542509364226E-2</v>
+      </c>
+      <c r="U35" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V35" s="13" t="e">
+        <v>-0.4505072081428807</v>
+      </c>
+      <c r="V35" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>#VALUE!</v>
+        <v>33.866220110768154</v>
       </c>
       <c r="W35" s="114"/>
       <c r="X35" s="115">
         <v>400</v>
       </c>
-      <c r="Y35" s="6" t="e">
+      <c r="Y35" s="6">
         <f t="shared" ref="Y35:Y36" si="73">X35*U35</f>
-        <v>#VALUE!</v>
+        <v>-180.20288325715228</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13130,15 +13138,15 @@
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ca="1" si="67"/>
-        <v>43460</v>
-      </c>
-      <c r="G36" s="11" t="e">
+        <v>43461</v>
+      </c>
+      <c r="G36" s="11">
         <f>P36</f>
-        <v>#N/A</v>
+        <v>12220</v>
       </c>
       <c r="H36" s="10">
         <v>182</v>
@@ -13153,24 +13161,24 @@
       <c r="K36" s="116">
         <v>0.24</v>
       </c>
-      <c r="L36" s="13" t="e">
+      <c r="L36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>#VALUE!</v>
+        <v>817.01729886479188</v>
       </c>
       <c r="M36" s="15">
         <v>0</v>
       </c>
-      <c r="N36" s="13" t="e">
+      <c r="N36" s="13">
         <f t="shared" si="69"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O36" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O36" s="13">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P36" s="11" t="e">
+        <v>817.01729886479188</v>
+      </c>
+      <c r="P36" s="11">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>12220</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>85</v>
@@ -13182,25 +13190,25 @@
       <c r="S36" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T36" s="14" t="e">
+      <c r="T36" s="14">
         <f t="shared" si="72"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U36" s="13" t="e">
+        <v>6.6859026093681828E-2</v>
+      </c>
+      <c r="U36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V36" s="13" t="e">
+        <v>-0.46160896631590731</v>
+      </c>
+      <c r="V36" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>#VALUE!</v>
+        <v>33.960917489501753</v>
       </c>
       <c r="W36" s="114"/>
       <c r="X36" s="115">
         <v>400</v>
       </c>
-      <c r="Y36" s="6" t="e">
+      <c r="Y36" s="6">
         <f t="shared" si="73"/>
-        <v>#VALUE!</v>
+        <v>-184.64358652636292</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13216,11 +13224,11 @@
       </c>
       <c r="E38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ref="F38" ca="1" si="74">E38+H38</f>
-        <v>43324</v>
+        <v>43325</v>
       </c>
       <c r="G38" s="11">
         <v>430</v>
@@ -13300,11 +13308,11 @@
       </c>
       <c r="E39" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" ref="F39" ca="1" si="81">E39+H39</f>
-        <v>43324</v>
+        <v>43325</v>
       </c>
       <c r="G39" s="11">
         <v>480</v>
@@ -13384,11 +13392,11 @@
       </c>
       <c r="E41" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" ref="F41" ca="1" si="88">E41+H41</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G41" s="11">
         <v>495</v>
@@ -13468,11 +13476,11 @@
       </c>
       <c r="E43" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" ref="F43" ca="1" si="95">E43+H43</f>
-        <v>43324</v>
+        <v>43325</v>
       </c>
       <c r="G43" s="11">
         <v>430</v>
@@ -13552,11 +13560,11 @@
       </c>
       <c r="E45" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" ref="F45" ca="1" si="101">E45+H45</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G45" s="120">
         <v>14170</v>
@@ -13636,11 +13644,11 @@
       </c>
       <c r="E47" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" ref="F47" ca="1" si="106">E47+H47</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G47" s="120">
         <v>3078</v>
@@ -13658,24 +13666,24 @@
       <c r="K47" s="116">
         <v>0.19470000000000001</v>
       </c>
-      <c r="L47" s="13" t="e">
+      <c r="L47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>#VALUE!</v>
+        <v>122.99464855667566</v>
       </c>
       <c r="M47" s="15">
         <v>30</v>
       </c>
-      <c r="N47" s="13" t="e">
+      <c r="N47" s="13">
         <f t="shared" ref="N47" si="108">M47/10000*I47*P47</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O47" s="13" t="e">
+        <v>0.80667945205479452</v>
+      </c>
+      <c r="O47" s="13">
         <f t="shared" ref="O47" si="109">IF(L47&lt;=0,ABS(L47)+N47,L47-N47)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P47" s="120" t="e">
+        <v>122.18796910462086</v>
+      </c>
+      <c r="P47" s="120">
         <f>RTD("wdf.rtq",,D47,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>3166</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>275</v>
@@ -13687,25 +13695,25 @@
       <c r="S47" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T47" s="14" t="e">
+      <c r="T47" s="14">
         <f t="shared" ref="T47" si="111">O47/P47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U47" s="13" t="e">
+        <v>3.8593799464504377E-2</v>
+      </c>
+      <c r="U47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V47" s="13" t="e">
+        <v>0.69907789663830044</v>
+      </c>
+      <c r="V47" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>#VALUE!</v>
+        <v>3.2003551716393304</v>
       </c>
       <c r="W47" s="114"/>
       <c r="X47" s="115">
         <v>500</v>
       </c>
-      <c r="Y47" s="6" t="e">
+      <c r="Y47" s="6">
         <f>X47*U47</f>
-        <v>#VALUE!</v>
+        <v>349.53894831915022</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13721,11 +13729,11 @@
       </c>
       <c r="E48" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" ref="F48" ca="1" si="112">E48+H48</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G48" s="120">
         <v>3150</v>
@@ -13805,11 +13813,11 @@
       </c>
       <c r="E50" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" ref="F50:F52" ca="1" si="118">E50+H50</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G50" s="120">
         <v>3300</v>
@@ -13829,7 +13837,7 @@
       </c>
       <c r="L50" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
-        <v>3.6127465364462807</v>
+        <v>1.613054168327551</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="13">
@@ -13838,11 +13846,11 @@
       </c>
       <c r="O50" s="13">
         <f t="shared" ref="O50:O52" si="121">IF(L50&lt;=0,ABS(L50)+N50,L50-N50)</f>
-        <v>3.6127465364462807</v>
+        <v>1.613054168327551</v>
       </c>
       <c r="P50" s="11">
         <f>RTD("wdf.rtq",,D50,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q50" s="10" t="s">
         <v>85</v>
@@ -13856,15 +13864,15 @@
       </c>
       <c r="T50" s="14">
         <f t="shared" ref="T50:T52" si="123">O50/P50</f>
-        <v>9.838634358513836E-4</v>
+        <v>4.3083711760885445E-4</v>
       </c>
       <c r="U50" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
-        <v>-3.8825065824710236E-2</v>
+        <v>-1.8788852883488971E-2</v>
       </c>
       <c r="V50" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
-        <v>0.88517165979988732</v>
+        <v>0.49361026061113478</v>
       </c>
       <c r="W50" s="114"/>
       <c r="X50" s="115">
@@ -13872,7 +13880,7 @@
       </c>
       <c r="Y50" s="6">
         <f t="shared" ref="Y50:Y55" si="124">X50*U50</f>
-        <v>-19.412532912355118</v>
+        <v>-9.3944264417444856</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13888,11 +13896,11 @@
       </c>
       <c r="E51" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" ca="1" si="118"/>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G51" s="120">
         <v>3400</v>
@@ -13912,7 +13920,7 @@
       </c>
       <c r="L51" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
-        <v>11.028317193379223</v>
+        <v>5.5551704400808433</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="13">
@@ -13921,11 +13929,11 @@
       </c>
       <c r="O51" s="13">
         <f t="shared" si="121"/>
-        <v>11.028317193379223</v>
+        <v>5.5551704400808433</v>
       </c>
       <c r="P51" s="11">
         <f>RTD("wdf.rtq",,D51,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q51" s="10" t="s">
         <v>85</v>
@@ -13939,15 +13947,15 @@
       </c>
       <c r="T51" s="14">
         <f t="shared" si="123"/>
-        <v>3.003354355495431E-3</v>
+        <v>1.4837527884831313E-3</v>
       </c>
       <c r="U51" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
-        <v>-0.10021240948105969</v>
+        <v>-5.5328169801782678E-2</v>
       </c>
       <c r="V51" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
-        <v>1.8480670038055962</v>
+        <v>1.1986614439441468</v>
       </c>
       <c r="W51" s="114"/>
       <c r="X51" s="115">
@@ -13955,7 +13963,7 @@
       </c>
       <c r="Y51" s="6">
         <f t="shared" si="124"/>
-        <v>-50.106204740529847</v>
+        <v>-27.664084900891339</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13971,11 +13979,11 @@
       </c>
       <c r="E52" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" ca="1" si="118"/>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G52" s="120">
         <v>3500</v>
@@ -13995,7 +14003,7 @@
       </c>
       <c r="L52" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
-        <v>27.540384171325172</v>
+        <v>15.483517969645277</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="13">
@@ -14004,11 +14012,11 @@
       </c>
       <c r="O52" s="13">
         <f t="shared" si="121"/>
-        <v>27.540384171325172</v>
+        <v>15.483517969645277</v>
       </c>
       <c r="P52" s="11">
         <f>RTD("wdf.rtq",,D52,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q52" s="10" t="s">
         <v>85</v>
@@ -14022,15 +14030,15 @@
       </c>
       <c r="T52" s="14">
         <f t="shared" si="123"/>
-        <v>7.5001046218205808E-3</v>
+        <v>4.1355550132599565E-3</v>
       </c>
       <c r="U52" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
-        <v>-0.20887871586410256</v>
+        <v>-0.13025959477772631</v>
       </c>
       <c r="V52" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
-        <v>3.0208109910621488</v>
+        <v>2.270880046787056</v>
       </c>
       <c r="W52" s="114"/>
       <c r="X52" s="115">
@@ -14038,7 +14046,7 @@
       </c>
       <c r="Y52" s="6">
         <f t="shared" si="124"/>
-        <v>-104.43935793205128</v>
+        <v>-65.129797388863153</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14054,11 +14062,11 @@
       </c>
       <c r="E53" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" ref="F53:F55" ca="1" si="125">E53+H53</f>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G53" s="120">
         <v>3100</v>
@@ -14078,7 +14086,7 @@
       </c>
       <c r="L53" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
-        <v>9.5697970504738805</v>
+        <v>6.3199673857654375</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="13">
@@ -14087,11 +14095,11 @@
       </c>
       <c r="O53" s="13">
         <f t="shared" ref="O53:O55" si="128">IF(L53&lt;=0,ABS(L53)+N53,L53-N53)</f>
-        <v>9.5697970504738805</v>
+        <v>6.3199673857654375</v>
       </c>
       <c r="P53" s="11">
         <f>RTD("wdf.rtq",,D53,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q53" s="10" t="s">
         <v>85</v>
@@ -14105,15 +14113,15 @@
       </c>
       <c r="T53" s="14">
         <f t="shared" ref="T53:T55" si="130">O53/P53</f>
-        <v>2.6061538808480069E-3</v>
+        <v>1.6880254769672642E-3</v>
       </c>
       <c r="U53" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
-        <v>-5.401523043957468E-2</v>
+        <v>-3.7156009115335564E-2</v>
       </c>
       <c r="V53" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
-        <v>1.9965348328936443</v>
+        <v>1.5072415140623221</v>
       </c>
       <c r="W53" s="114"/>
       <c r="X53" s="115">
@@ -14121,7 +14129,7 @@
       </c>
       <c r="Y53" s="6">
         <f t="shared" si="124"/>
-        <v>-27.00761521978734</v>
+        <v>-18.578004557667782</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14137,11 +14145,11 @@
       </c>
       <c r="E54" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F54" s="8">
         <f t="shared" ca="1" si="125"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G54" s="120">
         <v>3300</v>
@@ -14161,7 +14169,7 @@
       </c>
       <c r="L54" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
-        <v>32.854874427668165</v>
+        <v>23.444722970308931</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="13">
@@ -14170,11 +14178,11 @@
       </c>
       <c r="O54" s="13">
         <f t="shared" si="128"/>
-        <v>32.854874427668165</v>
+        <v>23.444722970308931</v>
       </c>
       <c r="P54" s="11">
         <f>RTD("wdf.rtq",,D54,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q54" s="10" t="s">
         <v>85</v>
@@ -14188,15 +14196,15 @@
       </c>
       <c r="T54" s="14">
         <f t="shared" si="130"/>
-        <v>8.9474058898878443E-3</v>
+        <v>6.2619452377961887E-3</v>
       </c>
       <c r="U54" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
-        <v>-0.15020486664525379</v>
+        <v>-0.1125584057405149</v>
       </c>
       <c r="V54" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
-        <v>4.2453693213590782</v>
+        <v>3.5461116042319247</v>
       </c>
       <c r="W54" s="114"/>
       <c r="X54" s="115">
@@ -14204,7 +14212,7 @@
       </c>
       <c r="Y54" s="6">
         <f t="shared" si="124"/>
-        <v>-75.102433322626894</v>
+        <v>-56.27920287025745</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14220,11 +14228,11 @@
       </c>
       <c r="E55" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" ca="1" si="125"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G55" s="120">
         <v>3500</v>
@@ -14244,7 +14252,7 @@
       </c>
       <c r="L55" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
-        <v>84.595467345664929</v>
+        <v>64.518180981743058</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="13">
@@ -14253,11 +14261,11 @@
       </c>
       <c r="O55" s="13">
         <f t="shared" si="128"/>
-        <v>84.595467345664929</v>
+        <v>64.518180981743058</v>
       </c>
       <c r="P55" s="11">
         <f>RTD("wdf.rtq",,D55,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q55" s="10" t="s">
         <v>85</v>
@@ -14271,15 +14279,15 @@
       </c>
       <c r="T55" s="14">
         <f t="shared" si="130"/>
-        <v>2.3037981303285656E-2</v>
+        <v>1.723242013401257E-2</v>
       </c>
       <c r="U55" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
-        <v>-0.30920817569040082</v>
+        <v>-0.24971249934537809</v>
       </c>
       <c r="V55" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
-        <v>6.406535191939156</v>
+        <v>5.8885839548016179</v>
       </c>
       <c r="W55" s="114"/>
       <c r="X55" s="115">
@@ -14287,7 +14295,7 @@
       </c>
       <c r="Y55" s="6">
         <f t="shared" si="124"/>
-        <v>-154.60408784520041</v>
+        <v>-124.85624967268905</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.15">
@@ -14310,11 +14318,11 @@
       </c>
       <c r="E57" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F57" s="8">
         <f t="shared" ref="F57" ca="1" si="131">E57+H57</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G57" s="120">
         <v>49500</v>
@@ -14394,15 +14402,15 @@
       </c>
       <c r="E58" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F58" s="8">
         <f t="shared" ref="F58:F59" ca="1" si="137">E58+H58</f>
-        <v>43339</v>
+        <v>43340</v>
       </c>
       <c r="G58" s="120">
         <f>P58</f>
-        <v>9295</v>
+        <v>9483</v>
       </c>
       <c r="H58" s="10">
         <v>61</v>
@@ -14419,7 +14427,7 @@
       </c>
       <c r="L58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>-573.55280624049465</v>
+        <v>-585.15344395681677</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="13">
@@ -14428,11 +14436,11 @@
       </c>
       <c r="O58" s="13">
         <f t="shared" ref="O58:O59" si="140">IF(L58&lt;=0,ABS(L58)+N58,L58-N58)</f>
-        <v>573.55280624049465</v>
+        <v>585.15344395681677</v>
       </c>
       <c r="P58" s="11">
         <f>RTD("wdf.rtq",,D58,"LastPrice")</f>
-        <v>9295</v>
+        <v>9483</v>
       </c>
       <c r="Q58" s="10" t="s">
         <v>283</v>
@@ -14446,15 +14454,15 @@
       </c>
       <c r="T58" s="14">
         <f t="shared" ref="T58:T59" si="142">O58/P58</f>
-        <v>6.1705519767670212E-2</v>
+        <v>6.1705519767670226E-2</v>
       </c>
       <c r="U58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>-0.5291843169288768</v>
+        <v>-0.52918431697435153</v>
       </c>
       <c r="V58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>-15.063155108967749</v>
+        <v>-15.36782139842262</v>
       </c>
       <c r="W58" s="114"/>
       <c r="X58" s="115">
@@ -14462,7 +14470,7 @@
       </c>
       <c r="Y58" s="6">
         <f>X58*U58</f>
-        <v>-264.5921584644384</v>
+        <v>-264.59215848717577</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.15">
@@ -14480,15 +14488,15 @@
       </c>
       <c r="E59" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F59" s="8">
         <f t="shared" ca="1" si="137"/>
-        <v>43339</v>
+        <v>43340</v>
       </c>
       <c r="G59" s="120">
         <f>P59</f>
-        <v>9998</v>
+        <v>10227</v>
       </c>
       <c r="H59" s="10">
         <v>61</v>
@@ -14505,7 +14513,7 @@
       </c>
       <c r="L59" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q59,$P59,$G59,$I59,$C$3,$J59,$K59,$C$4)*R59</f>
-        <v>-616.93178663716662</v>
+        <v>-631.06235066396312</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="13">
@@ -14514,11 +14522,11 @@
       </c>
       <c r="O59" s="13">
         <f t="shared" si="140"/>
-        <v>616.93178663716662</v>
+        <v>631.06235066396312</v>
       </c>
       <c r="P59" s="11">
         <f>RTD("wdf.rtq",,D59,"LastPrice")</f>
-        <v>9998</v>
+        <v>10227</v>
       </c>
       <c r="Q59" s="10" t="s">
         <v>283</v>
@@ -14536,11 +14544,11 @@
       </c>
       <c r="U59" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q59,$P59,$G59,$I59,$C$3,$J59,$K59,$C$4)*R59</f>
-        <v>-0.52918431688340206</v>
+        <v>-0.5291843169288768</v>
       </c>
       <c r="V59" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q59,$P59,$G59,$I59,$C$3,$J59,$K59,$C$4)*R59</f>
-        <v>-16.202412563685812</v>
+        <v>-16.57352203328719</v>
       </c>
       <c r="W59" s="114"/>
       <c r="X59" s="115">
@@ -14548,7 +14556,7 @@
       </c>
       <c r="Y59" s="6">
         <f>X59*U59</f>
-        <v>-264.59215844170103</v>
+        <v>-264.5921584644384</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.15">
@@ -14566,11 +14574,11 @@
       </c>
       <c r="E61" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F61" s="8">
         <f t="shared" ref="F61" ca="1" si="143">E61+H61</f>
-        <v>43360</v>
+        <v>43361</v>
       </c>
       <c r="G61" s="120">
         <v>14280</v>
@@ -14588,22 +14596,22 @@
       <c r="K61" s="116">
         <v>0.18</v>
       </c>
-      <c r="L61" s="13" t="e">
+      <c r="L61" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
-        <v>#VALUE!</v>
+        <v>-462.40574123717488</v>
       </c>
       <c r="M61" s="15"/>
-      <c r="N61" s="13" t="e">
+      <c r="N61" s="13">
         <f t="shared" ref="N61" si="145">M61/10000*I61*P61</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O61" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="O61" s="13">
         <f t="shared" ref="O61" si="146">IF(L61&lt;=0,ABS(L61)+N61,L61-N61)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P61" s="11" t="e">
+        <v>462.40574123717488</v>
+      </c>
+      <c r="P61" s="11">
         <f>RTD("wdf.rtq",,D61,"LastPrice")</f>
-        <v>#N/A</v>
+        <v>14325</v>
       </c>
       <c r="Q61" s="10" t="s">
         <v>85</v>
@@ -14615,25 +14623,25 @@
       <c r="S61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="14" t="e">
+      <c r="T61" s="14">
         <f t="shared" ref="T61" si="148">O61/P61</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U61" s="13" t="e">
+        <v>3.2279632896137861E-2</v>
+      </c>
+      <c r="U61" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V61" s="13" t="e">
+        <v>0.46620359626103891</v>
+      </c>
+      <c r="V61" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
-        <v>#VALUE!</v>
+        <v>-26.88059272765031</v>
       </c>
       <c r="W61" s="114"/>
       <c r="X61" s="115">
         <v>500</v>
       </c>
-      <c r="Y61" s="6" t="e">
+      <c r="Y61" s="6">
         <f>X61*U61</f>
-        <v>#VALUE!</v>
+        <v>233.10179813051946</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.15">
@@ -14651,11 +14659,11 @@
       </c>
       <c r="E63" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" ref="F63" ca="1" si="149">E63+H63</f>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="G63" s="120">
         <v>62.9</v>
@@ -14735,11 +14743,11 @@
       </c>
       <c r="E65" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F65" s="8">
         <f t="shared" ref="F65" ca="1" si="154">E65+H65</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G65" s="120">
         <v>9295</v>
@@ -14821,11 +14829,11 @@
       </c>
       <c r="E66" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F66" s="8">
         <f t="shared" ref="F66" ca="1" si="159">E66+H66</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G66" s="120">
         <v>9295</v>
@@ -14902,18 +14910,171 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="O68" s="6">
-        <f>O67/I63</f>
-        <v>82.41935483870968</v>
-      </c>
-      <c r="X68" s="6">
-        <v>150</v>
+      <c r="A68" s="131">
+        <v>43278</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43279</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" ref="F68:F69" ca="1" si="164">E68+H68</f>
+        <v>43351</v>
+      </c>
+      <c r="G68" s="120">
+        <v>470</v>
+      </c>
+      <c r="H68" s="10">
+        <v>72</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" ref="I68:I69" si="165">H68/365</f>
+        <v>0.19726027397260273</v>
+      </c>
+      <c r="J68" s="12">
+        <v>0</v>
+      </c>
+      <c r="K68" s="116">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L68" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q68,$P68,$G68,$I68,$C$3,$J68,$K68,$C$4)*R68</f>
+        <v>-24.452643941487679</v>
+      </c>
+      <c r="M68" s="15"/>
+      <c r="N68" s="13">
+        <f t="shared" ref="N68:N69" si="166">M68/10000*I68*P68</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="13">
+        <f>IF(L68&lt;=0,ABS(L68)+N68,L68-N68)</f>
+        <v>24.452643941487679</v>
+      </c>
+      <c r="P68" s="11">
+        <v>470</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="R68" s="10">
+        <f t="shared" ref="R68:R69" si="167">IF(S68="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T68" s="14">
+        <f t="shared" ref="T68:T69" si="168">O68/P68</f>
+        <v>5.2026902003165273E-2</v>
+      </c>
+      <c r="U68" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q68,$P68,$G68,$I68,$C$3,$J68,$K68,$C$4)*R68</f>
+        <v>-0.52404473396734375</v>
+      </c>
+      <c r="V68" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q68,$P68,$G68,$I68,$C$3,$J68,$K68,$C$4)*R68</f>
+        <v>-0.8277173997045395</v>
+      </c>
+      <c r="W68" s="114"/>
+      <c r="X68" s="115">
+        <v>-150338.07269999999</v>
+      </c>
+      <c r="Y68" s="6">
+        <f>X68*U68</f>
+        <v>78783.875313234676</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="X69" s="6">
-        <f>X68*0.9</f>
-        <v>135</v>
+      <c r="A69" s="131">
+        <v>43278</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43279</v>
+      </c>
+      <c r="F69" s="8">
+        <f t="shared" ca="1" si="164"/>
+        <v>43351</v>
+      </c>
+      <c r="G69" s="120">
+        <v>470</v>
+      </c>
+      <c r="H69" s="10">
+        <v>72</v>
+      </c>
+      <c r="I69" s="12">
+        <f t="shared" si="165"/>
+        <v>0.19726027397260273</v>
+      </c>
+      <c r="J69" s="12">
+        <v>0</v>
+      </c>
+      <c r="K69" s="116">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="L69" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q69,$P69,$G69,$I69,$C$3,$J69,$K69,$C$4)*R69</f>
+        <v>-24.452643941487679</v>
+      </c>
+      <c r="M69" s="15"/>
+      <c r="N69" s="13">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="13">
+        <f>IF(L69&lt;=0,ABS(L69)+N69,L69-N69)</f>
+        <v>24.452643941487679</v>
+      </c>
+      <c r="P69" s="11">
+        <v>470</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R69" s="10">
+        <f t="shared" si="167"/>
+        <v>-1</v>
+      </c>
+      <c r="S69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T69" s="14">
+        <f t="shared" si="168"/>
+        <v>5.2026902003165273E-2</v>
+      </c>
+      <c r="U69" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q69,$P69,$G69,$I69,$C$3,$J69,$K69,$C$4)*R69</f>
+        <v>0.47201783264796404</v>
+      </c>
+      <c r="V69" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q69,$P69,$G69,$I69,$C$3,$J69,$K69,$C$4)*R69</f>
+        <v>-0.82771739970452529</v>
+      </c>
+      <c r="W69" s="114"/>
+      <c r="X69" s="115">
+        <v>-150338.07269999999</v>
+      </c>
+      <c r="Y69" s="6">
+        <f>X69*U69</f>
+        <v>-70962.251240326048</v>
       </c>
     </row>
   </sheetData>
@@ -14930,19 +15091,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S15:S16 S18:S23 S25 S27 S29 S31:S32 S34:S36 S38:S39 S41 S43 S45 S47:S48 S50:S55 S57:S59 S61 S63 S65:S66</xm:sqref>
+          <xm:sqref>S8:S9 S15:S16 S18:S23 S25 S27 S29 S31:S32 S34:S36 S38:S39 S41 S43 S45 S47:S48 S50:S55 S57:S59 S61 S63 S65:S66 S68:S69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q15:Q16 Q18:Q23 Q25 Q27 Q29 Q31:Q32 Q34:Q36 Q38:Q39 Q41 Q43 Q45 Q47:Q48 Q50:Q55 Q57:Q59 Q61 Q63 Q65:Q66</xm:sqref>
+          <xm:sqref>Q8:Q9 Q15:Q16 Q18:Q23 Q25 Q27 Q29 Q31:Q32 Q34:Q36 Q38:Q39 Q41 Q43 Q45 Q47:Q48 Q50:Q55 Q57:Q59 Q61 Q63 Q65:Q66 Q68:Q69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C15:C16 C18:C23 C25 C27 C29 C31:C32 C34:C36 C38:C39 C41 C43 C45 C47:C48 C50:C55 C57:C59 C61 C63 C65:C66</xm:sqref>
+          <xm:sqref>C8:C9 C15:C16 C18:C23 C25 C27 C29 C31:C32 C34:C36 C38:C39 C41 C43 C45 C47:C48 C50:C55 C57:C59 C61 C63 C65:C66 C68:C69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15132,11 +15293,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -15200,11 +15361,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -15271,11 +15432,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -15339,15 +15500,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>441</v>
+        <v>447.5</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -15364,17 +15525,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.7231764763545243</v>
+        <v>-3.8444044008002294</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.7231764763545243</v>
+        <v>3.8444044008002294</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>461</v>
+        <v>467.5</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -15389,11 +15550,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.22353173970230955</v>
+        <v>0.22663984182500485</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.27907479048685957</v>
+        <v>-0.28523320493926008</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15409,15 +15570,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>491</v>
+        <v>497.5</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -15436,17 +15597,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.0240703383708052</v>
+        <v>2.1104496412957161</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.0240703383708052</v>
+        <v>2.1104496412957161</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>461</v>
+        <v>467.5</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -15461,11 +15622,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.14834855844370054</v>
+        <v>0.15171867237171455</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.21614210983615578</v>
+        <v>0.22249743647176956</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15482,15 +15643,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43293</v>
+        <v>43294</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>441|491</v>
+        <v>447.5|497.5</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -15504,7 +15665,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.6991061379837191</v>
+        <v>-1.7339547595045133</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -15515,11 +15676,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.6991061379837191</v>
+        <v>1.7339547595045133</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>461</v>
+        <v>467.5</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -15528,15 +15689,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.6856966116783495E-3</v>
+        <v>3.7089941379775684E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.37188029814601009</v>
+        <v>0.3783585141967194</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2932680650703787E-2</v>
+        <v>-6.2735768467490516E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -15552,11 +15713,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -15577,17 +15738,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-321.43954599000062</v>
+        <v>-370.92910321036652</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>321.43954599000062</v>
+        <v>370.92910321036652</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -15602,11 +15763,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.6643231077987366</v>
+        <v>-0.7097510685071029</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.6252171816793179</v>
+        <v>-6.3322827404419968</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15623,11 +15784,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -15649,17 +15810,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>57.189932407722495</v>
+        <v>44.867679311980964</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>57.189932407722495</v>
+        <v>44.867679311980964</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -15674,11 +15835,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.18919173153335578</v>
+        <v>-0.15397812575770331</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.9512657179858479</v>
+        <v>4.4259225987977402</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15695,11 +15856,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -15717,7 +15878,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-264.24961358227813</v>
+        <v>-326.06142389838556</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -15728,11 +15889,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>264.24961358227813</v>
+        <v>326.06142389838556</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -15741,15 +15902,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>7.1963402391687942E-2</v>
+        <v>8.7089055528414949E-2</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.85351483933209238</v>
+        <v>-0.86372919426480621</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.67395146369347</v>
+        <v>-1.9063601416442566</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -15766,11 +15927,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G18" s="118">
         <v>3000</v>
@@ -15790,17 +15951,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>14.783776241230157</v>
+        <v>16.104642162170762</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>14.783776241230157</v>
+        <v>16.104642162170762</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -15815,11 +15976,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.18225255028028187</v>
+        <v>-0.19523425941088135</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>2.4049369839433439</v>
+        <v>2.5036484910609147</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15836,11 +15997,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G19" s="119">
         <v>3280</v>
@@ -15862,17 +16023,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-16.32748459354616</v>
+        <v>-15.063056345480618</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>16.32748459354616</v>
+        <v>15.063056345480618</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -15887,11 +16048,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.18628220330469958</v>
+        <v>-0.17505174846519367</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-2.4383386186909775</v>
+        <v>-2.3397755722922398</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15908,11 +16069,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -15930,7 +16091,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>-1.5437083523160027</v>
+        <v>1.0415858166901444</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -15941,26 +16102,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>1.5437083523160027</v>
+        <v>1.0415858166901444</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>4.9382864757389726E-4</v>
+        <v>3.3394864273489719E-4</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.36853475358498144</v>
+        <v>-0.37028600787607502</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>-3.340163474763358E-2</v>
+        <v>0.16387291876867494</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -15976,11 +16137,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G21" s="118">
         <v>3000</v>
@@ -16000,17 +16161,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>47.479266743779249</v>
+        <v>49.534999339747969</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>47.479266743779249</v>
+        <v>49.534999339747969</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -16025,11 +16186,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.28889841933619209</v>
+        <v>-0.29848132839447317</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.3457193777013572</v>
+        <v>5.4147408506128727</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16046,11 +16207,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G22" s="119">
         <v>3280</v>
@@ -16072,17 +16233,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-54.116447844655909</v>
+        <v>-51.965935156969977</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>54.116447844655909</v>
+        <v>51.965935156969977</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -16097,11 +16258,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.31156965089280675</v>
+        <v>-0.3028772439279237</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-5.5308592727726023</v>
+        <v>-5.450351718223601</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16118,11 +16279,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -16140,7 +16301,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>-6.6371811008766599</v>
+        <v>-2.4309358172220072</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -16151,26 +16312,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>6.6371811008766599</v>
+        <v>2.4309358172220072</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>2.1232185223533781E-3</v>
+        <v>7.7939590164219537E-4</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.60046807022899884</v>
+        <v>-0.60135857232239687</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>-0.18513989507124506</v>
+        <v>-3.5610867610728292E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -16187,11 +16348,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G26" s="118">
         <v>3500</v>
@@ -16212,17 +16373,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>40.221015480234541</v>
+        <v>25.478976108117308</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>40.221015480234541</v>
+        <v>25.478976108117308</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -16237,11 +16398,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.24382597004546369</v>
+        <v>-0.16865706862745355</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>3.297418514061917</v>
+        <v>2.6995570117427405</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16258,11 +16419,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G27" s="119">
         <v>3900</v>
@@ -16284,17 +16445,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-41.368793862319762</v>
+        <v>-61.665229980703543</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>41.368793862319762</v>
+        <v>61.665229980703543</v>
       </c>
       <c r="P27" s="94">
         <f>RTD("wdf.rtq",,D27,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -16309,11 +16470,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.24268478815656636</v>
+        <v>-0.3226719849408255</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-3.2891080439506482</v>
+        <v>-3.8475433857978487</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16330,11 +16491,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -16352,7 +16513,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>-1.147778382085221</v>
+        <v>-36.186253872586235</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -16363,26 +16524,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>1.147778382085221</v>
+        <v>36.186253872586235</v>
       </c>
       <c r="P28" s="111">
         <f>RTD("wdf.rtq",,D28,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>3.1257581211471157E-4</v>
+        <v>9.6651319104129902E-3</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.48651075820203005</v>
+        <v>-0.49132905356827905</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>8.3104701112688417E-3</v>
+        <v>-1.1479863740551082</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -16398,11 +16559,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G29" s="118">
         <v>3400</v>
@@ -16423,17 +16584,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>19.405499833956924</v>
+        <v>11.395437864442556</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>19.405499833956924</v>
+        <v>11.395437864442556</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -16448,11 +16609,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-0.13778807672792937</v>
+        <v>-8.7581147326432074E-2</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>2.3154011758692548</v>
+        <v>1.7063756424374787</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16469,11 +16630,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G30" s="119">
         <v>3800</v>
@@ -16495,17 +16656,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-68.177931155938268</v>
+        <v>-96.782499026365713</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>68.177931155938268</v>
+        <v>96.782499026365713</v>
       </c>
       <c r="P30" s="94">
         <f>RTD("wdf.rtq",,D30,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -16520,11 +16681,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.35194832285014854</v>
+        <v>-0.44326463413426609</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-3.9026402306925547</v>
+        <v>-4.2328153007977107</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16541,11 +16702,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -16563,7 +16724,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>-48.772431321981344</v>
+        <v>-85.387061161923157</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -16574,26 +16735,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>48.772431321981344</v>
+        <v>85.387061161923157</v>
       </c>
       <c r="P31" s="111">
         <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>1.3282252538665943E-2</v>
+        <v>2.2806373173590588E-2</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.48973639957807791</v>
+        <v>-0.53084578146069816</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>-1.5872390548233</v>
+        <v>-2.526439658360232</v>
       </c>
     </row>
     <row r="32" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -16609,11 +16770,11 @@
       </c>
       <c r="E32" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F32" s="46">
         <f ca="1">E32+H32</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G32" s="118">
         <v>3300</v>
@@ -16634,17 +16795,17 @@
       </c>
       <c r="L32" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>8.1280341594033985</v>
+        <v>4.3927180466899358</v>
       </c>
       <c r="M32" s="49"/>
       <c r="N32" s="43"/>
       <c r="O32" s="43">
         <f t="shared" ref="O32:O34" si="18">IF(L32&lt;=0,ABS(L32)+N32,L32-N32)</f>
-        <v>8.1280341594033985</v>
+        <v>4.3927180466899358</v>
       </c>
       <c r="P32" s="110">
         <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q32" s="44" t="s">
         <v>85</v>
@@ -16659,11 +16820,11 @@
       <c r="T32" s="50"/>
       <c r="U32" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-6.7004141462234657E-2</v>
+        <v>-3.886546345484021E-2</v>
       </c>
       <c r="V32" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>1.3654218740240509</v>
+        <v>0.90327539532697898</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16680,11 +16841,11 @@
       </c>
       <c r="E33" s="54">
         <f t="shared" ref="E33:F33" ca="1" si="19">E32</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F33" s="54">
         <f t="shared" ca="1" si="19"/>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G33" s="119">
         <v>4000</v>
@@ -16706,17 +16867,17 @@
       </c>
       <c r="L33" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-23.778880796778481</v>
+        <v>-37.29860925148455</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="51"/>
       <c r="O33" s="51">
         <f t="shared" si="18"/>
-        <v>23.778880796778481</v>
+        <v>37.29860925148455</v>
       </c>
       <c r="P33" s="94">
         <f>RTD("wdf.rtq",,D33,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q33" s="52" t="s">
         <v>39</v>
@@ -16731,11 +16892,11 @@
       <c r="T33" s="58"/>
       <c r="U33" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-0.15688295236486738</v>
+        <v>-0.22069570716212183</v>
       </c>
       <c r="V33" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-2.5260645937908066</v>
+        <v>-3.1806989175225908</v>
       </c>
     </row>
     <row r="34" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16752,11 +16913,11 @@
       </c>
       <c r="E34" s="62">
         <f t="shared" ref="E34:F34" ca="1" si="20">E33</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F34" s="62">
         <f t="shared" ca="1" si="20"/>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="G34" s="60" t="str">
         <f>G32 &amp; "|" &amp; G33</f>
@@ -16774,37 +16935,37 @@
       <c r="K34" s="60"/>
       <c r="L34" s="59">
         <f>L33+L32</f>
-        <v>-15.650846637375082</v>
+        <v>-32.905891204794614</v>
       </c>
       <c r="M34" s="60">
         <v>50</v>
       </c>
       <c r="N34" s="59">
         <f>M34/10000*I34*P34</f>
-        <v>1.5090410958904108</v>
+        <v>1.5386301369863014</v>
       </c>
       <c r="O34" s="59">
         <f t="shared" si="18"/>
-        <v>17.159887733265492</v>
+        <v>34.444521341780913</v>
       </c>
       <c r="P34" s="111">
         <f>RTD("wdf.rtq",,D34,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q34" s="60"/>
       <c r="R34" s="60"/>
       <c r="S34" s="56"/>
       <c r="T34" s="64">
         <f>O34/P34</f>
-        <v>4.673172040649644E-3</v>
+        <v>9.1999255720568683E-3</v>
       </c>
       <c r="U34" s="64">
         <f>U33+U32</f>
-        <v>-0.22388709382710203</v>
+        <v>-0.25956117061696204</v>
       </c>
       <c r="V34" s="64">
         <f>V33+V32</f>
-        <v>-1.1606427197667557</v>
+        <v>-2.2774235221956118</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -16821,11 +16982,11 @@
       </c>
       <c r="E36" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F36" s="46">
         <f ca="1">E36+H36</f>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G36" s="118">
         <v>3500</v>
@@ -16846,17 +17007,17 @@
       </c>
       <c r="L36" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>104.03863869086581</v>
+        <v>82.595695825258872</v>
       </c>
       <c r="M36" s="49"/>
       <c r="N36" s="43"/>
       <c r="O36" s="43">
         <f t="shared" ref="O36:O44" si="21">IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
-        <v>104.03863869086581</v>
+        <v>82.595695825258872</v>
       </c>
       <c r="P36" s="110">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q36" s="44" t="s">
         <v>85</v>
@@ -16871,11 +17032,11 @@
       <c r="T36" s="50"/>
       <c r="U36" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.32528287256354815</v>
+        <v>-0.27127027400410952</v>
       </c>
       <c r="V36" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>6.545056596171662</v>
+        <v>6.1449988574830172</v>
       </c>
     </row>
     <row r="37" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16892,11 +17053,11 @@
       </c>
       <c r="E37" s="54">
         <f t="shared" ref="E37:F37" ca="1" si="22">E36</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F37" s="54">
         <f t="shared" ca="1" si="22"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G37" s="119">
         <v>3900</v>
@@ -16918,17 +17079,17 @@
       </c>
       <c r="L37" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-114.62014288293449</v>
+        <v>-142.17432876397629</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="51"/>
       <c r="O37" s="51">
         <f t="shared" si="21"/>
-        <v>114.62014288293449</v>
+        <v>142.17432876397629</v>
       </c>
       <c r="P37" s="94">
         <f>RTD("wdf.rtq",,D37,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q37" s="52" t="s">
         <v>39</v>
@@ -16943,11 +17104,11 @@
       <c r="T37" s="58"/>
       <c r="U37" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-0.35626289560468649</v>
+        <v>-0.40932213885298552</v>
       </c>
       <c r="V37" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-6.7743176266343426</v>
+        <v>-7.196998996800744</v>
       </c>
     </row>
     <row r="38" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16964,11 +17125,11 @@
       </c>
       <c r="E38" s="62">
         <f t="shared" ref="E38:F38" ca="1" si="23">E37</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F38" s="62">
         <f t="shared" ca="1" si="23"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G38" s="60" t="str">
         <f>G36 &amp; "|" &amp; G37</f>
@@ -16986,7 +17147,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="59">
         <f>L37+L36</f>
-        <v>-10.581504192068678</v>
+        <v>-59.578632938717419</v>
       </c>
       <c r="M38" s="60">
         <v>0</v>
@@ -16997,26 +17158,26 @@
       </c>
       <c r="O38" s="59">
         <f t="shared" si="21"/>
-        <v>10.581504192068678</v>
+        <v>59.578632938717419</v>
       </c>
       <c r="P38" s="111">
         <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q38" s="60"/>
       <c r="R38" s="60"/>
       <c r="S38" s="56"/>
       <c r="T38" s="64">
         <f>O38/P38</f>
-        <v>2.881673254920664E-3</v>
+        <v>1.5913096404571961E-2</v>
       </c>
       <c r="U38" s="64">
         <f>U37+U36</f>
-        <v>-0.68154576816823464</v>
+        <v>-0.68059241285709504</v>
       </c>
       <c r="V38" s="64">
         <f>V37+V36</f>
-        <v>-0.22926103046268054</v>
+        <v>-1.0520001393177267</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -17032,11 +17193,11 @@
       </c>
       <c r="E39" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F39" s="46">
         <f ca="1">E39+H39</f>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G39" s="118">
         <v>3400</v>
@@ -17057,17 +17218,17 @@
       </c>
       <c r="L39" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>74.067281562184235</v>
+        <v>57.772015896999847</v>
       </c>
       <c r="M39" s="49"/>
       <c r="N39" s="43"/>
       <c r="O39" s="43">
         <f t="shared" si="21"/>
-        <v>74.067281562184235</v>
+        <v>57.772015896999847</v>
       </c>
       <c r="P39" s="110">
         <f>RTD("wdf.rtq",,D39,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q39" s="44" t="s">
         <v>85</v>
@@ -17082,11 +17243,11 @@
       <c r="T39" s="50"/>
       <c r="U39" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-0.24984162407690746</v>
+        <v>-0.20383203828941987</v>
       </c>
       <c r="V39" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>5.7774676110756786</v>
+        <v>5.2519444986178883</v>
       </c>
     </row>
     <row r="40" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -17103,11 +17264,11 @@
       </c>
       <c r="E40" s="54">
         <f t="shared" ref="E40:F40" ca="1" si="24">E39</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F40" s="54">
         <f t="shared" ca="1" si="24"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G40" s="119">
         <v>3800</v>
@@ -17129,17 +17290,17 @@
       </c>
       <c r="L40" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>-152.13740806199849</v>
+        <v>-185.03716042436599</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="51"/>
       <c r="O40" s="51">
         <f t="shared" si="21"/>
-        <v>152.13740806199849</v>
+        <v>185.03716042436599</v>
       </c>
       <c r="P40" s="94">
         <f>RTD("wdf.rtq",,D40,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q40" s="52" t="s">
         <v>39</v>
@@ -17154,11 +17315,11 @@
       <c r="T40" s="58"/>
       <c r="U40" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>-0.42984648814581305</v>
+        <v>-0.48398738748574033</v>
       </c>
       <c r="V40" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>-7.1326975489045026</v>
+        <v>-7.3760256747226549</v>
       </c>
     </row>
     <row r="41" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17175,11 +17336,11 @@
       </c>
       <c r="E41" s="62">
         <f t="shared" ref="E41:F41" ca="1" si="25">E40</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F41" s="62">
         <f t="shared" ca="1" si="25"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G41" s="60" t="str">
         <f>G39 &amp; "|" &amp; G40</f>
@@ -17197,7 +17358,7 @@
       <c r="K41" s="60"/>
       <c r="L41" s="59">
         <f>L40+L39</f>
-        <v>-78.070126499814251</v>
+        <v>-127.26514452736615</v>
       </c>
       <c r="M41" s="60">
         <v>0</v>
@@ -17208,26 +17369,26 @@
       </c>
       <c r="O41" s="59">
         <f t="shared" si="21"/>
-        <v>78.070126499814251</v>
+        <v>127.26514452736615</v>
       </c>
       <c r="P41" s="111">
         <f>RTD("wdf.rtq",,D41,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q41" s="60"/>
       <c r="R41" s="60"/>
       <c r="S41" s="56"/>
       <c r="T41" s="64">
         <f>O41/P41</f>
-        <v>2.1260927696027845E-2</v>
+        <v>3.3991758687864887E-2</v>
       </c>
       <c r="U41" s="64">
         <f>U40+U39</f>
-        <v>-0.67968811222272052</v>
+        <v>-0.6878194257751602</v>
       </c>
       <c r="V41" s="64">
         <f>V40+V39</f>
-        <v>-1.3552299378288239</v>
+        <v>-2.1240811761047667</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -17243,11 +17404,11 @@
       </c>
       <c r="E42" s="46">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F42" s="46">
         <f ca="1">E42+H42</f>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G42" s="118">
         <v>3300</v>
@@ -17268,17 +17429,17 @@
       </c>
       <c r="L42" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>46.355595734693907</v>
+        <v>34.987569152232254</v>
       </c>
       <c r="M42" s="49"/>
       <c r="N42" s="43"/>
       <c r="O42" s="43">
         <f t="shared" si="21"/>
-        <v>46.355595734693907</v>
+        <v>34.987569152232254</v>
       </c>
       <c r="P42" s="110">
         <f>RTD("wdf.rtq",,D42,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q42" s="44" t="s">
         <v>85</v>
@@ -17293,11 +17454,11 @@
       <c r="T42" s="50"/>
       <c r="U42" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>-0.17725861439430446</v>
+        <v>-0.13962236662337091</v>
       </c>
       <c r="V42" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>4.7277961338647287</v>
+        <v>4.121637944380069</v>
       </c>
     </row>
     <row r="43" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -17314,11 +17475,11 @@
       </c>
       <c r="E43" s="54">
         <f t="shared" ref="E43:F43" ca="1" si="26">E42</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F43" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G43" s="119">
         <v>4000</v>
@@ -17340,17 +17501,17 @@
       </c>
       <c r="L43" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
-        <v>-87.110266829832767</v>
+        <v>-109.84008079814271</v>
       </c>
       <c r="M43" s="57"/>
       <c r="N43" s="51"/>
       <c r="O43" s="51">
         <f t="shared" si="21"/>
-        <v>87.110266829832767</v>
+        <v>109.84008079814271</v>
       </c>
       <c r="P43" s="94">
         <f>RTD("wdf.rtq",,D43,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q43" s="52" t="s">
         <v>39</v>
@@ -17365,11 +17526,11 @@
       <c r="T43" s="58"/>
       <c r="U43" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
-        <v>-0.29114923473798626</v>
+        <v>-0.34062209111880293</v>
       </c>
       <c r="V43" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
-        <v>-6.2352894921659185</v>
+        <v>-6.7950917292854456</v>
       </c>
     </row>
     <row r="44" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17386,11 +17547,11 @@
       </c>
       <c r="E44" s="62">
         <f t="shared" ref="E44:F44" ca="1" si="27">E43</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="F44" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="G44" s="60" t="str">
         <f>G42 &amp; "|" &amp; G43</f>
@@ -17408,37 +17569,37 @@
       <c r="K44" s="60"/>
       <c r="L44" s="59">
         <f>L43+L42</f>
-        <v>-40.75467109513886</v>
+        <v>-74.852511645910454</v>
       </c>
       <c r="M44" s="60">
         <v>50</v>
       </c>
       <c r="N44" s="59">
         <f>M44/10000*I44*P44</f>
-        <v>4.5271232876712331</v>
+        <v>4.6158904109589036</v>
       </c>
       <c r="O44" s="59">
         <f t="shared" si="21"/>
-        <v>45.281794382810091</v>
+        <v>79.468402056869351</v>
       </c>
       <c r="P44" s="111">
         <f>RTD("wdf.rtq",,D44,"LastPrice")</f>
-        <v>3672</v>
+        <v>3744</v>
       </c>
       <c r="Q44" s="60"/>
       <c r="R44" s="60"/>
       <c r="S44" s="56"/>
       <c r="T44" s="64">
         <f>O44/P44</f>
-        <v>1.2331643350438478E-2</v>
+        <v>2.1225534737411685E-2</v>
       </c>
       <c r="U44" s="64">
         <f>U43+U42</f>
-        <v>-0.46840784913229072</v>
+        <v>-0.48024445774217384</v>
       </c>
       <c r="V44" s="64">
         <f>V43+V42</f>
-        <v>-1.5074933583011898</v>
+        <v>-2.6734537849053766</v>
       </c>
     </row>
   </sheetData>
@@ -17794,11 +17955,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -17876,11 +18037,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -17958,11 +18119,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -18040,11 +18201,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43461</v>
+        <v>43462</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -18122,11 +18283,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43461</v>
+        <v>43462</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -18202,11 +18363,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="M15" s="10">
         <v>30</v>
@@ -19059,11 +19220,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -19145,11 +19306,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43458</v>
+        <v>43459</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -19257,11 +19418,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -19344,11 +19505,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -19431,11 +19592,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -19518,11 +19679,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43461</v>
+        <v>43462</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -19605,11 +19766,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43461</v>
+        <v>43462</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -19692,11 +19853,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43308</v>
+        <v>43309</v>
       </c>
       <c r="O16" s="10">
         <v>30</v>

--- a/PricerAndQutation/OptionPricer_v2_20180606.xlsx
+++ b/PricerAndQutation/OptionPricer_v2_20180606.xlsx
@@ -18,12 +18,12 @@
     <sheet name="configs" sheetId="5" r:id="rId9"/>
     <sheet name="pricer_digit" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="295">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1093,6 +1093,9 @@
   <si>
     <t>c</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf901</t>
   </si>
 </sst>
 </file>
@@ -2002,23 +2005,23 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="wdf.rtq">
-      <tp>
-        <v>12220</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>ru1901</stp>
         <stp>LastPrice</stp>
+        <tr r="P35" s="1"/>
         <tr r="P36" s="1"/>
-        <tr r="P35" s="1"/>
       </tp>
-      <tp>
-        <v>3166</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>bu1812</stp>
         <stp>LastPrice</stp>
         <tr r="P47" s="1"/>
       </tp>
-      <tp>
-        <v>14405</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>al1811</stp>
         <stp>LastPrice</stp>
@@ -2027,61 +2030,70 @@
         <tr r="P29" s="1"/>
         <tr r="P32" s="1"/>
       </tp>
-      <tp>
-        <v>14325</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>al1810</stp>
         <stp>LastPrice</stp>
+        <tr r="P22" s="1"/>
         <tr r="P19" s="1"/>
-        <tr r="P22" s="1"/>
         <tr r="P61" s="1"/>
       </tp>
-      <tp>
-        <v>20155</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>pb1809</stp>
         <stp>LastPrice</stp>
         <tr r="P27" s="1"/>
       </tp>
-      <tp>
-        <v>14245</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>al1809</stp>
         <stp>LastPrice</stp>
+        <tr r="P21" s="1"/>
         <tr r="P18" s="1"/>
-        <tr r="P21" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>cf901</stp>
+        <stp>LastPrice</stp>
+        <tr r="P71" s="1"/>
+        <tr r="P72" s="1"/>
       </tp>
       <tp>
-        <v>14175</v>
+        <v>14165</v>
         <stp/>
         <stp>al1808</stp>
         <stp>LastPrice</stp>
         <tr r="P8" s="1"/>
       </tp>
       <tp>
-        <v>467.5</v>
+        <v>474</v>
         <stp/>
         <stp>i1809</stp>
         <stp>LastPrice</stp>
         <tr r="P11" s="9"/>
         <tr r="P34" s="1"/>
+        <tr r="P77" s="1"/>
       </tp>
       <tp>
-        <v>10227</v>
+        <v>10472</v>
         <stp/>
         <stp>ap901</stp>
         <stp>LastPrice</stp>
         <tr r="P59" s="1"/>
       </tp>
       <tp>
-        <v>9483</v>
+        <v>9684</v>
         <stp/>
         <stp>ap810</stp>
         <stp>LastPrice</stp>
         <tr r="P58" s="1"/>
       </tp>
       <tp>
-        <v>3119</v>
+        <v>3140</v>
         <stp/>
         <stp>m1809</stp>
         <stp>LastPrice</stp>
@@ -2089,7 +2101,7 @@
         <tr r="P18" s="9"/>
       </tp>
       <tp>
-        <v>3744</v>
+        <v>3807</v>
         <stp/>
         <stp>rb1810</stp>
         <stp>LastPrice</stp>
@@ -2097,27 +2109,27 @@
         <tr r="P28" s="9"/>
         <tr r="P33" s="9"/>
         <tr r="P34" s="9"/>
+        <tr r="P37" s="9"/>
+        <tr r="P27" s="9"/>
         <tr r="P43" s="9"/>
-        <tr r="P27" s="9"/>
-        <tr r="P37" s="9"/>
         <tr r="P30" s="9"/>
+        <tr r="P53" s="1"/>
+        <tr r="P51" s="1"/>
+        <tr r="P50" s="1"/>
+        <tr r="P55" s="1"/>
+        <tr r="P54" s="1"/>
+        <tr r="P52" s="1"/>
         <tr r="P31" s="9"/>
+        <tr r="P26" s="9"/>
+        <tr r="P44" s="9"/>
         <tr r="P38" s="9"/>
-        <tr r="P50" s="1"/>
-        <tr r="P53" s="1"/>
-        <tr r="P54" s="1"/>
-        <tr r="P42" s="9"/>
+        <tr r="P39" s="9"/>
         <tr r="P41" s="9"/>
-        <tr r="P44" s="9"/>
-        <tr r="P40" s="9"/>
-        <tr r="P51" s="1"/>
-        <tr r="P39" s="9"/>
         <tr r="P36" s="9"/>
         <tr r="P32" s="9"/>
-        <tr r="P26" s="9"/>
-        <tr r="P52" s="1"/>
+        <tr r="P40" s="9"/>
         <tr r="P29" s="9"/>
-        <tr r="P55" s="1"/>
+        <tr r="P42" s="9"/>
       </tp>
       <tp>
         <v>0</v>
@@ -2420,11 +2432,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U84" sqref="U84"/>
+      <pane ySplit="8" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111:R112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -3667,11 +3679,11 @@
       </c>
       <c r="D30" s="93">
         <f t="shared" ref="D30:D31" ca="1" si="0">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="E30" s="93">
         <f t="shared" ref="E30:E31" ca="1" si="1">D30+G30</f>
-        <v>43338</v>
+        <v>43339</v>
       </c>
       <c r="F30" s="92">
         <v>100</v>
@@ -3727,11 +3739,11 @@
       </c>
       <c r="D31" s="93">
         <f t="shared" ca="1" si="0"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="E31" s="93">
         <f t="shared" ca="1" si="1"/>
-        <v>43338</v>
+        <v>43339</v>
       </c>
       <c r="F31" s="92">
         <v>100</v>
@@ -7310,6 +7322,516 @@
       </c>
       <c r="R101" s="121" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B102" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J102" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M102" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N102" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O102" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B103" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="121" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="122">
+        <v>43280</v>
+      </c>
+      <c r="E103" s="122">
+        <v>43311</v>
+      </c>
+      <c r="F103" s="121">
+        <v>17200</v>
+      </c>
+      <c r="G103" s="121">
+        <v>31</v>
+      </c>
+      <c r="H103" s="121">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I103" s="121">
+        <v>0</v>
+      </c>
+      <c r="J103" s="121">
+        <v>0.33</v>
+      </c>
+      <c r="K103" s="121">
+        <v>-462.21215526919605</v>
+      </c>
+      <c r="L103" s="121"/>
+      <c r="M103" s="121">
+        <v>0</v>
+      </c>
+      <c r="N103" s="123">
+        <v>462.21215526919605</v>
+      </c>
+      <c r="O103" s="121">
+        <v>16780</v>
+      </c>
+      <c r="P103" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q103" s="121">
+        <v>-1</v>
+      </c>
+      <c r="R103" s="121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B104" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" s="121" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104" s="122">
+        <v>43280</v>
+      </c>
+      <c r="E104" s="122">
+        <v>43311</v>
+      </c>
+      <c r="F104" s="121">
+        <v>16780</v>
+      </c>
+      <c r="G104" s="121">
+        <v>31</v>
+      </c>
+      <c r="H104" s="121">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I104" s="121">
+        <v>0</v>
+      </c>
+      <c r="J104" s="121">
+        <v>0.33</v>
+      </c>
+      <c r="K104" s="121">
+        <v>-642.45887073404629</v>
+      </c>
+      <c r="L104" s="121"/>
+      <c r="M104" s="121">
+        <v>0</v>
+      </c>
+      <c r="N104" s="123">
+        <v>642.45887073404629</v>
+      </c>
+      <c r="O104" s="121">
+        <v>16780</v>
+      </c>
+      <c r="P104" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q104" s="121">
+        <v>-1</v>
+      </c>
+      <c r="R104" s="121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B105" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J105" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M105" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N105" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O105" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P105" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B106" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="121" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="122">
+        <v>43280</v>
+      </c>
+      <c r="E106" s="122">
+        <v>43311</v>
+      </c>
+      <c r="F106" s="121">
+        <v>100</v>
+      </c>
+      <c r="G106" s="121">
+        <v>31</v>
+      </c>
+      <c r="H106" s="121">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I106" s="121">
+        <v>0</v>
+      </c>
+      <c r="J106" s="121">
+        <v>0.24</v>
+      </c>
+      <c r="K106" s="121">
+        <v>2.785027571861697</v>
+      </c>
+      <c r="L106" s="121"/>
+      <c r="M106" s="121">
+        <v>0</v>
+      </c>
+      <c r="N106" s="123">
+        <v>2.785027571861697</v>
+      </c>
+      <c r="O106" s="121">
+        <v>100</v>
+      </c>
+      <c r="P106" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q106" s="121">
+        <v>1</v>
+      </c>
+      <c r="R106" s="121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B107" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" s="121" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="122">
+        <v>43280</v>
+      </c>
+      <c r="E107" s="122">
+        <v>43311</v>
+      </c>
+      <c r="F107" s="121">
+        <v>100</v>
+      </c>
+      <c r="G107" s="121">
+        <v>31</v>
+      </c>
+      <c r="H107" s="121">
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="I107" s="121">
+        <v>0</v>
+      </c>
+      <c r="J107" s="121">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="K107" s="121">
+        <v>-3.5388622989368201</v>
+      </c>
+      <c r="L107" s="121"/>
+      <c r="M107" s="121">
+        <v>0</v>
+      </c>
+      <c r="N107" s="123">
+        <v>3.5388622989368201</v>
+      </c>
+      <c r="O107" s="121">
+        <v>100</v>
+      </c>
+      <c r="P107" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q107" s="121">
+        <v>-1</v>
+      </c>
+      <c r="R107" s="121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B108" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J108" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N108" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O108" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P108" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q108" s="33"/>
+      <c r="R108" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B109" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" s="121" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="122">
+        <v>43280</v>
+      </c>
+      <c r="E109" s="122">
+        <v>43295</v>
+      </c>
+      <c r="F109" s="121">
+        <v>500</v>
+      </c>
+      <c r="G109" s="121">
+        <v>15</v>
+      </c>
+      <c r="H109" s="121">
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="I109" s="121">
+        <v>0</v>
+      </c>
+      <c r="J109" s="121">
+        <v>0.23</v>
+      </c>
+      <c r="K109" s="121">
+        <v>1.4216300906169153</v>
+      </c>
+      <c r="L109" s="121"/>
+      <c r="M109" s="121">
+        <v>0</v>
+      </c>
+      <c r="N109" s="123">
+        <v>1.4216300906169153</v>
+      </c>
+      <c r="O109" s="121">
+        <v>474</v>
+      </c>
+      <c r="P109" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q109" s="121">
+        <v>1</v>
+      </c>
+      <c r="R109" s="121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B111" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G111" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J111" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M111" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N111" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O111" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P111" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B112" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="121" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112" s="122">
+        <v>43280</v>
+      </c>
+      <c r="E112" s="122">
+        <v>43295</v>
+      </c>
+      <c r="F112" s="121">
+        <v>500</v>
+      </c>
+      <c r="G112" s="121">
+        <v>15</v>
+      </c>
+      <c r="H112" s="121">
+        <v>3.5616438356164383E-2</v>
+      </c>
+      <c r="I112" s="121">
+        <v>0</v>
+      </c>
+      <c r="J112" s="121">
+        <v>0.23</v>
+      </c>
+      <c r="K112" s="121">
+        <v>1.1128416413665505</v>
+      </c>
+      <c r="L112" s="121"/>
+      <c r="M112" s="121">
+        <v>0</v>
+      </c>
+      <c r="N112" s="123">
+        <v>1.1128416413665505</v>
+      </c>
+      <c r="O112" s="121">
+        <v>474</v>
+      </c>
+      <c r="P112" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q112" s="121">
+        <v>1</v>
+      </c>
+      <c r="R112" s="121" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -7492,11 +8014,11 @@
       </c>
       <c r="J8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="K8" s="21">
         <f ca="1">J8+L8</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="L8" s="19">
         <v>30</v>
@@ -7565,11 +8087,11 @@
       </c>
       <c r="J9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="K9" s="8">
         <f ca="1">J9+L9</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="L9" s="10">
         <v>30</v>
@@ -7635,11 +8157,11 @@
       </c>
       <c r="J10" s="8">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="K10" s="8">
         <f ca="1">J10+L10</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="L10" s="10">
         <v>30</v>
@@ -8880,7 +9402,7 @@
       <c r="H23" s="134"/>
       <c r="I23" s="140">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="J23" s="142"/>
       <c r="L23" s="134" t="s">
@@ -8889,7 +9411,7 @@
       <c r="M23" s="134"/>
       <c r="N23" s="140">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="O23" s="142"/>
       <c r="Q23" s="134" t="s">
@@ -8898,7 +9420,7 @@
       <c r="R23" s="134"/>
       <c r="S23" s="140">
         <f ca="1">TODAY()-1</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="T23" s="142"/>
       <c r="V23" s="134" t="s">
@@ -8907,7 +9429,7 @@
       <c r="W23" s="134"/>
       <c r="X23" s="140">
         <f ca="1">TODAY()-1</f>
-        <v>43278</v>
+        <v>43279</v>
       </c>
       <c r="Y23" s="142"/>
     </row>
@@ -11537,11 +12059,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11705,11 +12227,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ref="E8:E9" ca="1" si="0">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8" ca="1" si="1">E8+H8</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G8" s="10">
         <v>11500</v>
@@ -11729,7 +12251,7 @@
       </c>
       <c r="L8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-11.466656365867436</v>
+        <v>-11.670634496136529</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="13">
@@ -11738,11 +12260,11 @@
       </c>
       <c r="O8" s="13">
         <f>IF(L8&lt;=0,ABS(L8)+N8,L8-N8)</f>
-        <v>11.466656365867436</v>
+        <v>11.670634496136529</v>
       </c>
       <c r="P8" s="11">
         <f>RTD("wdf.rtq",,D8,"LastPrice")</f>
-        <v>14175</v>
+        <v>14165</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>85</v>
@@ -11756,15 +12278,15 @@
       </c>
       <c r="T8" s="14">
         <f t="shared" ref="T8" si="4">O8/P8</f>
-        <v>8.0893519335925482E-4</v>
+        <v>8.239064240124623E-4</v>
       </c>
       <c r="U8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>2.023265918467132E-2</v>
+        <v>2.0563764803682716E-2</v>
       </c>
       <c r="V8" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q8,$P8,$G8,$I8,$C$3,$J8,$K8,$C$4)*R8</f>
-        <v>-3.4631464449985288</v>
+        <v>-3.5084551220927978</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11780,11 +12302,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ref="F9" ca="1" si="5">E9+H9</f>
-        <v>43826.5</v>
+        <v>43827.5</v>
       </c>
       <c r="G9" s="10">
         <v>100</v>
@@ -11864,12 +12386,12 @@
         <v>254</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" ref="E15:E69" ca="1" si="9">TODAY()</f>
-        <v>43279</v>
+        <f t="shared" ref="E15:E77" ca="1" si="9">TODAY()</f>
+        <v>43280</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15" ca="1" si="10">E15+H15</f>
-        <v>43338</v>
+        <v>43339</v>
       </c>
       <c r="G15" s="11">
         <v>100</v>
@@ -11949,11 +12471,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ref="F16" ca="1" si="17">E16+H16</f>
-        <v>43338</v>
+        <v>43339</v>
       </c>
       <c r="G16" s="11">
         <v>100</v>
@@ -12033,11 +12555,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ref="F18:F23" ca="1" si="24">E18+H18</f>
-        <v>43330</v>
+        <v>43331</v>
       </c>
       <c r="G18" s="11">
         <v>13800</v>
@@ -12055,24 +12577,24 @@
       <c r="K18" s="116">
         <v>0.125</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>96.652838516547035</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M18" s="15">
         <v>30</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="13" t="e">
         <f t="shared" ref="N18:N23" si="26">M18/10000*I18*P18</f>
-        <v>5.9711917808219184</v>
-      </c>
-      <c r="O18" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O18" s="13" t="e">
         <f t="shared" ref="O18:O23" si="27">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>90.68164673572511</v>
-      </c>
-      <c r="P18" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P18" s="13" t="e">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>14245</v>
+        <v>#N/A</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>85</v>
@@ -12084,25 +12606,25 @@
       <c r="S18" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="14" t="e">
         <f t="shared" ref="T18:T23" si="29">O18/P18</f>
-        <v>6.3658579667058698E-3</v>
-      </c>
-      <c r="U18" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U18" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.2404792413699397</v>
-      </c>
-      <c r="V18" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V18" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>16.529426375171624</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W18" s="114"/>
       <c r="X18" s="115">
         <v>400</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="6" t="e">
         <f t="shared" ref="Y18:Y23" si="30">X18*U18</f>
-        <v>-96.19169654797588</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12118,11 +12640,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43366</v>
+        <v>43367</v>
       </c>
       <c r="G19" s="11">
         <v>13800</v>
@@ -12140,24 +12662,24 @@
       <c r="K19" s="116">
         <v>0.1225</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>135.62978805762623</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M19" s="15">
         <v>30</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="13" t="e">
         <f t="shared" si="26"/>
-        <v>10.243356164383561</v>
-      </c>
-      <c r="O19" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O19" s="13" t="e">
         <f t="shared" si="27"/>
-        <v>125.38643189324267</v>
-      </c>
-      <c r="P19" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P19" s="13" t="e">
         <f>RTD("wdf.rtq",,D19,"LastPrice")</f>
-        <v>14325</v>
+        <v>#N/A</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>85</v>
@@ -12169,25 +12691,25 @@
       <c r="S19" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="14" t="e">
         <f t="shared" si="29"/>
-        <v>8.7529795387952993E-3</v>
-      </c>
-      <c r="U19" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U19" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.25526848266963498</v>
-      </c>
-      <c r="V19" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V19" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>22.393227809884365</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W19" s="114"/>
       <c r="X19" s="115">
         <v>400</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="6" t="e">
         <f t="shared" si="30"/>
-        <v>-102.10739306785399</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12203,11 +12725,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43394</v>
+        <v>43395</v>
       </c>
       <c r="G20" s="11">
         <v>13800</v>
@@ -12225,24 +12747,24 @@
       <c r="K20" s="116">
         <v>0.12</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>143.08740504686511</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M20" s="15">
         <v>30</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="13" t="e">
         <f t="shared" si="26"/>
-        <v>13.023698630136986</v>
-      </c>
-      <c r="O20" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O20" s="13" t="e">
         <f t="shared" si="27"/>
-        <v>130.06370641672814</v>
-      </c>
-      <c r="P20" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P20" s="13" t="e">
         <f>RTD("wdf.rtq",,D20,"LastPrice")</f>
-        <v>14405</v>
+        <v>#N/A</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>85</v>
@@ -12254,25 +12776,25 @@
       <c r="S20" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="14" t="e">
         <f t="shared" si="29"/>
-        <v>9.0290667418763022E-3</v>
-      </c>
-      <c r="U20" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U20" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>-0.24542216390273097</v>
-      </c>
-      <c r="V20" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q20,$P20,$G20,$I20,$C$3,$J20,$K20,$C$4)*R20</f>
-        <v>24.781758100015622</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W20" s="114"/>
       <c r="X20" s="115">
         <v>400</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="Y20" s="6" t="e">
         <f t="shared" si="30"/>
-        <v>-98.168865561092389</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12288,11 +12810,11 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43330</v>
+        <v>43331</v>
       </c>
       <c r="G21" s="11">
         <v>14000</v>
@@ -12310,24 +12832,24 @@
       <c r="K21" s="116">
         <v>0.125</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>158.21908708071805</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M21" s="15">
         <v>30</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="13" t="e">
         <f t="shared" si="26"/>
-        <v>5.9711917808219184</v>
-      </c>
-      <c r="O21" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O21" s="13" t="e">
         <f t="shared" si="27"/>
-        <v>152.24789529989613</v>
-      </c>
-      <c r="P21" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P21" s="13" t="e">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>14245</v>
+        <v>#N/A</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>85</v>
@@ -12339,25 +12861,25 @@
       <c r="S21" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T21" s="14" t="e">
         <f t="shared" si="29"/>
-        <v>1.0687812937865646E-2</v>
-      </c>
-      <c r="U21" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U21" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.34558151323835773</v>
-      </c>
-      <c r="V21" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V21" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>19.588087830741188</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W21" s="114"/>
       <c r="X21" s="115">
         <v>400</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="6" t="e">
         <f t="shared" si="30"/>
-        <v>-138.23260529534309</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12373,11 +12895,11 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43366</v>
+        <v>43367</v>
       </c>
       <c r="G22" s="11">
         <v>14000</v>
@@ -12395,24 +12917,24 @@
       <c r="K22" s="116">
         <v>0.1225</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>198.97121584659635</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M22" s="15">
         <v>30</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="13" t="e">
         <f t="shared" si="26"/>
-        <v>10.243356164383561</v>
-      </c>
-      <c r="O22" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O22" s="13" t="e">
         <f t="shared" si="27"/>
-        <v>188.7278596822128</v>
-      </c>
-      <c r="P22" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P22" s="13" t="e">
         <f>RTD("wdf.rtq",,D22,"LastPrice")</f>
-        <v>14325</v>
+        <v>#N/A</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>85</v>
@@ -12424,25 +12946,25 @@
       <c r="S22" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T22" s="14" t="e">
         <f t="shared" si="29"/>
-        <v>1.3174719698583789E-2</v>
-      </c>
-      <c r="U22" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U22" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.3379604486781318</v>
-      </c>
-      <c r="V22" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V22" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>25.479616720072045</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W22" s="114"/>
       <c r="X22" s="115">
         <v>400</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="6" t="e">
         <f t="shared" si="30"/>
-        <v>-135.18417947125272</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12458,11 +12980,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>43394</v>
+        <v>43395</v>
       </c>
       <c r="G23" s="11">
         <v>14000</v>
@@ -12542,11 +13064,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" ca="1" si="32">E25+H25</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G25" s="11">
         <v>50000</v>
@@ -12627,11 +13149,11 @@
       </c>
       <c r="E27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ref="F27" ca="1" si="39">E27+H27</f>
-        <v>43329</v>
+        <v>43330</v>
       </c>
       <c r="G27" s="11">
         <v>19000</v>
@@ -12649,24 +13171,24 @@
       <c r="K27" s="116">
         <v>0.125</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>43.280412010654118</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M27" s="15">
         <v>30</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="13" t="e">
         <f t="shared" ref="N27" si="41">M27/10000*I27*P27</f>
-        <v>8.2828767123287665</v>
-      </c>
-      <c r="O27" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O27" s="13" t="e">
         <f t="shared" ref="O27" si="42">IF(L27&lt;=0,ABS(L27)+N27,L27-N27)</f>
-        <v>34.997535298325353</v>
-      </c>
-      <c r="P27" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P27" s="11" t="e">
         <f>RTD("wdf.rtq",,D27,"LastPrice")</f>
-        <v>20155</v>
+        <v>#N/A</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>85</v>
@@ -12678,25 +13200,25 @@
       <c r="S27" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T27" s="14" t="e">
         <f t="shared" ref="T27" si="44">O27/P27</f>
-        <v>1.7364195136852073E-3</v>
-      </c>
-      <c r="U27" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-9.6758669781138451E-2</v>
-      </c>
-      <c r="V27" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>12.73989925474541</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W27" s="114"/>
       <c r="X27" s="115">
         <v>400</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Y27" s="6" t="e">
         <f t="shared" ref="Y27" si="45">X27*U27</f>
-        <v>-38.70346791245538</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12712,11 +13234,11 @@
       </c>
       <c r="E29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ref="F29" ca="1" si="46">E29+H29</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G29" s="11">
         <v>11500</v>
@@ -12734,24 +13256,24 @@
       <c r="K29" s="116">
         <v>0.24</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-17.866252603439648</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M29" s="15">
         <v>0</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="13" t="e">
         <f t="shared" ref="N29" si="48">M29/10000*I29*P29</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O29" s="13" t="e">
         <f t="shared" ref="O29" si="49">IF(L29&lt;=0,ABS(L29)+N29,L29-N29)</f>
-        <v>17.866252603439648</v>
-      </c>
-      <c r="P29" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P29" s="11" t="e">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>14405</v>
+        <v>#N/A</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>85</v>
@@ -12763,25 +13285,25 @@
       <c r="S29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="14">
+      <c r="T29" s="14" t="e">
         <f t="shared" ref="T29" si="51">O29/P29</f>
-        <v>1.2402813331093127E-3</v>
-      </c>
-      <c r="U29" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U29" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>2.6096064635794392E-2</v>
-      </c>
-      <c r="V29" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V29" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-4.3563056002024609</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W29" s="114"/>
       <c r="X29" s="115">
         <v>400</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Y29" s="6" t="e">
         <f t="shared" ref="Y29" si="52">X29*U29</f>
-        <v>10.438425854317757</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12797,11 +13319,11 @@
       </c>
       <c r="E31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" ref="F31:F32" ca="1" si="53">E31+H31</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G31" s="11">
         <v>14000</v>
@@ -12819,24 +13341,24 @@
       <c r="K31" s="116">
         <v>0.19</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-357.11900377341863</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M31" s="15">
         <v>0</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="13" t="e">
         <f t="shared" ref="N31:N32" si="55">M31/10000*I31*P31</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O31" s="13" t="e">
         <f t="shared" ref="O31:O32" si="56">IF(L31&lt;=0,ABS(L31)+N31,L31-N31)</f>
-        <v>357.11900377341863</v>
-      </c>
-      <c r="P31" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P31" s="11" t="e">
         <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
-        <v>14405</v>
+        <v>#N/A</v>
       </c>
       <c r="Q31" s="10" t="s">
         <v>85</v>
@@ -12848,25 +13370,25 @@
       <c r="S31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="14">
+      <c r="T31" s="14" t="e">
         <f t="shared" ref="T31:T32" si="58">O31/P31</f>
-        <v>2.4791322719432046E-2</v>
-      </c>
-      <c r="U31" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U31" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>0.36209622994647361</v>
-      </c>
-      <c r="V31" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V31" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q31,$P31,$G31,$I31,$C$3,$J31,$K31,$C$4)*R31</f>
-        <v>-26.870498043104817</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W31" s="114"/>
       <c r="X31" s="115">
         <v>400</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="6" t="e">
         <f t="shared" ref="Y31:Y32" si="59">X31*U31</f>
-        <v>144.83849197858945</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12882,11 +13404,11 @@
       </c>
       <c r="E32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="53"/>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G32" s="11">
         <v>13500</v>
@@ -12904,24 +13426,24 @@
       <c r="K32" s="116">
         <v>0.19500000000000001</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-204.12178885100639</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M32" s="15">
         <v>0</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="13" t="e">
         <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O32" s="13" t="e">
         <f t="shared" si="56"/>
-        <v>204.12178885100639</v>
-      </c>
-      <c r="P32" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P32" s="11" t="e">
         <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
-        <v>14405</v>
+        <v>#N/A</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>85</v>
@@ -12933,25 +13455,25 @@
       <c r="S32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T32" s="14">
+      <c r="T32" s="14" t="e">
         <f t="shared" si="58"/>
-        <v>1.4170204016036542E-2</v>
-      </c>
-      <c r="U32" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U32" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>0.23609625986864557</v>
-      </c>
-      <c r="V32" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V32" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-22.099143585603997</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W32" s="114"/>
       <c r="X32" s="115">
         <v>400</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y32" s="6" t="e">
         <f t="shared" si="59"/>
-        <v>94.43850394745823</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12967,11 +13489,11 @@
       </c>
       <c r="E34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" ref="F34" ca="1" si="60">E34+H34</f>
-        <v>43329</v>
+        <v>43330</v>
       </c>
       <c r="G34" s="11">
         <v>480</v>
@@ -12991,7 +13513,7 @@
       </c>
       <c r="L34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>27.061014023614575</v>
+        <v>23.490789219499533</v>
       </c>
       <c r="M34" s="15">
         <v>0</v>
@@ -13002,11 +13524,11 @@
       </c>
       <c r="O34" s="13">
         <f t="shared" ref="O34" si="63">IF(L34&lt;=0,ABS(L34)+N34,L34-N34)</f>
-        <v>27.061014023614575</v>
+        <v>23.490789219499533</v>
       </c>
       <c r="P34" s="11">
         <f>RTD("wdf.rtq",,D34,"LastPrice")</f>
-        <v>467.5</v>
+        <v>474</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>85</v>
@@ -13020,15 +13542,15 @@
       </c>
       <c r="T34" s="14">
         <f t="shared" ref="T34" si="65">O34/P34</f>
-        <v>5.7884521975646148E-2</v>
+        <v>4.9558627045357663E-2</v>
       </c>
       <c r="U34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>-0.57461953660435938</v>
+        <v>-0.52388896706787591</v>
       </c>
       <c r="V34" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q34,$P34,$G34,$I34,$C$3,$J34,$K34,$C$4)*R34</f>
-        <v>0.67578042898614399</v>
+        <v>0.69655758717428284</v>
       </c>
       <c r="W34" s="114"/>
       <c r="X34" s="115">
@@ -13036,7 +13558,7 @@
       </c>
       <c r="Y34" s="6">
         <f t="shared" ref="Y34" si="66">X34*U34</f>
-        <v>-229.84781464174375</v>
+        <v>-209.55558682715036</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13052,15 +13574,15 @@
       </c>
       <c r="E35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" ref="F35:F36" ca="1" si="67">E35+H35</f>
-        <v>43461</v>
-      </c>
-      <c r="G35" s="11">
+        <v>43462</v>
+      </c>
+      <c r="G35" s="11" t="e">
         <f>P35</f>
-        <v>12220</v>
+        <v>#N/A</v>
       </c>
       <c r="H35" s="10">
         <v>182</v>
@@ -13075,24 +13597,24 @@
       <c r="K35" s="116">
         <v>0.32</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>1088.3442694644309</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M35" s="15">
         <v>0</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="13" t="e">
         <f t="shared" ref="N35:N36" si="69">M35/10000*I35*P35</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O35" s="13" t="e">
         <f t="shared" ref="O35:O36" si="70">IF(L35&lt;=0,ABS(L35)+N35,L35-N35)</f>
-        <v>1088.3442694644309</v>
-      </c>
-      <c r="P35" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P35" s="11" t="e">
         <f>RTD("wdf.rtq",,D35,"LastPrice")</f>
-        <v>12220</v>
+        <v>#N/A</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>85</v>
@@ -13104,25 +13626,25 @@
       <c r="S35" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T35" s="14">
+      <c r="T35" s="14" t="e">
         <f t="shared" ref="T35:T36" si="72">O35/P35</f>
-        <v>8.9062542509364226E-2</v>
-      </c>
-      <c r="U35" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U35" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>-0.4505072081428807</v>
-      </c>
-      <c r="V35" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V35" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q35,$P35,$G35,$I35,$C$3,$J35,$K35,$C$4)*R35</f>
-        <v>33.866220110768154</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W35" s="114"/>
       <c r="X35" s="115">
         <v>400</v>
       </c>
-      <c r="Y35" s="6">
+      <c r="Y35" s="6" t="e">
         <f t="shared" ref="Y35:Y36" si="73">X35*U35</f>
-        <v>-180.20288325715228</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13138,15 +13660,15 @@
       </c>
       <c r="E36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ca="1" si="67"/>
-        <v>43461</v>
-      </c>
-      <c r="G36" s="11">
+        <v>43462</v>
+      </c>
+      <c r="G36" s="11" t="e">
         <f>P36</f>
-        <v>12220</v>
+        <v>#N/A</v>
       </c>
       <c r="H36" s="10">
         <v>182</v>
@@ -13161,24 +13683,24 @@
       <c r="K36" s="116">
         <v>0.24</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>817.01729886479188</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M36" s="15">
         <v>0</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="13" t="e">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O36" s="13" t="e">
         <f t="shared" si="70"/>
-        <v>817.01729886479188</v>
-      </c>
-      <c r="P36" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P36" s="11" t="e">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>12220</v>
+        <v>#N/A</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>85</v>
@@ -13190,25 +13712,25 @@
       <c r="S36" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T36" s="14">
+      <c r="T36" s="14" t="e">
         <f t="shared" si="72"/>
-        <v>6.6859026093681828E-2</v>
-      </c>
-      <c r="U36" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U36" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.46160896631590731</v>
-      </c>
-      <c r="V36" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V36" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>33.960917489501753</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W36" s="114"/>
       <c r="X36" s="115">
         <v>400</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Y36" s="6" t="e">
         <f t="shared" si="73"/>
-        <v>-184.64358652636292</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13224,11 +13746,11 @@
       </c>
       <c r="E38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" ref="F38" ca="1" si="74">E38+H38</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="G38" s="11">
         <v>430</v>
@@ -13308,11 +13830,11 @@
       </c>
       <c r="E39" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" ref="F39" ca="1" si="81">E39+H39</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="G39" s="11">
         <v>480</v>
@@ -13392,11 +13914,11 @@
       </c>
       <c r="E41" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" ref="F41" ca="1" si="88">E41+H41</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G41" s="11">
         <v>495</v>
@@ -13476,11 +13998,11 @@
       </c>
       <c r="E43" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" ref="F43" ca="1" si="95">E43+H43</f>
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="G43" s="11">
         <v>430</v>
@@ -13560,11 +14082,11 @@
       </c>
       <c r="E45" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" ref="F45" ca="1" si="101">E45+H45</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G45" s="120">
         <v>14170</v>
@@ -13644,11 +14166,11 @@
       </c>
       <c r="E47" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" ref="F47" ca="1" si="106">E47+H47</f>
-        <v>43310</v>
+        <v>43311</v>
       </c>
       <c r="G47" s="120">
         <v>3078</v>
@@ -13666,24 +14188,24 @@
       <c r="K47" s="116">
         <v>0.19470000000000001</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>122.99464855667566</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M47" s="15">
         <v>30</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N47" s="13" t="e">
         <f t="shared" ref="N47" si="108">M47/10000*I47*P47</f>
-        <v>0.80667945205479452</v>
-      </c>
-      <c r="O47" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O47" s="13" t="e">
         <f t="shared" ref="O47" si="109">IF(L47&lt;=0,ABS(L47)+N47,L47-N47)</f>
-        <v>122.18796910462086</v>
-      </c>
-      <c r="P47" s="120">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P47" s="120" t="e">
         <f>RTD("wdf.rtq",,D47,"LastPrice")</f>
-        <v>3166</v>
+        <v>#N/A</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>275</v>
@@ -13695,25 +14217,25 @@
       <c r="S47" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="14" t="e">
         <f t="shared" ref="T47" si="111">O47/P47</f>
-        <v>3.8593799464504377E-2</v>
-      </c>
-      <c r="U47" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U47" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>0.69907789663830044</v>
-      </c>
-      <c r="V47" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V47" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q47,$P47,$G47,$I47,$C$3,$J47,$K47,$C$4)*R47</f>
-        <v>3.2003551716393304</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W47" s="114"/>
       <c r="X47" s="115">
         <v>500</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="Y47" s="6" t="e">
         <f>X47*U47</f>
-        <v>349.53894831915022</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13729,11 +14251,11 @@
       </c>
       <c r="E48" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" ref="F48" ca="1" si="112">E48+H48</f>
-        <v>43310</v>
+        <v>43311</v>
       </c>
       <c r="G48" s="120">
         <v>3150</v>
@@ -13813,11 +14335,11 @@
       </c>
       <c r="E50" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" ref="F50:F52" ca="1" si="118">E50+H50</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G50" s="120">
         <v>3300</v>
@@ -13837,7 +14359,7 @@
       </c>
       <c r="L50" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
-        <v>1.613054168327551</v>
+        <v>0.75576583936688735</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="13">
@@ -13846,11 +14368,11 @@
       </c>
       <c r="O50" s="13">
         <f t="shared" ref="O50:O52" si="121">IF(L50&lt;=0,ABS(L50)+N50,L50-N50)</f>
-        <v>1.613054168327551</v>
+        <v>0.75576583936688735</v>
       </c>
       <c r="P50" s="11">
         <f>RTD("wdf.rtq",,D50,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q50" s="10" t="s">
         <v>85</v>
@@ -13864,15 +14386,15 @@
       </c>
       <c r="T50" s="14">
         <f t="shared" ref="T50:T52" si="123">O50/P50</f>
-        <v>4.3083711760885445E-4</v>
+        <v>1.9852005236850205E-4</v>
       </c>
       <c r="U50" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
-        <v>-1.8788852883488971E-2</v>
+        <v>-9.3843693427686503E-3</v>
       </c>
       <c r="V50" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q50,$P50,$G50,$I50,$C$3,$J50,$K50,$C$4)*R50</f>
-        <v>0.49361026061113478</v>
+        <v>0.27638824135849305</v>
       </c>
       <c r="W50" s="114"/>
       <c r="X50" s="115">
@@ -13880,7 +14402,7 @@
       </c>
       <c r="Y50" s="6">
         <f t="shared" ref="Y50:Y55" si="124">X50*U50</f>
-        <v>-9.3944264417444856</v>
+        <v>-4.6921846713843252</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13896,11 +14418,11 @@
       </c>
       <c r="E51" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" ca="1" si="118"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G51" s="120">
         <v>3400</v>
@@ -13920,7 +14442,7 @@
       </c>
       <c r="L51" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
-        <v>5.5551704400808433</v>
+        <v>2.8964363780912379</v>
       </c>
       <c r="M51" s="15"/>
       <c r="N51" s="13">
@@ -13929,11 +14451,11 @@
       </c>
       <c r="O51" s="13">
         <f t="shared" si="121"/>
-        <v>5.5551704400808433</v>
+        <v>2.8964363780912379</v>
       </c>
       <c r="P51" s="11">
         <f>RTD("wdf.rtq",,D51,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q51" s="10" t="s">
         <v>85</v>
@@ -13947,15 +14469,15 @@
       </c>
       <c r="T51" s="14">
         <f t="shared" si="123"/>
-        <v>1.4837527884831313E-3</v>
+        <v>7.6081859156586229E-4</v>
       </c>
       <c r="U51" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
-        <v>-5.5328169801782678E-2</v>
+        <v>-3.1028577133440649E-2</v>
       </c>
       <c r="V51" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q51,$P51,$G51,$I51,$C$3,$J51,$K51,$C$4)*R51</f>
-        <v>1.1986614439441468</v>
+        <v>0.76378435204346573</v>
       </c>
       <c r="W51" s="114"/>
       <c r="X51" s="115">
@@ -13963,7 +14485,7 @@
       </c>
       <c r="Y51" s="6">
         <f t="shared" si="124"/>
-        <v>-27.664084900891339</v>
+        <v>-15.514288566720325</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -13979,11 +14501,11 @@
       </c>
       <c r="E52" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" ca="1" si="118"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G52" s="120">
         <v>3500</v>
@@ -14003,7 +14525,7 @@
       </c>
       <c r="L52" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
-        <v>15.483517969645277</v>
+        <v>8.9078436381714141</v>
       </c>
       <c r="M52" s="15"/>
       <c r="N52" s="13">
@@ -14012,11 +14534,11 @@
       </c>
       <c r="O52" s="13">
         <f t="shared" si="121"/>
-        <v>15.483517969645277</v>
+        <v>8.9078436381714141</v>
       </c>
       <c r="P52" s="11">
         <f>RTD("wdf.rtq",,D52,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q52" s="10" t="s">
         <v>85</v>
@@ -14030,15 +14552,15 @@
       </c>
       <c r="T52" s="14">
         <f t="shared" si="123"/>
-        <v>4.1355550132599565E-3</v>
+        <v>2.3398591116814854E-3</v>
       </c>
       <c r="U52" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
-        <v>-0.13025959477772631</v>
+        <v>-8.1392749220299265E-2</v>
       </c>
       <c r="V52" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q52,$P52,$G52,$I52,$C$3,$J52,$K52,$C$4)*R52</f>
-        <v>2.270880046787056</v>
+        <v>1.6419597488853128</v>
       </c>
       <c r="W52" s="114"/>
       <c r="X52" s="115">
@@ -14046,7 +14568,7 @@
       </c>
       <c r="Y52" s="6">
         <f t="shared" si="124"/>
-        <v>-65.129797388863153</v>
+        <v>-40.696374610149633</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14062,11 +14584,11 @@
       </c>
       <c r="E53" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" ref="F53:F55" ca="1" si="125">E53+H53</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G53" s="120">
         <v>3100</v>
@@ -14086,7 +14608,7 @@
       </c>
       <c r="L53" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
-        <v>6.3199673857654375</v>
+        <v>4.3364161641222125</v>
       </c>
       <c r="M53" s="15"/>
       <c r="N53" s="13">
@@ -14095,11 +14617,11 @@
       </c>
       <c r="O53" s="13">
         <f t="shared" ref="O53:O55" si="128">IF(L53&lt;=0,ABS(L53)+N53,L53-N53)</f>
-        <v>6.3199673857654375</v>
+        <v>4.3364161641222125</v>
       </c>
       <c r="P53" s="11">
         <f>RTD("wdf.rtq",,D53,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q53" s="10" t="s">
         <v>85</v>
@@ -14113,15 +14635,15 @@
       </c>
       <c r="T53" s="14">
         <f t="shared" ref="T53:T55" si="130">O53/P53</f>
-        <v>1.6880254769672642E-3</v>
+        <v>1.1390638728978756E-3</v>
       </c>
       <c r="U53" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
-        <v>-3.7156009115335564E-2</v>
+        <v>-2.6353971825443523E-2</v>
       </c>
       <c r="V53" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q53,$P53,$G53,$I53,$C$3,$J53,$K53,$C$4)*R53</f>
-        <v>1.5072415140623221</v>
+        <v>1.1545429684595447</v>
       </c>
       <c r="W53" s="114"/>
       <c r="X53" s="115">
@@ -14129,7 +14651,7 @@
       </c>
       <c r="Y53" s="6">
         <f t="shared" si="124"/>
-        <v>-18.578004557667782</v>
+        <v>-13.176985912721761</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14145,11 +14667,11 @@
       </c>
       <c r="E54" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F54" s="8">
         <f t="shared" ca="1" si="125"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G54" s="120">
         <v>3300</v>
@@ -14169,7 +14691,7 @@
       </c>
       <c r="L54" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
-        <v>23.444722970308931</v>
+        <v>17.218669929523742</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="13">
@@ -14178,11 +14700,11 @@
       </c>
       <c r="O54" s="13">
         <f t="shared" si="128"/>
-        <v>23.444722970308931</v>
+        <v>17.218669929523742</v>
       </c>
       <c r="P54" s="11">
         <f>RTD("wdf.rtq",,D54,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q54" s="10" t="s">
         <v>85</v>
@@ -14196,15 +14718,15 @@
       </c>
       <c r="T54" s="14">
         <f t="shared" si="130"/>
-        <v>6.2619452377961887E-3</v>
+        <v>4.5228972759452958E-3</v>
       </c>
       <c r="U54" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
-        <v>-0.1125584057405149</v>
+        <v>-8.603526722481547E-2</v>
       </c>
       <c r="V54" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q54,$P54,$G54,$I54,$C$3,$J54,$K54,$C$4)*R54</f>
-        <v>3.5461116042319247</v>
+        <v>2.9624970878289503</v>
       </c>
       <c r="W54" s="114"/>
       <c r="X54" s="115">
@@ -14212,7 +14734,7 @@
       </c>
       <c r="Y54" s="6">
         <f t="shared" si="124"/>
-        <v>-56.27920287025745</v>
+        <v>-43.017633612407735</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -14228,11 +14750,11 @@
       </c>
       <c r="E55" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" ca="1" si="125"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G55" s="120">
         <v>3500</v>
@@ -14252,7 +14774,7 @@
       </c>
       <c r="L55" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
-        <v>64.518180981743058</v>
+        <v>50.26125361490142</v>
       </c>
       <c r="M55" s="15"/>
       <c r="N55" s="13">
@@ -14261,11 +14783,11 @@
       </c>
       <c r="O55" s="13">
         <f t="shared" si="128"/>
-        <v>64.518180981743058</v>
+        <v>50.26125361490142</v>
       </c>
       <c r="P55" s="11">
         <f>RTD("wdf.rtq",,D55,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q55" s="10" t="s">
         <v>85</v>
@@ -14279,15 +14801,15 @@
       </c>
       <c r="T55" s="14">
         <f t="shared" si="130"/>
-        <v>1.723242013401257E-2</v>
+        <v>1.3202325614631315E-2</v>
       </c>
       <c r="U55" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
-        <v>-0.24971249934537809</v>
+        <v>-0.20388746714843364</v>
       </c>
       <c r="V55" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q55,$P55,$G55,$I55,$C$3,$J55,$K55,$C$4)*R55</f>
-        <v>5.8885839548016179</v>
+        <v>5.3404773813826978</v>
       </c>
       <c r="W55" s="114"/>
       <c r="X55" s="115">
@@ -14295,7 +14817,7 @@
       </c>
       <c r="Y55" s="6">
         <f t="shared" si="124"/>
-        <v>-124.85624967268905</v>
+        <v>-101.94373357421682</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.15">
@@ -14318,11 +14840,11 @@
       </c>
       <c r="E57" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F57" s="8">
         <f t="shared" ref="F57" ca="1" si="131">E57+H57</f>
-        <v>43310</v>
+        <v>43311</v>
       </c>
       <c r="G57" s="120">
         <v>49500</v>
@@ -14402,15 +14924,15 @@
       </c>
       <c r="E58" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F58" s="8">
         <f t="shared" ref="F58:F59" ca="1" si="137">E58+H58</f>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="G58" s="120">
         <f>P58</f>
-        <v>9483</v>
+        <v>9684</v>
       </c>
       <c r="H58" s="10">
         <v>61</v>
@@ -14427,7 +14949,7 @@
       </c>
       <c r="L58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>-585.15344395681677</v>
+        <v>-597.55625343011798</v>
       </c>
       <c r="M58" s="15"/>
       <c r="N58" s="13">
@@ -14436,11 +14958,11 @@
       </c>
       <c r="O58" s="13">
         <f t="shared" ref="O58:O59" si="140">IF(L58&lt;=0,ABS(L58)+N58,L58-N58)</f>
-        <v>585.15344395681677</v>
+        <v>597.55625343011798</v>
       </c>
       <c r="P58" s="11">
         <f>RTD("wdf.rtq",,D58,"LastPrice")</f>
-        <v>9483</v>
+        <v>9684</v>
       </c>
       <c r="Q58" s="10" t="s">
         <v>283</v>
@@ -14454,15 +14976,15 @@
       </c>
       <c r="T58" s="14">
         <f t="shared" ref="T58:T59" si="142">O58/P58</f>
-        <v>6.1705519767670226E-2</v>
+        <v>6.1705519767670178E-2</v>
       </c>
       <c r="U58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>-0.52918431697435153</v>
+        <v>-0.52918431688340206</v>
       </c>
       <c r="V58" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q58,$P58,$G58,$I58,$C$3,$J58,$K58,$C$4)*R58</f>
-        <v>-15.36782139842262</v>
+        <v>-15.693555037680653</v>
       </c>
       <c r="W58" s="114"/>
       <c r="X58" s="115">
@@ -14470,7 +14992,7 @@
       </c>
       <c r="Y58" s="6">
         <f>X58*U58</f>
-        <v>-264.59215848717577</v>
+        <v>-264.59215844170103</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.15">
@@ -14488,15 +15010,15 @@
       </c>
       <c r="E59" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F59" s="8">
         <f t="shared" ca="1" si="137"/>
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="G59" s="120">
         <f>P59</f>
-        <v>10227</v>
+        <v>10472</v>
       </c>
       <c r="H59" s="10">
         <v>61</v>
@@ -14513,7 +15035,7 @@
       </c>
       <c r="L59" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q59,$P59,$G59,$I59,$C$3,$J59,$K59,$C$4)*R59</f>
-        <v>-631.06235066396312</v>
+        <v>-646.18020300704211</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="13">
@@ -14522,11 +15044,11 @@
       </c>
       <c r="O59" s="13">
         <f t="shared" si="140"/>
-        <v>631.06235066396312</v>
+        <v>646.18020300704211</v>
       </c>
       <c r="P59" s="11">
         <f>RTD("wdf.rtq",,D59,"LastPrice")</f>
-        <v>10227</v>
+        <v>10472</v>
       </c>
       <c r="Q59" s="10" t="s">
         <v>283</v>
@@ -14540,7 +15062,7 @@
       </c>
       <c r="T59" s="14">
         <f t="shared" si="142"/>
-        <v>6.1705519767670199E-2</v>
+        <v>6.1705519767670178E-2</v>
       </c>
       <c r="U59" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q59,$P59,$G59,$I59,$C$3,$J59,$K59,$C$4)*R59</f>
@@ -14548,7 +15070,7 @@
       </c>
       <c r="V59" s="13">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q59,$P59,$G59,$I59,$C$3,$J59,$K59,$C$4)*R59</f>
-        <v>-16.57352203328719</v>
+        <v>-16.970560548801132</v>
       </c>
       <c r="W59" s="114"/>
       <c r="X59" s="115">
@@ -14574,11 +15096,11 @@
       </c>
       <c r="E61" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F61" s="8">
         <f t="shared" ref="F61" ca="1" si="143">E61+H61</f>
-        <v>43361</v>
+        <v>43362</v>
       </c>
       <c r="G61" s="120">
         <v>14280</v>
@@ -14596,22 +15118,22 @@
       <c r="K61" s="116">
         <v>0.18</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L61" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
-        <v>-462.40574123717488</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M61" s="15"/>
-      <c r="N61" s="13">
+      <c r="N61" s="13" t="e">
         <f t="shared" ref="N61" si="145">M61/10000*I61*P61</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="13">
+        <v>#N/A</v>
+      </c>
+      <c r="O61" s="13" t="e">
         <f t="shared" ref="O61" si="146">IF(L61&lt;=0,ABS(L61)+N61,L61-N61)</f>
-        <v>462.40574123717488</v>
-      </c>
-      <c r="P61" s="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P61" s="11" t="e">
         <f>RTD("wdf.rtq",,D61,"LastPrice")</f>
-        <v>14325</v>
+        <v>#N/A</v>
       </c>
       <c r="Q61" s="10" t="s">
         <v>85</v>
@@ -14623,25 +15145,25 @@
       <c r="S61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="14">
+      <c r="T61" s="14" t="e">
         <f t="shared" ref="T61" si="148">O61/P61</f>
-        <v>3.2279632896137861E-2</v>
-      </c>
-      <c r="U61" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U61" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
-        <v>0.46620359626103891</v>
-      </c>
-      <c r="V61" s="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V61" s="13" t="e">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q61,$P61,$G61,$I61,$C$3,$J61,$K61,$C$4)*R61</f>
-        <v>-26.88059272765031</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W61" s="114"/>
       <c r="X61" s="115">
         <v>500</v>
       </c>
-      <c r="Y61" s="6">
+      <c r="Y61" s="6" t="e">
         <f>X61*U61</f>
-        <v>233.10179813051946</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.15">
@@ -14659,11 +15181,11 @@
       </c>
       <c r="E63" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" ref="F63" ca="1" si="149">E63+H63</f>
-        <v>43341</v>
+        <v>43342</v>
       </c>
       <c r="G63" s="120">
         <v>62.9</v>
@@ -14743,11 +15265,11 @@
       </c>
       <c r="E65" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F65" s="8">
         <f t="shared" ref="F65" ca="1" si="154">E65+H65</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G65" s="120">
         <v>9295</v>
@@ -14829,11 +15351,11 @@
       </c>
       <c r="E66" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F66" s="8">
         <f t="shared" ref="F66" ca="1" si="159">E66+H66</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G66" s="120">
         <v>9295</v>
@@ -14924,11 +15446,11 @@
       </c>
       <c r="E68" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F68" s="8">
         <f t="shared" ref="F68:F69" ca="1" si="164">E68+H68</f>
-        <v>43351</v>
+        <v>43352</v>
       </c>
       <c r="G68" s="120">
         <v>470</v>
@@ -15008,11 +15530,11 @@
       </c>
       <c r="E69" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F69" s="8">
         <f t="shared" ca="1" si="164"/>
-        <v>43351</v>
+        <v>43352</v>
       </c>
       <c r="G69" s="120">
         <v>470</v>
@@ -15075,6 +15597,430 @@
       <c r="Y69" s="6">
         <f>X69*U69</f>
         <v>-70962.251240326048</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A71" s="131">
+        <v>43280</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E71" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43280</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" ref="F71:F72" ca="1" si="169">E71+H71</f>
+        <v>43311</v>
+      </c>
+      <c r="G71" s="120">
+        <v>17200</v>
+      </c>
+      <c r="H71" s="10">
+        <v>31</v>
+      </c>
+      <c r="I71" s="12">
+        <f t="shared" ref="I71:I72" si="170">H71/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J71" s="12">
+        <v>0</v>
+      </c>
+      <c r="K71" s="116">
+        <v>0.33</v>
+      </c>
+      <c r="L71" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q71,$P71,$G71,$I71,$C$3,$J71,$K71,$C$4)*R71</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M71" s="15"/>
+      <c r="N71" s="13" t="e">
+        <f t="shared" ref="N71:N72" si="171">M71/10000*I71*P71</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O71" s="13" t="e">
+        <f>IF(L71&lt;=0,ABS(L71)+N71,L71-N71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P71" s="11" t="e">
+        <f>RTD("wdf.rtq",,D71,"LastPrice")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R71" s="10">
+        <f t="shared" ref="R71:R72" si="172">IF(S71="中金买入",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T71" s="14" t="e">
+        <f t="shared" ref="T71:T72" si="173">O71/P71</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U71" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q71,$P71,$G71,$I71,$C$3,$J71,$K71,$C$4)*R71</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V71" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q71,$P71,$G71,$I71,$C$3,$J71,$K71,$C$4)*R71</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W71" s="114"/>
+      <c r="X71" s="115">
+        <v>-150338.07269999999</v>
+      </c>
+      <c r="Y71" s="6" t="e">
+        <f>X71*U71</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A72" s="131">
+        <v>43280</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43280</v>
+      </c>
+      <c r="F72" s="8">
+        <f t="shared" ca="1" si="169"/>
+        <v>43311</v>
+      </c>
+      <c r="G72" s="120" t="e">
+        <f>P72</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H72" s="10">
+        <v>31</v>
+      </c>
+      <c r="I72" s="12">
+        <f t="shared" si="170"/>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J72" s="12">
+        <v>0</v>
+      </c>
+      <c r="K72" s="116">
+        <v>0.33</v>
+      </c>
+      <c r="L72" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q72,$P72,$G72,$I72,$C$3,$J72,$K72,$C$4)*R72</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M72" s="15"/>
+      <c r="N72" s="13" t="e">
+        <f t="shared" si="171"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O72" s="13" t="e">
+        <f>IF(L72&lt;=0,ABS(L72)+N72,L72-N72)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P72" s="11" t="e">
+        <f>RTD("wdf.rtq",,D72,"LastPrice")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R72" s="10">
+        <f t="shared" si="172"/>
+        <v>-1</v>
+      </c>
+      <c r="S72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T72" s="14" t="e">
+        <f t="shared" si="173"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U72" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q72,$P72,$G72,$I72,$C$3,$J72,$K72,$C$4)*R72</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V72" s="13" t="e">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q72,$P72,$G72,$I72,$C$3,$J72,$K72,$C$4)*R72</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W72" s="114"/>
+      <c r="X72" s="115">
+        <v>-150338.07269999999</v>
+      </c>
+      <c r="Y72" s="6" t="e">
+        <f>X72*U72</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A74" s="131">
+        <v>43280</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43280</v>
+      </c>
+      <c r="F74" s="8">
+        <f t="shared" ref="F74:F75" ca="1" si="174">E74+H74</f>
+        <v>43311</v>
+      </c>
+      <c r="G74" s="120">
+        <v>100</v>
+      </c>
+      <c r="H74" s="10">
+        <v>31</v>
+      </c>
+      <c r="I74" s="12">
+        <f t="shared" ref="I74:I75" si="175">H74/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+      <c r="K74" s="116">
+        <v>0.24</v>
+      </c>
+      <c r="L74" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q74,$P74,$G74,$I74,$C$3,$J74,$K74,$C$4)*R74</f>
+        <v>2.785027571861697</v>
+      </c>
+      <c r="M74" s="15"/>
+      <c r="N74" s="13">
+        <f t="shared" ref="N74:N75" si="176">M74/10000*I74*P74</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="13">
+        <f>IF(L74&lt;=0,ABS(L74)+N74,L74-N74)</f>
+        <v>2.785027571861697</v>
+      </c>
+      <c r="P74" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q74" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R74" s="10">
+        <f t="shared" ref="R74:R75" si="177">IF(S74="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S74" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T74" s="14">
+        <f t="shared" ref="T74:T75" si="178">O74/P74</f>
+        <v>2.7850275718616969E-2</v>
+      </c>
+      <c r="U74" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q74,$P74,$G74,$I74,$C$3,$J74,$K74,$C$4)*R74</f>
+        <v>0.51307652949219573</v>
+      </c>
+      <c r="V74" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q74,$P74,$G74,$I74,$C$3,$J74,$K74,$C$4)*R74</f>
+        <v>0.11599547489203843</v>
+      </c>
+      <c r="W74" s="114"/>
+      <c r="X74" s="115">
+        <v>-150338.07269999999</v>
+      </c>
+      <c r="Y74" s="6">
+        <f>X74*U74</f>
+        <v>-77134.936591461417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A75" s="131">
+        <v>43280</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43280</v>
+      </c>
+      <c r="F75" s="8">
+        <f t="shared" ca="1" si="174"/>
+        <v>43311</v>
+      </c>
+      <c r="G75" s="120">
+        <v>100</v>
+      </c>
+      <c r="H75" s="10">
+        <v>31</v>
+      </c>
+      <c r="I75" s="12">
+        <f t="shared" si="175"/>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
+      <c r="K75" s="116">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="L75" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q75,$P75,$G75,$I75,$C$3,$J75,$K75,$C$4)*R75</f>
+        <v>-3.5388622989368201</v>
+      </c>
+      <c r="M75" s="15"/>
+      <c r="N75" s="13">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="13">
+        <f>IF(L75&lt;=0,ABS(L75)+N75,L75-N75)</f>
+        <v>3.5388622989368201</v>
+      </c>
+      <c r="P75" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R75" s="10">
+        <f t="shared" si="177"/>
+        <v>-1</v>
+      </c>
+      <c r="S75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T75" s="14">
+        <f t="shared" si="178"/>
+        <v>3.53886229893682E-2</v>
+      </c>
+      <c r="U75" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q75,$P75,$G75,$I75,$C$3,$J75,$K75,$C$4)*R75</f>
+        <v>-0.51684570616359338</v>
+      </c>
+      <c r="V75" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q75,$P75,$G75,$I75,$C$3,$J75,$K75,$C$4)*R75</f>
+        <v>-0.11595185869687441</v>
+      </c>
+      <c r="W75" s="114"/>
+      <c r="X75" s="115">
+        <v>-150338.07269999999</v>
+      </c>
+      <c r="Y75" s="6">
+        <f>X75*U75</f>
+        <v>77701.587347905137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A77" s="131">
+        <v>43280</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" ca="1" si="9"/>
+        <v>43280</v>
+      </c>
+      <c r="F77" s="8">
+        <f t="shared" ref="F77" ca="1" si="179">E77+H77</f>
+        <v>43295</v>
+      </c>
+      <c r="G77" s="120">
+        <v>500</v>
+      </c>
+      <c r="H77" s="10">
+        <v>15</v>
+      </c>
+      <c r="I77" s="12">
+        <f>(H77-2)/365</f>
+        <v>3.5616438356164383E-2</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0</v>
+      </c>
+      <c r="K77" s="116">
+        <v>0.23</v>
+      </c>
+      <c r="L77" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("price",$Q77,$P77,$G77,$I77,$C$3,$J77,$K77,$C$4)*R77</f>
+        <v>1.1128416413665505</v>
+      </c>
+      <c r="M77" s="15"/>
+      <c r="N77" s="13">
+        <f t="shared" ref="N77" si="180">M77/10000*I77*P77</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="13">
+        <f>IF(L77&lt;=0,ABS(L77)+N77,L77-N77)</f>
+        <v>1.1128416413665505</v>
+      </c>
+      <c r="P77" s="11">
+        <f>RTD("wdf.rtq",,D77,"LastPrice")</f>
+        <v>474</v>
+      </c>
+      <c r="Q77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R77" s="10">
+        <f t="shared" ref="R77" si="181">IF(S77="中金买入",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S77" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="T77" s="14">
+        <f t="shared" ref="T77" si="182">O77/P77</f>
+        <v>2.3477671758787987E-3</v>
+      </c>
+      <c r="U77" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("delta",$Q77,$P77,$G77,$I77,$C$3,$J77,$K77,$C$4)*R77</f>
+        <v>0.1133371329679278</v>
+      </c>
+      <c r="V77" s="13">
+        <f>_xll.dnetGBlackScholesNGreeks("vega",$Q77,$P77,$G77,$I77,$C$3,$J77,$K77,$C$4)*R77</f>
+        <v>0.17168510772947343</v>
+      </c>
+      <c r="W77" s="114"/>
+      <c r="X77" s="115">
+        <v>-150338.07269999999</v>
+      </c>
+      <c r="Y77" s="6">
+        <f>X77*U77</f>
+        <v>-17038.886135741894</v>
       </c>
     </row>
   </sheetData>
@@ -15091,19 +16037,19 @@
           <x14:formula1>
             <xm:f>configs!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>S8:S9 S15:S16 S18:S23 S25 S27 S29 S31:S32 S34:S36 S38:S39 S41 S43 S45 S47:S48 S50:S55 S57:S59 S61 S63 S65:S66 S68:S69</xm:sqref>
+          <xm:sqref>S8:S9 S15:S16 S18:S23 S25 S27 S29 S31:S32 S34:S36 S38:S39 S41 S43 S45 S47:S48 S50:S55 S57:S59 S61 S63 S65:S66 S68:S69 S71:S72 S74:S75 S77</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>configs!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:Q9 Q15:Q16 Q18:Q23 Q25 Q27 Q29 Q31:Q32 Q34:Q36 Q38:Q39 Q41 Q43 Q45 Q47:Q48 Q50:Q55 Q57:Q59 Q61 Q63 Q65:Q66 Q68:Q69</xm:sqref>
+          <xm:sqref>Q8:Q9 Q15:Q16 Q18:Q23 Q25 Q27 Q29 Q31:Q32 Q34:Q36 Q38:Q39 Q41 Q43 Q45 Q47:Q48 Q50:Q55 Q57:Q59 Q61 Q63 Q65:Q66 Q68:Q69 Q71:Q72 Q74:Q75 Q77</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>configs!$A$1:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>C8:C9 C15:C16 C18:C23 C25 C27 C29 C31:C32 C34:C36 C38:C39 C41 C43 C45 C47:C48 C50:C55 C57:C59 C61 C63 C65:C66 C68:C69</xm:sqref>
+          <xm:sqref>C8:C9 C15:C16 C18:C23 C25 C27 C29 C31:C32 C34:C36 C38:C39 C41 C43 C45 C47:C48 C50:C55 C57:C59 C61 C63 C65:C66 C68:C69 C71:C72 C74:C75 C77</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15293,11 +16239,11 @@
       </c>
       <c r="E8" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F8" s="46">
         <f ca="1">E8+H8</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G8" s="44">
         <v>100</v>
@@ -15361,11 +16307,11 @@
       </c>
       <c r="E9" s="54">
         <f ca="1">E8</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F9" s="54">
         <f ca="1">F8</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G9" s="52">
         <v>100</v>
@@ -15432,11 +16378,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">E9</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">F9</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G10" s="60" t="str">
         <f>G8 &amp; "|" &amp; G9</f>
@@ -15500,15 +16446,15 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F11" s="46">
         <f ca="1">E11+H11</f>
-        <v>43294</v>
+        <v>43295</v>
       </c>
       <c r="G11" s="113">
         <f>P11-20</f>
-        <v>447.5</v>
+        <v>454</v>
       </c>
       <c r="H11" s="44">
         <v>15</v>
@@ -15525,17 +16471,17 @@
       </c>
       <c r="L11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-3.8444044008002294</v>
+        <v>-3.9665259948253464</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="43"/>
       <c r="O11" s="43">
         <f t="shared" ref="O11:O13" si="1">IF(L11&lt;=0,ABS(L11)+N11,L11-N11)</f>
-        <v>3.8444044008002294</v>
+        <v>3.9665259948253464</v>
       </c>
       <c r="P11" s="110">
         <f>RTD("wdf.rtq",,D11,"LastPrice")</f>
-        <v>467.5</v>
+        <v>474</v>
       </c>
       <c r="Q11" s="44" t="s">
         <v>85</v>
@@ -15550,11 +16496,11 @@
       <c r="T11" s="50"/>
       <c r="U11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>0.22663984182500485</v>
+        <v>0.22968404829271094</v>
       </c>
       <c r="V11" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q11,$P11,$G11,$I11,$C$3,$J11,$K11,$C$4)*R11</f>
-        <v>-0.28523320493926008</v>
+        <v>-0.29137723085755596</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15570,15 +16516,15 @@
       </c>
       <c r="E12" s="54">
         <f t="shared" ref="E12:F12" ca="1" si="2">E11</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F12" s="54">
         <f t="shared" ca="1" si="2"/>
-        <v>43294</v>
+        <v>43295</v>
       </c>
       <c r="G12" s="52">
         <f>G11+50</f>
-        <v>497.5</v>
+        <v>504</v>
       </c>
       <c r="H12" s="52">
         <f>H11</f>
@@ -15597,17 +16543,17 @@
       </c>
       <c r="L12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>2.1104496412957161</v>
+        <v>2.1981419022217494</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51">
         <f t="shared" si="1"/>
-        <v>2.1104496412957161</v>
+        <v>2.1981419022217494</v>
       </c>
       <c r="P12" s="94">
         <f>P11</f>
-        <v>467.5</v>
+        <v>474</v>
       </c>
       <c r="Q12" s="52" t="s">
         <v>39</v>
@@ -15622,11 +16568,11 @@
       <c r="T12" s="58"/>
       <c r="U12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.15171867237171455</v>
+        <v>0.15504759368383247</v>
       </c>
       <c r="V12" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q12,$P12,$G12,$I12,$C$3,$J12,$K12,$C$4)*R12</f>
-        <v>0.22249743647176956</v>
+        <v>0.22885822918517107</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15643,15 +16589,15 @@
       </c>
       <c r="E13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F13" s="62">
         <f t="shared" ca="1" si="3"/>
-        <v>43294</v>
+        <v>43295</v>
       </c>
       <c r="G13" s="60" t="str">
         <f>G11 &amp; "|" &amp; G12</f>
-        <v>447.5|497.5</v>
+        <v>454|504</v>
       </c>
       <c r="H13" s="60">
         <f>H12</f>
@@ -15665,7 +16611,7 @@
       <c r="K13" s="60"/>
       <c r="L13" s="59">
         <f>L12+L11</f>
-        <v>-1.7339547595045133</v>
+        <v>-1.768384092603597</v>
       </c>
       <c r="M13" s="60">
         <v>0</v>
@@ -15676,11 +16622,11 @@
       </c>
       <c r="O13" s="59">
         <f t="shared" si="1"/>
-        <v>1.7339547595045133</v>
+        <v>1.768384092603597</v>
       </c>
       <c r="P13" s="111">
         <f>P12</f>
-        <v>467.5</v>
+        <v>474</v>
       </c>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -15689,15 +16635,15 @@
       </c>
       <c r="T13" s="64">
         <f>O13/P13</f>
-        <v>3.7089941379775684E-3</v>
+        <v>3.7307681278556898E-3</v>
       </c>
       <c r="U13" s="64">
         <f>U12+U11</f>
-        <v>0.3783585141967194</v>
+        <v>0.38473164197654341</v>
       </c>
       <c r="V13" s="64">
         <f>V12+V11</f>
-        <v>-6.2735768467490516E-2</v>
+        <v>-6.2519001672384888E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -15713,11 +16659,11 @@
       </c>
       <c r="E14" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F14" s="46">
         <f ca="1">E14+H14</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G14" s="113">
         <v>3480</v>
@@ -15738,17 +16684,17 @@
       </c>
       <c r="L14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-370.92910321036652</v>
+        <v>-416.80972932495479</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="43"/>
       <c r="O14" s="43">
         <f t="shared" ref="O14:O16" si="4">IF(L14&lt;=0,ABS(L14)+N14,L14-N14)</f>
-        <v>370.92910321036652</v>
+        <v>416.80972932495479</v>
       </c>
       <c r="P14" s="110">
         <f>RTD("wdf.rtq",,D14,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>39</v>
@@ -15763,11 +16709,11 @@
       <c r="T14" s="50"/>
       <c r="U14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-0.7097510685071029</v>
+        <v>-0.74625604711400229</v>
       </c>
       <c r="V14" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q14,$P14,$G14,$I14,$C$3,$J14,$K14,$C$4)*R14</f>
-        <v>-6.3322827404419968</v>
+        <v>-6.0096455670648083</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15784,11 +16730,11 @@
       </c>
       <c r="E15" s="54">
         <f t="shared" ref="E15:F15" ca="1" si="5">E14</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F15" s="54">
         <f t="shared" ca="1" si="5"/>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G15" s="52">
         <v>3280</v>
@@ -15810,17 +16756,17 @@
       </c>
       <c r="L15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>44.867679311980964</v>
+        <v>36.023941919032666</v>
       </c>
       <c r="M15" s="57"/>
       <c r="N15" s="51"/>
       <c r="O15" s="51">
         <f t="shared" si="4"/>
-        <v>44.867679311980964</v>
+        <v>36.023941919032666</v>
       </c>
       <c r="P15" s="94">
         <f>P14</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q15" s="52" t="s">
         <v>85</v>
@@ -15835,11 +16781,11 @@
       <c r="T15" s="58"/>
       <c r="U15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>-0.15397812575770331</v>
+        <v>-0.12741737769204065</v>
       </c>
       <c r="V15" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q15,$P15,$G15,$I15,$C$3,$J15,$K15,$C$4)*R15</f>
-        <v>4.4259225987977402</v>
+        <v>3.957821750328236</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15856,11 +16802,11 @@
       </c>
       <c r="E16" s="62">
         <f t="shared" ref="E16:F16" ca="1" si="6">E15</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F16" s="62">
         <f t="shared" ca="1" si="6"/>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="G16" s="60" t="str">
         <f>G14 &amp; "|" &amp; G15</f>
@@ -15878,7 +16824,7 @@
       <c r="K16" s="60"/>
       <c r="L16" s="59">
         <f>L15+L14</f>
-        <v>-326.06142389838556</v>
+        <v>-380.78578740592212</v>
       </c>
       <c r="M16" s="60">
         <v>0</v>
@@ -15889,11 +16835,11 @@
       </c>
       <c r="O16" s="59">
         <f t="shared" si="4"/>
-        <v>326.06142389838556</v>
+        <v>380.78578740592212</v>
       </c>
       <c r="P16" s="111">
         <f>P15</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -15902,15 +16848,15 @@
       </c>
       <c r="T16" s="64">
         <f>O16/P16</f>
-        <v>8.7089055528414949E-2</v>
+        <v>0.10002253412291098</v>
       </c>
       <c r="U16" s="64">
         <f>U15+U14</f>
-        <v>-0.86372919426480621</v>
+        <v>-0.87367342480604293</v>
       </c>
       <c r="V16" s="64">
         <f>V15+V14</f>
-        <v>-1.9063601416442566</v>
+        <v>-2.0518238167365723</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -15927,11 +16873,11 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F18" s="46">
         <f ca="1">E18+H18</f>
-        <v>43310</v>
+        <v>43311</v>
       </c>
       <c r="G18" s="118">
         <v>3000</v>
@@ -15951,17 +16897,17 @@
       </c>
       <c r="L18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>16.104642162170762</v>
+        <v>12.404507795144525</v>
       </c>
       <c r="M18" s="49"/>
       <c r="N18" s="43"/>
       <c r="O18" s="43">
         <f t="shared" ref="O18:O20" si="7">IF(L18&lt;=0,ABS(L18)+N18,L18-N18)</f>
-        <v>16.104642162170762</v>
+        <v>12.404507795144525</v>
       </c>
       <c r="P18" s="110">
         <f>RTD("wdf.rtq",,D18,"LastPrice")</f>
-        <v>3119</v>
+        <v>3140</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>85</v>
@@ -15976,11 +16922,11 @@
       <c r="T18" s="50"/>
       <c r="U18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>-0.19523425941088135</v>
+        <v>-0.15802974092196109</v>
       </c>
       <c r="V18" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q18,$P18,$G18,$I18,$C$3,$J18,$K18,$C$4)*R18</f>
-        <v>2.5036484910609147</v>
+        <v>2.2044182962774528</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -15997,11 +16943,11 @@
       </c>
       <c r="E19" s="54">
         <f t="shared" ref="E19:F19" ca="1" si="8">E18</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F19" s="54">
         <f t="shared" ca="1" si="8"/>
-        <v>43310</v>
+        <v>43311</v>
       </c>
       <c r="G19" s="119">
         <v>3280</v>
@@ -16023,17 +16969,17 @@
       </c>
       <c r="L19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-15.063056345480618</v>
+        <v>-19.099323345242624</v>
       </c>
       <c r="M19" s="57"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51">
         <f t="shared" si="7"/>
-        <v>15.063056345480618</v>
+        <v>19.099323345242624</v>
       </c>
       <c r="P19" s="94">
         <f>P18</f>
-        <v>3119</v>
+        <v>3140</v>
       </c>
       <c r="Q19" s="52" t="s">
         <v>39</v>
@@ -16048,11 +16994,11 @@
       <c r="T19" s="58"/>
       <c r="U19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-0.17505174846519367</v>
+        <v>-0.20996209241843644</v>
       </c>
       <c r="V19" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q19,$P19,$G19,$I19,$C$3,$J19,$K19,$C$4)*R19</f>
-        <v>-2.3397755722922398</v>
+        <v>-2.6330070114084378</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16069,11 +17015,11 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" ref="E20:F20" ca="1" si="9">E19</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F20" s="62">
         <f t="shared" ca="1" si="9"/>
-        <v>43310</v>
+        <v>43311</v>
       </c>
       <c r="G20" s="60" t="str">
         <f>G18 &amp; "|" &amp; G19</f>
@@ -16091,7 +17037,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="59">
         <f>L19+L18</f>
-        <v>1.0415858166901444</v>
+        <v>-6.6948155500980988</v>
       </c>
       <c r="M20" s="60">
         <v>0</v>
@@ -16102,26 +17048,26 @@
       </c>
       <c r="O20" s="59">
         <f t="shared" si="7"/>
-        <v>1.0415858166901444</v>
+        <v>6.6948155500980988</v>
       </c>
       <c r="P20" s="111">
         <f>P19</f>
-        <v>3119</v>
+        <v>3140</v>
       </c>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="56"/>
       <c r="T20" s="64">
         <f>O20/P20</f>
-        <v>3.3394864273489719E-4</v>
+        <v>2.1321068630885667E-3</v>
       </c>
       <c r="U20" s="64">
         <f>U19+U18</f>
-        <v>-0.37028600787607502</v>
+        <v>-0.36799183334039753</v>
       </c>
       <c r="V20" s="64">
         <f>V19+V18</f>
-        <v>0.16387291876867494</v>
+        <v>-0.42858871513098507</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -16137,11 +17083,11 @@
       </c>
       <c r="E21" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F21" s="46">
         <f ca="1">E21+H21</f>
-        <v>43371</v>
+        <v>43372</v>
       </c>
       <c r="G21" s="118">
         <v>3000</v>
@@ -16161,17 +17107,17 @@
       </c>
       <c r="L21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>49.534999339747969</v>
+        <v>43.56610447287926</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43">
         <f t="shared" ref="O21:O23" si="10">IF(L21&lt;=0,ABS(L21)+N21,L21-N21)</f>
-        <v>49.534999339747969</v>
+        <v>43.56610447287926</v>
       </c>
       <c r="P21" s="110">
         <f>RTD("wdf.rtq",,D21,"LastPrice")</f>
-        <v>3119</v>
+        <v>3140</v>
       </c>
       <c r="Q21" s="44" t="s">
         <v>85</v>
@@ -16186,11 +17132,11 @@
       <c r="T21" s="50"/>
       <c r="U21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>-0.29848132839447317</v>
+        <v>-0.27023901415077489</v>
       </c>
       <c r="V21" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q21,$P21,$G21,$I21,$C$3,$J21,$K21,$C$4)*R21</f>
-        <v>5.4147408506128727</v>
+        <v>5.1986377685569778</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16207,11 +17153,11 @@
       </c>
       <c r="E22" s="54">
         <f t="shared" ref="E22:F22" ca="1" si="11">E21</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F22" s="54">
         <f t="shared" ca="1" si="11"/>
-        <v>43371</v>
+        <v>43372</v>
       </c>
       <c r="G22" s="119">
         <v>3280</v>
@@ -16233,17 +17179,17 @@
       </c>
       <c r="L22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-51.965935156969977</v>
+        <v>-58.601507610484873</v>
       </c>
       <c r="M22" s="57"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51">
         <f t="shared" si="10"/>
-        <v>51.965935156969977</v>
+        <v>58.601507610484873</v>
       </c>
       <c r="P22" s="94">
         <f>P21</f>
-        <v>3119</v>
+        <v>3140</v>
       </c>
       <c r="Q22" s="52" t="s">
         <v>39</v>
@@ -16258,11 +17204,11 @@
       <c r="T22" s="58"/>
       <c r="U22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-0.3028772439279237</v>
+        <v>-0.32920721944265097</v>
       </c>
       <c r="V22" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q22,$P22,$G22,$I22,$C$3,$J22,$K22,$C$4)*R22</f>
-        <v>-5.450351718223601</v>
+        <v>-5.6844398894754704</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16279,11 +17225,11 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" ref="E23:F23" ca="1" si="12">E22</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F23" s="62">
         <f t="shared" ca="1" si="12"/>
-        <v>43371</v>
+        <v>43372</v>
       </c>
       <c r="G23" s="60" t="str">
         <f>G21 &amp; "|" &amp; G22</f>
@@ -16301,7 +17247,7 @@
       <c r="K23" s="60"/>
       <c r="L23" s="59">
         <f>L22+L21</f>
-        <v>-2.4309358172220072</v>
+        <v>-15.035403137605613</v>
       </c>
       <c r="M23" s="60">
         <v>0</v>
@@ -16312,26 +17258,26 @@
       </c>
       <c r="O23" s="59">
         <f t="shared" si="10"/>
-        <v>2.4309358172220072</v>
+        <v>15.035403137605613</v>
       </c>
       <c r="P23" s="111">
         <f>P22</f>
-        <v>3119</v>
+        <v>3140</v>
       </c>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="56"/>
       <c r="T23" s="64">
         <f>O23/P23</f>
-        <v>7.7939590164219537E-4</v>
+        <v>4.7883449482820422E-3</v>
       </c>
       <c r="U23" s="64">
         <f>U22+U21</f>
-        <v>-0.60135857232239687</v>
+        <v>-0.59944623359342586</v>
       </c>
       <c r="V23" s="64">
         <f>V22+V21</f>
-        <v>-3.5610867610728292E-2</v>
+        <v>-0.48580212091849262</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -16348,11 +17294,11 @@
       </c>
       <c r="E26" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F26" s="46">
         <f ca="1">E26+H26</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G26" s="118">
         <v>3500</v>
@@ -16373,17 +17319,17 @@
       </c>
       <c r="L26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>25.478976108117308</v>
+        <v>16.535356785875877</v>
       </c>
       <c r="M26" s="49"/>
       <c r="N26" s="43"/>
       <c r="O26" s="43">
         <f t="shared" ref="O26:O31" si="13">IF(L26&lt;=0,ABS(L26)+N26,L26-N26)</f>
-        <v>25.478976108117308</v>
+        <v>16.535356785875877</v>
       </c>
       <c r="P26" s="110">
         <f>RTD("wdf.rtq",,D26,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q26" s="44" t="s">
         <v>85</v>
@@ -16398,11 +17344,11 @@
       <c r="T26" s="50"/>
       <c r="U26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>-0.16865706862745355</v>
+        <v>-0.11749154349161017</v>
       </c>
       <c r="V26" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q26,$P26,$G26,$I26,$C$3,$J26,$K26,$C$4)*R26</f>
-        <v>2.6995570117427405</v>
+        <v>2.1487091370560734</v>
       </c>
     </row>
     <row r="27" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16419,11 +17365,11 @@
       </c>
       <c r="E27" s="54">
         <f t="shared" ref="E27:F27" ca="1" si="14">E26</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F27" s="54">
         <f t="shared" ca="1" si="14"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G27" s="119">
         <v>3900</v>
@@ -16445,17 +17391,17 @@
       </c>
       <c r="L27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-61.665229980703543</v>
+        <v>-84.371884281784332</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="51"/>
       <c r="O27" s="51">
         <f t="shared" si="13"/>
-        <v>61.665229980703543</v>
+        <v>84.371884281784332</v>
       </c>
       <c r="P27" s="94">
         <f>RTD("wdf.rtq",,D27,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>39</v>
@@ -16470,11 +17416,11 @@
       <c r="T27" s="58"/>
       <c r="U27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-0.3226719849408255</v>
+        <v>-0.39888592792749478</v>
       </c>
       <c r="V27" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q27,$P27,$G27,$I27,$C$3,$J27,$K27,$C$4)*R27</f>
-        <v>-3.8475433857978487</v>
+        <v>-4.2082557664928117</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16491,11 +17437,11 @@
       </c>
       <c r="E28" s="62">
         <f t="shared" ref="E28:F28" ca="1" si="15">E27</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F28" s="62">
         <f t="shared" ca="1" si="15"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G28" s="60" t="str">
         <f>G26 &amp; "|" &amp; G27</f>
@@ -16513,7 +17459,7 @@
       <c r="K28" s="60"/>
       <c r="L28" s="59">
         <f>L27+L26</f>
-        <v>-36.186253872586235</v>
+        <v>-67.836527495908456</v>
       </c>
       <c r="M28" s="60">
         <v>0</v>
@@ -16524,26 +17470,26 @@
       </c>
       <c r="O28" s="59">
         <f t="shared" si="13"/>
-        <v>36.186253872586235</v>
+        <v>67.836527495908456</v>
       </c>
       <c r="P28" s="111">
         <f>RTD("wdf.rtq",,D28,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
       <c r="S28" s="56"/>
       <c r="T28" s="64">
         <f>O28/P28</f>
-        <v>9.6651319104129902E-3</v>
+        <v>1.7818893484609525E-2</v>
       </c>
       <c r="U28" s="64">
         <f>U27+U26</f>
-        <v>-0.49132905356827905</v>
+        <v>-0.51637747141910495</v>
       </c>
       <c r="V28" s="64">
         <f>V27+V26</f>
-        <v>-1.1479863740551082</v>
+        <v>-2.0595466294367384</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -16559,11 +17505,11 @@
       </c>
       <c r="E29" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F29" s="46">
         <f ca="1">E29+H29</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G29" s="118">
         <v>3400</v>
@@ -16584,17 +17530,17 @@
       </c>
       <c r="L29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>11.395437864442556</v>
+        <v>6.9107779014745745</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="43"/>
       <c r="O29" s="43">
         <f t="shared" si="13"/>
-        <v>11.395437864442556</v>
+        <v>6.9107779014745745</v>
       </c>
       <c r="P29" s="110">
         <f>RTD("wdf.rtq",,D29,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q29" s="44" t="s">
         <v>85</v>
@@ -16609,11 +17555,11 @@
       <c r="T29" s="50"/>
       <c r="U29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>-8.7581147326432074E-2</v>
+        <v>-5.6600239039994449E-2</v>
       </c>
       <c r="V29" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q29,$P29,$G29,$I29,$C$3,$J29,$K29,$C$4)*R29</f>
-        <v>1.7063756424374787</v>
+        <v>1.2410216079638872</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16630,11 +17576,11 @@
       </c>
       <c r="E30" s="54">
         <f t="shared" ref="E30:F30" ca="1" si="16">E29</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F30" s="54">
         <f t="shared" ca="1" si="16"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G30" s="119">
         <v>3800</v>
@@ -16656,17 +17602,17 @@
       </c>
       <c r="L30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-96.782499026365713</v>
+        <v>-127.2678249222613</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="51"/>
       <c r="O30" s="51">
         <f t="shared" si="13"/>
-        <v>96.782499026365713</v>
+        <v>127.2678249222613</v>
       </c>
       <c r="P30" s="94">
         <f>RTD("wdf.rtq",,D30,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q30" s="52" t="s">
         <v>39</v>
@@ -16681,11 +17627,11 @@
       <c r="T30" s="58"/>
       <c r="U30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-0.44326463413426609</v>
+        <v>-0.52440450657513793</v>
       </c>
       <c r="V30" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q30,$P30,$G30,$I30,$C$3,$J30,$K30,$C$4)*R30</f>
-        <v>-4.2328153007977107</v>
+        <v>-4.3383113164403539</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16702,11 +17648,11 @@
       </c>
       <c r="E31" s="62">
         <f t="shared" ref="E31:F31" ca="1" si="17">E30</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F31" s="62">
         <f t="shared" ca="1" si="17"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G31" s="60" t="str">
         <f>G29 &amp; "|" &amp; G30</f>
@@ -16724,7 +17670,7 @@
       <c r="K31" s="60"/>
       <c r="L31" s="59">
         <f>L30+L29</f>
-        <v>-85.387061161923157</v>
+        <v>-120.35704702078672</v>
       </c>
       <c r="M31" s="60">
         <v>0</v>
@@ -16735,26 +17681,26 @@
       </c>
       <c r="O31" s="59">
         <f t="shared" si="13"/>
-        <v>85.387061161923157</v>
+        <v>120.35704702078672</v>
       </c>
       <c r="P31" s="111">
         <f>RTD("wdf.rtq",,D31,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
       <c r="S31" s="56"/>
       <c r="T31" s="64">
         <f>O31/P31</f>
-        <v>2.2806373173590588E-2</v>
+        <v>3.1614669561541034E-2</v>
       </c>
       <c r="U31" s="64">
         <f>U30+U29</f>
-        <v>-0.53084578146069816</v>
+        <v>-0.58100474561513238</v>
       </c>
       <c r="V31" s="64">
         <f>V30+V29</f>
-        <v>-2.526439658360232</v>
+        <v>-3.0972897084764668</v>
       </c>
     </row>
     <row r="32" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -16770,11 +17716,11 @@
       </c>
       <c r="E32" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F32" s="46">
         <f ca="1">E32+H32</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G32" s="118">
         <v>3300</v>
@@ -16795,17 +17741,17 @@
       </c>
       <c r="L32" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>4.3927180466899358</v>
+        <v>2.4749567329635198</v>
       </c>
       <c r="M32" s="49"/>
       <c r="N32" s="43"/>
       <c r="O32" s="43">
         <f t="shared" ref="O32:O34" si="18">IF(L32&lt;=0,ABS(L32)+N32,L32-N32)</f>
-        <v>4.3927180466899358</v>
+        <v>2.4749567329635198</v>
       </c>
       <c r="P32" s="110">
         <f>RTD("wdf.rtq",,D32,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q32" s="44" t="s">
         <v>85</v>
@@ -16820,11 +17766,11 @@
       <c r="T32" s="50"/>
       <c r="U32" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>-3.886546345484021E-2</v>
+        <v>-2.3174683337146007E-2</v>
       </c>
       <c r="V32" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q32,$P32,$G32,$I32,$C$3,$J32,$K32,$C$4)*R32</f>
-        <v>0.90327539532697898</v>
+        <v>0.59884973488519933</v>
       </c>
     </row>
     <row r="33" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -16841,11 +17787,11 @@
       </c>
       <c r="E33" s="54">
         <f t="shared" ref="E33:F33" ca="1" si="19">E32</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F33" s="54">
         <f t="shared" ca="1" si="19"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G33" s="119">
         <v>4000</v>
@@ -16867,17 +17813,17 @@
       </c>
       <c r="L33" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-37.29860925148455</v>
+        <v>-53.211651688145139</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="51"/>
       <c r="O33" s="51">
         <f t="shared" si="18"/>
-        <v>37.29860925148455</v>
+        <v>53.211651688145139</v>
       </c>
       <c r="P33" s="94">
         <f>RTD("wdf.rtq",,D33,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q33" s="52" t="s">
         <v>39</v>
@@ -16892,11 +17838,11 @@
       <c r="T33" s="58"/>
       <c r="U33" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-0.22069570716212183</v>
+        <v>-0.28577306133001912</v>
       </c>
       <c r="V33" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q33,$P33,$G33,$I33,$C$3,$J33,$K33,$C$4)*R33</f>
-        <v>-3.1806989175225908</v>
+        <v>-3.7062682836026966</v>
       </c>
     </row>
     <row r="34" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16913,11 +17859,11 @@
       </c>
       <c r="E34" s="62">
         <f t="shared" ref="E34:F34" ca="1" si="20">E33</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F34" s="62">
         <f t="shared" ca="1" si="20"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="G34" s="60" t="str">
         <f>G32 &amp; "|" &amp; G33</f>
@@ -16935,37 +17881,37 @@
       <c r="K34" s="60"/>
       <c r="L34" s="59">
         <f>L33+L32</f>
-        <v>-32.905891204794614</v>
+        <v>-50.736694955181619</v>
       </c>
       <c r="M34" s="60">
         <v>50</v>
       </c>
       <c r="N34" s="59">
         <f>M34/10000*I34*P34</f>
-        <v>1.5386301369863014</v>
+        <v>1.5645205479452053</v>
       </c>
       <c r="O34" s="59">
         <f t="shared" si="18"/>
-        <v>34.444521341780913</v>
+        <v>52.301215503126826</v>
       </c>
       <c r="P34" s="111">
         <f>RTD("wdf.rtq",,D34,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q34" s="60"/>
       <c r="R34" s="60"/>
       <c r="S34" s="56"/>
       <c r="T34" s="64">
         <f>O34/P34</f>
-        <v>9.1999255720568683E-3</v>
+        <v>1.3738170607598325E-2</v>
       </c>
       <c r="U34" s="64">
         <f>U33+U32</f>
-        <v>-0.25956117061696204</v>
+        <v>-0.30894774466716513</v>
       </c>
       <c r="V34" s="64">
         <f>V33+V32</f>
-        <v>-2.2774235221956118</v>
+        <v>-3.1074185487174972</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -16982,11 +17928,11 @@
       </c>
       <c r="E36" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F36" s="46">
         <f ca="1">E36+H36</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G36" s="118">
         <v>3500</v>
@@ -17007,17 +17953,17 @@
       </c>
       <c r="L36" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>82.595695825258872</v>
+        <v>66.870042492322909</v>
       </c>
       <c r="M36" s="49"/>
       <c r="N36" s="43"/>
       <c r="O36" s="43">
         <f t="shared" ref="O36:O44" si="21">IF(L36&lt;=0,ABS(L36)+N36,L36-N36)</f>
-        <v>82.595695825258872</v>
+        <v>66.870042492322909</v>
       </c>
       <c r="P36" s="110">
         <f>RTD("wdf.rtq",,D36,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q36" s="44" t="s">
         <v>85</v>
@@ -17032,11 +17978,11 @@
       <c r="T36" s="50"/>
       <c r="U36" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>-0.27127027400410952</v>
+        <v>-0.22871550747254332</v>
       </c>
       <c r="V36" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q36,$P36,$G36,$I36,$C$3,$J36,$K36,$C$4)*R36</f>
-        <v>6.1449988574830172</v>
+        <v>5.7080518170559458</v>
       </c>
     </row>
     <row r="37" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -17053,11 +17999,11 @@
       </c>
       <c r="E37" s="54">
         <f t="shared" ref="E37:F37" ca="1" si="22">E36</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F37" s="54">
         <f t="shared" ca="1" si="22"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G37" s="119">
         <v>3900</v>
@@ -17079,17 +18025,17 @@
       </c>
       <c r="L37" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-142.17432876397629</v>
+        <v>-169.44075305872798</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="51"/>
       <c r="O37" s="51">
         <f t="shared" si="21"/>
-        <v>142.17432876397629</v>
+        <v>169.44075305872798</v>
       </c>
       <c r="P37" s="94">
         <f>RTD("wdf.rtq",,D37,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q37" s="52" t="s">
         <v>39</v>
@@ -17104,11 +18050,11 @@
       <c r="T37" s="58"/>
       <c r="U37" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-0.40932213885298552</v>
+        <v>-0.45630205611359997</v>
       </c>
       <c r="V37" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q37,$P37,$G37,$I37,$C$3,$J37,$K37,$C$4)*R37</f>
-        <v>-7.196998996800744</v>
+        <v>-7.463895992190146</v>
       </c>
     </row>
     <row r="38" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17125,11 +18071,11 @@
       </c>
       <c r="E38" s="62">
         <f t="shared" ref="E38:F38" ca="1" si="23">E37</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F38" s="62">
         <f t="shared" ca="1" si="23"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G38" s="60" t="str">
         <f>G36 &amp; "|" &amp; G37</f>
@@ -17147,7 +18093,7 @@
       <c r="K38" s="60"/>
       <c r="L38" s="59">
         <f>L37+L36</f>
-        <v>-59.578632938717419</v>
+        <v>-102.57071056640507</v>
       </c>
       <c r="M38" s="60">
         <v>0</v>
@@ -17158,26 +18104,26 @@
       </c>
       <c r="O38" s="59">
         <f t="shared" si="21"/>
-        <v>59.578632938717419</v>
+        <v>102.57071056640507</v>
       </c>
       <c r="P38" s="111">
         <f>RTD("wdf.rtq",,D38,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q38" s="60"/>
       <c r="R38" s="60"/>
       <c r="S38" s="56"/>
       <c r="T38" s="64">
         <f>O38/P38</f>
-        <v>1.5913096404571961E-2</v>
+        <v>2.694266103661809E-2</v>
       </c>
       <c r="U38" s="64">
         <f>U37+U36</f>
-        <v>-0.68059241285709504</v>
+        <v>-0.6850175635861433</v>
       </c>
       <c r="V38" s="64">
         <f>V37+V36</f>
-        <v>-1.0520001393177267</v>
+        <v>-1.7558441751342002</v>
       </c>
     </row>
     <row r="39" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -17193,11 +18139,11 @@
       </c>
       <c r="E39" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F39" s="46">
         <f ca="1">E39+H39</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G39" s="118">
         <v>3400</v>
@@ -17218,17 +18164,17 @@
       </c>
       <c r="L39" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>57.772015896999847</v>
+        <v>46.063844536111787</v>
       </c>
       <c r="M39" s="49"/>
       <c r="N39" s="43"/>
       <c r="O39" s="43">
         <f t="shared" si="21"/>
-        <v>57.772015896999847</v>
+        <v>46.063844536111787</v>
       </c>
       <c r="P39" s="110">
         <f>RTD("wdf.rtq",,D39,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q39" s="44" t="s">
         <v>85</v>
@@ -17243,11 +18189,11 @@
       <c r="T39" s="50"/>
       <c r="U39" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>-0.20383203828941987</v>
+        <v>-0.1686414306846018</v>
       </c>
       <c r="V39" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q39,$P39,$G39,$I39,$C$3,$J39,$K39,$C$4)*R39</f>
-        <v>5.2519444986178883</v>
+        <v>4.7486519798039808</v>
       </c>
     </row>
     <row r="40" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -17264,11 +18210,11 @@
       </c>
       <c r="E40" s="54">
         <f t="shared" ref="E40:F40" ca="1" si="24">E39</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F40" s="54">
         <f t="shared" ca="1" si="24"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G40" s="119">
         <v>3800</v>
@@ -17290,17 +18236,17 @@
       </c>
       <c r="L40" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>-185.03716042436599</v>
+        <v>-217.00634317709978</v>
       </c>
       <c r="M40" s="57"/>
       <c r="N40" s="51"/>
       <c r="O40" s="51">
         <f t="shared" si="21"/>
-        <v>185.03716042436599</v>
+        <v>217.00634317709978</v>
       </c>
       <c r="P40" s="94">
         <f>RTD("wdf.rtq",,D40,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q40" s="52" t="s">
         <v>39</v>
@@ -17315,11 +18261,11 @@
       <c r="T40" s="58"/>
       <c r="U40" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>-0.48398738748574033</v>
+        <v>-0.53075441691134984</v>
       </c>
       <c r="V40" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q40,$P40,$G40,$I40,$C$3,$J40,$K40,$C$4)*R40</f>
-        <v>-7.3760256747226549</v>
+        <v>-7.4782835013506883</v>
       </c>
     </row>
     <row r="41" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17336,11 +18282,11 @@
       </c>
       <c r="E41" s="62">
         <f t="shared" ref="E41:F41" ca="1" si="25">E40</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F41" s="62">
         <f t="shared" ca="1" si="25"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G41" s="60" t="str">
         <f>G39 &amp; "|" &amp; G40</f>
@@ -17358,7 +18304,7 @@
       <c r="K41" s="60"/>
       <c r="L41" s="59">
         <f>L40+L39</f>
-        <v>-127.26514452736615</v>
+        <v>-170.94249864098799</v>
       </c>
       <c r="M41" s="60">
         <v>0</v>
@@ -17369,26 +18315,26 @@
       </c>
       <c r="O41" s="59">
         <f t="shared" si="21"/>
-        <v>127.26514452736615</v>
+        <v>170.94249864098799</v>
       </c>
       <c r="P41" s="111">
         <f>RTD("wdf.rtq",,D41,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q41" s="60"/>
       <c r="R41" s="60"/>
       <c r="S41" s="56"/>
       <c r="T41" s="64">
         <f>O41/P41</f>
-        <v>3.3991758687864887E-2</v>
+        <v>4.4902153569999471E-2</v>
       </c>
       <c r="U41" s="64">
         <f>U40+U39</f>
-        <v>-0.6878194257751602</v>
+        <v>-0.69939584759595164</v>
       </c>
       <c r="V41" s="64">
         <f>V40+V39</f>
-        <v>-2.1240811761047667</v>
+        <v>-2.7296315215467075</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="95" customFormat="1" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -17404,11 +18350,11 @@
       </c>
       <c r="E42" s="46">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F42" s="46">
         <f ca="1">E42+H42</f>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G42" s="118">
         <v>3300</v>
@@ -17429,17 +18375,17 @@
       </c>
       <c r="L42" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>34.987569152232254</v>
+        <v>27.087906321664434</v>
       </c>
       <c r="M42" s="49"/>
       <c r="N42" s="43"/>
       <c r="O42" s="43">
         <f t="shared" si="21"/>
-        <v>34.987569152232254</v>
+        <v>27.087906321664434</v>
       </c>
       <c r="P42" s="110">
         <f>RTD("wdf.rtq",,D42,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q42" s="44" t="s">
         <v>85</v>
@@ -17454,11 +18400,11 @@
       <c r="T42" s="50"/>
       <c r="U42" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>-0.13962236662337091</v>
+        <v>-0.11194743524072237</v>
       </c>
       <c r="V42" s="43">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q42,$P42,$G42,$I42,$C$3,$J42,$K42,$C$4)*R42</f>
-        <v>4.121637944380069</v>
+        <v>3.5924203731933915</v>
       </c>
     </row>
     <row r="43" spans="1:22" s="95" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -17475,11 +18421,11 @@
       </c>
       <c r="E43" s="54">
         <f t="shared" ref="E43:F43" ca="1" si="26">E42</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F43" s="54">
         <f t="shared" ca="1" si="26"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G43" s="119">
         <v>4000</v>
@@ -17501,17 +18447,17 @@
       </c>
       <c r="L43" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("price",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
-        <v>-109.84008079814271</v>
+        <v>-132.70619476100751</v>
       </c>
       <c r="M43" s="57"/>
       <c r="N43" s="51"/>
       <c r="O43" s="51">
         <f t="shared" si="21"/>
-        <v>109.84008079814271</v>
+        <v>132.70619476100751</v>
       </c>
       <c r="P43" s="94">
         <f>RTD("wdf.rtq",,D43,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q43" s="52" t="s">
         <v>39</v>
@@ -17526,11 +18472,11 @@
       <c r="T43" s="58"/>
       <c r="U43" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("delta",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
-        <v>-0.34062209111880293</v>
+        <v>-0.38547192613123116</v>
       </c>
       <c r="V43" s="51">
         <f>_xll.dnetGBlackScholesNGreeks("vega",$Q43,$P43,$G43,$I43,$C$3,$J43,$K43,$C$4)*R43</f>
-        <v>-6.7950917292854456</v>
+        <v>-7.2029459838033745</v>
       </c>
     </row>
     <row r="44" spans="1:22" s="98" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17547,11 +18493,11 @@
       </c>
       <c r="E44" s="62">
         <f t="shared" ref="E44:F44" ca="1" si="27">E43</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="F44" s="62">
         <f t="shared" ca="1" si="27"/>
-        <v>43369</v>
+        <v>43370</v>
       </c>
       <c r="G44" s="60" t="str">
         <f>G42 &amp; "|" &amp; G43</f>
@@ -17569,37 +18515,37 @@
       <c r="K44" s="60"/>
       <c r="L44" s="59">
         <f>L43+L42</f>
-        <v>-74.852511645910454</v>
+        <v>-105.61828843934308</v>
       </c>
       <c r="M44" s="60">
         <v>50</v>
       </c>
       <c r="N44" s="59">
         <f>M44/10000*I44*P44</f>
-        <v>4.6158904109589036</v>
+        <v>4.6935616438356167</v>
       </c>
       <c r="O44" s="59">
         <f t="shared" si="21"/>
-        <v>79.468402056869351</v>
+        <v>110.3118500831787</v>
       </c>
       <c r="P44" s="111">
         <f>RTD("wdf.rtq",,D44,"LastPrice")</f>
-        <v>3744</v>
+        <v>3807</v>
       </c>
       <c r="Q44" s="60"/>
       <c r="R44" s="60"/>
       <c r="S44" s="56"/>
       <c r="T44" s="64">
         <f>O44/P44</f>
-        <v>2.1225534737411685E-2</v>
+        <v>2.897605728478558E-2</v>
       </c>
       <c r="U44" s="64">
         <f>U43+U42</f>
-        <v>-0.48024445774217384</v>
+        <v>-0.49741936137195353</v>
       </c>
       <c r="V44" s="64">
         <f>V43+V42</f>
-        <v>-2.6734537849053766</v>
+        <v>-3.610525610609983</v>
       </c>
     </row>
   </sheetData>
@@ -17955,11 +18901,11 @@
       </c>
       <c r="K10" s="38">
         <f ca="1">pricer_sf!M11</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="L10" s="38">
         <f ca="1">pricer_sf!N11</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="M10" s="10">
         <f>pricer_sf!O11</f>
@@ -18037,11 +18983,11 @@
       </c>
       <c r="K11" s="38">
         <f ca="1">pricer_sf!M12</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="L11" s="38">
         <f ca="1">pricer_sf!N12</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="M11" s="10">
         <f>pricer_sf!O12</f>
@@ -18119,11 +19065,11 @@
       </c>
       <c r="K12" s="38">
         <f ca="1">pricer_sf!M13</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="L12" s="38">
         <f ca="1">pricer_sf!N13</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="M12" s="10">
         <f>pricer_sf!O13</f>
@@ -18201,11 +19147,11 @@
       </c>
       <c r="K13" s="38">
         <f ca="1">pricer_sf!M14</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="L13" s="38">
         <f ca="1">pricer_sf!N14</f>
-        <v>43462</v>
+        <v>43463</v>
       </c>
       <c r="M13" s="10">
         <f>pricer_sf!O14</f>
@@ -18283,11 +19229,11 @@
       </c>
       <c r="K14" s="38">
         <f ca="1">pricer_sf!M15</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">pricer_sf!N15</f>
-        <v>43462</v>
+        <v>43463</v>
       </c>
       <c r="M14" s="10">
         <f>pricer_sf!O15</f>
@@ -18363,11 +19309,11 @@
       </c>
       <c r="K15" s="38">
         <f ca="1">pricer_sf!M16</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="L15" s="38">
         <f ca="1">pricer_sf!N16</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="M15" s="10">
         <v>30</v>
@@ -19220,11 +20166,11 @@
       </c>
       <c r="M8" s="21">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="N8" s="21">
         <f ca="1">M8+O8</f>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="O8" s="19">
         <v>30</v>
@@ -19306,11 +20252,11 @@
       </c>
       <c r="M9" s="8">
         <f ca="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="N9" s="8">
         <f ca="1">M9+O9</f>
-        <v>43459</v>
+        <v>43460</v>
       </c>
       <c r="O9" s="10">
         <v>180</v>
@@ -19418,11 +20364,11 @@
       </c>
       <c r="M11" s="8">
         <f t="shared" ref="M11:M16" ca="1" si="1">TODAY()</f>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ref="N11:N16" ca="1" si="2">M11+O11</f>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="O11" s="10">
         <v>91</v>
@@ -19505,11 +20451,11 @@
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="O12" s="10">
         <v>91</v>
@@ -19592,11 +20538,11 @@
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43370</v>
+        <v>43371</v>
       </c>
       <c r="O13" s="10">
         <v>91</v>
@@ -19679,11 +20625,11 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43462</v>
+        <v>43463</v>
       </c>
       <c r="O14" s="10">
         <v>183</v>
@@ -19766,11 +20712,11 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43462</v>
+        <v>43463</v>
       </c>
       <c r="O15" s="10">
         <v>183</v>
@@ -19853,11 +20799,11 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>43279</v>
+        <v>43280</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>43309</v>
+        <v>43310</v>
       </c>
       <c r="O16" s="10">
         <v>30</v>
